--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6084B0-1A95-46F8-9FCE-C5A0B183768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33179BC-2A4D-4AC3-B4B2-733A629BD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="298">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -183,9 +183,6 @@
     <t>Winner</t>
   </si>
   <si>
-    <t>HULL</t>
-  </si>
-  <si>
     <t>PLYMOUTH</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
     <t>SAMMIE SZMODICS</t>
   </si>
   <si>
-    <t>BLACKBURN</t>
-  </si>
-  <si>
     <t>MICHAEL MELLON</t>
   </si>
   <si>
@@ -690,9 +684,6 @@
     <t>SPORTING HOPE</t>
   </si>
   <si>
-    <t>SEAN MCLOUGHLIN</t>
-  </si>
-  <si>
     <t>DAVIS KEILLOR DUNN</t>
   </si>
   <si>
@@ -919,6 +910,24 @@
   </si>
   <si>
     <t>WEST BROM</t>
+  </si>
+  <si>
+    <t>JOSHUA ZIRKZEE</t>
+  </si>
+  <si>
+    <t>MATTHIJS DE LIGT</t>
+  </si>
+  <si>
+    <t>WILSON ODOBERT</t>
+  </si>
+  <si>
+    <t>JOSH WINDASS</t>
+  </si>
+  <si>
+    <t>JOSH KOROMA</t>
+  </si>
+  <si>
+    <t>SHANE MCLOUGHLIN</t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2850,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -2855,21 +2864,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="81" customWidth="1"/>
     <col min="2" max="2" width="16" style="81" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="81" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="81" customWidth="1"/>
     <col min="6" max="6" width="17" style="81" customWidth="1"/>
     <col min="7" max="8" width="11.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="81" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="81" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="81" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" style="81" customWidth="1"/>
     <col min="13" max="14" width="12" style="81" customWidth="1"/>
@@ -2877,12 +2886,12 @@
     <col min="16" max="17" width="9" style="81" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" style="81" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="81" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.1640625" style="81" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="81" customWidth="1"/>
     <col min="259" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2910,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -2922,7 +2931,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2939,7 +2948,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -2981,20 +2990,20 @@
       <c r="U4" s="116"/>
       <c r="V4" s="116"/>
     </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="14">
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="88"/>
@@ -3010,21 +3019,21 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="112"/>
       <c r="T5" s="111"/>
       <c r="U5" s="112"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -3049,17 +3058,17 @@
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="112"/>
       <c r="T6" s="111"/>
       <c r="U6" s="112"/>
     </row>
-    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3084,26 +3093,26 @@
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S7" s="112"/>
       <c r="T7" s="111"/>
       <c r="U7" s="112"/>
     </row>
-    <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
@@ -3124,27 +3133,27 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="83"/>
       <c r="B10" s="102"/>
       <c r="C10" s="28"/>
@@ -3198,15 +3207,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="116"/>
       <c r="S10" s="116"/>
@@ -3214,16 +3223,16 @@
       <c r="U10" s="116"/>
       <c r="V10" s="116"/>
     </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
       <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="29">
         <v>5</v>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
@@ -3259,16 +3268,16 @@
       <c r="T11" s="111"/>
       <c r="U11" s="112"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
@@ -3290,7 +3299,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
@@ -3298,19 +3307,19 @@
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="29">
         <v>2</v>
@@ -3332,15 +3341,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R13" s="116"/>
       <c r="S13" s="116"/>
@@ -3348,7 +3357,7 @@
       <c r="U13" s="116"/>
       <c r="V13" s="116"/>
     </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3369,21 +3378,21 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S14" s="112"/>
       <c r="T14" s="111"/>
       <c r="U14" s="112"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3404,33 +3413,33 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="29">
         <v>53</v>
       </c>
       <c r="F16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -3446,27 +3455,27 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="B17" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="29">
         <v>11</v>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
@@ -3504,13 +3513,13 @@
       <c r="U17" s="116"/>
       <c r="V17" s="116"/>
     </row>
-    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
       <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>25</v>
@@ -3535,30 +3544,30 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S18" s="112"/>
       <c r="T18" s="111"/>
       <c r="U18" s="112"/>
     </row>
-    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="B19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E19" s="29">
         <v>14</v>
@@ -3576,16 +3585,16 @@
       <c r="N19" s="92"/>
       <c r="O19" s="92"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="83"/>
       <c r="B20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -3608,7 +3617,7 @@
       <c r="U20" s="116"/>
       <c r="V20" s="116"/>
     </row>
-    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -3628,7 +3637,7 @@
       <c r="T21" s="111"/>
       <c r="U21" s="112"/>
     </row>
-    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="83"/>
       <c r="B22" s="102"/>
       <c r="C22" s="102"/>
@@ -3645,7 +3654,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="83"/>
       <c r="B23" s="102"/>
       <c r="C23" s="102"/>
@@ -3662,7 +3671,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -3684,7 +3693,7 @@
       <c r="U24" s="116"/>
       <c r="V24" s="116"/>
     </row>
-    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -3704,7 +3713,7 @@
       <c r="T25" s="111"/>
       <c r="U25" s="112"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3715,7 +3724,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="96"/>
@@ -3727,7 +3736,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3744,7 +3753,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3766,7 +3775,7 @@
       <c r="U28" s="116"/>
       <c r="V28" s="116"/>
     </row>
-    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -3787,7 +3796,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3804,7 +3813,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -3831,20 +3840,20 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="84"/>
       <c r="H32" s="98"/>
@@ -3856,7 +3865,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3873,7 +3882,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -3890,16 +3899,16 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -3917,13 +3926,13 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>39</v>
@@ -3944,7 +3953,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="83"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -3961,16 +3970,16 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83"/>
       <c r="B38" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="29">
         <v>12</v>
@@ -3993,16 +4002,16 @@
       <c r="U38" s="116"/>
       <c r="V38" s="116"/>
     </row>
-    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83"/>
       <c r="B39" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="29">
         <v>5</v>
@@ -4020,7 +4029,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
         <v>17</v>
@@ -4047,7 +4056,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4064,7 +4073,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="83"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4081,13 +4090,13 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="83"/>
       <c r="B43" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>24</v>
@@ -4096,7 +4105,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
@@ -4108,16 +4117,16 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="83"/>
       <c r="B44" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -4135,16 +4144,16 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83"/>
       <c r="B45" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E45" s="29">
         <v>11</v>
@@ -4162,16 +4171,16 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83"/>
       <c r="B46" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -4189,16 +4198,16 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83"/>
       <c r="B47" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E47" s="29">
         <v>1</v>
@@ -4216,7 +4225,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="83"/>
       <c r="B48" s="102"/>
       <c r="C48" s="102"/>
@@ -4233,7 +4242,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="83"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -4250,7 +4259,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4267,7 +4276,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83"/>
       <c r="B51" s="102"/>
       <c r="C51" s="28"/>
@@ -4284,7 +4293,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83"/>
       <c r="B52" s="21"/>
       <c r="C52" s="28"/>
@@ -4301,7 +4310,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4324,7 +4333,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4341,7 +4350,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4358,11 +4367,11 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>28</v>
@@ -4379,7 +4388,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4396,7 +4405,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4423,20 +4432,20 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="83"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" s="14">
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="96"/>
@@ -4448,7 +4457,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4465,7 +4474,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4482,25 +4491,29 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" s="29">
+      <c r="C62" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="103">
         <v>1</v>
       </c>
-      <c r="F62" s="30">
-        <v>0</v>
-      </c>
-      <c r="G62" s="87"/>
-      <c r="H62" s="94"/>
+      <c r="F62" s="104">
+        <v>0</v>
+      </c>
+      <c r="G62" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H62" s="95">
+        <v>45533</v>
+      </c>
       <c r="I62" s="94"/>
       <c r="J62" s="94"/>
       <c r="K62" s="1"/>
@@ -4509,24 +4522,26 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
       <c r="B63" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="29">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="F63" s="30">
         <v>0</v>
       </c>
-      <c r="G63" s="87"/>
+      <c r="G63" s="91">
+        <v>45533</v>
+      </c>
       <c r="H63" s="95"/>
       <c r="I63" s="94"/>
       <c r="J63" s="94"/>
@@ -4536,13 +4551,23 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="30"/>
+      <c r="B64" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="29">
+        <v>1</v>
+      </c>
+      <c r="F64" s="30">
+        <v>0</v>
+      </c>
       <c r="G64" s="91"/>
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
@@ -4553,13 +4578,13 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>20</v>
@@ -4580,16 +4605,16 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="83"/>
       <c r="B66" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" s="29">
         <v>5</v>
@@ -4607,13 +4632,13 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>19</v>
@@ -4622,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="91"/>
       <c r="H67" s="95"/>
@@ -4634,7 +4659,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4651,7 +4676,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="83"/>
       <c r="B69" s="28"/>
       <c r="C69" s="21"/>
@@ -4668,22 +4693,22 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" s="29">
         <v>37</v>
       </c>
       <c r="F70" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="91"/>
       <c r="H70" s="95"/>
@@ -4695,13 +4720,13 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>39</v>
@@ -4710,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="F71" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="91"/>
       <c r="H71" s="95"/>
@@ -4722,16 +4747,16 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -4749,16 +4774,16 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E73" s="29">
         <v>6</v>
@@ -4776,16 +4801,16 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -4803,7 +4828,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="83"/>
       <c r="B75" s="102"/>
       <c r="C75" s="102"/>
@@ -4820,7 +4845,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="83"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -4837,7 +4862,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="83"/>
       <c r="B77" s="102"/>
       <c r="C77" s="102"/>
@@ -4854,7 +4879,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="83"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -4871,7 +4896,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="83"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -4888,7 +4913,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -4911,7 +4936,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4928,7 +4953,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4945,7 +4970,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -4966,7 +4991,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4983,7 +5008,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="83"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5010,7 +5035,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="83"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5035,7 +5060,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="83"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5052,7 +5077,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="83"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5069,13 +5094,13 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="83"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>36</v>
@@ -5096,16 +5121,16 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="83"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E90" s="29">
         <v>2</v>
@@ -5123,7 +5148,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="83"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5140,16 +5165,16 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E92" s="29">
         <v>7</v>
@@ -5167,16 +5192,16 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="83"/>
       <c r="B93" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" s="29">
         <v>4</v>
@@ -5194,13 +5219,13 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="83"/>
       <c r="B94" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>27</v>
@@ -5221,7 +5246,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="83"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -5238,7 +5263,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="83"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5255,22 +5280,22 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="83"/>
       <c r="B97" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E97" s="29">
         <v>5</v>
       </c>
       <c r="F97" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="91"/>
       <c r="H97" s="95"/>
@@ -5282,16 +5307,16 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="83"/>
       <c r="B98" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E98" s="29">
         <v>31</v>
@@ -5309,25 +5334,29 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="83"/>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E99" s="29">
+      <c r="C99" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="103">
         <v>6</v>
       </c>
-      <c r="F99" s="30">
-        <v>0</v>
-      </c>
-      <c r="G99" s="91"/>
-      <c r="H99" s="95"/>
+      <c r="F99" s="104">
+        <v>0</v>
+      </c>
+      <c r="G99" s="91" t="s">
+        <v>289</v>
+      </c>
+      <c r="H99" s="95">
+        <v>45526</v>
+      </c>
       <c r="I99" s="94"/>
       <c r="J99" s="80"/>
       <c r="K99" s="1"/>
@@ -5336,24 +5365,26 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="83"/>
       <c r="B100" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="29">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="F100" s="30">
         <v>0</v>
       </c>
-      <c r="G100" s="91"/>
+      <c r="G100" s="91">
+        <v>45526</v>
+      </c>
       <c r="H100" s="95"/>
       <c r="I100" s="94"/>
       <c r="J100" s="80"/>
@@ -5363,22 +5394,22 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="E101" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F101" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="91"/>
       <c r="H101" s="95"/>
@@ -5390,13 +5421,23 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="83"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="30"/>
+      <c r="B102" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E102" s="29">
+        <v>15</v>
+      </c>
+      <c r="F102" s="30">
+        <v>0</v>
+      </c>
       <c r="G102" s="91"/>
       <c r="H102" s="95"/>
       <c r="I102" s="94"/>
@@ -5407,7 +5448,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="83"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5424,7 +5465,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="83"/>
       <c r="B104" s="102"/>
       <c r="C104" s="102"/>
@@ -5441,7 +5482,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="83"/>
       <c r="B105" s="102"/>
       <c r="C105" s="102"/>
@@ -5458,7 +5499,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="83"/>
       <c r="B106" s="21"/>
       <c r="C106" s="28"/>
@@ -5475,7 +5516,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -5486,7 +5527,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -5498,7 +5539,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5515,7 +5556,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5532,14 +5573,14 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
@@ -5553,7 +5594,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5570,7 +5611,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="83"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -5597,20 +5638,20 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="83"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G113" s="84"/>
       <c r="H113" s="98"/>
@@ -5622,7 +5663,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="83"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -5639,7 +5680,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="83"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -5656,16 +5697,16 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="83"/>
       <c r="B116" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
@@ -5683,7 +5724,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="83"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
@@ -5692,7 +5733,7 @@
         <v>33</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E117" s="29">
         <v>6</v>
@@ -5710,7 +5751,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="83"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -5727,22 +5768,22 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E119" s="29">
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="91"/>
       <c r="H119" s="95"/>
@@ -5754,13 +5795,13 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="83"/>
       <c r="B120" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>20</v>
@@ -5781,13 +5822,13 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="83"/>
       <c r="B121" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D121" s="28" t="s">
         <v>27</v>
@@ -5808,7 +5849,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="83"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -5825,7 +5866,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="83"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -5842,13 +5883,13 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D124" s="28" t="s">
         <v>39</v>
@@ -5869,13 +5910,13 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="83"/>
       <c r="B125" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>21</v>
@@ -5884,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="91"/>
       <c r="H125" s="95"/>
@@ -5896,16 +5937,16 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="83"/>
       <c r="B126" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E126" s="29">
         <v>29</v>
@@ -5923,16 +5964,16 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="83"/>
       <c r="B127" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E127" s="29">
         <v>1</v>
@@ -5950,16 +5991,16 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="83"/>
       <c r="B128" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
@@ -5977,7 +6018,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="83"/>
       <c r="B129" s="102"/>
       <c r="C129" s="102"/>
@@ -5994,7 +6035,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="83"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -6011,7 +6052,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="83"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -6028,7 +6069,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="83"/>
       <c r="B132" s="102"/>
       <c r="C132" s="102"/>
@@ -6045,7 +6086,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="83"/>
       <c r="B133" s="102"/>
       <c r="C133" s="102"/>
@@ -6062,7 +6103,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="83"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6079,7 +6120,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -6102,7 +6143,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6119,7 +6160,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6136,7 +6177,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -6157,7 +6198,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6174,7 +6215,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="83"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -6201,20 +6242,20 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="83"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E141" s="14">
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="98"/>
@@ -6226,7 +6267,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="83"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6243,7 +6284,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="83"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -6260,16 +6301,16 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="83"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E144" s="29">
         <v>3</v>
@@ -6287,16 +6328,16 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="83"/>
       <c r="B145" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E145" s="29">
         <v>1</v>
@@ -6314,7 +6355,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="83"/>
       <c r="B146" s="28"/>
       <c r="C146" s="21"/>
@@ -6331,16 +6372,16 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E147" s="29">
         <v>25</v>
@@ -6358,16 +6399,16 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="83"/>
       <c r="B148" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E148" s="29">
         <v>8</v>
@@ -6384,13 +6425,13 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="83"/>
       <c r="B149" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>24</v>
@@ -6411,7 +6452,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="83"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -6428,7 +6469,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="83"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -6445,16 +6486,16 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E152" s="29">
         <v>21</v>
@@ -6472,16 +6513,16 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="83"/>
       <c r="B153" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E153" s="29">
         <v>25</v>
@@ -6499,16 +6540,16 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="83"/>
       <c r="B154" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E154" s="29">
         <v>1</v>
@@ -6526,16 +6567,16 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E155" s="29">
         <v>9</v>
@@ -6553,22 +6594,22 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E156" s="29">
         <v>2</v>
       </c>
       <c r="F156" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="91"/>
       <c r="H156" s="94"/>
@@ -6580,7 +6621,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="83"/>
       <c r="B157" s="102"/>
       <c r="C157" s="102"/>
@@ -6597,7 +6638,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="83"/>
       <c r="B158" s="102"/>
       <c r="C158" s="102"/>
@@ -6614,7 +6655,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="83"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -6631,7 +6672,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="83"/>
       <c r="B160" s="102"/>
       <c r="C160" s="102"/>
@@ -6648,7 +6689,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="83"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -6665,7 +6706,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -6676,7 +6717,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="96"/>
@@ -6688,7 +6729,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6705,7 +6746,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6722,7 +6763,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -6743,7 +6784,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -6760,7 +6801,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="83"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -6787,7 +6828,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="83"/>
       <c r="B168" s="12" t="s">
         <v>13</v>
@@ -6812,7 +6853,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="83"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -6829,7 +6870,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="83"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -6846,22 +6887,22 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="83"/>
       <c r="B171" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E171" s="29">
         <v>5</v>
       </c>
       <c r="F171" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G171" s="87"/>
       <c r="H171" s="95"/>
@@ -6873,16 +6914,16 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="83"/>
       <c r="B172" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E172" s="29">
         <v>1</v>
@@ -6900,7 +6941,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="83"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -6917,13 +6958,13 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>19</v>
@@ -6944,25 +6985,29 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="83"/>
-      <c r="B175" s="28" t="s">
+      <c r="B175" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C175" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E175" s="29">
+      <c r="C175" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="E175" s="103">
         <v>1</v>
       </c>
-      <c r="F175" s="30">
-        <v>0</v>
-      </c>
-      <c r="G175" s="95"/>
-      <c r="H175" s="95"/>
+      <c r="F175" s="104">
+        <v>0</v>
+      </c>
+      <c r="G175" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="H175" s="95">
+        <v>45519</v>
+      </c>
       <c r="I175" s="94"/>
       <c r="J175" s="80"/>
       <c r="K175" s="1"/>
@@ -6971,24 +7016,26 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="83"/>
       <c r="B176" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E176" s="29">
-        <v>1</v>
+        <v>276</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="F176" s="30">
         <v>0</v>
       </c>
-      <c r="G176" s="91"/>
+      <c r="G176" s="91">
+        <v>45519</v>
+      </c>
       <c r="H176" s="95"/>
       <c r="I176" s="94"/>
       <c r="J176" s="1"/>
@@ -6998,13 +7045,23 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="83"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="B177" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D177" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E177" s="29">
+        <v>1</v>
+      </c>
+      <c r="F177" s="30">
+        <v>0</v>
+      </c>
       <c r="G177" s="95"/>
       <c r="H177" s="95"/>
       <c r="I177" s="94"/>
@@ -7015,7 +7072,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="83"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -7032,16 +7089,16 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="83"/>
       <c r="B179" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E179" s="29">
         <v>1</v>
@@ -7059,22 +7116,22 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="83"/>
       <c r="B180" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E180" s="29">
         <v>22</v>
       </c>
       <c r="F180" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G180" s="91"/>
       <c r="H180" s="95"/>
@@ -7086,25 +7143,29 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="83"/>
-      <c r="B181" s="28" t="s">
+      <c r="B181" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C181" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D181" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="E181" s="29">
+      <c r="C181" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D181" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="E181" s="103">
         <v>15</v>
       </c>
-      <c r="F181" s="30">
-        <v>0</v>
-      </c>
-      <c r="G181" s="95"/>
-      <c r="H181" s="94"/>
+      <c r="F181" s="104">
+        <v>0</v>
+      </c>
+      <c r="G181" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="H181" s="95">
+        <v>45519</v>
+      </c>
       <c r="I181" s="94"/>
       <c r="J181" s="80"/>
       <c r="K181" s="1"/>
@@ -7113,24 +7174,26 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E182" s="29">
-        <v>35</v>
+        <v>185</v>
+      </c>
+      <c r="E182" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="F182" s="30">
         <v>1</v>
       </c>
-      <c r="G182" s="95"/>
+      <c r="G182" s="95">
+        <v>45519</v>
+      </c>
       <c r="H182" s="95"/>
       <c r="I182" s="95"/>
       <c r="J182" s="80"/>
@@ -7140,22 +7203,22 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="83"/>
       <c r="B183" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="E183" s="29">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F183" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="95"/>
       <c r="H183" s="91"/>
@@ -7167,13 +7230,23 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="83"/>
-      <c r="B184" s="102"/>
-      <c r="C184" s="102"/>
-      <c r="D184" s="102"/>
-      <c r="E184" s="103"/>
-      <c r="F184" s="104"/>
+      <c r="B184" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D184" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E184" s="29">
+        <v>2</v>
+      </c>
+      <c r="F184" s="30">
+        <v>0</v>
+      </c>
       <c r="G184" s="95"/>
       <c r="H184" s="91"/>
       <c r="I184" s="94"/>
@@ -7184,7 +7257,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="83"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -7201,7 +7274,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="83"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -7218,7 +7291,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="83"/>
       <c r="B187" s="102"/>
       <c r="C187" s="102"/>
@@ -7235,7 +7308,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="83"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -7252,7 +7325,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -7263,7 +7336,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="96"/>
@@ -7275,7 +7348,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7292,7 +7365,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7309,14 +7382,14 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="1"/>
@@ -7330,7 +7403,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7347,7 +7420,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="83"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -7374,20 +7447,20 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="83"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E195" s="14">
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -7399,7 +7472,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="83"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -7416,7 +7489,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="83"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -7433,16 +7506,16 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="83"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E198" s="29">
         <v>1</v>
@@ -7460,16 +7533,16 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="83"/>
       <c r="B199" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E199" s="29">
         <v>1</v>
@@ -7487,7 +7560,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="83"/>
       <c r="B200" s="102"/>
       <c r="C200" s="28"/>
@@ -7504,13 +7577,13 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>26</v>
@@ -7531,13 +7604,13 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="83"/>
       <c r="B202" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>19</v>
@@ -7558,13 +7631,13 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="83"/>
       <c r="B203" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D203" s="28" t="s">
         <v>24</v>
@@ -7585,7 +7658,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="83"/>
       <c r="B204" s="28"/>
       <c r="C204" s="21"/>
@@ -7602,7 +7675,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="83"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -7619,16 +7692,16 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="83"/>
       <c r="B206" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -7646,16 +7719,16 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="83"/>
       <c r="B207" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
@@ -7673,16 +7746,16 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -7700,13 +7773,13 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>24</v>
@@ -7727,13 +7800,13 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>19</v>
@@ -7754,7 +7827,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="83"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -7771,7 +7844,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="83"/>
       <c r="B212" s="102"/>
       <c r="C212" s="28"/>
@@ -7788,7 +7861,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="83"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -7805,7 +7878,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="83"/>
       <c r="B214" s="102"/>
       <c r="C214" s="21"/>
@@ -7822,7 +7895,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="83"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -7839,7 +7912,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -7850,7 +7923,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="96"/>
@@ -7862,7 +7935,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7879,7 +7952,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7896,14 +7969,14 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="1"/>
@@ -7917,7 +7990,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7934,7 +8007,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="83"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -7961,20 +8034,20 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="61"/>
       <c r="B222" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C222" s="110"/>
       <c r="D222" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E222" s="14">
         <v>6</v>
       </c>
       <c r="F222" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G222" s="84"/>
       <c r="H222" s="98"/>
@@ -7986,7 +8059,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="83"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8003,7 +8076,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="83"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -8020,16 +8093,16 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="83"/>
       <c r="B225" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E225" s="29">
         <v>4</v>
@@ -8047,16 +8120,16 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="83"/>
       <c r="B226" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E226" s="29">
         <v>1</v>
@@ -8074,7 +8147,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="83"/>
       <c r="B227" s="28"/>
       <c r="C227" s="21"/>
@@ -8091,13 +8164,13 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>19</v>
@@ -8106,7 +8179,7 @@
         <v>21</v>
       </c>
       <c r="F228" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="87"/>
       <c r="H228" s="95"/>
@@ -8118,13 +8191,13 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="83"/>
       <c r="B229" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D229" s="28" t="s">
         <v>39</v>
@@ -8145,16 +8218,16 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="83"/>
       <c r="B230" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E230" s="29">
         <v>1</v>
@@ -8172,7 +8245,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="83"/>
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
@@ -8189,7 +8262,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="83"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8206,16 +8279,16 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="83"/>
       <c r="B233" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E233" s="29">
         <v>5</v>
@@ -8233,16 +8306,16 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="83"/>
       <c r="B234" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E234" s="29">
         <v>16</v>
@@ -8260,16 +8333,16 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="83"/>
       <c r="B235" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E235" s="29">
         <v>15</v>
@@ -8287,16 +8360,16 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="83"/>
       <c r="B236" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E236" s="29">
         <v>8</v>
@@ -8314,16 +8387,16 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="83"/>
       <c r="B237" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E237" s="29">
         <v>1</v>
@@ -8341,7 +8414,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="83"/>
       <c r="B238" s="102"/>
       <c r="C238" s="102"/>
@@ -8358,7 +8431,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="83"/>
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
@@ -8375,7 +8448,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="83"/>
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
@@ -8392,7 +8465,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="83"/>
       <c r="B241" s="102"/>
       <c r="C241" s="102"/>
@@ -8409,7 +8482,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="83"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -8426,7 +8499,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -8437,7 +8510,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="96"/>
@@ -8449,7 +8522,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8466,7 +8539,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8483,14 +8556,14 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="1"/>
@@ -8504,7 +8577,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8521,7 +8594,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="83"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -8540,20 +8613,20 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="83"/>
       <c r="B249" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E249" s="14">
         <v>1</v>
       </c>
       <c r="F249" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="98"/>
@@ -8565,7 +8638,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="83"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -8582,7 +8655,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="83"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -8599,22 +8672,22 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="83"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E252" s="29">
         <v>6</v>
       </c>
       <c r="F252" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G252" s="87"/>
       <c r="H252" s="95"/>
@@ -8626,13 +8699,13 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="83"/>
       <c r="B253" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D253" s="28" t="s">
         <v>26</v>
@@ -8653,7 +8726,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="83"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -8670,13 +8743,13 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="83"/>
       <c r="B255" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D255" s="28" t="s">
         <v>14</v>
@@ -8697,13 +8770,13 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="83"/>
       <c r="B256" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>43</v>
@@ -8724,16 +8797,16 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="83"/>
       <c r="B257" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E257" s="29">
         <v>3</v>
@@ -8751,7 +8824,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="83"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -8768,7 +8841,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="83"/>
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
@@ -8785,13 +8858,13 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="83"/>
       <c r="B260" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>29</v>
@@ -8812,13 +8885,13 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="83"/>
       <c r="B261" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D261" s="28" t="s">
         <v>26</v>
@@ -8839,13 +8912,13 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="83"/>
       <c r="B262" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D262" s="28" t="s">
         <v>26</v>
@@ -8866,16 +8939,16 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="83"/>
       <c r="B263" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C263" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D263" s="102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E263" s="103">
         <v>1</v>
@@ -8884,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H263" s="95">
         <v>45519</v>
@@ -8897,19 +8970,19 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="83"/>
       <c r="B264" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F264" s="30">
         <v>0</v>
@@ -8926,16 +8999,16 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="83"/>
       <c r="B265" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E265" s="29">
         <v>1</v>
@@ -8953,7 +9026,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="83"/>
       <c r="B266" s="102"/>
       <c r="C266" s="102"/>
@@ -8970,7 +9043,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="83"/>
       <c r="B267" s="102"/>
       <c r="C267" s="102"/>
@@ -8987,7 +9060,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="83"/>
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
@@ -9004,7 +9077,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="83"/>
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
@@ -9021,7 +9094,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -9032,7 +9105,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="96"/>
@@ -9044,7 +9117,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9061,7 +9134,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9078,14 +9151,14 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="1"/>
@@ -9099,7 +9172,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9116,7 +9189,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="83"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -9143,20 +9216,20 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="83"/>
       <c r="B276" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E276" s="40">
         <v>1</v>
       </c>
       <c r="F276" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="96"/>
@@ -9168,7 +9241,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="83"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -9185,7 +9258,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="83"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -9202,13 +9275,13 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="83"/>
       <c r="B279" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D279" s="21" t="s">
         <v>26</v>
@@ -9229,25 +9302,29 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="83"/>
-      <c r="B280" s="28" t="s">
+      <c r="B280" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C280" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D280" s="21" t="s">
+      <c r="C280" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D280" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E280" s="22">
+      <c r="E280" s="106">
         <v>4</v>
       </c>
-      <c r="F280" s="30">
-        <v>0</v>
-      </c>
-      <c r="G280" s="87"/>
-      <c r="H280" s="95"/>
+      <c r="F280" s="104">
+        <v>0</v>
+      </c>
+      <c r="G280" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H280" s="95">
+        <v>45526</v>
+      </c>
       <c r="I280" s="94"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -9256,14 +9333,26 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="83"/>
-      <c r="B281" s="102"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="22"/>
-      <c r="F281" s="30"/>
-      <c r="G281" s="91"/>
+      <c r="B281" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E281" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F281" s="30">
+        <v>0</v>
+      </c>
+      <c r="G281" s="91">
+        <v>45526</v>
+      </c>
       <c r="H281" s="94"/>
       <c r="I281" s="94"/>
       <c r="J281" s="1"/>
@@ -9273,22 +9362,22 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="E282" s="22">
         <v>8</v>
       </c>
       <c r="F282" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="95"/>
@@ -9300,7 +9389,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="83"/>
       <c r="B283" s="28" t="s">
         <v>17</v>
@@ -9309,7 +9398,7 @@
         <v>35</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E283" s="22">
         <v>16</v>
@@ -9327,13 +9416,13 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D284" s="21" t="s">
         <v>39</v>
@@ -9354,7 +9443,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="83"/>
       <c r="B285" s="28"/>
       <c r="C285" s="21"/>
@@ -9371,7 +9460,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="83"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -9388,16 +9477,16 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E287" s="22">
         <v>36</v>
@@ -9415,16 +9504,16 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="83"/>
       <c r="B288" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E288" s="22">
         <v>6</v>
@@ -9442,13 +9531,13 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D289" s="21" t="s">
         <v>20</v>
@@ -9469,16 +9558,16 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E290" s="22">
         <v>9</v>
@@ -9496,16 +9585,16 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E291" s="22">
         <v>1</v>
@@ -9523,7 +9612,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="83"/>
       <c r="B292" s="28"/>
       <c r="C292" s="105"/>
@@ -9540,7 +9629,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="83"/>
       <c r="B293" s="102"/>
       <c r="C293" s="21"/>
@@ -9557,7 +9646,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="83"/>
       <c r="B294" s="28"/>
       <c r="C294" s="21"/>
@@ -9574,7 +9663,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="83"/>
       <c r="B295" s="102"/>
       <c r="C295" s="105"/>
@@ -9591,7 +9680,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="83"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -9608,7 +9697,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -9619,7 +9708,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -9631,7 +9720,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9648,7 +9737,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9665,14 +9754,14 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="1"/>
@@ -9686,7 +9775,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -9703,7 +9792,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="83"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -9730,7 +9819,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="83"/>
       <c r="B303" s="12" t="s">
         <v>13</v>
@@ -9755,7 +9844,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="83"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -9772,7 +9861,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="83"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -9789,16 +9878,16 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="83"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E306" s="22">
         <v>2</v>
@@ -9816,13 +9905,13 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="83"/>
       <c r="B307" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D307" s="21" t="s">
         <v>19</v>
@@ -9843,7 +9932,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="83"/>
       <c r="B308" s="102"/>
       <c r="C308" s="21"/>
@@ -9860,16 +9949,16 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="83"/>
       <c r="B309" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E309" s="22">
         <v>5</v>
@@ -9887,13 +9976,13 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="83"/>
       <c r="B310" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D310" s="21" t="s">
         <v>19</v>
@@ -9914,25 +10003,29 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="83"/>
-      <c r="B311" s="28" t="s">
+      <c r="B311" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C311" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D311" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E311" s="22">
-        <v>1</v>
-      </c>
-      <c r="F311" s="30">
-        <v>0</v>
-      </c>
-      <c r="G311" s="87"/>
-      <c r="H311" s="95"/>
+      <c r="C311" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D311" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="E311" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F311" s="104">
+        <v>0</v>
+      </c>
+      <c r="G311" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H311" s="95">
+        <v>45526</v>
+      </c>
       <c r="I311" s="94"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -9941,14 +10034,26 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="83"/>
-      <c r="B312" s="28"/>
-      <c r="C312" s="21"/>
-      <c r="D312" s="21"/>
-      <c r="E312" s="22"/>
-      <c r="F312" s="30"/>
-      <c r="G312" s="91"/>
+      <c r="B312" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E312" s="22">
+        <v>1</v>
+      </c>
+      <c r="F312" s="30">
+        <v>0</v>
+      </c>
+      <c r="G312" s="91">
+        <v>45526</v>
+      </c>
       <c r="H312" s="95"/>
       <c r="I312" s="94"/>
       <c r="J312" s="1"/>
@@ -9958,7 +10063,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="83"/>
       <c r="B313" s="28"/>
       <c r="C313" s="21"/>
@@ -9975,22 +10080,22 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="83"/>
       <c r="B314" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E314" s="22">
         <v>20</v>
       </c>
       <c r="F314" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" s="91"/>
       <c r="H314" s="95"/>
@@ -10002,16 +10107,16 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="83"/>
       <c r="B315" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E315" s="22">
         <v>7</v>
@@ -10029,16 +10134,16 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="83"/>
       <c r="B316" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E316" s="22">
         <v>1</v>
@@ -10056,16 +10161,16 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E317" s="22">
         <v>45</v>
@@ -10083,16 +10188,16 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="83"/>
       <c r="B318" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E318" s="22">
         <v>4</v>
@@ -10110,7 +10215,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="83"/>
       <c r="B319" s="102"/>
       <c r="C319" s="105"/>
@@ -10127,7 +10232,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="83"/>
       <c r="B320" s="28"/>
       <c r="C320" s="21"/>
@@ -10144,7 +10249,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="83"/>
       <c r="B321" s="102"/>
       <c r="C321" s="105"/>
@@ -10161,7 +10266,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="83"/>
       <c r="B322" s="102"/>
       <c r="C322" s="105"/>
@@ -10178,7 +10283,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="83"/>
       <c r="B323" s="21"/>
       <c r="C323" s="33"/>
@@ -10195,7 +10300,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -10206,7 +10311,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -10218,7 +10323,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10235,7 +10340,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10252,14 +10357,14 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" s="1"/>
@@ -10273,7 +10378,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -10290,7 +10395,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="83"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -10317,7 +10422,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="83"/>
       <c r="B330" s="12" t="s">
         <v>13</v>
@@ -10342,7 +10447,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="83"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -10359,7 +10464,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="83"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -10376,16 +10481,16 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="83"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E333" s="22">
         <v>1</v>
@@ -10403,16 +10508,16 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="83"/>
       <c r="B334" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E334" s="22">
         <v>1</v>
@@ -10430,7 +10535,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="83"/>
       <c r="B335" s="28"/>
       <c r="C335" s="21"/>
@@ -10447,16 +10552,16 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="83"/>
       <c r="B336" s="102" t="s">
         <v>17</v>
       </c>
       <c r="C336" s="105" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D336" s="105" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E336" s="106">
         <v>1</v>
@@ -10465,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="91" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H336" s="95">
         <v>45519</v>
@@ -10478,22 +10583,22 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="83"/>
       <c r="B337" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F337" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337" s="91">
         <v>45519</v>
@@ -10507,16 +10612,16 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="83"/>
       <c r="B338" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E338" s="22">
         <v>1</v>
@@ -10534,16 +10639,16 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="83"/>
       <c r="B339" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E339" s="22">
         <v>1</v>
@@ -10561,7 +10666,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="83"/>
       <c r="B340" s="28"/>
       <c r="C340" s="21"/>
@@ -10575,22 +10680,22 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="83"/>
       <c r="B341" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E341" s="22">
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G341" s="91"/>
       <c r="H341" s="94"/>
@@ -10599,16 +10704,16 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E342" s="22">
         <v>1</v>
@@ -10623,22 +10728,22 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="83"/>
       <c r="B343" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E343" s="22">
         <v>1</v>
       </c>
       <c r="F343" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="95"/>
@@ -10647,16 +10752,16 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="83"/>
       <c r="B344" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E344" s="22">
         <v>1</v>
@@ -10671,16 +10776,16 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="83"/>
       <c r="B345" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E345" s="22">
         <v>1</v>
@@ -10695,7 +10800,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="83"/>
       <c r="B346" s="28"/>
       <c r="C346" s="21"/>
@@ -10709,7 +10814,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="83"/>
       <c r="B347" s="28"/>
       <c r="C347" s="21"/>
@@ -10723,7 +10828,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="83"/>
       <c r="B348" s="28"/>
       <c r="C348" s="21"/>
@@ -10737,7 +10842,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="83"/>
       <c r="B349" s="28"/>
       <c r="C349" s="21"/>
@@ -10751,7 +10856,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="83"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -10765,7 +10870,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -10776,7 +10881,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -10785,7 +10890,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10799,13 +10904,13 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D354" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E354" s="2"/>
       <c r="F354" s="1"/>
@@ -10814,7 +10919,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -10825,7 +10930,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -10846,26 +10951,26 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E357" s="40">
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
@@ -10876,7 +10981,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
@@ -10887,12 +10992,12 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D360" s="21" t="s">
         <v>19</v>
@@ -10908,15 +11013,15 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E361" s="22">
         <v>1</v>
@@ -10929,7 +11034,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="28"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
@@ -10940,12 +11045,12 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>39</v>
@@ -10954,22 +11059,22 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E364" s="22">
         <v>7</v>
@@ -10982,15 +11087,15 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E365" s="22">
         <v>1</v>
@@ -11003,7 +11108,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="28"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
@@ -11014,7 +11119,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="28"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
@@ -11025,15 +11130,15 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E368" s="22">
         <v>5</v>
@@ -11046,15 +11151,15 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E369" s="22">
         <v>30</v>
@@ -11067,12 +11172,12 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>34</v>
@@ -11088,7 +11193,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="28" t="s">
         <v>18</v>
       </c>
@@ -11109,15 +11214,15 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E372" s="22">
         <v>5</v>
@@ -11130,7 +11235,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="28"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
@@ -11141,7 +11246,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="102"/>
       <c r="C374" s="105"/>
       <c r="D374" s="105"/>
@@ -11152,7 +11257,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="28"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
@@ -11163,7 +11268,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="102"/>
       <c r="C376" s="105"/>
       <c r="D376" s="105"/>
@@ -11174,7 +11279,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
@@ -11185,7 +11290,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -11195,32 +11300,32 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="5"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B383" s="6" t="s">
         <v>3</v>
       </c>
@@ -11237,7 +11342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="12" t="s">
         <v>13</v>
       </c>
@@ -11248,21 +11353,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
       <c r="E386" s="22"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="28" t="s">
         <v>15</v>
       </c>
@@ -11273,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="28" t="s">
         <v>15</v>
       </c>
@@ -11284,14 +11389,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="102"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="28" t="s">
         <v>17</v>
       </c>
@@ -11302,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="28" t="s">
         <v>17</v>
       </c>
@@ -11313,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="28" t="s">
         <v>17</v>
       </c>
@@ -11324,21 +11429,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="28"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
       <c r="E393" s="22"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="28"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
       <c r="E394" s="22"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="28" t="s">
         <v>18</v>
       </c>
@@ -11349,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="28" t="s">
         <v>18</v>
       </c>
@@ -11360,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="28" t="s">
         <v>18</v>
       </c>
@@ -11371,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="28" t="s">
         <v>18</v>
       </c>
@@ -11382,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="28" t="s">
         <v>18</v>
       </c>
@@ -11393,42 +11498,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="102"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="102"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
       <c r="E403" s="22"/>
       <c r="F403" s="21"/>
     </row>
-    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B404" s="21"/>
       <c r="C404" s="33"/>
       <c r="D404" s="33"/>
       <c r="E404" s="34"/>
       <c r="F404" s="33"/>
     </row>
-    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
       <c r="D405" s="36"/>
@@ -11473,13 +11578,13 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
@@ -11487,7 +11592,7 @@
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -11504,7 +11609,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -11519,7 +11624,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -11532,12 +11637,12 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -11547,7 +11652,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -11560,7 +11665,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -11585,7 +11690,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="115">
         <v>1</v>
@@ -11597,10 +11702,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" s="27">
         <v>1</v>
@@ -11610,22 +11715,22 @@
       <c r="J7" s="44"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E8" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -11635,16 +11740,16 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E9" s="25">
         <v>2</v>
@@ -11660,66 +11765,66 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="24" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3</v>
+      </c>
+      <c r="G10" s="27">
         <v>2</v>
-      </c>
-      <c r="F10" s="26">
-        <v>2</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="E11" s="25">
         <v>1</v>
       </c>
       <c r="F11" s="26">
+        <v>3</v>
+      </c>
+      <c r="G11" s="27">
         <v>2</v>
-      </c>
-      <c r="G11" s="27">
-        <v>1</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>283</v>
+        <v>89</v>
       </c>
       <c r="E12" s="25">
         <v>1</v>
@@ -11735,207 +11840,207 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="E13" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="59">
-        <v>0</v>
-      </c>
-      <c r="G14" s="60">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4</v>
+      </c>
+      <c r="G14" s="27">
+        <v>5</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="E15" s="25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E16" s="25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="115">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E17" s="25">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F17" s="59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E18" s="25">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F18" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E19" s="25">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F19" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="62">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E20" s="25">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F20" s="26">
         <v>0</v>
       </c>
       <c r="G20" s="27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
@@ -11948,7 +12053,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -11982,19 +12087,19 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.83203125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -12002,7 +12107,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -12010,7 +12115,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>45</v>
       </c>
@@ -12020,9 +12125,9 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -12031,9 +12136,9 @@
       <c r="F4" s="73"/>
       <c r="G4" s="109"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -12042,9 +12147,9 @@
       <c r="F5" s="73"/>
       <c r="G5" s="109"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -12053,9 +12158,9 @@
       <c r="F6" s="72"/>
       <c r="G6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
@@ -12064,9 +12169,9 @@
       <c r="F7" s="72"/>
       <c r="G7" s="68"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="72"/>
       <c r="C8" s="72"/>
@@ -12075,9 +12180,9 @@
       <c r="F8" s="73"/>
       <c r="G8" s="109"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
@@ -12086,7 +12191,7 @@
       <c r="F9" s="72"/>
       <c r="G9" s="68"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -12095,9 +12200,9 @@
       <c r="F10" s="43"/>
       <c r="G10" s="65"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="65"/>
@@ -12105,9 +12210,9 @@
       <c r="F11" s="43"/>
       <c r="G11" s="65"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -12116,7 +12221,7 @@
       <c r="F12" s="73"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="71"/>
       <c r="B13" s="69"/>
       <c r="C13" s="72"/>
@@ -12125,10 +12230,10 @@
       <c r="F13" s="73"/>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="68"/>
@@ -12136,9 +12241,9 @@
       <c r="F14" s="72"/>
       <c r="G14" s="68"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="74"/>
       <c r="C15" s="73"/>
@@ -12147,9 +12252,9 @@
       <c r="F15" s="72"/>
       <c r="G15" s="68"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" s="72"/>
@@ -12158,9 +12263,9 @@
       <c r="F16" s="73"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="73"/>
@@ -12169,9 +12274,9 @@
       <c r="F17" s="72"/>
       <c r="G17" s="68"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="72"/>
@@ -12180,7 +12285,7 @@
       <c r="F18" s="73"/>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -12188,7 +12293,7 @@
       <c r="F19" s="70"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="69"/>
       <c r="C20" s="68"/>
       <c r="D20" s="65"/>
@@ -12196,7 +12301,7 @@
       <c r="F20" s="70"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="67" t="s">
         <v>46</v>
       </c>
@@ -12206,9 +12311,9 @@
       <c r="F21" s="70"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="72"/>
@@ -12217,9 +12322,9 @@
       <c r="F22" s="73"/>
       <c r="G22" s="109"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="72"/>
@@ -12228,7 +12333,7 @@
       <c r="F23" s="73"/>
       <c r="G23" s="109"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
       <c r="D24" s="68"/>
@@ -12236,7 +12341,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="67" t="s">
         <v>47</v>
       </c>
@@ -12246,9 +12351,9 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B26" s="74"/>
       <c r="C26" s="73"/>
@@ -12257,7 +12362,7 @@
       <c r="F26" s="72"/>
       <c r="G26" s="68"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="68"/>
@@ -12265,7 +12370,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="s">
         <v>48</v>
       </c>
@@ -12276,7 +12381,7 @@
       <c r="G28" s="43"/>
       <c r="K28" s="107"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="69"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33179BC-2A4D-4AC3-B4B2-733A629BD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8428A3-A43D-4A80-8354-6687F5DD1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="303">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -441,9 +441,6 @@
     <t>DEVANTE COLE</t>
   </si>
   <si>
-    <t>ALEKSANDER ISAK</t>
-  </si>
-  <si>
     <t>JAMES COLLINS</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t>RASMUS HOJLUND</t>
   </si>
   <si>
-    <t>2023/2024</t>
-  </si>
-  <si>
     <t>CHARLIE WYKE</t>
   </si>
   <si>
@@ -495,9 +489,6 @@
     <t>JOSH SARGENT</t>
   </si>
   <si>
-    <t>MACAULEY LANGSTAFF</t>
-  </si>
-  <si>
     <t>CREWE</t>
   </si>
   <si>
@@ -630,9 +621,6 @@
     <t>BIRMINGHAM</t>
   </si>
   <si>
-    <t>DANILI ORSI</t>
-  </si>
-  <si>
     <t>Dream League Cup 2025</t>
   </si>
   <si>
@@ -672,9 +660,6 @@
     <t>CARDIFF</t>
   </si>
   <si>
-    <t>ELLIOTT LEE</t>
-  </si>
-  <si>
     <t>CHRIS CONN-CLARK</t>
   </si>
   <si>
@@ -711,9 +696,6 @@
     <t>BERNARDO SILVA</t>
   </si>
   <si>
-    <t>KEIFFER MOORE</t>
-  </si>
-  <si>
     <t>TOMMY CONWAY</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
     <t>TIMOTHEE DIENG</t>
   </si>
   <si>
-    <t>BUKAYA SAKA</t>
-  </si>
-  <si>
     <t>RETIRED</t>
   </si>
   <si>
@@ -759,12 +738,6 @@
     <t>MANCHESTER UNTIED</t>
   </si>
   <si>
-    <t>JOE HUGHILL</t>
-  </si>
-  <si>
-    <t>GABRIEL MAGAELHAES</t>
-  </si>
-  <si>
     <t>DAN CROWLEY</t>
   </si>
   <si>
@@ -855,9 +828,6 @@
     <t>RODRIGO GOMES</t>
   </si>
   <si>
-    <t>MIHCAEL CHEEK</t>
-  </si>
-  <si>
     <t>BROMLEY</t>
   </si>
   <si>
@@ -870,9 +840,6 @@
     <t>LOUIE BARRY</t>
   </si>
   <si>
-    <t>STRAND LARSEN</t>
-  </si>
-  <si>
     <t>NICLAS FULLKRUG</t>
   </si>
   <si>
@@ -928,6 +895,54 @@
   </si>
   <si>
     <t>SHANE MCLOUGHLIN</t>
+  </si>
+  <si>
+    <t>MAKHTAR GUEYE</t>
+  </si>
+  <si>
+    <t>BLAKCBURN</t>
+  </si>
+  <si>
+    <t>ALASSANA JATTA</t>
+  </si>
+  <si>
+    <t>COURTNEY BAKER-RICHARDSON</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>NONI MADUEKE</t>
+  </si>
+  <si>
+    <t>JORGEN STRAND LARSEN</t>
+  </si>
+  <si>
+    <t>BUKAYO SAKA</t>
+  </si>
+  <si>
+    <t>MACAULAY LANGSTAFF</t>
+  </si>
+  <si>
+    <t>DANILO ORSI</t>
+  </si>
+  <si>
+    <t>ALEXANDER ISAK</t>
+  </si>
+  <si>
+    <t>GABRIEL MAGALHAES</t>
+  </si>
+  <si>
+    <t>ELLIOT LEE</t>
+  </si>
+  <si>
+    <t>KIEFFER MOORE</t>
+  </si>
+  <si>
+    <t>JOE HUGILL</t>
+  </si>
+  <si>
+    <t>MICHAEL CHEEK</t>
   </si>
 </sst>
 </file>
@@ -2864,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3003,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="88"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S5" s="112"/>
       <c r="T5" s="111"/>
@@ -3054,15 +3069,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S6" s="112"/>
       <c r="T6" s="111"/>
@@ -3089,11 +3104,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3109,7 +3124,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>116</v>
@@ -3133,15 +3148,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3150,16 +3165,16 @@
         <v>15</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
       </c>
       <c r="F9" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="79"/>
@@ -3175,15 +3190,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3211,11 +3226,11 @@
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" s="116"/>
       <c r="S10" s="116"/>
@@ -3225,23 +3240,27 @@
     </row>
     <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="103">
         <v>5</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="104">
         <v>0</v>
       </c>
-      <c r="G11" s="91"/>
-      <c r="H11" s="88"/>
+      <c r="G11" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="88">
+        <v>45533</v>
+      </c>
       <c r="I11" s="108"/>
       <c r="J11" s="86"/>
       <c r="K11" s="23" t="str">
@@ -3254,15 +3273,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="112"/>
       <c r="T11" s="111"/>
@@ -3274,18 +3293,20 @@
         <v>17</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="F12" s="30">
-        <v>1</v>
-      </c>
-      <c r="G12" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="91">
+        <v>45533</v>
+      </c>
       <c r="H12" s="88"/>
       <c r="I12" s="108"/>
       <c r="J12" s="86"/>
@@ -3303,11 +3324,11 @@
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,16 +3337,16 @@
         <v>17</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E13" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="88"/>
@@ -3341,15 +3362,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R13" s="116"/>
       <c r="S13" s="116"/>
@@ -3359,11 +3380,21 @@
     </row>
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="B14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
       <c r="G14" s="91"/>
       <c r="H14" s="88"/>
       <c r="I14" s="108"/>
@@ -3378,15 +3409,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14" s="112"/>
       <c r="T14" s="111"/>
@@ -3413,15 +3444,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3433,13 +3464,13 @@
         <v>128</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E16" s="29">
         <v>53</v>
       </c>
       <c r="F16" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -3455,11 +3486,11 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
@@ -3497,11 +3528,11 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
@@ -3515,23 +3546,27 @@
     </row>
     <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="103">
         <v>10</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="104">
         <v>0</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="88"/>
+      <c r="G18" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="88">
+        <v>45526</v>
+      </c>
       <c r="I18" s="108"/>
       <c r="J18" s="86"/>
       <c r="K18" s="31" t="str">
@@ -3544,11 +3579,11 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
@@ -3564,18 +3599,20 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="E19" s="29">
-        <v>14</v>
+        <v>122</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="F19" s="30">
         <v>0</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="91">
+        <v>45526</v>
+      </c>
       <c r="H19" s="88"/>
       <c r="I19" s="108"/>
       <c r="J19" s="80"/>
@@ -3591,13 +3628,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="E20" s="29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F20" s="30">
         <v>0</v>
@@ -3619,11 +3656,21 @@
     </row>
     <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
       <c r="G21" s="91"/>
       <c r="H21" s="88"/>
       <c r="I21" s="108"/>
@@ -3853,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="84"/>
       <c r="H32" s="98"/>
@@ -3905,7 +3952,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>106</v>
@@ -3985,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="87"/>
       <c r="H38" s="95"/>
@@ -4008,10 +4055,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="29">
         <v>5</v>
@@ -4044,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="87"/>
       <c r="H40" s="95"/>
@@ -4105,7 +4152,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
@@ -4123,10 +4170,10 @@
         <v>18</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -4150,7 +4197,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>126</v>
@@ -4177,10 +4224,10 @@
         <v>18</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -4204,10 +4251,10 @@
         <v>18</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E47" s="29">
         <v>1</v>
@@ -4321,7 +4368,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="96"/>
@@ -4497,7 +4544,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="102" t="s">
         <v>109</v>
@@ -4509,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="87" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H62" s="95">
         <v>45533</v>
@@ -4528,13 +4575,13 @@
         <v>15</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F63" s="30">
         <v>0</v>
@@ -4584,7 +4631,7 @@
         <v>17</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>20</v>
@@ -4593,7 +4640,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="87"/>
       <c r="H65" s="94"/>
@@ -4611,7 +4658,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>66</v>
@@ -4702,7 +4749,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E70" s="29">
         <v>37</v>
@@ -4753,10 +4800,10 @@
         <v>18</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -4783,7 +4830,7 @@
         <v>69</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E73" s="29">
         <v>6</v>
@@ -4807,10 +4854,10 @@
         <v>18</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -4924,7 +4971,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="96"/>
@@ -5048,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="84"/>
       <c r="H86" s="98"/>
@@ -5127,10 +5174,10 @@
         <v>15</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E90" s="29">
         <v>2</v>
@@ -5171,7 +5218,7 @@
         <v>17</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>82</v>
@@ -5198,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>105</v>
@@ -5207,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="95"/>
       <c r="H93" s="95"/>
@@ -5225,7 +5272,7 @@
         <v>17</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>27</v>
@@ -5286,7 +5333,7 @@
         <v>18</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>80</v>
@@ -5316,7 +5363,7 @@
         <v>125</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E98" s="29">
         <v>31</v>
@@ -5352,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="91" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H99" s="95">
         <v>45526</v>
@@ -5371,13 +5418,13 @@
         <v>18</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F100" s="30">
         <v>0</v>
@@ -5409,7 +5456,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="91"/>
       <c r="H101" s="95"/>
@@ -5427,10 +5474,10 @@
         <v>18</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E102" s="29">
         <v>15</v>
@@ -5527,7 +5574,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -5577,7 +5624,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>59</v>
@@ -5645,13 +5692,13 @@
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G113" s="84"/>
       <c r="H113" s="98"/>
@@ -5703,7 +5750,7 @@
         <v>15</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>115</v>
@@ -5733,7 +5780,7 @@
         <v>33</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E117" s="29">
         <v>6</v>
@@ -5774,10 +5821,10 @@
         <v>17</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E119" s="29">
         <v>15</v>
@@ -5810,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="91"/>
       <c r="H120" s="95"/>
@@ -5828,7 +5875,7 @@
         <v>17</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D121" s="28" t="s">
         <v>27</v>
@@ -5916,7 +5963,7 @@
         <v>18</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>21</v>
@@ -5925,7 +5972,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" s="91"/>
       <c r="H125" s="95"/>
@@ -5943,10 +5990,10 @@
         <v>18</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E126" s="29">
         <v>29</v>
@@ -5979,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="91"/>
       <c r="H127" s="95"/>
@@ -5997,10 +6044,10 @@
         <v>18</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
@@ -6131,7 +6178,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="96"/>
@@ -6255,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="98"/>
@@ -6307,10 +6354,10 @@
         <v>15</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E144" s="29">
         <v>3</v>
@@ -6334,7 +6381,7 @@
         <v>15</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D145" s="28" t="s">
         <v>117</v>
@@ -6381,7 +6428,7 @@
         <v>127</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E147" s="29">
         <v>25</v>
@@ -6414,7 +6461,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" s="113"/>
       <c r="I148" s="94"/>
@@ -6431,7 +6478,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>24</v>
@@ -6492,10 +6539,10 @@
         <v>18</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E152" s="29">
         <v>21</v>
@@ -6546,7 +6593,7 @@
         <v>18</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D154" s="28" t="s">
         <v>80</v>
@@ -6573,7 +6620,7 @@
         <v>18</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="D155" s="28" t="s">
         <v>109</v>
@@ -6600,10 +6647,10 @@
         <v>18</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E156" s="29">
         <v>2</v>
@@ -6841,7 +6888,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="98"/>
@@ -6893,10 +6940,10 @@
         <v>15</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E171" s="29">
         <v>5</v>
@@ -6923,7 +6970,7 @@
         <v>132</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E172" s="29">
         <v>1</v>
@@ -6964,7 +7011,7 @@
         <v>17</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>19</v>
@@ -6973,7 +7020,7 @@
         <v>5</v>
       </c>
       <c r="F174" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="87"/>
       <c r="H174" s="95"/>
@@ -6991,10 +7038,10 @@
         <v>17</v>
       </c>
       <c r="C175" s="102" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D175" s="102" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E175" s="103">
         <v>1</v>
@@ -7003,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="95" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H175" s="95">
         <v>45519</v>
@@ -7022,13 +7069,13 @@
         <v>17</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F176" s="30">
         <v>0</v>
@@ -7051,10 +7098,10 @@
         <v>17</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E177" s="29">
         <v>1</v>
@@ -7095,7 +7142,7 @@
         <v>18</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>64</v>
@@ -7104,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="87"/>
       <c r="H179" s="95"/>
@@ -7122,10 +7169,10 @@
         <v>18</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E180" s="29">
         <v>22</v>
@@ -7149,10 +7196,10 @@
         <v>18</v>
       </c>
       <c r="C181" s="102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D181" s="102" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E181" s="103">
         <v>15</v>
@@ -7161,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="95" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H181" s="95">
         <v>45519</v>
@@ -7180,13 +7227,13 @@
         <v>18</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F182" s="30">
         <v>1</v>
@@ -7209,7 +7256,7 @@
         <v>18</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D183" s="28" t="s">
         <v>74</v>
@@ -7236,7 +7283,7 @@
         <v>18</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D184" s="28" t="s">
         <v>116</v>
@@ -7336,7 +7383,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="96"/>
@@ -7454,13 +7501,13 @@
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="12" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E195" s="14">
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -7512,10 +7559,10 @@
         <v>15</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E198" s="29">
         <v>1</v>
@@ -7539,7 +7586,7 @@
         <v>15</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D199" s="28" t="s">
         <v>107</v>
@@ -7583,7 +7630,7 @@
         <v>17</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>26</v>
@@ -7610,7 +7657,7 @@
         <v>17</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>19</v>
@@ -7637,7 +7684,7 @@
         <v>17</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D203" s="28" t="s">
         <v>24</v>
@@ -7698,10 +7745,10 @@
         <v>18</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -7725,10 +7772,10 @@
         <v>18</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
@@ -7752,16 +7799,16 @@
         <v>18</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
       </c>
       <c r="F208" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" s="87"/>
       <c r="H208" s="94"/>
@@ -7779,7 +7826,7 @@
         <v>18</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>24</v>
@@ -7806,7 +7853,7 @@
         <v>18</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>19</v>
@@ -8041,13 +8088,13 @@
       </c>
       <c r="C222" s="110"/>
       <c r="D222" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E222" s="14">
         <v>6</v>
       </c>
       <c r="F222" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G222" s="84"/>
       <c r="H222" s="98"/>
@@ -8099,7 +8146,7 @@
         <v>15</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>115</v>
@@ -8126,7 +8173,7 @@
         <v>15</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D226" s="28" t="s">
         <v>106</v>
@@ -8170,7 +8217,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>19</v>
@@ -8197,7 +8244,7 @@
         <v>17</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D229" s="28" t="s">
         <v>39</v>
@@ -8224,7 +8271,7 @@
         <v>17</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D230" s="28" t="s">
         <v>90</v>
@@ -8233,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" s="91"/>
       <c r="H230" s="95"/>
@@ -8281,23 +8328,27 @@
     </row>
     <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="83"/>
-      <c r="B233" s="28" t="s">
+      <c r="B233" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E233" s="29">
+      <c r="C233" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D233" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="E233" s="103">
         <v>5</v>
       </c>
-      <c r="F233" s="30">
+      <c r="F233" s="104">
         <v>0</v>
       </c>
-      <c r="G233" s="91"/>
-      <c r="H233" s="94"/>
+      <c r="G233" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="H233" s="95">
+        <v>45519</v>
+      </c>
       <c r="I233" s="93"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -8312,18 +8363,20 @@
         <v>18</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E234" s="29">
-        <v>16</v>
+        <v>288</v>
+      </c>
+      <c r="E234" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="F234" s="30">
         <v>0</v>
       </c>
-      <c r="G234" s="91"/>
+      <c r="G234" s="95">
+        <v>45519</v>
+      </c>
       <c r="H234" s="94"/>
       <c r="I234" s="93"/>
       <c r="J234" s="1"/>
@@ -8339,13 +8392,13 @@
         <v>18</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E235" s="29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F235" s="30">
         <v>0</v>
@@ -8366,13 +8419,13 @@
         <v>18</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="E236" s="29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F236" s="30">
         <v>0</v>
@@ -8393,16 +8446,16 @@
         <v>18</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E237" s="29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F237" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" s="91"/>
       <c r="H237" s="95"/>
@@ -8416,13 +8469,27 @@
     </row>
     <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="83"/>
-      <c r="B238" s="102"/>
-      <c r="C238" s="102"/>
-      <c r="D238" s="102"/>
-      <c r="E238" s="103"/>
-      <c r="F238" s="104"/>
-      <c r="G238" s="91"/>
-      <c r="H238" s="95"/>
+      <c r="B238" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C238" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D238" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="E238" s="103">
+        <v>1</v>
+      </c>
+      <c r="F238" s="104">
+        <v>0</v>
+      </c>
+      <c r="G238" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="H238" s="95">
+        <v>45526</v>
+      </c>
       <c r="I238" s="93"/>
       <c r="J238" s="80"/>
       <c r="K238" s="1"/>
@@ -8433,12 +8500,24 @@
     </row>
     <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="83"/>
-      <c r="B239" s="28"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="28"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="30"/>
-      <c r="G239" s="91"/>
+      <c r="B239" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D239" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E239" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F239" s="30">
+        <v>1</v>
+      </c>
+      <c r="G239" s="91">
+        <v>45526</v>
+      </c>
       <c r="H239" s="95"/>
       <c r="I239" s="93"/>
       <c r="J239" s="80"/>
@@ -8510,7 +8589,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="96"/>
@@ -8626,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="98"/>
@@ -8678,10 +8757,10 @@
         <v>15</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E252" s="29">
         <v>6</v>
@@ -8714,7 +8793,7 @@
         <v>3</v>
       </c>
       <c r="F253" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="91"/>
       <c r="H253" s="94"/>
@@ -8776,7 +8855,7 @@
         <v>17</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>43</v>
@@ -8785,7 +8864,7 @@
         <v>7</v>
       </c>
       <c r="F256" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" s="95"/>
       <c r="H256" s="95"/>
@@ -8803,7 +8882,7 @@
         <v>17</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>83</v>
@@ -8900,7 +8979,7 @@
         <v>19</v>
       </c>
       <c r="F261" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G261" s="91"/>
       <c r="H261" s="95"/>
@@ -8918,7 +8997,7 @@
         <v>18</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D262" s="28" t="s">
         <v>26</v>
@@ -8945,7 +9024,7 @@
         <v>18</v>
       </c>
       <c r="C263" s="102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D263" s="102" t="s">
         <v>90</v>
@@ -8957,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="87" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H263" s="95">
         <v>45519</v>
@@ -8976,16 +9055,16 @@
         <v>18</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F264" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="91">
         <v>45519</v>
@@ -9005,7 +9084,7 @@
         <v>18</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>88</v>
@@ -9105,7 +9184,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="96"/>
@@ -9155,10 +9234,10 @@
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="1"/>
@@ -9223,13 +9302,13 @@
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E276" s="40">
         <v>1</v>
       </c>
       <c r="F276" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="96"/>
@@ -9281,7 +9360,7 @@
         <v>15</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D279" s="21" t="s">
         <v>26</v>
@@ -9290,7 +9369,7 @@
         <v>4</v>
       </c>
       <c r="F279" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G279" s="87"/>
       <c r="H279" s="94"/>
@@ -9308,7 +9387,7 @@
         <v>15</v>
       </c>
       <c r="C280" s="105" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D280" s="105" t="s">
         <v>24</v>
@@ -9320,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="87" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H280" s="95">
         <v>45526</v>
@@ -9339,13 +9418,13 @@
         <v>15</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F281" s="30">
         <v>0</v>
@@ -9368,16 +9447,16 @@
         <v>17</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E282" s="22">
         <v>8</v>
       </c>
       <c r="F282" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G282" s="87"/>
       <c r="H282" s="95"/>
@@ -9431,7 +9510,7 @@
         <v>6</v>
       </c>
       <c r="F284" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="91"/>
       <c r="H284" s="95"/>
@@ -9483,10 +9562,10 @@
         <v>18</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E287" s="22">
         <v>36</v>
@@ -9510,7 +9589,7 @@
         <v>18</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D288" s="21" t="s">
         <v>106</v>
@@ -9537,7 +9616,7 @@
         <v>18</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D289" s="21" t="s">
         <v>20</v>
@@ -9546,7 +9625,7 @@
         <v>6</v>
       </c>
       <c r="F289" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="91"/>
       <c r="H289" s="95"/>
@@ -9567,7 +9646,7 @@
         <v>108</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E290" s="22">
         <v>9</v>
@@ -9591,7 +9670,7 @@
         <v>18</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="D291" s="21" t="s">
         <v>130</v>
@@ -9708,7 +9787,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -9761,7 +9840,7 @@
         <v>89</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="1"/>
@@ -9884,10 +9963,10 @@
         <v>15</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E306" s="22">
         <v>2</v>
@@ -9911,7 +9990,7 @@
         <v>15</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="D307" s="21" t="s">
         <v>19</v>
@@ -9955,7 +10034,7 @@
         <v>17</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D309" s="21" t="s">
         <v>122</v>
@@ -9964,7 +10043,7 @@
         <v>5</v>
       </c>
       <c r="F309" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G309" s="91"/>
       <c r="H309" s="95"/>
@@ -10009,19 +10088,19 @@
         <v>17</v>
       </c>
       <c r="C311" s="105" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D311" s="105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E311" s="106" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F311" s="104">
         <v>0</v>
       </c>
       <c r="G311" s="87" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H311" s="95">
         <v>45526</v>
@@ -10040,7 +10119,7 @@
         <v>17</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D312" s="21" t="s">
         <v>26</v>
@@ -10086,10 +10165,10 @@
         <v>18</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E314" s="22">
         <v>20</v>
@@ -10113,7 +10192,7 @@
         <v>18</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D315" s="21" t="s">
         <v>107</v>
@@ -10170,7 +10249,7 @@
         <v>104</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E317" s="22">
         <v>45</v>
@@ -10194,10 +10273,10 @@
         <v>18</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E318" s="22">
         <v>4</v>
@@ -10311,7 +10390,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -10487,10 +10566,10 @@
         <v>15</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E333" s="22">
         <v>1</v>
@@ -10514,7 +10593,7 @@
         <v>15</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>109</v>
@@ -10558,10 +10637,10 @@
         <v>17</v>
       </c>
       <c r="C336" s="105" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D336" s="105" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E336" s="106">
         <v>1</v>
@@ -10570,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="91" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H336" s="95">
         <v>45519</v>
@@ -10589,13 +10668,13 @@
         <v>17</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>109</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F337" s="30">
         <v>1</v>
@@ -10618,7 +10697,7 @@
         <v>17</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>107</v>
@@ -10645,10 +10724,10 @@
         <v>17</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E339" s="22">
         <v>1</v>
@@ -10686,10 +10765,10 @@
         <v>18</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E341" s="22">
         <v>1</v>
@@ -10710,10 +10789,10 @@
         <v>18</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E342" s="22">
         <v>1</v>
@@ -10734,7 +10813,7 @@
         <v>18</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D343" s="21" t="s">
         <v>80</v>
@@ -10743,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="F343" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="95"/>
@@ -10758,16 +10837,16 @@
         <v>18</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E344" s="22">
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G344" s="91"/>
       <c r="H344" s="95"/>
@@ -10782,7 +10861,7 @@
         <v>18</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D345" s="21" t="s">
         <v>66</v>
@@ -10881,7 +10960,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -10997,7 +11076,7 @@
         <v>15</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D360" s="21" t="s">
         <v>19</v>
@@ -11018,7 +11097,7 @@
         <v>15</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D361" s="21" t="s">
         <v>64</v>
@@ -11050,7 +11129,7 @@
         <v>17</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>39</v>
@@ -11059,7 +11138,7 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -11071,7 +11150,7 @@
         <v>17</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>101</v>
@@ -11080,7 +11159,7 @@
         <v>7</v>
       </c>
       <c r="F364" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="114"/>
@@ -11092,7 +11171,7 @@
         <v>17</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D365" s="21" t="s">
         <v>118</v>
@@ -11135,7 +11214,7 @@
         <v>18</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="D368" s="21" t="s">
         <v>113</v>
@@ -11156,7 +11235,7 @@
         <v>18</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D369" s="21" t="s">
         <v>105</v>
@@ -11177,7 +11256,7 @@
         <v>18</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>34</v>
@@ -11207,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
@@ -11219,7 +11298,7 @@
         <v>18</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D372" s="21" t="s">
         <v>118</v>
@@ -11300,7 +11379,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -11310,10 +11389,10 @@
     <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
@@ -11577,8 +11656,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11642,7 +11721,7 @@
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -11702,13 +11781,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -11727,10 +11806,10 @@
         <v>76</v>
       </c>
       <c r="E8" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -11746,19 +11825,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E9" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9" s="27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
@@ -11771,19 +11850,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E10" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -11793,22 +11872,22 @@
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E11" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="26">
         <v>3</v>
       </c>
       <c r="G11" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -11821,19 +11900,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="E12" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -11846,19 +11925,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="E13" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -11871,19 +11950,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>1</v>
       </c>
       <c r="E14" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="59">
+        <v>5</v>
+      </c>
+      <c r="G14" s="60">
         <v>4</v>
-      </c>
-      <c r="G14" s="27">
-        <v>5</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -11896,16 +11975,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="E15" s="25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="60">
         <v>4</v>
@@ -11921,19 +12000,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E16" s="25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16" s="59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -11946,16 +12025,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E17" s="25">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="60">
         <v>6</v>
@@ -11971,19 +12050,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="E18" s="25">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G18" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
@@ -11993,19 +12072,19 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E19" s="25">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="27">
         <v>6</v>
@@ -12030,10 +12109,10 @@
         <v>-7</v>
       </c>
       <c r="F20" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
@@ -12099,7 +12178,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -12202,7 +12281,7 @@
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="65"/>
@@ -12353,7 +12432,7 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B26" s="74"/>
       <c r="C26" s="73"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8428A3-A43D-4A80-8354-6687F5DD1A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{F33179BC-2A4D-4AC3-B4B2-733A629BD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C3AEF3-CA26-427E-A675-5503084BADDA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="300">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -78,9 +78,6 @@
     <t>GOALKEEPER</t>
   </si>
   <si>
-    <t>SUNDERLAND</t>
-  </si>
-  <si>
     <t>DEFENDER</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
     <t>DEVANTE COLE</t>
   </si>
   <si>
+    <t>ALEKSANDER ISAK</t>
+  </si>
+  <si>
     <t>JAMES COLLINS</t>
   </si>
   <si>
@@ -489,6 +489,9 @@
     <t>JOSH SARGENT</t>
   </si>
   <si>
+    <t>MACAULEY LANGSTAFF</t>
+  </si>
+  <si>
     <t>CREWE</t>
   </si>
   <si>
@@ -513,6 +516,9 @@
     <t>SAMMIE SZMODICS</t>
   </si>
   <si>
+    <t>BLACKBURN</t>
+  </si>
+  <si>
     <t>MICHAEL MELLON</t>
   </si>
   <si>
@@ -543,9 +549,6 @@
     <t>DOMINIC SOLANKE</t>
   </si>
   <si>
-    <t>BOURNEMOUTH</t>
-  </si>
-  <si>
     <t>Replays</t>
   </si>
   <si>
@@ -621,6 +624,9 @@
     <t>BIRMINGHAM</t>
   </si>
   <si>
+    <t>DANILI ORSI</t>
+  </si>
+  <si>
     <t>Dream League Cup 2025</t>
   </si>
   <si>
@@ -660,6 +666,9 @@
     <t>CARDIFF</t>
   </si>
   <si>
+    <t>ELLIOTT LEE</t>
+  </si>
+  <si>
     <t>CHRIS CONN-CLARK</t>
   </si>
   <si>
@@ -672,9 +681,6 @@
     <t>DAVIS KEILLOR DUNN</t>
   </si>
   <si>
-    <t>RICKY JADE-JONES</t>
-  </si>
-  <si>
     <t>CARLTON MORRIS</t>
   </si>
   <si>
@@ -696,6 +702,9 @@
     <t>BERNARDO SILVA</t>
   </si>
   <si>
+    <t>KEIFFER MOORE</t>
+  </si>
+  <si>
     <t>TOMMY CONWAY</t>
   </si>
   <si>
@@ -705,6 +714,9 @@
     <t>TIMOTHEE DIENG</t>
   </si>
   <si>
+    <t>BUKAYA SAKA</t>
+  </si>
+  <si>
     <t>RETIRED</t>
   </si>
   <si>
@@ -729,15 +741,18 @@
     <t>JOSKO GVARDIOL</t>
   </si>
   <si>
-    <t>NEWCATLE</t>
-  </si>
-  <si>
     <t>ELLIOTT NEVITT</t>
   </si>
   <si>
     <t>MANCHESTER UNTIED</t>
   </si>
   <si>
+    <t>JOE HUGHILL</t>
+  </si>
+  <si>
+    <t>GABRIEL MAGAELHAES</t>
+  </si>
+  <si>
     <t>DAN CROWLEY</t>
   </si>
   <si>
@@ -828,6 +843,9 @@
     <t>RODRIGO GOMES</t>
   </si>
   <si>
+    <t>MIHCAEL CHEEK</t>
+  </si>
+  <si>
     <t>BROMLEY</t>
   </si>
   <si>
@@ -840,6 +858,9 @@
     <t>LOUIE BARRY</t>
   </si>
   <si>
+    <t>STRAND LARSEN</t>
+  </si>
+  <si>
     <t>NICLAS FULLKRUG</t>
   </si>
   <si>
@@ -900,9 +921,6 @@
     <t>MAKHTAR GUEYE</t>
   </si>
   <si>
-    <t>BLAKCBURN</t>
-  </si>
-  <si>
     <t>ALASSANA JATTA</t>
   </si>
   <si>
@@ -915,34 +933,7 @@
     <t>NONI MADUEKE</t>
   </si>
   <si>
-    <t>JORGEN STRAND LARSEN</t>
-  </si>
-  <si>
-    <t>BUKAYO SAKA</t>
-  </si>
-  <si>
-    <t>MACAULAY LANGSTAFF</t>
-  </si>
-  <si>
-    <t>DANILO ORSI</t>
-  </si>
-  <si>
-    <t>ALEXANDER ISAK</t>
-  </si>
-  <si>
-    <t>GABRIEL MAGALHAES</t>
-  </si>
-  <si>
-    <t>ELLIOT LEE</t>
-  </si>
-  <si>
-    <t>KIEFFER MOORE</t>
-  </si>
-  <si>
-    <t>JOE HUGILL</t>
-  </si>
-  <si>
-    <t>MICHAEL CHEEK</t>
+    <t>RICKY-JADE JONES</t>
   </si>
 </sst>
 </file>
@@ -2879,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3012,13 +3003,13 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="14">
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="88"/>
@@ -3034,15 +3025,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="112"/>
       <c r="T5" s="111"/>
@@ -3069,15 +3060,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S6" s="112"/>
       <c r="T6" s="111"/>
@@ -3104,11 +3095,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3121,13 +3112,13 @@
     <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
@@ -3144,11 +3135,11 @@
         <v>SEAN HELSBY</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
@@ -3156,19 +3147,19 @@
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
       <c r="B9" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
@@ -3190,15 +3181,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3222,15 +3213,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" s="116"/>
       <c r="S10" s="116"/>
@@ -3241,13 +3232,13 @@
     <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83"/>
       <c r="B11" s="102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="103">
         <v>5</v>
@@ -3256,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H11" s="88">
         <v>45533</v>
@@ -3273,15 +3264,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" s="112"/>
       <c r="T11" s="111"/>
@@ -3290,16 +3281,16 @@
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83"/>
       <c r="B12" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F12" s="30">
         <v>0</v>
@@ -3320,27 +3311,27 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83"/>
       <c r="B13" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
@@ -3362,11 +3353,11 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
@@ -3381,13 +3372,13 @@
     <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83"/>
       <c r="B14" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="29">
         <v>2</v>
@@ -3409,7 +3400,7 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
@@ -3417,7 +3408,7 @@
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S14" s="112"/>
       <c r="T14" s="111"/>
@@ -3444,33 +3435,33 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="83"/>
       <c r="B16" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E16" s="29">
         <v>53</v>
       </c>
       <c r="F16" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -3486,33 +3477,33 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="B17" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="29">
         <v>11</v>
       </c>
       <c r="F17" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="88"/>
@@ -3528,11 +3519,11 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
@@ -3547,13 +3538,13 @@
     <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
       <c r="B18" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="103">
         <v>10</v>
@@ -3562,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H18" s="88">
         <v>45526</v>
@@ -3583,11 +3574,11 @@
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S18" s="112"/>
       <c r="T18" s="111"/>
@@ -3596,16 +3587,16 @@
     <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="B19" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F19" s="30">
         <v>0</v>
@@ -3625,13 +3616,13 @@
     <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="83"/>
       <c r="B20" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E20" s="29">
         <v>14</v>
@@ -3657,13 +3648,13 @@
     <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="83"/>
       <c r="B21" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -3771,7 +3762,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="96"/>
@@ -3826,10 +3817,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
@@ -3894,13 +3885,13 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32" s="84"/>
       <c r="H32" s="98"/>
@@ -3949,13 +3940,13 @@
     <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="83"/>
       <c r="B35" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -3976,13 +3967,13 @@
     <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83"/>
       <c r="B36" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
@@ -4020,19 +4011,19 @@
     <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83"/>
       <c r="B38" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="29">
         <v>12</v>
       </c>
       <c r="F38" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="87"/>
       <c r="H38" s="95"/>
@@ -4052,10 +4043,10 @@
     <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83"/>
       <c r="B39" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>138</v>
@@ -4079,13 +4070,13 @@
     <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="83"/>
       <c r="B40" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="29">
         <v>3</v>
@@ -4140,19 +4131,19 @@
     <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="83"/>
       <c r="B43" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="29">
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
@@ -4167,13 +4158,13 @@
     <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="83"/>
       <c r="B44" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -4194,19 +4185,19 @@
     <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83"/>
       <c r="B45" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" s="29">
         <v>11</v>
       </c>
       <c r="F45" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="91"/>
       <c r="H45" s="95"/>
@@ -4221,19 +4212,19 @@
     <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83"/>
       <c r="B46" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
       </c>
       <c r="F46" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="95"/>
       <c r="H46" s="95"/>
@@ -4247,23 +4238,27 @@
     </row>
     <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83"/>
-      <c r="B47" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="29">
+      <c r="B47" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="103">
         <v>1</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="104">
         <v>0</v>
       </c>
-      <c r="G47" s="91"/>
-      <c r="H47" s="95"/>
+      <c r="G47" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="95">
+        <v>45540</v>
+      </c>
       <c r="I47" s="93"/>
       <c r="J47" s="80"/>
       <c r="K47" s="1"/>
@@ -4274,12 +4269,24 @@
     </row>
     <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="83"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="95"/>
+      <c r="B48" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="30">
+        <v>0</v>
+      </c>
+      <c r="G48" s="95">
+        <v>45540</v>
+      </c>
       <c r="H48" s="95"/>
       <c r="I48" s="93"/>
       <c r="J48" s="80"/>
@@ -4368,7 +4375,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="96"/>
@@ -4418,10 +4425,10 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
@@ -4486,7 +4493,7 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="14">
         <v>6</v>
@@ -4541,13 +4548,13 @@
     <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
       <c r="B62" s="102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="102" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E62" s="103">
         <v>1</v>
@@ -4556,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="87" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H62" s="95">
         <v>45533</v>
@@ -4572,16 +4579,16 @@
     <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
       <c r="B63" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F63" s="30">
         <v>0</v>
@@ -4601,13 +4608,13 @@
     <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
       <c r="B64" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E64" s="29">
         <v>1</v>
@@ -4628,13 +4635,13 @@
     <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="83"/>
       <c r="B65" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="29">
         <v>26</v>
@@ -4655,13 +4662,13 @@
     <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="83"/>
       <c r="B66" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="29">
         <v>5</v>
@@ -4682,19 +4689,19 @@
     <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="83"/>
       <c r="B67" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="29">
         <v>7</v>
       </c>
       <c r="F67" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="91"/>
       <c r="H67" s="95"/>
@@ -4743,10 +4750,10 @@
     <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="83"/>
       <c r="B70" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>138</v>
@@ -4770,13 +4777,13 @@
     <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="83"/>
       <c r="B71" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E71" s="29">
         <v>9</v>
@@ -4797,13 +4804,13 @@
     <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="83"/>
       <c r="B72" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -4824,13 +4831,13 @@
     <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83"/>
       <c r="B73" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E73" s="29">
         <v>6</v>
@@ -4851,10 +4858,10 @@
     <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>137</v>
@@ -4863,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" s="87"/>
       <c r="H74" s="95"/>
@@ -4971,7 +4978,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G80" s="84"/>
       <c r="H80" s="96"/>
@@ -5021,10 +5028,10 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
@@ -5089,13 +5096,13 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E86" s="14">
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" s="84"/>
       <c r="H86" s="98"/>
@@ -5144,13 +5151,13 @@
     <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="83"/>
       <c r="B89" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E89" s="29">
         <v>5</v>
@@ -5171,13 +5178,13 @@
     <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="83"/>
       <c r="B90" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E90" s="29">
         <v>2</v>
@@ -5215,13 +5222,13 @@
     <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="83"/>
       <c r="B92" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E92" s="29">
         <v>7</v>
@@ -5242,13 +5249,13 @@
     <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="83"/>
       <c r="B93" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E93" s="29">
         <v>4</v>
@@ -5269,13 +5276,13 @@
     <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="83"/>
       <c r="B94" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" s="29">
         <v>1</v>
@@ -5330,13 +5337,13 @@
     <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="83"/>
       <c r="B97" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E97" s="29">
         <v>5</v>
@@ -5357,13 +5364,13 @@
     <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="83"/>
       <c r="B98" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E98" s="29">
         <v>31</v>
@@ -5384,13 +5391,13 @@
     <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="83"/>
       <c r="B99" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" s="102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D99" s="102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E99" s="103">
         <v>6</v>
@@ -5399,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="91" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H99" s="95">
         <v>45526</v>
@@ -5415,16 +5422,16 @@
     <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="83"/>
       <c r="B100" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F100" s="30">
         <v>0</v>
@@ -5444,13 +5451,13 @@
     <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101" s="29">
         <v>10</v>
@@ -5471,13 +5478,13 @@
     <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="83"/>
       <c r="B102" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E102" s="29">
         <v>15</v>
@@ -5574,7 +5581,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -5624,10 +5631,10 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
@@ -5692,13 +5699,13 @@
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G113" s="84"/>
       <c r="H113" s="98"/>
@@ -5747,13 +5754,13 @@
     <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="83"/>
       <c r="B116" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
@@ -5774,13 +5781,13 @@
     <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="83"/>
       <c r="B117" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E117" s="29">
         <v>6</v>
@@ -5818,10 +5825,10 @@
     <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="83"/>
       <c r="B119" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D119" s="28" t="s">
         <v>149</v>
@@ -5845,19 +5852,19 @@
     <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="83"/>
       <c r="B120" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" s="29">
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="91"/>
       <c r="H120" s="95"/>
@@ -5872,13 +5879,13 @@
     <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="83"/>
       <c r="B121" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
@@ -5933,13 +5940,13 @@
     <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="83"/>
       <c r="B124" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E124" s="29">
         <v>21</v>
@@ -5960,13 +5967,13 @@
     <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="83"/>
       <c r="B125" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
         <v>150</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="29">
         <v>6</v>
@@ -5987,13 +5994,13 @@
     <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="83"/>
       <c r="B126" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E126" s="29">
         <v>29</v>
@@ -6014,13 +6021,13 @@
     <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="83"/>
       <c r="B127" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E127" s="29">
         <v>1</v>
@@ -6041,19 +6048,19 @@
     <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="83"/>
       <c r="B128" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
       </c>
       <c r="F128" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="91"/>
       <c r="H128" s="95"/>
@@ -6178,7 +6185,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="96"/>
@@ -6228,10 +6235,10 @@
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="1"/>
@@ -6296,13 +6303,13 @@
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E141" s="14">
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141" s="84"/>
       <c r="H141" s="98"/>
@@ -6351,13 +6358,13 @@
     <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="83"/>
       <c r="B144" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E144" s="29">
         <v>3</v>
@@ -6378,13 +6385,13 @@
     <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="83"/>
       <c r="B145" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E145" s="29">
         <v>1</v>
@@ -6422,13 +6429,13 @@
     <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="83"/>
       <c r="B147" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E147" s="29">
         <v>25</v>
@@ -6449,13 +6456,13 @@
     <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="83"/>
       <c r="B148" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E148" s="29">
         <v>8</v>
@@ -6475,13 +6482,13 @@
     <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="83"/>
       <c r="B149" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E149" s="29">
         <v>1</v>
@@ -6536,13 +6543,13 @@
     <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="83"/>
       <c r="B152" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E152" s="29">
         <v>21</v>
@@ -6563,19 +6570,19 @@
     <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="83"/>
       <c r="B153" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E153" s="29">
         <v>25</v>
       </c>
       <c r="F153" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" s="87"/>
       <c r="H153" s="95"/>
@@ -6590,13 +6597,13 @@
     <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="83"/>
       <c r="B154" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E154" s="29">
         <v>1</v>
@@ -6617,19 +6624,19 @@
     <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="83"/>
       <c r="B155" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E155" s="29">
         <v>9</v>
       </c>
       <c r="F155" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="91"/>
       <c r="H155" s="94"/>
@@ -6644,10 +6651,10 @@
     <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="83"/>
       <c r="B156" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D156" s="28" t="s">
         <v>149</v>
@@ -6764,7 +6771,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162" s="84"/>
       <c r="H162" s="96"/>
@@ -6814,10 +6821,10 @@
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="1"/>
@@ -6882,13 +6889,13 @@
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E168" s="14">
         <v>8</v>
       </c>
       <c r="F168" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="98"/>
@@ -6937,19 +6944,19 @@
     <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="83"/>
       <c r="B171" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E171" s="29">
         <v>5</v>
       </c>
       <c r="F171" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G171" s="87"/>
       <c r="H171" s="95"/>
@@ -6964,13 +6971,13 @@
     <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="83"/>
       <c r="B172" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E172" s="29">
         <v>1</v>
@@ -7008,13 +7015,13 @@
     <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="83"/>
       <c r="B174" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E174" s="29">
         <v>5</v>
@@ -7035,13 +7042,13 @@
     <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="83"/>
       <c r="B175" s="102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D175" s="102" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E175" s="103">
         <v>1</v>
@@ -7050,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="95" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H175" s="95">
         <v>45519</v>
@@ -7066,16 +7073,16 @@
     <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="83"/>
       <c r="B176" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E176" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="D176" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>277</v>
       </c>
       <c r="F176" s="30">
         <v>0</v>
@@ -7095,13 +7102,13 @@
     <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="83"/>
       <c r="B177" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E177" s="29">
         <v>1</v>
@@ -7139,19 +7146,19 @@
     <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="83"/>
       <c r="B179" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E179" s="29">
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179" s="87"/>
       <c r="H179" s="95"/>
@@ -7166,10 +7173,10 @@
     <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="83"/>
       <c r="B180" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>138</v>
@@ -7193,13 +7200,13 @@
     <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="83"/>
       <c r="B181" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C181" s="102" t="s">
         <v>139</v>
       </c>
       <c r="D181" s="102" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E181" s="103">
         <v>15</v>
@@ -7208,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="95" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H181" s="95">
         <v>45519</v>
@@ -7224,19 +7231,19 @@
     <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="83"/>
       <c r="B182" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F182" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" s="95">
         <v>45519</v>
@@ -7253,13 +7260,13 @@
     <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="83"/>
       <c r="B183" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E183" s="29">
         <v>35</v>
@@ -7280,19 +7287,19 @@
     <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="83"/>
       <c r="B184" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E184" s="29">
         <v>2</v>
       </c>
       <c r="F184" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="95"/>
       <c r="H184" s="91"/>
@@ -7383,7 +7390,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G189" s="84"/>
       <c r="H189" s="96"/>
@@ -7433,10 +7440,10 @@
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="1"/>
@@ -7501,13 +7508,13 @@
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E195" s="14">
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -7556,13 +7563,13 @@
     <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="83"/>
       <c r="B198" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E198" s="29">
         <v>1</v>
@@ -7583,13 +7590,13 @@
     <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="83"/>
       <c r="B199" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E199" s="29">
         <v>1</v>
@@ -7627,13 +7634,13 @@
     <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="83"/>
       <c r="B201" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201" s="29">
         <v>1</v>
@@ -7654,13 +7661,13 @@
     <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="83"/>
       <c r="B202" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202" s="29">
         <v>1</v>
@@ -7681,13 +7688,13 @@
     <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="83"/>
       <c r="B203" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E203" s="29">
         <v>1</v>
@@ -7742,13 +7749,13 @@
     <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="83"/>
       <c r="B206" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -7769,19 +7776,19 @@
     <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="83"/>
       <c r="B207" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" s="91"/>
       <c r="H207" s="94"/>
@@ -7796,13 +7803,13 @@
     <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="83"/>
       <c r="B208" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -7823,13 +7830,13 @@
     <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="83"/>
       <c r="B209" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E209" s="29">
         <v>1</v>
@@ -7850,13 +7857,13 @@
     <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="83"/>
       <c r="B210" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D210" s="28" t="s">
         <v>18</v>
-      </c>
-      <c r="C210" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>19</v>
       </c>
       <c r="E210" s="29">
         <v>1</v>
@@ -7970,7 +7977,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="96"/>
@@ -8020,10 +8027,10 @@
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="1"/>
@@ -8088,7 +8095,7 @@
       </c>
       <c r="C222" s="110"/>
       <c r="D222" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E222" s="14">
         <v>6</v>
@@ -8143,13 +8150,13 @@
     <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="83"/>
       <c r="B225" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E225" s="29">
         <v>4</v>
@@ -8170,13 +8177,13 @@
     <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="83"/>
       <c r="B226" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E226" s="29">
         <v>1</v>
@@ -8214,13 +8221,13 @@
     <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="83"/>
       <c r="B228" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E228" s="29">
         <v>21</v>
@@ -8241,13 +8248,13 @@
     <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="83"/>
       <c r="B229" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E229" s="29">
         <v>12</v>
@@ -8268,13 +8275,13 @@
     <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="83"/>
       <c r="B230" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E230" s="29">
         <v>1</v>
@@ -8329,13 +8336,13 @@
     <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="83"/>
       <c r="B233" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C233" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D233" s="102" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E233" s="103">
         <v>5</v>
@@ -8344,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="91" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H233" s="95">
         <v>45519</v>
@@ -8360,21 +8367,21 @@
     <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="83"/>
       <c r="B234" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="E234" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F234" s="30">
-        <v>0</v>
-      </c>
-      <c r="G234" s="95">
+        <v>1</v>
+      </c>
+      <c r="G234" s="91">
         <v>45519</v>
       </c>
       <c r="H234" s="94"/>
@@ -8389,13 +8396,13 @@
     <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="83"/>
       <c r="B235" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="E235" s="29">
         <v>16</v>
@@ -8416,13 +8423,13 @@
     <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="83"/>
       <c r="B236" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C236" s="28" t="s">
         <v>146</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E236" s="29">
         <v>15</v>
@@ -8443,13 +8450,13 @@
     <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="83"/>
       <c r="B237" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E237" s="29">
         <v>8</v>
@@ -8470,13 +8477,13 @@
     <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="83"/>
       <c r="B238" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C238" s="102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D238" s="102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E238" s="103">
         <v>1</v>
@@ -8485,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="91" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H238" s="95">
         <v>45526</v>
@@ -8501,16 +8508,16 @@
     <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="83"/>
       <c r="B239" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C239" s="28" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E239" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F239" s="30">
         <v>1</v>
@@ -8589,7 +8596,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="96"/>
@@ -8639,10 +8646,10 @@
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="1"/>
@@ -8699,13 +8706,13 @@
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E249" s="14">
         <v>1</v>
       </c>
       <c r="F249" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="98"/>
@@ -8754,13 +8761,13 @@
     <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="83"/>
       <c r="B252" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E252" s="29">
         <v>6</v>
@@ -8781,13 +8788,13 @@
     <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="83"/>
       <c r="B253" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E253" s="29">
         <v>3</v>
@@ -8825,13 +8832,13 @@
     <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="83"/>
       <c r="B255" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="E255" s="29">
         <v>3</v>
@@ -8852,13 +8859,13 @@
     <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="83"/>
       <c r="B256" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E256" s="29">
         <v>7</v>
@@ -8879,13 +8886,13 @@
     <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="83"/>
       <c r="B257" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E257" s="29">
         <v>3</v>
@@ -8940,13 +8947,13 @@
     <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="83"/>
       <c r="B260" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E260" s="29">
         <v>49</v>
@@ -8967,13 +8974,13 @@
     <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="83"/>
       <c r="B261" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E261" s="29">
         <v>19</v>
@@ -8994,13 +9001,13 @@
     <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="83"/>
       <c r="B262" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E262" s="29">
         <v>1</v>
@@ -9021,13 +9028,13 @@
     <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="83"/>
       <c r="B263" s="102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C263" s="102" t="s">
         <v>144</v>
       </c>
       <c r="D263" s="102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E263" s="103">
         <v>1</v>
@@ -9036,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="87" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H263" s="95">
         <v>45519</v>
@@ -9052,16 +9059,16 @@
     <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="83"/>
       <c r="B264" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F264" s="30">
         <v>1</v>
@@ -9081,13 +9088,13 @@
     <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="83"/>
       <c r="B265" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
         <v>135</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E265" s="29">
         <v>1</v>
@@ -9184,7 +9191,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G270" s="84"/>
       <c r="H270" s="96"/>
@@ -9234,10 +9241,10 @@
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="1"/>
@@ -9302,13 +9309,13 @@
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E276" s="40">
         <v>1</v>
       </c>
       <c r="F276" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G276" s="84"/>
       <c r="H276" s="96"/>
@@ -9357,13 +9364,13 @@
     <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="83"/>
       <c r="B279" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E279" s="22">
         <v>4</v>
@@ -9384,13 +9391,13 @@
     <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="83"/>
       <c r="B280" s="102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C280" s="105" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D280" s="105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E280" s="106">
         <v>4</v>
@@ -9399,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="87" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H280" s="95">
         <v>45526</v>
@@ -9415,16 +9422,16 @@
     <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="83"/>
       <c r="B281" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F281" s="30">
         <v>0</v>
@@ -9444,13 +9451,13 @@
     <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="83"/>
       <c r="B282" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E282" s="22">
         <v>8</v>
@@ -9471,13 +9478,13 @@
     <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="83"/>
       <c r="B283" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E283" s="22">
         <v>16</v>
@@ -9498,19 +9505,19 @@
     <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="83"/>
       <c r="B284" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E284" s="22">
         <v>6</v>
       </c>
       <c r="F284" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G284" s="91"/>
       <c r="H284" s="95"/>
@@ -9559,19 +9566,19 @@
     <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="83"/>
       <c r="B287" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="E287" s="22">
         <v>36</v>
       </c>
       <c r="F287" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G287" s="87"/>
       <c r="H287" s="95"/>
@@ -9586,13 +9593,13 @@
     <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="83"/>
       <c r="B288" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E288" s="22">
         <v>6</v>
@@ -9613,19 +9620,19 @@
     <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="83"/>
       <c r="B289" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>145</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E289" s="22">
         <v>6</v>
       </c>
       <c r="F289" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289" s="91"/>
       <c r="H289" s="95"/>
@@ -9640,13 +9647,13 @@
     <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="83"/>
       <c r="B290" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C290" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E290" s="22">
         <v>9</v>
@@ -9667,13 +9674,13 @@
     <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="83"/>
       <c r="B291" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E291" s="22">
         <v>1</v>
@@ -9787,7 +9794,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -9837,7 +9844,7 @@
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>148</v>
@@ -9905,13 +9912,13 @@
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E303" s="40">
         <v>8</v>
       </c>
       <c r="F303" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" s="84"/>
       <c r="H303" s="95"/>
@@ -9960,19 +9967,19 @@
     <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="83"/>
       <c r="B306" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E306" s="22">
         <v>2</v>
       </c>
       <c r="F306" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" s="87"/>
       <c r="H306" s="95"/>
@@ -9987,13 +9994,13 @@
     <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="83"/>
       <c r="B307" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E307" s="22">
         <v>6</v>
@@ -10031,13 +10038,13 @@
     <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="83"/>
       <c r="B309" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E309" s="22">
         <v>5</v>
@@ -10058,13 +10065,13 @@
     <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="83"/>
       <c r="B310" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E310" s="22">
         <v>1</v>
@@ -10085,22 +10092,22 @@
     <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="83"/>
       <c r="B311" s="102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C311" s="105" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D311" s="105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E311" s="106" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F311" s="104">
         <v>0</v>
       </c>
       <c r="G311" s="87" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H311" s="95">
         <v>45526</v>
@@ -10116,13 +10123,13 @@
     <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="83"/>
       <c r="B312" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E312" s="22">
         <v>1</v>
@@ -10162,13 +10169,13 @@
     <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="83"/>
       <c r="B314" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E314" s="22">
         <v>20</v>
@@ -10189,19 +10196,19 @@
     <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="83"/>
       <c r="B315" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E315" s="22">
         <v>7</v>
       </c>
       <c r="F315" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G315" s="91"/>
       <c r="H315" s="95"/>
@@ -10216,13 +10223,13 @@
     <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="83"/>
       <c r="B316" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C316" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E316" s="22">
         <v>1</v>
@@ -10243,19 +10250,19 @@
     <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="83"/>
       <c r="B317" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E317" s="22">
         <v>45</v>
       </c>
       <c r="F317" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317" s="91"/>
       <c r="H317" s="94"/>
@@ -10270,13 +10277,13 @@
     <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="83"/>
       <c r="B318" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E318" s="22">
         <v>4</v>
@@ -10390,7 +10397,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -10440,10 +10447,10 @@
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" s="1"/>
@@ -10508,7 +10515,7 @@
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E330" s="40">
         <v>1</v>
@@ -10563,13 +10570,13 @@
     <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="83"/>
       <c r="B333" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E333" s="22">
         <v>1</v>
@@ -10590,13 +10597,13 @@
     <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="83"/>
       <c r="B334" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E334" s="22">
         <v>1</v>
@@ -10634,13 +10641,13 @@
     <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="83"/>
       <c r="B336" s="102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C336" s="105" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D336" s="105" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E336" s="106">
         <v>1</v>
@@ -10649,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="91" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H336" s="95">
         <v>45519</v>
@@ -10665,16 +10672,16 @@
     <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="83"/>
       <c r="B337" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F337" s="30">
         <v>1</v>
@@ -10694,19 +10701,19 @@
     <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="83"/>
       <c r="B338" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E338" s="22">
         <v>1</v>
       </c>
       <c r="F338" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="91"/>
       <c r="H338" s="94"/>
@@ -10721,13 +10728,13 @@
     <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="83"/>
       <c r="B339" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E339" s="22">
         <v>1</v>
@@ -10762,13 +10769,13 @@
     <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="83"/>
       <c r="B341" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E341" s="22">
         <v>1</v>
@@ -10786,19 +10793,19 @@
     <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="83"/>
       <c r="B342" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E342" s="22">
         <v>1</v>
       </c>
       <c r="F342" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G342" s="87"/>
       <c r="H342" s="94"/>
@@ -10810,13 +10817,13 @@
     <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="83"/>
       <c r="B343" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E343" s="22">
         <v>1</v>
@@ -10834,13 +10841,13 @@
     <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="83"/>
       <c r="B344" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E344" s="22">
         <v>1</v>
@@ -10858,13 +10865,13 @@
     <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="83"/>
       <c r="B345" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E345" s="22">
         <v>1</v>
@@ -10960,7 +10967,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -10986,10 +10993,10 @@
     <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D354" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E354" s="2"/>
       <c r="F354" s="1"/>
@@ -11036,13 +11043,13 @@
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E357" s="40">
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -11073,13 +11080,13 @@
     </row>
     <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E360" s="22">
         <v>1</v>
@@ -11094,13 +11101,13 @@
     </row>
     <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>140</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E361" s="22">
         <v>1</v>
@@ -11126,19 +11133,19 @@
     </row>
     <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E363" s="22">
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -11147,13 +11154,13 @@
     </row>
     <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E364" s="22">
         <v>7</v>
@@ -11168,13 +11175,13 @@
     </row>
     <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>141</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E365" s="22">
         <v>1</v>
@@ -11211,13 +11218,13 @@
     </row>
     <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E368" s="22">
         <v>5</v>
@@ -11232,13 +11239,13 @@
     </row>
     <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>142</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E369" s="22">
         <v>30</v>
@@ -11253,13 +11260,13 @@
     </row>
     <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>143</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E370" s="22">
         <v>22</v>
@@ -11274,13 +11281,13 @@
     </row>
     <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C371" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D371" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="D371" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="E371" s="22">
         <v>1</v>
@@ -11295,13 +11302,13 @@
     </row>
     <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E372" s="22">
         <v>5</v>
@@ -11389,10 +11396,10 @@
     <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
@@ -11448,7 +11455,7 @@
     </row>
     <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C387" s="28"/>
       <c r="D387" s="28"/>
@@ -11459,7 +11466,7 @@
     </row>
     <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C388" s="28"/>
       <c r="D388" s="28"/>
@@ -11477,7 +11484,7 @@
     </row>
     <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C390" s="28"/>
       <c r="D390" s="28"/>
@@ -11488,7 +11495,7 @@
     </row>
     <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C391" s="28"/>
       <c r="D391" s="28"/>
@@ -11499,7 +11506,7 @@
     </row>
     <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C392" s="28"/>
       <c r="D392" s="28"/>
@@ -11524,7 +11531,7 @@
     </row>
     <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C395" s="28"/>
       <c r="D395" s="28"/>
@@ -11535,7 +11542,7 @@
     </row>
     <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C396" s="28"/>
       <c r="D396" s="28"/>
@@ -11546,7 +11553,7 @@
     </row>
     <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C397" s="28"/>
       <c r="D397" s="28"/>
@@ -11557,7 +11564,7 @@
     </row>
     <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C398" s="28"/>
       <c r="D398" s="28"/>
@@ -11568,7 +11575,7 @@
     </row>
     <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C399" s="28"/>
       <c r="D399" s="28"/>
@@ -11656,8 +11663,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11693,7 +11700,7 @@
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -11721,7 +11728,7 @@
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -11775,19 +11782,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" s="26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -11800,16 +11807,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -11825,16 +11832,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="E9" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="27">
         <v>6</v>
@@ -11850,16 +11857,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E10" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="27">
         <v>1</v>
@@ -11875,19 +11882,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="E11" s="25">
         <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G11" s="27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -11900,19 +11907,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="E12" s="25">
         <v>2</v>
       </c>
       <c r="F12" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -11925,19 +11932,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E13" s="25">
         <v>2</v>
       </c>
       <c r="F13" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -11950,16 +11957,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="25">
         <v>2</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1</v>
-      </c>
       <c r="F14" s="59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="60">
         <v>4</v>
@@ -11975,19 +11982,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="E15" s="25">
         <v>1</v>
       </c>
       <c r="F15" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -12000,19 +12007,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E16" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G16" s="60">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -12025,19 +12032,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="E17" s="25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -12050,16 +12057,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="25">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="27">
         <v>7</v>
@@ -12072,22 +12079,22 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -12100,19 +12107,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" s="25">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F20" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
@@ -12178,7 +12185,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -12196,7 +12203,7 @@
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -12206,7 +12213,7 @@
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -12217,7 +12224,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -12228,7 +12235,7 @@
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -12239,7 +12246,7 @@
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
@@ -12250,7 +12257,7 @@
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="72"/>
       <c r="C8" s="72"/>
@@ -12261,7 +12268,7 @@
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
@@ -12281,7 +12288,7 @@
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="65"/>
@@ -12291,7 +12298,7 @@
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
@@ -12312,7 +12319,7 @@
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="68"/>
@@ -12322,7 +12329,7 @@
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="74"/>
       <c r="C15" s="73"/>
@@ -12333,7 +12340,7 @@
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" s="72"/>
@@ -12344,7 +12351,7 @@
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="73"/>
@@ -12355,7 +12362,7 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="72"/>
@@ -12382,7 +12389,7 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="65"/>
@@ -12392,7 +12399,7 @@
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="72"/>
@@ -12403,7 +12410,7 @@
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="72"/>
@@ -12422,7 +12429,7 @@
     </row>
     <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="68"/>
@@ -12432,7 +12439,7 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B26" s="74"/>
       <c r="C26" s="73"/>
@@ -12451,7 +12458,7 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{F33179BC-2A4D-4AC3-B4B2-733A629BD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C3AEF3-CA26-427E-A675-5503084BADDA}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{F33179BC-2A4D-4AC3-B4B2-733A629BD0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06D435F-96AE-4144-AFD6-E7D73629630A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="306">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -934,6 +934,24 @@
   </si>
   <si>
     <t>RICKY-JADE JONES</t>
+  </si>
+  <si>
+    <t>JAMES BERRY-MCNALLY</t>
+  </si>
+  <si>
+    <t>BARNSLEY</t>
+  </si>
+  <si>
+    <t>YUKI OHASHI</t>
+  </si>
+  <si>
+    <t>ADAM PHILIPS</t>
+  </si>
+  <si>
+    <t>ROMAINE MUNDLE</t>
+  </si>
+  <si>
+    <t>SUNDERLAND</t>
   </si>
 </sst>
 </file>
@@ -2870,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A300" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12:O12"/>
     </sheetView>
   </sheetViews>
@@ -3009,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="88"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S5" s="112"/>
       <c r="T5" s="111"/>
@@ -3060,15 +3078,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S6" s="112"/>
       <c r="T6" s="111"/>
@@ -3099,17 +3117,17 @@
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7" s="112"/>
       <c r="T7" s="111"/>
       <c r="U7" s="112"/>
     </row>
-    <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="83"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3139,15 +3157,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3165,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="87"/>
       <c r="H9" s="79"/>
@@ -3181,11 +3199,11 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="77">
         <f>SUM(F116:F134)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O9" s="78">
         <f>SUM(F113:F115)</f>
@@ -3268,11 +3286,11 @@
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="112"/>
       <c r="T11" s="111"/>
@@ -3311,7 +3329,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="N12" s="77">
         <f>SUM(F198:F215)</f>
@@ -3319,7 +3337,7 @@
       </c>
       <c r="O12" s="78">
         <f>SUM(F195:F197)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3353,7 +3371,7 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N13" s="77">
         <f>SUM(F225:F242)</f>
@@ -3361,7 +3379,7 @@
       </c>
       <c r="O13" s="78">
         <f>SUM(F222:F224)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R13" s="116"/>
       <c r="S13" s="116"/>
@@ -3384,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="88"/>
@@ -3404,11 +3422,11 @@
       </c>
       <c r="N14" s="77">
         <f>SUM(F252:F269)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O14" s="78">
         <f>SUM(F249:F251)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S14" s="112"/>
       <c r="T14" s="111"/>
@@ -3435,11 +3453,11 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
@@ -3477,11 +3495,11 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
@@ -3519,15 +3537,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="116"/>
       <c r="S17" s="116"/>
@@ -3574,11 +3592,11 @@
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S18" s="112"/>
       <c r="T18" s="111"/>
@@ -3599,7 +3617,7 @@
         <v>284</v>
       </c>
       <c r="F19" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="91">
         <v>45526</v>
@@ -3628,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="88"/>
@@ -3891,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G32" s="84"/>
       <c r="H32" s="98"/>
@@ -4042,23 +4060,27 @@
     </row>
     <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="103">
         <v>5</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="104">
         <v>0</v>
       </c>
-      <c r="G39" s="91"/>
-      <c r="H39" s="94"/>
+      <c r="G39" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="95">
+        <v>45547</v>
+      </c>
       <c r="I39" s="93"/>
       <c r="J39" s="80"/>
       <c r="K39" s="1"/>
@@ -4073,18 +4095,20 @@
         <v>16</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="E40" s="29">
         <v>3</v>
       </c>
       <c r="F40" s="30">
-        <v>1</v>
-      </c>
-      <c r="G40" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="91">
+        <v>45547</v>
+      </c>
       <c r="H40" s="95"/>
       <c r="I40" s="93"/>
       <c r="J40" s="1"/>
@@ -4096,11 +4120,21 @@
     </row>
     <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="29">
+        <v>3</v>
+      </c>
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
       <c r="G41" s="91"/>
       <c r="H41" s="95"/>
       <c r="I41" s="93"/>
@@ -4143,7 +4177,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="87"/>
       <c r="H43" s="91"/>
@@ -4170,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="91"/>
       <c r="H44" s="95"/>
@@ -4282,7 +4316,7 @@
         <v>284</v>
       </c>
       <c r="F48" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="95">
         <v>45540</v>
@@ -4371,11 +4405,11 @@
       <c r="D53" s="36"/>
       <c r="E53" s="37">
         <f>SUM(E32:E52)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="84"/>
       <c r="H53" s="96"/>
@@ -4499,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G59" s="84"/>
       <c r="H59" s="96"/>
@@ -4762,7 +4796,7 @@
         <v>37</v>
       </c>
       <c r="F70" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="91"/>
       <c r="H70" s="95"/>
@@ -5102,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" s="84"/>
       <c r="H86" s="98"/>
@@ -5261,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="95"/>
       <c r="H93" s="95"/>
@@ -5275,23 +5309,27 @@
     </row>
     <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="83"/>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="103">
         <v>1</v>
       </c>
-      <c r="F94" s="30">
+      <c r="F94" s="104">
         <v>0</v>
       </c>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
+      <c r="G94" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="H94" s="95">
+        <v>45547</v>
+      </c>
       <c r="I94" s="94"/>
       <c r="J94" s="80"/>
       <c r="K94" s="1"/>
@@ -5302,12 +5340,24 @@
     </row>
     <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="83"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="95"/>
+      <c r="B95" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95" s="30">
+        <v>0</v>
+      </c>
+      <c r="G95" s="95">
+        <v>45547</v>
+      </c>
       <c r="H95" s="95"/>
       <c r="I95" s="94"/>
       <c r="J95" s="80"/>
@@ -5463,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G101" s="91"/>
       <c r="H101" s="95"/>
@@ -5490,7 +5540,7 @@
         <v>15</v>
       </c>
       <c r="F102" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102" s="91"/>
       <c r="H102" s="95"/>
@@ -5581,7 +5631,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G107" s="84"/>
       <c r="H107" s="96"/>
@@ -5831,13 +5881,13 @@
         <v>214</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="E119" s="29">
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="91"/>
       <c r="H119" s="95"/>
@@ -5864,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" s="91"/>
       <c r="H120" s="95"/>
@@ -5993,23 +6043,27 @@
     </row>
     <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="83"/>
-      <c r="B126" s="28" t="s">
+      <c r="B126" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E126" s="103">
         <v>29</v>
       </c>
-      <c r="F126" s="30">
+      <c r="F126" s="104">
         <v>0</v>
       </c>
-      <c r="G126" s="87"/>
-      <c r="H126" s="95"/>
+      <c r="G126" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H126" s="95">
+        <v>45554</v>
+      </c>
       <c r="I126" s="94"/>
       <c r="J126" s="80"/>
       <c r="K126" s="1"/>
@@ -6024,18 +6078,20 @@
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="29">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="F127" s="30">
-        <v>1</v>
-      </c>
-      <c r="G127" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="91">
+        <v>45554</v>
+      </c>
       <c r="H127" s="95"/>
       <c r="I127" s="94"/>
       <c r="J127" s="80"/>
@@ -6051,16 +6107,16 @@
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
       </c>
       <c r="F128" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="91"/>
       <c r="H128" s="95"/>
@@ -6074,11 +6130,21 @@
     </row>
     <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="83"/>
-      <c r="B129" s="102"/>
-      <c r="C129" s="102"/>
-      <c r="D129" s="102"/>
-      <c r="E129" s="103"/>
-      <c r="F129" s="104"/>
+      <c r="B129" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E129" s="29">
+        <v>1</v>
+      </c>
+      <c r="F129" s="30">
+        <v>1</v>
+      </c>
       <c r="G129" s="91"/>
       <c r="H129" s="95"/>
       <c r="I129" s="94"/>
@@ -6185,7 +6251,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G135" s="84"/>
       <c r="H135" s="96"/>
@@ -6895,7 +6961,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G168" s="84"/>
       <c r="H168" s="98"/>
@@ -7293,13 +7359,13 @@
         <v>223</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E184" s="29">
         <v>2</v>
       </c>
       <c r="F184" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G184" s="95"/>
       <c r="H184" s="91"/>
@@ -7514,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" s="84"/>
       <c r="H195" s="98"/>
@@ -7977,7 +8043,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G216" s="84"/>
       <c r="H216" s="96"/>
@@ -8101,7 +8167,7 @@
         <v>6</v>
       </c>
       <c r="F222" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G222" s="84"/>
       <c r="H222" s="98"/>
@@ -8596,7 +8662,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G243" s="84"/>
       <c r="H243" s="96"/>
@@ -8712,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G249" s="84"/>
       <c r="H249" s="98"/>
@@ -8773,7 +8839,7 @@
         <v>6</v>
       </c>
       <c r="F252" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G252" s="87"/>
       <c r="H252" s="95"/>
@@ -8898,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="F257" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G257" s="91"/>
       <c r="H257" s="94"/>
@@ -8959,7 +9025,7 @@
         <v>49</v>
       </c>
       <c r="F260" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G260" s="91"/>
       <c r="H260" s="95"/>
@@ -9071,7 +9137,7 @@
         <v>284</v>
       </c>
       <c r="F264" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G264" s="91">
         <v>45519</v>
@@ -9434,7 +9500,7 @@
         <v>284</v>
       </c>
       <c r="F281" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281" s="91">
         <v>45526</v>
@@ -9659,7 +9725,7 @@
         <v>9</v>
       </c>
       <c r="F290" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="91"/>
       <c r="H290" s="95"/>
@@ -9686,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G291" s="91"/>
       <c r="H291" s="95"/>
@@ -9794,7 +9860,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G297" s="84"/>
       <c r="H297" s="96"/>
@@ -10006,7 +10072,7 @@
         <v>6</v>
       </c>
       <c r="F307" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307" s="91"/>
       <c r="H307" s="94"/>
@@ -10050,7 +10116,7 @@
         <v>5</v>
       </c>
       <c r="F309" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G309" s="91"/>
       <c r="H309" s="95"/>
@@ -10100,8 +10166,8 @@
       <c r="D311" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="E311" s="106" t="s">
-        <v>284</v>
+      <c r="E311" s="106">
+        <v>1</v>
       </c>
       <c r="F311" s="104">
         <v>0</v>
@@ -10122,25 +10188,27 @@
     </row>
     <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="83"/>
-      <c r="B312" s="28" t="s">
+      <c r="B312" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="D312" s="21" t="s">
+      <c r="D312" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="E312" s="22">
-        <v>1</v>
-      </c>
-      <c r="F312" s="30">
+      <c r="E312" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F312" s="104">
         <v>0</v>
       </c>
       <c r="G312" s="91">
         <v>45526</v>
       </c>
-      <c r="H312" s="95"/>
+      <c r="H312" s="95">
+        <v>45547</v>
+      </c>
       <c r="I312" s="94"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -10151,12 +10219,24 @@
     </row>
     <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="83"/>
-      <c r="B313" s="28"/>
-      <c r="C313" s="21"/>
-      <c r="D313" s="21"/>
-      <c r="E313" s="22"/>
-      <c r="F313" s="30"/>
-      <c r="G313" s="91"/>
+      <c r="B313" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E313" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F313" s="30">
+        <v>1</v>
+      </c>
+      <c r="G313" s="91">
+        <v>45547</v>
+      </c>
       <c r="H313" s="95"/>
       <c r="I313" s="94"/>
       <c r="J313" s="1"/>
@@ -10208,7 +10288,7 @@
         <v>7</v>
       </c>
       <c r="F315" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G315" s="91"/>
       <c r="H315" s="95"/>
@@ -10262,7 +10342,7 @@
         <v>45</v>
       </c>
       <c r="F317" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G317" s="91"/>
       <c r="H317" s="94"/>
@@ -10397,7 +10477,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G324" s="84"/>
       <c r="H324" s="96"/>
@@ -10521,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G330" s="87"/>
       <c r="H330" s="91"/>
@@ -10684,7 +10764,7 @@
         <v>284</v>
       </c>
       <c r="F337" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G337" s="91">
         <v>45519</v>
@@ -10781,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G341" s="91"/>
       <c r="H341" s="94"/>
@@ -10829,7 +10909,7 @@
         <v>1</v>
       </c>
       <c r="F343" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G343" s="87"/>
       <c r="H343" s="95"/>
@@ -10967,7 +11047,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G351" s="87"/>
       <c r="H351" s="94"/>
@@ -11049,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -11293,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="F371" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
@@ -11664,7 +11744,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11782,19 +11862,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E7" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -11804,7 +11884,7 @@
     <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>76</v>
@@ -11813,13 +11893,13 @@
         <v>75</v>
       </c>
       <c r="E8" s="25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G8" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -11832,19 +11912,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E9" s="25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9" s="26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
@@ -11857,19 +11937,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E10" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="26">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G10" s="27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -11888,10 +11968,10 @@
         <v>276</v>
       </c>
       <c r="E11" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="27">
         <v>8</v>
@@ -11907,19 +11987,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E12" s="25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -11932,19 +12012,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="E13" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="26">
+        <v>10</v>
+      </c>
+      <c r="G13" s="27">
         <v>7</v>
-      </c>
-      <c r="G13" s="27">
-        <v>5</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -11957,19 +12037,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="E14" s="25">
         <v>2</v>
       </c>
-      <c r="F14" s="59">
-        <v>6</v>
-      </c>
-      <c r="G14" s="60">
-        <v>4</v>
+      <c r="F14" s="26">
+        <v>9</v>
+      </c>
+      <c r="G14" s="27">
+        <v>7</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -11979,22 +12059,22 @@
     <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2</v>
+      </c>
+      <c r="F15" s="59">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="25">
-        <v>1</v>
-      </c>
-      <c r="F15" s="59">
-        <v>4</v>
-      </c>
       <c r="G15" s="60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -12007,19 +12087,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E16" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G16" s="60">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -12032,19 +12112,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="E17" s="25">
         <v>0</v>
       </c>
       <c r="F17" s="59">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17" s="60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -12057,19 +12137,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E18" s="25">
         <v>-1</v>
       </c>
       <c r="F18" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
@@ -12079,22 +12159,22 @@
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="E19" s="25">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="26">
         <v>6</v>
       </c>
       <c r="G19" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -12113,13 +12193,13 @@
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F20" s="26">
         <v>2</v>
       </c>
       <c r="G20" s="27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{D24544FD-948E-4230-9C00-D76FC2F860BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C573B5C-24FD-42D5-A6B3-CBB177373940}"/>
+  <xr:revisionPtr revIDLastSave="910" documentId="8_{D24544FD-948E-4230-9C00-D76FC2F860BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E69CDBC1-1FD3-4969-896E-5C7C249853F0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="331">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -690,9 +690,6 @@
     <t>DARNELL FURLONG</t>
   </si>
   <si>
-    <t>MACNHESTER CITY</t>
-  </si>
-  <si>
     <t>BERNARDO SILVA</t>
   </si>
   <si>
@@ -738,9 +735,6 @@
     <t>MANCHESTER UNTIED</t>
   </si>
   <si>
-    <t>JOE HUGHILL</t>
-  </si>
-  <si>
     <t>GABRIEL MAGAELHAES</t>
   </si>
   <si>
@@ -1018,6 +1012,24 @@
   </si>
   <si>
     <t>JOSH BROWNHILL</t>
+  </si>
+  <si>
+    <t>RICHARD KONE</t>
+  </si>
+  <si>
+    <t>JOE HUGILL</t>
+  </si>
+  <si>
+    <t>SCOTT HOGAN</t>
+  </si>
+  <si>
+    <t>DAN UDOH</t>
+  </si>
+  <si>
+    <t>WILSON ISIDOR</t>
+  </si>
+  <si>
+    <t>WILLUM WILLUMSON</t>
   </si>
 </sst>
 </file>
@@ -2948,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:O18"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3087,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="86"/>
       <c r="H5" s="87"/>
@@ -3103,15 +3115,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S5" s="111"/>
       <c r="T5" s="110"/>
@@ -3138,15 +3150,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S6" s="111"/>
       <c r="T6" s="110"/>
@@ -3173,15 +3185,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S7" s="111"/>
       <c r="T7" s="110"/>
@@ -3217,15 +3229,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3243,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="86"/>
       <c r="H9" s="78"/>
@@ -3259,15 +3271,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F134)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3291,15 +3303,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R10" s="119"/>
       <c r="S10" s="119"/>
@@ -3325,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H11" s="87">
         <v>45533</v>
@@ -3342,15 +3354,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S11" s="111"/>
       <c r="T11" s="110"/>
@@ -3362,13 +3374,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="30">
         <v>1</v>
@@ -3389,36 +3401,40 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="N12" s="76">
         <f>SUM(F198:F215)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F195:F197)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="102">
         <v>1</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="103">
         <v>1</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="87"/>
+      <c r="G13" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="87">
+        <v>45603</v>
+      </c>
       <c r="I13" s="107"/>
       <c r="J13" s="85"/>
       <c r="K13" s="74" t="str">
@@ -3431,15 +3447,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="76">
         <f>SUM(F225:F242)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F222:F224)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R13" s="119"/>
       <c r="S13" s="119"/>
@@ -3449,23 +3465,27 @@
     </row>
     <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="102">
         <v>2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="103">
         <v>1</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="87"/>
+      <c r="G14" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="87">
+        <v>45603</v>
+      </c>
       <c r="I14" s="107"/>
       <c r="J14" s="82"/>
       <c r="K14" s="74" t="str">
@@ -3478,15 +3498,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F252:F269)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F249:F251)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S14" s="111"/>
       <c r="T14" s="110"/>
@@ -3494,12 +3514,24 @@
     </row>
     <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="90"/>
+      <c r="B15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="90">
+        <v>45603</v>
+      </c>
       <c r="H15" s="87"/>
       <c r="I15" s="107"/>
       <c r="J15" s="85"/>
@@ -3513,35 +3545,37 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
       <c r="B16" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="29">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="F16" s="30">
-        <v>5</v>
-      </c>
-      <c r="G16" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="87">
+        <v>45603</v>
+      </c>
       <c r="H16" s="87"/>
       <c r="I16" s="107"/>
       <c r="J16" s="85"/>
@@ -3555,15 +3589,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3572,18 +3606,18 @@
         <v>17</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="E17" s="29">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F17" s="30">
-        <v>4</v>
-      </c>
-      <c r="G17" s="86"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="87"/>
       <c r="H17" s="87"/>
       <c r="I17" s="107"/>
       <c r="J17" s="85"/>
@@ -3597,15 +3631,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R17" s="119"/>
       <c r="S17" s="119"/>
@@ -3615,27 +3649,23 @@
     </row>
     <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="102">
-        <v>10</v>
-      </c>
-      <c r="F18" s="103">
-        <v>0</v>
-      </c>
-      <c r="G18" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="H18" s="87">
-        <v>45526</v>
-      </c>
+      <c r="C18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="29">
+        <v>11</v>
+      </c>
+      <c r="F18" s="30">
+        <v>5</v>
+      </c>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="107"/>
       <c r="J18" s="85"/>
       <c r="K18" s="31" t="str">
@@ -3648,15 +3678,15 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S18" s="111"/>
       <c r="T18" s="110"/>
@@ -3664,25 +3694,27 @@
     </row>
     <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="30">
-        <v>3</v>
-      </c>
-      <c r="G19" s="90">
+      <c r="C19" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="102">
+        <v>10</v>
+      </c>
+      <c r="F19" s="103">
+        <v>0</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="87">
         <v>45526</v>
       </c>
-      <c r="H19" s="87"/>
       <c r="I19" s="107"/>
       <c r="J19" s="79"/>
       <c r="K19" s="35"/>
@@ -3693,27 +3725,25 @@
     </row>
     <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="101" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="101" t="s">
+      <c r="C20" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E20" s="102">
-        <v>14</v>
-      </c>
-      <c r="F20" s="103">
-        <v>2</v>
-      </c>
-      <c r="G20" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="87">
-        <v>45568</v>
-      </c>
+      <c r="F20" s="30">
+        <v>6</v>
+      </c>
+      <c r="G20" s="90">
+        <v>45526</v>
+      </c>
+      <c r="H20" s="87"/>
       <c r="I20" s="107"/>
       <c r="J20" s="79"/>
       <c r="K20" s="1"/>
@@ -3729,25 +3759,27 @@
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F21" s="30">
-        <v>1</v>
-      </c>
-      <c r="G21" s="90">
+      <c r="C21" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" s="102">
+        <v>14</v>
+      </c>
+      <c r="F21" s="103">
+        <v>2</v>
+      </c>
+      <c r="G21" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="87">
         <v>45568</v>
       </c>
-      <c r="H21" s="87"/>
       <c r="I21" s="107"/>
       <c r="J21" s="79"/>
       <c r="K21" s="1"/>
@@ -3761,27 +3793,25 @@
     </row>
     <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="102">
-        <v>1</v>
-      </c>
-      <c r="F22" s="103">
-        <v>0</v>
-      </c>
-      <c r="G22" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="87">
-        <v>45561</v>
-      </c>
+      <c r="C22" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="30">
+        <v>5</v>
+      </c>
+      <c r="G22" s="90">
+        <v>45568</v>
+      </c>
+      <c r="H22" s="87"/>
       <c r="I22" s="92"/>
       <c r="J22" s="79"/>
       <c r="K22" s="1"/>
@@ -3792,25 +3822,27 @@
     </row>
     <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F23" s="30">
+      <c r="C23" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="102">
         <v>1</v>
       </c>
-      <c r="G23" s="90">
+      <c r="F23" s="103">
+        <v>0</v>
+      </c>
+      <c r="G23" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="87">
         <v>45561</v>
       </c>
-      <c r="H23" s="87"/>
       <c r="I23" s="92"/>
       <c r="J23" s="79"/>
       <c r="K23" s="1"/>
@@ -3821,13 +3853,25 @@
     </row>
     <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="78"/>
+      <c r="B24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="30">
+        <v>2</v>
+      </c>
+      <c r="G24" s="90">
+        <v>45561</v>
+      </c>
+      <c r="H24" s="87"/>
       <c r="I24" s="92"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3872,7 +3916,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4004,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H32" s="97">
         <v>45554</v>
@@ -4024,13 +4068,13 @@
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F33" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="89">
         <v>45554</v>
@@ -4103,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="94"/>
       <c r="H36" s="94"/>
@@ -4147,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" s="86"/>
       <c r="H38" s="94"/>
@@ -4182,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H39" s="94">
         <v>45547</v>
@@ -4201,7 +4245,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>209</v>
@@ -4210,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="90">
         <v>45547</v>
@@ -4283,7 +4327,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="90"/>
@@ -4310,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="90"/>
       <c r="H44" s="94"/>
@@ -4340,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H45" s="94">
         <v>45568</v>
@@ -4359,16 +4403,16 @@
         <v>17</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F46" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="90">
         <v>45568</v>
@@ -4384,23 +4428,27 @@
     </row>
     <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="82"/>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="102">
         <v>1</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="103">
         <v>1</v>
       </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
+      <c r="G47" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="94">
+        <v>45596</v>
+      </c>
       <c r="I47" s="92"/>
       <c r="J47" s="79"/>
       <c r="K47" s="1"/>
@@ -4411,27 +4459,25 @@
     </row>
     <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="82"/>
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="102">
-        <v>1</v>
-      </c>
-      <c r="F48" s="103">
+      <c r="C48" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="30">
         <v>0</v>
       </c>
-      <c r="G48" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="H48" s="94">
-        <v>45540</v>
-      </c>
+      <c r="G48" s="90">
+        <v>45596</v>
+      </c>
+      <c r="H48" s="94"/>
       <c r="I48" s="92"/>
       <c r="J48" s="79"/>
       <c r="K48" s="1"/>
@@ -4442,25 +4488,27 @@
     </row>
     <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F49" s="30">
-        <v>3</v>
-      </c>
-      <c r="G49" s="94">
+      <c r="C49" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="102">
+        <v>1</v>
+      </c>
+      <c r="F49" s="103">
+        <v>0</v>
+      </c>
+      <c r="G49" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H49" s="94">
         <v>45540</v>
       </c>
-      <c r="H49" s="94"/>
       <c r="I49" s="92"/>
       <c r="J49" s="79"/>
       <c r="K49" s="1"/>
@@ -4471,12 +4519,24 @@
     </row>
     <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="82"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="90"/>
+      <c r="B50" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F50" s="30">
+        <v>4</v>
+      </c>
+      <c r="G50" s="94">
+        <v>45540</v>
+      </c>
       <c r="H50" s="94"/>
       <c r="I50" s="92"/>
       <c r="J50" s="79"/>
@@ -4531,7 +4591,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -4655,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="83"/>
       <c r="H59" s="95"/>
@@ -4719,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H62" s="94">
         <v>45533</v>
@@ -4738,16 +4798,16 @@
         <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F63" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="90">
         <v>45533</v>
@@ -4803,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" s="86"/>
       <c r="H65" s="93"/>
@@ -4830,7 +4890,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="86"/>
       <c r="H66" s="94"/>
@@ -4857,7 +4917,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G67" s="90"/>
       <c r="H67" s="94"/>
@@ -4918,7 +4978,7 @@
         <v>37</v>
       </c>
       <c r="F70" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" s="90"/>
       <c r="H70" s="94"/>
@@ -4975,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H72" s="94">
         <v>45561</v>
@@ -4994,13 +5054,13 @@
         <v>17</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F73" s="30">
         <v>0</v>
@@ -5026,7 +5086,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E74" s="29">
         <v>6</v>
@@ -5150,7 +5210,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5274,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
@@ -5335,7 +5395,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G89" s="86"/>
       <c r="H89" s="93"/>
@@ -5406,7 +5466,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="90"/>
       <c r="H92" s="94"/>
@@ -5463,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H94" s="94">
         <v>45547</v>
@@ -5482,16 +5542,16 @@
         <v>16</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F95" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="94">
         <v>45547</v>
@@ -5537,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" s="90"/>
       <c r="H97" s="94"/>
@@ -5594,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H99" s="94">
         <v>45526</v>
@@ -5613,13 +5673,13 @@
         <v>17</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F100" s="30">
         <v>0</v>
@@ -5651,7 +5711,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101" s="90"/>
       <c r="H101" s="94"/>
@@ -5672,7 +5732,7 @@
         <v>147</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E102" s="29">
         <v>15</v>
@@ -5769,7 +5829,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="83"/>
       <c r="H107" s="95"/>
@@ -5893,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="97"/>
@@ -5945,7 +6005,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>114</v>
@@ -5981,7 +6041,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117" s="89"/>
       <c r="H117" s="97"/>
@@ -6019,13 +6079,13 @@
         <v>211</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E119" s="29">
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G119" s="90"/>
       <c r="H119" s="94"/>
@@ -6052,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G120" s="90"/>
       <c r="H120" s="94"/>
@@ -6070,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="C121" s="101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D121" s="101" t="s">
         <v>26</v>
@@ -6082,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H121" s="94">
         <v>45561</v>
@@ -6101,16 +6161,16 @@
         <v>16</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D122" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F122" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="89">
         <v>45561</v>
@@ -6156,7 +6216,7 @@
         <v>21</v>
       </c>
       <c r="F124" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="90"/>
       <c r="H124" s="94"/>
@@ -6213,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H126" s="94">
         <v>45554</v>
@@ -6232,13 +6292,13 @@
         <v>17</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D127" s="28" t="s">
         <v>160</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F127" s="30">
         <v>0</v>
@@ -6257,23 +6317,27 @@
     </row>
     <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="82"/>
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E128" s="102">
         <v>1</v>
       </c>
-      <c r="F128" s="30">
+      <c r="F128" s="103">
         <v>2</v>
       </c>
-      <c r="G128" s="90"/>
-      <c r="H128" s="94"/>
+      <c r="G128" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H128" s="94">
+        <v>45596</v>
+      </c>
       <c r="I128" s="93"/>
       <c r="J128" s="79"/>
       <c r="K128" s="1"/>
@@ -6288,18 +6352,20 @@
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E129" s="29">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="F129" s="30">
-        <v>4</v>
-      </c>
-      <c r="G129" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="90">
+        <v>45596</v>
+      </c>
       <c r="H129" s="94"/>
       <c r="I129" s="93"/>
       <c r="J129" s="79"/>
@@ -6311,11 +6377,21 @@
     </row>
     <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="82"/>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="30"/>
+      <c r="B130" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E130" s="29">
+        <v>1</v>
+      </c>
+      <c r="F130" s="30">
+        <v>5</v>
+      </c>
       <c r="G130" s="90"/>
       <c r="H130" s="94"/>
       <c r="I130" s="93"/>
@@ -6405,7 +6481,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="95"/>
@@ -6529,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G141" s="83"/>
       <c r="H141" s="97"/>
@@ -6655,13 +6731,13 @@
         <v>126</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="E147" s="29">
         <v>25</v>
       </c>
       <c r="F147" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147" s="90"/>
       <c r="H147" s="93"/>
@@ -6688,7 +6764,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148" s="112"/>
       <c r="I148" s="93"/>
@@ -6705,7 +6781,7 @@
         <v>16</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>23</v>
@@ -6778,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H152" s="94">
         <v>45575</v>
@@ -6797,16 +6873,16 @@
         <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F153" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" s="90">
         <v>45575</v>
@@ -6835,7 +6911,7 @@
         <v>25</v>
       </c>
       <c r="F154" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G154" s="86"/>
       <c r="H154" s="94"/>
@@ -6865,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H155" s="94">
         <v>45575</v>
@@ -6884,7 +6960,7 @@
         <v>17</v>
       </c>
       <c r="C156" s="101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D156" s="101" t="s">
         <v>108</v>
@@ -6896,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H156" s="94">
         <v>45575</v>
@@ -6915,16 +6991,16 @@
         <v>17</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F157" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" s="90">
         <v>45575</v>
@@ -6944,16 +7020,16 @@
         <v>17</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F158" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158" s="90">
         <v>45575</v>
@@ -6982,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G159" s="90"/>
       <c r="H159" s="94"/>
@@ -7039,7 +7115,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G162" s="83"/>
       <c r="H162" s="95"/>
@@ -7163,7 +7239,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G168" s="83"/>
       <c r="H168" s="97"/>
@@ -7224,7 +7300,7 @@
         <v>5</v>
       </c>
       <c r="F171" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G171" s="86"/>
       <c r="H171" s="94"/>
@@ -7251,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="90"/>
       <c r="H172" s="93"/>
@@ -7316,7 +7392,7 @@
         <v>178</v>
       </c>
       <c r="D175" s="101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E175" s="102">
         <v>1</v>
@@ -7325,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H175" s="94">
         <v>45519</v>
@@ -7344,16 +7420,16 @@
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F176" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" s="90">
         <v>45519</v>
@@ -7373,10 +7449,10 @@
         <v>16</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E177" s="29">
         <v>1</v>
@@ -7453,7 +7529,7 @@
         <v>22</v>
       </c>
       <c r="F180" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G180" s="90"/>
       <c r="H180" s="94"/>
@@ -7474,7 +7550,7 @@
         <v>139</v>
       </c>
       <c r="D181" s="101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E181" s="102">
         <v>15</v>
@@ -7483,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H181" s="94">
         <v>45519</v>
@@ -7502,13 +7578,13 @@
         <v>17</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>182</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F182" s="30">
         <v>5</v>
@@ -7540,7 +7616,7 @@
         <v>35</v>
       </c>
       <c r="F183" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G183" s="94"/>
       <c r="H183" s="90"/>
@@ -7558,7 +7634,7 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D184" s="28" t="s">
         <v>73</v>
@@ -7567,7 +7643,7 @@
         <v>2</v>
       </c>
       <c r="F184" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G184" s="94"/>
       <c r="H184" s="90"/>
@@ -7658,7 +7734,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G189" s="83"/>
       <c r="H189" s="95"/>
@@ -7776,13 +7852,13 @@
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E195" s="14">
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G195" s="83"/>
       <c r="H195" s="97"/>
@@ -7834,10 +7910,10 @@
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E198" s="29">
         <v>1</v>
@@ -7861,7 +7937,7 @@
         <v>14</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D199" s="28" t="s">
         <v>106</v>
@@ -7870,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="90"/>
       <c r="H199" s="93"/>
@@ -7905,7 +7981,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>25</v>
@@ -7914,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G201" s="86"/>
       <c r="H201" s="93"/>
@@ -7932,7 +8008,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>18</v>
@@ -7959,7 +8035,7 @@
         <v>16</v>
       </c>
       <c r="C203" s="101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D203" s="101" t="s">
         <v>23</v>
@@ -7971,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H203" s="94">
         <v>45561</v>
@@ -7990,13 +8066,13 @@
         <v>16</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D204" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F204" s="30">
         <v>0</v>
@@ -8036,16 +8112,16 @@
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G206" s="86"/>
       <c r="H206" s="94"/>
@@ -8063,10 +8139,10 @@
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
@@ -8090,10 +8166,10 @@
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -8117,7 +8193,7 @@
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>23</v>
@@ -8144,7 +8220,7 @@
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>18</v>
@@ -8153,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" s="90"/>
       <c r="H210" s="94"/>
@@ -8261,7 +8337,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="G216" s="83"/>
       <c r="H216" s="95"/>
@@ -8385,7 +8461,7 @@
         <v>6</v>
       </c>
       <c r="F222" s="15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G222" s="83"/>
       <c r="H222" s="97"/>
@@ -8437,7 +8513,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>114</v>
@@ -8464,7 +8540,7 @@
         <v>14</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226" s="28" t="s">
         <v>105</v>
@@ -8473,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" s="90"/>
       <c r="H226" s="94"/>
@@ -8508,7 +8584,7 @@
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>18</v>
@@ -8517,7 +8593,7 @@
         <v>21</v>
       </c>
       <c r="F228" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G228" s="86"/>
       <c r="H228" s="94"/>
@@ -8547,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="G229" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H229" s="94">
         <v>45561</v>
@@ -8566,13 +8642,13 @@
         <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E230" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F230" s="30">
         <v>0</v>
@@ -8604,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G231" s="90"/>
       <c r="H231" s="94"/>
@@ -8642,7 +8718,7 @@
         <v>158</v>
       </c>
       <c r="D233" s="101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E233" s="102">
         <v>5</v>
@@ -8651,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H233" s="94">
         <v>45519</v>
@@ -8670,13 +8746,13 @@
         <v>17</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D234" s="28" t="s">
         <v>160</v>
       </c>
       <c r="E234" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F234" s="30">
         <v>1</v>
@@ -8708,7 +8784,7 @@
         <v>16</v>
       </c>
       <c r="F235" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G235" s="86"/>
       <c r="H235" s="94"/>
@@ -8762,7 +8838,7 @@
         <v>8</v>
       </c>
       <c r="F237" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G237" s="90"/>
       <c r="H237" s="94"/>
@@ -8792,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H238" s="94">
         <v>45526</v>
@@ -8807,25 +8883,27 @@
     </row>
     <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="82"/>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C239" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="D239" s="28" t="s">
+      <c r="C239" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D239" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="E239" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F239" s="30">
+      <c r="E239" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="F239" s="103">
         <v>1</v>
       </c>
       <c r="G239" s="90">
         <v>45526</v>
       </c>
-      <c r="H239" s="94"/>
+      <c r="H239" s="94">
+        <v>45589</v>
+      </c>
       <c r="I239" s="92"/>
       <c r="J239" s="79"/>
       <c r="K239" s="1"/>
@@ -8836,12 +8914,24 @@
     </row>
     <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="82"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="28"/>
-      <c r="D240" s="28"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="30"/>
-      <c r="G240" s="86"/>
+      <c r="B240" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D240" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E240" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F240" s="30">
+        <v>0</v>
+      </c>
+      <c r="G240" s="90">
+        <v>45589</v>
+      </c>
       <c r="H240" s="94"/>
       <c r="I240" s="92"/>
       <c r="J240" s="79"/>
@@ -8896,7 +8986,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G243" s="83"/>
       <c r="H243" s="95"/>
@@ -9015,7 +9105,7 @@
         <v>13</v>
       </c>
       <c r="G249" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H249" s="97">
         <v>45561</v>
@@ -9038,10 +9128,10 @@
         <v>199</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F250" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G250" s="89">
         <v>45561</v>
@@ -9078,7 +9168,7 @@
         <v>14</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D252" s="28" t="s">
         <v>209</v>
@@ -9152,7 +9242,7 @@
         <v>122</v>
       </c>
       <c r="D255" s="101" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E255" s="102">
         <v>3</v>
@@ -9161,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H255" s="94">
         <v>45589</v>
@@ -9180,13 +9270,13 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>199</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F256" s="30">
         <v>0</v>
@@ -9209,7 +9299,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>42</v>
@@ -9236,7 +9326,7 @@
         <v>16</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D258" s="28" t="s">
         <v>82</v>
@@ -9245,7 +9335,7 @@
         <v>3</v>
       </c>
       <c r="F258" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G258" s="86"/>
       <c r="H258" s="93"/>
@@ -9316,7 +9406,7 @@
         <v>19</v>
       </c>
       <c r="F261" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G261" s="90"/>
       <c r="H261" s="94"/>
@@ -9334,7 +9424,7 @@
         <v>17</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D262" s="28" t="s">
         <v>25</v>
@@ -9343,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G262" s="90"/>
       <c r="H262" s="94"/>
@@ -9373,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H263" s="94">
         <v>45519</v>
@@ -9392,16 +9482,16 @@
         <v>17</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F264" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G264" s="90">
         <v>45519</v>
@@ -9433,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H265" s="94">
         <v>45561</v>
@@ -9452,16 +9542,16 @@
         <v>17</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D266" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E266" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F266" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G266" s="90">
         <v>45561</v>
@@ -9537,7 +9627,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G270" s="83"/>
       <c r="H270" s="95"/>
@@ -9587,7 +9677,7 @@
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>189</v>
@@ -9661,10 +9751,10 @@
         <v>1</v>
       </c>
       <c r="F276" s="117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G276" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H276" s="97">
         <v>45568</v>
@@ -9684,13 +9774,13 @@
       </c>
       <c r="C277" s="21"/>
       <c r="D277" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F277" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G277" s="89">
         <v>45568</v>
@@ -9727,7 +9817,7 @@
         <v>14</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D279" s="21" t="s">
         <v>25</v>
@@ -9754,7 +9844,7 @@
         <v>14</v>
       </c>
       <c r="C280" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D280" s="104" t="s">
         <v>23</v>
@@ -9766,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H280" s="94">
         <v>45526</v>
@@ -9785,13 +9875,13 @@
         <v>14</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F281" s="30">
         <v>1</v>
@@ -9817,13 +9907,13 @@
         <v>159</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E282" s="22">
         <v>8</v>
       </c>
       <c r="F282" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G282" s="86"/>
       <c r="H282" s="94"/>
@@ -9850,7 +9940,7 @@
         <v>16</v>
       </c>
       <c r="F283" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G283" s="94"/>
       <c r="H283" s="94"/>
@@ -9877,7 +9967,7 @@
         <v>6</v>
       </c>
       <c r="F284" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G284" s="90"/>
       <c r="H284" s="94"/>
@@ -9938,7 +10028,7 @@
         <v>36</v>
       </c>
       <c r="F287" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G287" s="86"/>
       <c r="H287" s="94"/>
@@ -9956,7 +10046,7 @@
         <v>17</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D288" s="21" t="s">
         <v>105</v>
@@ -9992,7 +10082,7 @@
         <v>6</v>
       </c>
       <c r="F289" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G289" s="90"/>
       <c r="H289" s="94"/>
@@ -10006,23 +10096,27 @@
     </row>
     <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="82"/>
-      <c r="B290" s="28" t="s">
+      <c r="B290" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D290" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E290" s="22">
+      <c r="D290" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E290" s="105">
         <v>9</v>
       </c>
-      <c r="F290" s="30">
+      <c r="F290" s="103">
         <v>4</v>
       </c>
-      <c r="G290" s="90"/>
-      <c r="H290" s="94"/>
+      <c r="G290" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H290" s="94">
+        <v>45596</v>
+      </c>
       <c r="I290" s="93"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -10033,23 +10127,27 @@
     </row>
     <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="82"/>
-      <c r="B291" s="28" t="s">
+      <c r="B291" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D291" s="21" t="s">
+      <c r="C291" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="D291" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="E291" s="22">
+      <c r="E291" s="105">
         <v>1</v>
       </c>
-      <c r="F291" s="30">
+      <c r="F291" s="103">
         <v>2</v>
       </c>
-      <c r="G291" s="90"/>
-      <c r="H291" s="94"/>
+      <c r="G291" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H291" s="94">
+        <v>45596</v>
+      </c>
       <c r="I291" s="93"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -10060,12 +10158,24 @@
     </row>
     <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="82"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="104"/>
-      <c r="D292" s="104"/>
-      <c r="E292" s="105"/>
-      <c r="F292" s="103"/>
-      <c r="G292" s="90"/>
+      <c r="B292" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C292" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D292" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E292" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F292" s="30">
+        <v>0</v>
+      </c>
+      <c r="G292" s="90">
+        <v>45596</v>
+      </c>
       <c r="H292" s="94"/>
       <c r="I292" s="93"/>
       <c r="J292" s="1"/>
@@ -10077,12 +10187,24 @@
     </row>
     <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="82"/>
-      <c r="B293" s="101"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="22"/>
-      <c r="F293" s="30"/>
-      <c r="G293" s="90"/>
+      <c r="B293" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E293" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F293" s="30">
+        <v>0</v>
+      </c>
+      <c r="G293" s="90">
+        <v>45596</v>
+      </c>
       <c r="H293" s="94"/>
       <c r="I293" s="93"/>
       <c r="J293" s="1"/>
@@ -10154,7 +10276,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G297" s="83"/>
       <c r="H297" s="95"/>
@@ -10278,7 +10400,7 @@
         <v>8</v>
       </c>
       <c r="F303" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G303" s="83"/>
       <c r="H303" s="94"/>
@@ -10357,7 +10479,7 @@
         <v>14</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D307" s="21" t="s">
         <v>18</v>
@@ -10401,7 +10523,7 @@
         <v>16</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D309" s="21" t="s">
         <v>121</v>
@@ -10440,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="G310" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H310" s="94">
         <v>45568</v>
@@ -10459,16 +10581,16 @@
         <v>16</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D311" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F311" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G311" s="90">
         <v>45568</v>
@@ -10488,7 +10610,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D312" s="104" t="s">
         <v>193</v>
@@ -10500,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="G312" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H312" s="94">
         <v>45526</v>
@@ -10519,13 +10641,13 @@
         <v>16</v>
       </c>
       <c r="C313" s="104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D313" s="104" t="s">
         <v>25</v>
       </c>
       <c r="E313" s="105" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F313" s="103">
         <v>0</v>
@@ -10550,16 +10672,16 @@
         <v>16</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F314" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G314" s="90">
         <v>45547</v>
@@ -10579,7 +10701,7 @@
         <v>17</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D315" s="21" t="s">
         <v>209</v>
@@ -10588,7 +10710,7 @@
         <v>20</v>
       </c>
       <c r="F315" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G315" s="90"/>
       <c r="H315" s="94"/>
@@ -10615,7 +10737,7 @@
         <v>7</v>
       </c>
       <c r="F316" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G316" s="90"/>
       <c r="H316" s="94"/>
@@ -10645,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="G317" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H317" s="94">
         <v>45568</v>
@@ -10664,16 +10786,16 @@
         <v>17</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F318" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G318" s="90">
         <v>45568</v>
@@ -10696,7 +10818,7 @@
         <v>103</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E319" s="22">
         <v>45</v>
@@ -10720,7 +10842,7 @@
         <v>17</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D320" s="21" t="s">
         <v>213</v>
@@ -10729,7 +10851,7 @@
         <v>4</v>
       </c>
       <c r="F320" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G320" s="90"/>
       <c r="H320" s="94"/>
@@ -10803,7 +10925,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G324" s="83"/>
       <c r="H324" s="95"/>
@@ -10927,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G330" s="86"/>
       <c r="H330" s="90"/>
@@ -10979,10 +11101,10 @@
         <v>14</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E333" s="22">
         <v>1</v>
@@ -11006,7 +11128,7 @@
         <v>14</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>108</v>
@@ -11050,10 +11172,10 @@
         <v>16</v>
       </c>
       <c r="C336" s="104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D336" s="104" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E336" s="105">
         <v>1</v>
@@ -11062,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H336" s="94">
         <v>45519</v>
@@ -11081,13 +11203,13 @@
         <v>16</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F337" s="30">
         <v>3</v>
@@ -11110,7 +11232,7 @@
         <v>16</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>106</v>
@@ -11119,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="F338" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G338" s="90"/>
       <c r="H338" s="93"/>
@@ -11137,7 +11259,7 @@
         <v>16</v>
       </c>
       <c r="C339" s="104" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D339" s="104" t="s">
         <v>163</v>
@@ -11149,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H339" s="94">
         <v>45568</v>
@@ -11168,16 +11290,16 @@
         <v>16</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D340" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F340" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G340" s="90">
         <v>45568</v>
@@ -11194,16 +11316,16 @@
         <v>17</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E341" s="22">
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G341" s="90"/>
       <c r="H341" s="93"/>
@@ -11214,23 +11336,27 @@
     </row>
     <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="82"/>
-      <c r="B342" s="28" t="s">
+      <c r="B342" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C342" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D342" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E342" s="22">
+      <c r="C342" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="D342" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="E342" s="105">
         <v>1</v>
       </c>
-      <c r="F342" s="30">
+      <c r="F342" s="103">
         <v>1</v>
       </c>
-      <c r="G342" s="86"/>
-      <c r="H342" s="93"/>
+      <c r="G342" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="H342" s="94">
+        <v>45589</v>
+      </c>
       <c r="I342" s="93"/>
       <c r="J342" s="1"/>
       <c r="N342" s="1"/>
@@ -11242,18 +11368,20 @@
         <v>17</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E343" s="22">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="E343" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="F343" s="30">
-        <v>6</v>
-      </c>
-      <c r="G343" s="86"/>
+        <v>0</v>
+      </c>
+      <c r="G343" s="90">
+        <v>45589</v>
+      </c>
       <c r="H343" s="94"/>
       <c r="I343" s="93"/>
       <c r="J343" s="1"/>
@@ -11266,18 +11394,18 @@
         <v>17</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E344" s="22">
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>3</v>
-      </c>
-      <c r="G344" s="90"/>
+        <v>9</v>
+      </c>
+      <c r="G344" s="86"/>
       <c r="H344" s="94"/>
       <c r="I344" s="93"/>
       <c r="J344" s="1"/>
@@ -11286,27 +11414,23 @@
     </row>
     <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="82"/>
-      <c r="B345" s="101" t="s">
+      <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="104" t="s">
-        <v>270</v>
-      </c>
-      <c r="D345" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="E345" s="105">
+      <c r="C345" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E345" s="22">
         <v>1</v>
       </c>
-      <c r="F345" s="103">
-        <v>0</v>
-      </c>
-      <c r="G345" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="H345" s="94">
-        <v>45568</v>
-      </c>
+      <c r="F345" s="30">
+        <v>4</v>
+      </c>
+      <c r="G345" s="90"/>
+      <c r="H345" s="94"/>
       <c r="I345" s="93"/>
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
@@ -11314,25 +11438,27 @@
     </row>
     <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="82"/>
-      <c r="B346" s="28" t="s">
+      <c r="B346" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C346" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D346" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E346" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F346" s="30">
+      <c r="C346" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D346" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E346" s="105">
+        <v>1</v>
+      </c>
+      <c r="F346" s="103">
         <v>0</v>
       </c>
-      <c r="G346" s="90">
+      <c r="G346" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H346" s="94">
         <v>45568</v>
       </c>
-      <c r="H346" s="94"/>
       <c r="I346" s="93"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
@@ -11340,12 +11466,24 @@
     </row>
     <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="82"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="21"/>
-      <c r="D347" s="21"/>
-      <c r="E347" s="22"/>
-      <c r="F347" s="30"/>
-      <c r="G347" s="90"/>
+      <c r="B347" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C347" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E347" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F347" s="30">
+        <v>1</v>
+      </c>
+      <c r="G347" s="90">
+        <v>45568</v>
+      </c>
       <c r="H347" s="94"/>
       <c r="I347" s="93"/>
       <c r="J347" s="1"/>
@@ -11405,7 +11543,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G351" s="86"/>
       <c r="H351" s="93"/>
@@ -11487,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="F357" s="15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -11521,7 +11659,7 @@
         <v>14</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D360" s="21" t="s">
         <v>18</v>
@@ -11574,7 +11712,7 @@
         <v>16</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>38</v>
@@ -11583,7 +11721,7 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -11595,7 +11733,7 @@
         <v>16</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>100</v>
@@ -11604,7 +11742,7 @@
         <v>7</v>
       </c>
       <c r="F364" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="113"/>
@@ -11628,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="G365" s="113" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H365" s="113">
         <v>45568</v>
@@ -11641,13 +11779,13 @@
         <v>16</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D366" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F366" s="30">
         <v>0</v>
@@ -11729,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H370" s="113">
         <v>45568</v>
@@ -11742,13 +11880,13 @@
         <v>17</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F371" s="30">
         <v>0</v>
@@ -11774,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
@@ -11798,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H373" s="113">
         <v>45568</v>
@@ -11811,16 +11949,16 @@
         <v>17</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D374" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F374" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G374" s="113">
         <v>45568</v>
@@ -11872,7 +12010,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -12150,7 +12288,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12214,7 +12352,7 @@
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -12274,13 +12412,13 @@
         <v>75</v>
       </c>
       <c r="E7" s="25">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F7" s="26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G7" s="27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -12293,19 +12431,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>118</v>
+        <v>148</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E8" s="25">
-        <v>16</v>
-      </c>
-      <c r="F8" s="59">
-        <v>29</v>
-      </c>
-      <c r="G8" s="60">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="26">
+        <v>34</v>
+      </c>
+      <c r="G8" s="27">
+        <v>12</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -12318,19 +12456,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E9" s="25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F9" s="26">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G9" s="27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
@@ -12343,19 +12481,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>88</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F10" s="26">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G10" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -12374,13 +12512,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="25">
-        <v>11</v>
-      </c>
-      <c r="F11" s="26">
-        <v>26</v>
-      </c>
-      <c r="G11" s="27">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="59">
+        <v>35</v>
+      </c>
+      <c r="G11" s="60">
+        <v>16</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -12399,13 +12537,13 @@
         <v>210</v>
       </c>
       <c r="E12" s="25">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G12" s="27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -12418,19 +12556,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="E13" s="25">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" s="26">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G13" s="27">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -12443,19 +12581,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>16</v>
+      </c>
+      <c r="F14" s="59">
         <v>31</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="G14" s="60">
         <v>15</v>
-      </c>
-      <c r="E14" s="25">
-        <v>10</v>
-      </c>
-      <c r="F14" s="26">
-        <v>19</v>
-      </c>
-      <c r="G14" s="27">
-        <v>9</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -12468,18 +12606,18 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>271</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="25">
-        <v>9</v>
-      </c>
-      <c r="F15" s="59">
-        <v>24</v>
-      </c>
-      <c r="G15" s="60">
+        <v>16</v>
+      </c>
+      <c r="F15" s="26">
+        <v>31</v>
+      </c>
+      <c r="G15" s="27">
         <v>15</v>
       </c>
       <c r="H15" s="55"/>
@@ -12493,24 +12631,24 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F16" s="26">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G16" s="27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="56"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
@@ -12524,13 +12662,13 @@
         <v>36</v>
       </c>
       <c r="E17" s="25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F17" s="26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G17" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -12549,18 +12687,18 @@
         <v>66</v>
       </c>
       <c r="E18" s="25">
-        <v>4</v>
-      </c>
-      <c r="F18" s="59">
-        <v>17</v>
-      </c>
-      <c r="G18" s="60">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="F18" s="26">
+        <v>23</v>
+      </c>
+      <c r="G18" s="27">
+        <v>18</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
@@ -12574,13 +12712,13 @@
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="26">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G19" s="27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -12595,17 +12733,17 @@
       <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-10</v>
-      </c>
-      <c r="F20" s="26">
-        <v>6</v>
-      </c>
-      <c r="G20" s="27">
-        <v>16</v>
+        <v>-14</v>
+      </c>
+      <c r="F20" s="59">
+        <v>11</v>
+      </c>
+      <c r="G20" s="60">
+        <v>25</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="6_{3AB541F7-454C-43BD-BFF8-89022A1F109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB59E3F1-496C-49C7-BDB0-C7CDF59A28DB}"/>
+  <xr:revisionPtr revIDLastSave="517" documentId="6_{3AB541F7-454C-43BD-BFF8-89022A1F109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18455445-B1A4-49BA-9427-5F9AC1FE3423}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="349">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1075,6 +1075,15 @@
   </si>
   <si>
     <t>MALIK MOTHERSILLE</t>
+  </si>
+  <si>
+    <t>MILES LEABURN</t>
+  </si>
+  <si>
+    <t>ANIS MEHMETI</t>
+  </si>
+  <si>
+    <t>LIAM CULLEN</t>
   </si>
 </sst>
 </file>
@@ -3164,15 +3173,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S5" s="110"/>
       <c r="T5" s="109"/>
@@ -3191,7 +3200,7 @@
         <v>277</v>
       </c>
       <c r="F6" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="89">
         <v>45617</v>
@@ -3209,15 +3218,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S6" s="110"/>
       <c r="T6" s="109"/>
@@ -3244,15 +3253,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S7" s="110"/>
       <c r="T7" s="109"/>
@@ -3273,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="86"/>
       <c r="H8" s="78"/>
@@ -3288,15 +3297,15 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,15 +3339,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F134)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,15 +3371,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R10" s="119"/>
       <c r="S10" s="119"/>
@@ -3413,15 +3422,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S11" s="110"/>
       <c r="T11" s="109"/>
@@ -3429,25 +3438,27 @@
     </row>
     <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="103">
         <v>2</v>
       </c>
       <c r="G12" s="90">
         <v>45533</v>
       </c>
-      <c r="H12" s="87"/>
+      <c r="H12" s="87">
+        <v>45666</v>
+      </c>
       <c r="I12" s="107"/>
       <c r="J12" s="85"/>
       <c r="K12" s="74" t="str">
@@ -3460,40 +3471,38 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="N12" s="76">
         <f>SUM(F198:F215)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F195:F197)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="102">
-        <v>1</v>
-      </c>
-      <c r="F13" s="103">
-        <v>1</v>
-      </c>
-      <c r="G13" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H13" s="87">
-        <v>45603</v>
-      </c>
+      <c r="C13" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="90">
+        <v>45666</v>
+      </c>
+      <c r="H13" s="87"/>
       <c r="I13" s="107"/>
       <c r="J13" s="85"/>
       <c r="K13" s="74" t="str">
@@ -3510,11 +3519,11 @@
       </c>
       <c r="N13" s="76">
         <f>SUM(F225:F242)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F222:F224)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R13" s="119"/>
       <c r="S13" s="119"/>
@@ -3528,13 +3537,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E14" s="102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="103">
         <v>1</v>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F252:F269)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F249:F251)</f>
@@ -3573,25 +3582,27 @@
     </row>
     <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="90">
+      <c r="C15" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="102">
+        <v>2</v>
+      </c>
+      <c r="F15" s="103">
+        <v>1</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="87">
         <v>45603</v>
       </c>
-      <c r="H15" s="87"/>
       <c r="I15" s="107"/>
       <c r="J15" s="85"/>
       <c r="K15" s="31" t="str">
@@ -3604,15 +3615,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -3621,18 +3632,18 @@
         <v>16</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>277</v>
       </c>
       <c r="F16" s="30">
-        <v>4</v>
-      </c>
-      <c r="G16" s="87">
+        <v>1</v>
+      </c>
+      <c r="G16" s="90">
         <v>45603</v>
       </c>
       <c r="H16" s="87"/>
@@ -3648,35 +3659,37 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="29">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="F17" s="30">
-        <v>7</v>
-      </c>
-      <c r="G17" s="87"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="87">
+        <v>45603</v>
+      </c>
       <c r="H17" s="87"/>
       <c r="I17" s="107"/>
       <c r="J17" s="85"/>
@@ -3690,15 +3703,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R17" s="119"/>
       <c r="S17" s="119"/>
@@ -3712,18 +3725,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="E18" s="29">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F18" s="30">
-        <v>9</v>
-      </c>
-      <c r="G18" s="86"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="87"/>
       <c r="H18" s="87"/>
       <c r="I18" s="107"/>
       <c r="J18" s="85"/>
@@ -3737,11 +3750,11 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
@@ -3753,27 +3766,23 @@
     </row>
     <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="102">
+      <c r="C19" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="29">
+        <v>11</v>
+      </c>
+      <c r="F19" s="30">
         <v>10</v>
       </c>
-      <c r="F19" s="103">
-        <v>0</v>
-      </c>
-      <c r="G19" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H19" s="87">
-        <v>45526</v>
-      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="107"/>
       <c r="J19" s="79"/>
       <c r="K19" s="35"/>
@@ -3784,25 +3793,27 @@
     </row>
     <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="30">
-        <v>9</v>
-      </c>
-      <c r="G20" s="90">
+      <c r="C20" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="102">
+        <v>10</v>
+      </c>
+      <c r="F20" s="103">
+        <v>0</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="87">
         <v>45526</v>
       </c>
-      <c r="H20" s="87"/>
       <c r="I20" s="107"/>
       <c r="J20" s="79"/>
       <c r="K20" s="1"/>
@@ -3818,27 +3829,25 @@
     </row>
     <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="E21" s="102">
-        <v>14</v>
-      </c>
-      <c r="F21" s="103">
-        <v>2</v>
-      </c>
-      <c r="G21" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H21" s="87">
-        <v>45568</v>
-      </c>
+      <c r="C21" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="30">
+        <v>12</v>
+      </c>
+      <c r="G21" s="90">
+        <v>45526</v>
+      </c>
+      <c r="H21" s="87"/>
       <c r="I21" s="107"/>
       <c r="J21" s="79"/>
       <c r="K21" s="1"/>
@@ -3852,25 +3861,27 @@
     </row>
     <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="30">
-        <v>9</v>
-      </c>
-      <c r="G22" s="90">
+      <c r="C22" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="102">
+        <v>14</v>
+      </c>
+      <c r="F22" s="103">
+        <v>2</v>
+      </c>
+      <c r="G22" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="87">
         <v>45568</v>
       </c>
-      <c r="H22" s="87"/>
       <c r="I22" s="92"/>
       <c r="J22" s="79"/>
       <c r="K22" s="1"/>
@@ -3881,27 +3892,25 @@
     </row>
     <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="102">
-        <v>1</v>
-      </c>
-      <c r="F23" s="103">
-        <v>0</v>
-      </c>
-      <c r="G23" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H23" s="87">
-        <v>45561</v>
-      </c>
+      <c r="C23" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="30">
+        <v>9</v>
+      </c>
+      <c r="G23" s="90">
+        <v>45568</v>
+      </c>
+      <c r="H23" s="87"/>
       <c r="I23" s="92"/>
       <c r="J23" s="79"/>
       <c r="K23" s="1"/>
@@ -3912,25 +3921,27 @@
     </row>
     <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="30">
-        <v>4</v>
-      </c>
-      <c r="G24" s="90">
+      <c r="C24" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="102">
+        <v>1</v>
+      </c>
+      <c r="F24" s="103">
+        <v>0</v>
+      </c>
+      <c r="G24" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="87">
         <v>45561</v>
       </c>
-      <c r="H24" s="87"/>
       <c r="I24" s="92"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3946,12 +3957,24 @@
     </row>
     <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="90"/>
+      <c r="B25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="30">
+        <v>5</v>
+      </c>
+      <c r="G25" s="90">
+        <v>45561</v>
+      </c>
       <c r="H25" s="87"/>
       <c r="I25" s="92"/>
       <c r="J25" s="79"/>
@@ -3975,7 +3998,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4133,7 +4156,7 @@
         <v>277</v>
       </c>
       <c r="F33" s="21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G33" s="89">
         <v>45554</v>
@@ -4237,23 +4260,27 @@
     </row>
     <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="102">
         <v>12</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="103">
         <v>6</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="94"/>
+      <c r="G38" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" s="94">
+        <v>45666</v>
+      </c>
       <c r="I38" s="96"/>
       <c r="J38" s="79"/>
       <c r="K38" s="1"/>
@@ -4269,27 +4296,25 @@
     </row>
     <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="102">
-        <v>5</v>
-      </c>
-      <c r="F39" s="103">
+      <c r="C39" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="30">
         <v>0</v>
       </c>
-      <c r="G39" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H39" s="94">
-        <v>45547</v>
-      </c>
+      <c r="G39" s="90">
+        <v>45666</v>
+      </c>
+      <c r="H39" s="94"/>
       <c r="I39" s="92"/>
       <c r="J39" s="79"/>
       <c r="K39" s="1"/>
@@ -4300,25 +4325,27 @@
     </row>
     <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E40" s="29">
-        <v>3</v>
-      </c>
-      <c r="F40" s="30">
-        <v>3</v>
-      </c>
-      <c r="G40" s="90">
+      <c r="C40" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="102">
+        <v>5</v>
+      </c>
+      <c r="F40" s="103">
+        <v>0</v>
+      </c>
+      <c r="G40" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="94">
         <v>45547</v>
       </c>
-      <c r="H40" s="94"/>
       <c r="I40" s="92"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4333,18 +4360,20 @@
         <v>16</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="29">
+        <v>209</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="30">
         <v>3</v>
       </c>
-      <c r="F41" s="30">
-        <v>2</v>
-      </c>
-      <c r="G41" s="90"/>
+      <c r="G41" s="90">
+        <v>45547</v>
+      </c>
       <c r="H41" s="94"/>
       <c r="I41" s="92"/>
       <c r="J41" s="79"/>
@@ -4356,13 +4385,23 @@
     </row>
     <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="93"/>
+      <c r="B42" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="29">
+        <v>3</v>
+      </c>
+      <c r="F42" s="30">
+        <v>2</v>
+      </c>
+      <c r="G42" s="90"/>
+      <c r="H42" s="94"/>
       <c r="I42" s="92"/>
       <c r="J42" s="79"/>
       <c r="K42" s="1"/>
@@ -4386,7 +4425,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="90"/>
@@ -4400,23 +4439,27 @@
     </row>
     <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="102">
         <v>1</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="103">
         <v>4</v>
       </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="94"/>
+      <c r="G44" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H44" s="94">
+        <v>45666</v>
+      </c>
       <c r="I44" s="92"/>
       <c r="J44" s="79"/>
       <c r="K44" s="1"/>
@@ -4427,27 +4470,25 @@
     </row>
     <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="101" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="101" t="s">
+      <c r="C45" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="102">
-        <v>11</v>
-      </c>
-      <c r="F45" s="103">
-        <v>2</v>
-      </c>
-      <c r="G45" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H45" s="94">
-        <v>45568</v>
-      </c>
+      <c r="E45" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0</v>
+      </c>
+      <c r="G45" s="90">
+        <v>45666</v>
+      </c>
+      <c r="H45" s="94"/>
       <c r="I45" s="92"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -4458,25 +4499,27 @@
     </row>
     <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F46" s="30">
+      <c r="C46" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="102">
+        <v>11</v>
+      </c>
+      <c r="F46" s="103">
         <v>2</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" s="94">
         <v>45568</v>
       </c>
-      <c r="H46" s="94"/>
       <c r="I46" s="92"/>
       <c r="J46" s="79"/>
       <c r="K46" s="1"/>
@@ -4491,22 +4534,22 @@
         <v>17</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="102">
-        <v>1</v>
+        <v>311</v>
+      </c>
+      <c r="E47" s="102" t="s">
+        <v>277</v>
       </c>
       <c r="F47" s="103">
-        <v>1</v>
-      </c>
-      <c r="G47" s="94" t="s">
-        <v>278</v>
+        <v>2</v>
+      </c>
+      <c r="G47" s="90">
+        <v>45568</v>
       </c>
       <c r="H47" s="94">
-        <v>45596</v>
+        <v>45666</v>
       </c>
       <c r="I47" s="92"/>
       <c r="J47" s="79"/>
@@ -4522,19 +4565,19 @@
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>107</v>
+        <v>347</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>277</v>
       </c>
       <c r="F48" s="30">
-        <v>3</v>
-      </c>
-      <c r="G48" s="90">
-        <v>45596</v>
+        <v>0</v>
+      </c>
+      <c r="G48" s="94">
+        <v>45666</v>
       </c>
       <c r="H48" s="94"/>
       <c r="I48" s="92"/>
@@ -4551,22 +4594,22 @@
         <v>17</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D49" s="101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E49" s="102">
         <v>1</v>
       </c>
       <c r="F49" s="103">
-        <v>0</v>
-      </c>
-      <c r="G49" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="94" t="s">
         <v>278</v>
       </c>
       <c r="H49" s="94">
-        <v>45540</v>
+        <v>45596</v>
       </c>
       <c r="I49" s="92"/>
       <c r="J49" s="79"/>
@@ -4582,19 +4625,19 @@
         <v>17</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>277</v>
       </c>
       <c r="F50" s="30">
-        <v>6</v>
-      </c>
-      <c r="G50" s="94">
-        <v>45540</v>
+        <v>3</v>
+      </c>
+      <c r="G50" s="90">
+        <v>45596</v>
       </c>
       <c r="H50" s="94"/>
       <c r="I50" s="92"/>
@@ -4607,13 +4650,27 @@
     </row>
     <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="82"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="97"/>
+      <c r="B51" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="102">
+        <v>1</v>
+      </c>
+      <c r="F51" s="103">
+        <v>0</v>
+      </c>
+      <c r="G51" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="H51" s="94">
+        <v>45540</v>
+      </c>
       <c r="I51" s="92"/>
       <c r="J51" s="79"/>
       <c r="K51" s="1"/>
@@ -4624,13 +4681,25 @@
     </row>
     <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="82"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="97"/>
+      <c r="B52" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="30">
+        <v>8</v>
+      </c>
+      <c r="G52" s="94">
+        <v>45540</v>
+      </c>
+      <c r="H52" s="94"/>
       <c r="I52" s="96"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4646,11 +4715,11 @@
       <c r="D53" s="36"/>
       <c r="E53" s="37">
         <f>SUM(E32:E52)</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -4774,7 +4843,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G59" s="83"/>
       <c r="H59" s="95"/>
@@ -4895,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="90"/>
       <c r="H64" s="93"/>
@@ -4922,7 +4991,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" s="86"/>
       <c r="H65" s="93"/>
@@ -5009,7 +5078,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" s="94"/>
       <c r="H68" s="94"/>
@@ -5080,7 +5149,7 @@
         <v>9</v>
       </c>
       <c r="F71" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G71" s="90"/>
       <c r="H71" s="94"/>
@@ -5198,7 +5267,7 @@
         <v>277</v>
       </c>
       <c r="F75" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" s="90">
         <v>45610</v>
@@ -5258,7 +5327,7 @@
         <v>277</v>
       </c>
       <c r="F77" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="90">
         <v>45652</v>
@@ -5317,7 +5386,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5441,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
@@ -5502,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G89" s="86"/>
       <c r="H89" s="93"/>
@@ -5658,7 +5727,7 @@
         <v>277</v>
       </c>
       <c r="F95" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G95" s="94">
         <v>45547</v>
@@ -5876,7 +5945,7 @@
         <v>277</v>
       </c>
       <c r="F103" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G103" s="90">
         <v>45617</v>
@@ -5952,7 +6021,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G107" s="83"/>
       <c r="H107" s="95"/>
@@ -6076,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="97"/>
@@ -6208,7 +6277,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G119" s="90"/>
       <c r="H119" s="94"/>
@@ -6324,7 +6393,7 @@
         <v>277</v>
       </c>
       <c r="F123" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="90">
         <v>45645</v>
@@ -6469,7 +6538,7 @@
         <v>277</v>
       </c>
       <c r="F128" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G128" s="90">
         <v>45617</v>
@@ -6632,7 +6701,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="95"/>
@@ -6756,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G141" s="83"/>
       <c r="H141" s="97"/>
@@ -6888,7 +6957,7 @@
         <v>25</v>
       </c>
       <c r="F147" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G147" s="90"/>
       <c r="H147" s="93"/>
@@ -7180,7 +7249,7 @@
         <v>277</v>
       </c>
       <c r="F158" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G158" s="90">
         <v>45575</v>
@@ -7209,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G159" s="90"/>
       <c r="H159" s="94"/>
@@ -7266,7 +7335,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G162" s="83"/>
       <c r="H162" s="95"/>
@@ -7419,7 +7488,7 @@
         <v>277</v>
       </c>
       <c r="F169" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G169" s="89">
         <v>45652</v>
@@ -7594,7 +7663,7 @@
         <v>277</v>
       </c>
       <c r="F176" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G176" s="90">
         <v>45519</v>
@@ -7667,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G179" s="86"/>
       <c r="H179" s="94"/>
@@ -7781,7 +7850,7 @@
         <v>35</v>
       </c>
       <c r="F183" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G183" s="94"/>
       <c r="H183" s="90"/>
@@ -7899,7 +7968,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G189" s="83"/>
       <c r="H189" s="95"/>
@@ -8023,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G195" s="83"/>
       <c r="H195" s="97"/>
@@ -8340,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G208" s="86"/>
       <c r="H208" s="93"/>
@@ -8367,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" s="86"/>
       <c r="H209" s="94"/>
@@ -8394,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G210" s="90"/>
       <c r="H210" s="94"/>
@@ -8502,7 +8571,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="G216" s="83"/>
       <c r="H216" s="95"/>
@@ -8655,7 +8724,7 @@
         <v>277</v>
       </c>
       <c r="F223" s="21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G223" s="97">
         <v>45645</v>
@@ -8859,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G231" s="90"/>
       <c r="H231" s="94"/>
@@ -8963,7 +9032,7 @@
         <v>16</v>
       </c>
       <c r="F235" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G235" s="86"/>
       <c r="H235" s="94"/>
@@ -9106,7 +9175,7 @@
         <v>277</v>
       </c>
       <c r="F240" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G240" s="90">
         <v>45589</v>
@@ -9605,7 +9674,7 @@
         <v>49</v>
       </c>
       <c r="F261" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G261" s="90"/>
       <c r="H261" s="94"/>
@@ -9659,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G263" s="90"/>
       <c r="H263" s="94"/>
@@ -9717,7 +9786,7 @@
         <v>277</v>
       </c>
       <c r="F265" s="30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G265" s="90">
         <v>45519</v>
@@ -9836,7 +9905,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G270" s="83"/>
       <c r="H270" s="95"/>
@@ -9989,7 +10058,7 @@
         <v>277</v>
       </c>
       <c r="F277" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G277" s="89">
         <v>45568</v>
@@ -10176,7 +10245,7 @@
         <v>6</v>
       </c>
       <c r="F284" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G284" s="90"/>
       <c r="H284" s="94"/>
@@ -10237,7 +10306,7 @@
         <v>36</v>
       </c>
       <c r="F287" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G287" s="86"/>
       <c r="H287" s="94"/>
@@ -10295,7 +10364,7 @@
         <v>277</v>
       </c>
       <c r="F289" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289" s="90">
         <v>45645</v>
@@ -10442,7 +10511,7 @@
         <v>277</v>
       </c>
       <c r="F294" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G294" s="90">
         <v>45596</v>
@@ -10501,7 +10570,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G297" s="83"/>
       <c r="H297" s="95"/>
@@ -10625,7 +10694,7 @@
         <v>8</v>
       </c>
       <c r="F303" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G303" s="83"/>
       <c r="H303" s="94"/>
@@ -10848,7 +10917,7 @@
         <v>277</v>
       </c>
       <c r="F312" s="30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G312" s="90">
         <v>45568</v>
@@ -11026,7 +11095,7 @@
         <v>7</v>
       </c>
       <c r="F318" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G318" s="90"/>
       <c r="H318" s="94"/>
@@ -11084,7 +11153,7 @@
         <v>277</v>
       </c>
       <c r="F320" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G320" s="90">
         <v>45568</v>
@@ -11196,7 +11265,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G324" s="83"/>
       <c r="H324" s="95"/>
@@ -11320,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G330" s="86"/>
       <c r="H330" s="90"/>
@@ -11483,7 +11552,7 @@
         <v>277</v>
       </c>
       <c r="F337" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G337" s="90">
         <v>45519</v>
@@ -11512,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="F338" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G338" s="90"/>
       <c r="H338" s="93"/>
@@ -11596,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G341" s="90"/>
       <c r="H341" s="93"/>
@@ -11674,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="F344" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G344" s="86"/>
       <c r="H344" s="94"/>
@@ -11698,7 +11767,7 @@
         <v>1</v>
       </c>
       <c r="F345" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G345" s="90"/>
       <c r="H345" s="94"/>
@@ -11750,7 +11819,7 @@
         <v>277</v>
       </c>
       <c r="F347" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G347" s="90">
         <v>45568</v>
@@ -11814,7 +11883,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G351" s="86"/>
       <c r="H351" s="93"/>
@@ -12006,7 +12075,7 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -12243,7 +12312,7 @@
         <v>277</v>
       </c>
       <c r="F374" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G374" s="112">
         <v>45568</v>
@@ -12295,7 +12364,7 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
@@ -12573,7 +12642,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F11" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12693,14 +12762,14 @@
       <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="58" t="s">
         <v>118</v>
       </c>
       <c r="E7" s="25">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="26">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G7" s="27">
         <v>18</v>
@@ -12718,17 +12787,17 @@
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="58" t="s">
         <v>210</v>
       </c>
       <c r="E8" s="25">
-        <v>39</v>
-      </c>
-      <c r="F8" s="26">
-        <v>58</v>
-      </c>
-      <c r="G8" s="27">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="F8" s="59">
+        <v>62</v>
+      </c>
+      <c r="G8" s="60">
+        <v>20</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -12741,16 +12810,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E9" s="25">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9" s="26">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G9" s="27">
         <v>22</v>
@@ -12766,19 +12835,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E10" s="25">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F10" s="26">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G10" s="27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -12797,18 +12866,18 @@
         <v>269</v>
       </c>
       <c r="E11" s="25">
-        <v>31</v>
-      </c>
-      <c r="F11" s="59">
-        <v>57</v>
-      </c>
-      <c r="G11" s="60">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="26">
+        <v>63</v>
+      </c>
+      <c r="G11" s="27">
+        <v>28</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
@@ -12822,13 +12891,13 @@
         <v>97</v>
       </c>
       <c r="E12" s="25">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="26">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G12" s="27">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -12843,17 +12912,17 @@
       <c r="C13" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="25">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="26">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G13" s="27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -12875,10 +12944,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="59">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G14" s="60">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -12893,17 +12962,17 @@
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="25">
-        <v>23</v>
-      </c>
-      <c r="F15" s="59">
-        <v>49</v>
-      </c>
-      <c r="G15" s="60">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F15" s="26">
+        <v>54</v>
+      </c>
+      <c r="G15" s="27">
+        <v>29</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -12918,17 +12987,17 @@
       <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16" s="26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G16" s="27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
@@ -12943,22 +13012,22 @@
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="24" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="26">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G17" s="27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
-      <c r="K17" s="56"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
@@ -12968,17 +13037,17 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="26">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G18" s="27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
@@ -12997,10 +13066,10 @@
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" s="26">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G19" s="27">
         <v>36</v>
@@ -13018,17 +13087,17 @@
       <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-19</v>
-      </c>
-      <c r="F20" s="26">
-        <v>23</v>
-      </c>
-      <c r="G20" s="27">
-        <v>42</v>
+        <v>-18</v>
+      </c>
+      <c r="F20" s="59">
+        <v>26</v>
+      </c>
+      <c r="G20" s="60">
+        <v>44</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="517" documentId="6_{3AB541F7-454C-43BD-BFF8-89022A1F109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18455445-B1A4-49BA-9427-5F9AC1FE3423}"/>
+  <xr:revisionPtr revIDLastSave="1146" documentId="6_{3AB541F7-454C-43BD-BFF8-89022A1F109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464534A6-35D7-45D9-BB11-142DAFE5DD10}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="361">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -786,9 +786,6 @@
     <t>ADAM ARMSTRONG</t>
   </si>
   <si>
-    <t>SOUTHAMPTON</t>
-  </si>
-  <si>
     <t>CONOR CHAPLIN</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t>TOMMI O'REILLY</t>
   </si>
   <si>
-    <t>SHREWSBURY</t>
-  </si>
-  <si>
     <t>ATLETICO MADRID</t>
   </si>
   <si>
@@ -984,9 +978,6 @@
     <t>SAM SMITH</t>
   </si>
   <si>
-    <t>READING</t>
-  </si>
-  <si>
     <t>AARON WILDIG</t>
   </si>
   <si>
@@ -1005,9 +996,6 @@
     <t>NATHAN LOWE</t>
   </si>
   <si>
-    <t>WALSALL</t>
-  </si>
-  <si>
     <t>DANNY WELBECK</t>
   </si>
   <si>
@@ -1084,6 +1072,54 @@
   </si>
   <si>
     <t>LIAM CULLEN</t>
+  </si>
+  <si>
+    <t>HARRY SMITH</t>
+  </si>
+  <si>
+    <t>SWINDON</t>
+  </si>
+  <si>
+    <t>OMAR MARMOUSH</t>
+  </si>
+  <si>
+    <t>JOEY TAYLOR</t>
+  </si>
+  <si>
+    <t>ATLANTA</t>
+  </si>
+  <si>
+    <t>BEN BRERETON DIAZ</t>
+  </si>
+  <si>
+    <t>JON DADI BODVARSSON</t>
+  </si>
+  <si>
+    <t>DYNAMO DURHAM</t>
+  </si>
+  <si>
+    <t>CHARLIE KELMAN</t>
+  </si>
+  <si>
+    <t>LEYTON ORIENT</t>
+  </si>
+  <si>
+    <t>RAYAN AIT-NOURI</t>
+  </si>
+  <si>
+    <t>MORGAN ROGERS</t>
+  </si>
+  <si>
+    <t>CALLUM ROBINSON</t>
+  </si>
+  <si>
+    <t>KELECHI IHEANACHO</t>
+  </si>
+  <si>
+    <t>ARMANDO DOBRA</t>
+  </si>
+  <si>
+    <t>HAKEEB ADELAKUN</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1819,6 +1855,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3000,7 +3039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3014,34 +3053,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O18"/>
+    <sheetView showGridLines="0" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="80" customWidth="1"/>
     <col min="2" max="2" width="16" style="80" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="80" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="80" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="80" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="80" customWidth="1"/>
     <col min="6" max="6" width="17" style="80" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="80" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="80" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="80" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="80" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="80" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="80" customWidth="1"/>
     <col min="13" max="14" width="12" style="80" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="80" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="80" customWidth="1"/>
     <col min="16" max="17" width="9" style="80" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="80" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="80" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.09765625" style="80" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="80" customWidth="1"/>
     <col min="259" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3099,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3081,7 +3120,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3098,7 +3137,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3134,13 +3173,13 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82"/>
       <c r="B5" s="113" t="s">
         <v>13</v>
@@ -3156,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H5" s="87">
         <v>45617</v>
@@ -3173,21 +3212,21 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S5" s="110"/>
       <c r="T5" s="109"/>
       <c r="U5" s="110"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82"/>
       <c r="B6" s="21" t="s">
         <v>13</v>
@@ -3197,10 +3236,10 @@
         <v>104</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F6" s="21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G6" s="89">
         <v>45617</v>
@@ -3218,21 +3257,21 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="S6" s="110"/>
       <c r="T6" s="109"/>
       <c r="U6" s="110"/>
     </row>
-    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3253,21 +3292,21 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S7" s="110"/>
       <c r="T7" s="109"/>
       <c r="U7" s="110"/>
     </row>
-    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="82"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3297,18 +3336,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3339,26 +3378,40 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F134)</f>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="102">
+        <v>5</v>
+      </c>
+      <c r="F10" s="103">
+        <v>0</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="87">
+        <v>45533</v>
+      </c>
       <c r="I10" s="88"/>
       <c r="J10" s="85"/>
       <c r="K10" s="23" t="str">
@@ -3371,44 +3424,44 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>20</v>
-      </c>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
       <c r="B11" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="102">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>275</v>
       </c>
       <c r="F11" s="103">
-        <v>0</v>
-      </c>
-      <c r="G11" s="90" t="s">
-        <v>278</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="90">
+        <v>45533</v>
       </c>
       <c r="H11" s="87">
-        <v>45533</v>
+        <v>45666</v>
       </c>
       <c r="I11" s="107"/>
       <c r="J11" s="85"/>
@@ -3426,39 +3479,37 @@
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S11" s="110"/>
       <c r="T11" s="109"/>
       <c r="U11" s="110"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="103">
-        <v>2</v>
+      <c r="C12" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
       </c>
       <c r="G12" s="90">
-        <v>45533</v>
-      </c>
-      <c r="H12" s="87">
         <v>45666</v>
       </c>
+      <c r="H12" s="87"/>
       <c r="I12" s="107"/>
       <c r="J12" s="85"/>
       <c r="K12" s="74" t="str">
@@ -3471,38 +3522,40 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="N12" s="76">
         <f>SUM(F198:F215)</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F195:F197)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="90">
-        <v>45666</v>
-      </c>
-      <c r="H13" s="87"/>
+      <c r="C13" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="102">
+        <v>1</v>
+      </c>
+      <c r="F13" s="103">
+        <v>1</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="87">
+        <v>45603</v>
+      </c>
       <c r="I13" s="107"/>
       <c r="J13" s="85"/>
       <c r="K13" s="74" t="str">
@@ -3515,41 +3568,41 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N13" s="76">
         <f>SUM(F225:F242)</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F222:F224)</f>
-        <v>36</v>
-      </c>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="119"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
       <c r="B14" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E14" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="103">
         <v>1</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H14" s="87">
         <v>45603</v>
@@ -3566,42 +3619,42 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F252:F269)</f>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F249:F251)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S14" s="110"/>
       <c r="T14" s="109"/>
       <c r="U14" s="110"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
       <c r="B15" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="102">
-        <v>2</v>
+        <v>193</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>275</v>
       </c>
       <c r="F15" s="103">
         <v>1</v>
       </c>
-      <c r="G15" s="90" t="s">
-        <v>278</v>
+      <c r="G15" s="90">
+        <v>45603</v>
       </c>
       <c r="H15" s="87">
-        <v>45603</v>
+        <v>45701</v>
       </c>
       <c r="I15" s="107"/>
       <c r="J15" s="85"/>
@@ -3615,36 +3668,36 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
       <c r="B16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F16" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="90">
-        <v>45603</v>
+        <v>45701</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="107"/>
@@ -3659,18 +3712,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
       <c r="B17" s="28" t="s">
         <v>16</v>
@@ -3682,12 +3735,12 @@
         <v>38</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F17" s="30">
-        <v>6</v>
-      </c>
-      <c r="G17" s="87">
+        <v>10</v>
+      </c>
+      <c r="G17" s="90">
         <v>45603</v>
       </c>
       <c r="H17" s="87"/>
@@ -3707,19 +3760,19 @@
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>24</v>
-      </c>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="119"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -3750,21 +3803,21 @@
       </c>
       <c r="M18" s="25">
         <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S18" s="110"/>
       <c r="T18" s="109"/>
       <c r="U18" s="110"/>
     </row>
-    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -3779,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="87"/>
@@ -3791,7 +3844,7 @@
       <c r="N19" s="91"/>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
       <c r="B20" s="101" t="s">
         <v>17</v>
@@ -3809,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H20" s="87">
         <v>45526</v>
@@ -3821,28 +3874,28 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>121</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F21" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="90">
         <v>45526</v>
@@ -3859,16 +3912,16 @@
       <c r="T21" s="109"/>
       <c r="U21" s="110"/>
     </row>
-    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
       <c r="B22" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E22" s="102">
         <v>14</v>
@@ -3877,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H22" s="87">
         <v>45568</v>
@@ -3890,19 +3943,19 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82"/>
       <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F23" s="30">
         <v>9</v>
@@ -3919,7 +3972,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82"/>
       <c r="B24" s="101" t="s">
         <v>17</v>
@@ -3937,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H24" s="87">
         <v>45561</v>
@@ -3949,13 +4002,13 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+    </row>
+    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82"/>
       <c r="B25" s="28" t="s">
         <v>17</v>
@@ -3967,7 +4020,7 @@
         <v>213</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F25" s="30">
         <v>5</v>
@@ -3987,7 +4040,7 @@
       <c r="T25" s="109"/>
       <c r="U25" s="110"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3998,7 +4051,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4010,7 +4063,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4027,7 +4080,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4043,13 +4096,13 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+    </row>
+    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4070,7 +4123,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4087,7 +4140,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="82"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4114,7 +4167,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="82"/>
       <c r="B32" s="113" t="s">
         <v>13</v>
@@ -4130,7 +4183,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H32" s="97">
         <v>45554</v>
@@ -4143,20 +4196,20 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="82"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F33" s="21">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G33" s="89">
         <v>45554</v>
@@ -4170,7 +4223,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="82"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4187,7 +4240,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="82"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4214,7 +4267,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="82"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4229,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="94"/>
       <c r="H36" s="94"/>
@@ -4241,7 +4294,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4258,7 +4311,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="82"/>
       <c r="B38" s="101" t="s">
         <v>16</v>
@@ -4276,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H38" s="94">
         <v>45666</v>
@@ -4288,25 +4341,25 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="119"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="119"/>
-      <c r="V38" s="119"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="82"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F39" s="30">
         <v>0</v>
@@ -4323,7 +4376,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="82"/>
       <c r="B40" s="101" t="s">
         <v>16</v>
@@ -4341,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H40" s="94">
         <v>45547</v>
@@ -4354,19 +4407,19 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="82"/>
       <c r="B41" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>209</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F41" s="30">
         <v>3</v>
@@ -4383,7 +4436,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="82"/>
       <c r="B42" s="28" t="s">
         <v>16</v>
@@ -4398,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="90"/>
       <c r="H42" s="94"/>
@@ -4410,7 +4463,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="82"/>
       <c r="B43" s="28" t="s">
         <v>17</v>
@@ -4425,7 +4478,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="90"/>
@@ -4437,7 +4490,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="82"/>
       <c r="B44" s="101" t="s">
         <v>17</v>
@@ -4455,7 +4508,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H44" s="94">
         <v>45666</v>
@@ -4468,22 +4521,22 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="82"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>125</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F45" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="90">
         <v>45666</v>
@@ -4497,7 +4550,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="82"/>
       <c r="B46" s="101" t="s">
         <v>17</v>
@@ -4515,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H46" s="94">
         <v>45568</v>
@@ -4528,19 +4581,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="82"/>
       <c r="B47" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E47" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F47" s="103">
         <v>2</v>
@@ -4559,19 +4612,19 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="82"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F48" s="30">
         <v>0</v>
@@ -4588,7 +4641,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
       <c r="B49" s="101" t="s">
         <v>17</v>
@@ -4606,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H49" s="94">
         <v>45596</v>
@@ -4619,7 +4672,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="82"/>
       <c r="B50" s="28" t="s">
         <v>17</v>
@@ -4628,10 +4681,10 @@
         <v>107</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F50" s="30">
         <v>3</v>
@@ -4648,7 +4701,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="82"/>
       <c r="B51" s="101" t="s">
         <v>17</v>
@@ -4666,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H51" s="94">
         <v>45540</v>
@@ -4679,7 +4732,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="82"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
@@ -4691,10 +4744,10 @@
         <v>121</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F52" s="30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G52" s="94">
         <v>45540</v>
@@ -4708,7 +4761,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4719,7 +4772,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -4731,7 +4784,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4748,7 +4801,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4765,7 +4818,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4786,7 +4839,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4803,7 +4856,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="82"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4830,7 +4883,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="82"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4843,7 +4896,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G59" s="83"/>
       <c r="H59" s="95"/>
@@ -4855,7 +4908,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="82"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4872,7 +4925,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="82"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4889,7 +4942,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="82"/>
       <c r="B62" s="101" t="s">
         <v>14</v>
@@ -4907,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H62" s="94">
         <v>45533</v>
@@ -4920,7 +4973,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="82"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
@@ -4932,10 +4985,10 @@
         <v>23</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F63" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="90">
         <v>45533</v>
@@ -4949,7 +5002,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="82"/>
       <c r="B64" s="28" t="s">
         <v>14</v>
@@ -4964,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="90"/>
       <c r="H64" s="93"/>
@@ -4976,7 +5029,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="82"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -4991,7 +5044,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G65" s="86"/>
       <c r="H65" s="93"/>
@@ -5003,7 +5056,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="82"/>
       <c r="B66" s="101" t="s">
         <v>16</v>
@@ -5021,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H66" s="94">
         <v>45610</v>
@@ -5034,22 +5087,22 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="82"/>
       <c r="B67" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F67" s="30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G67" s="90">
         <v>45610</v>
@@ -5063,7 +5116,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="82"/>
       <c r="B68" s="28" t="s">
         <v>16</v>
@@ -5078,7 +5131,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G68" s="94"/>
       <c r="H68" s="94"/>
@@ -5090,7 +5143,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
       <c r="B69" s="28"/>
       <c r="C69" s="21"/>
@@ -5107,7 +5160,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="82"/>
       <c r="B70" s="28" t="s">
         <v>17</v>
@@ -5122,7 +5175,7 @@
         <v>37</v>
       </c>
       <c r="F70" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G70" s="90"/>
       <c r="H70" s="94"/>
@@ -5134,7 +5187,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5149,7 +5202,7 @@
         <v>9</v>
       </c>
       <c r="F71" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G71" s="90"/>
       <c r="H71" s="94"/>
@@ -5161,7 +5214,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
       <c r="B72" s="101" t="s">
         <v>17</v>
@@ -5179,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H72" s="94">
         <v>45561</v>
@@ -5192,27 +5245,29 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="82"/>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D73" s="28" t="s">
+      <c r="C73" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F73" s="30">
+      <c r="E73" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="103">
         <v>1</v>
       </c>
       <c r="G73" s="90">
         <v>45561</v>
       </c>
-      <c r="H73" s="94"/>
+      <c r="H73" s="94">
+        <v>45680</v>
+      </c>
       <c r="I73" s="93"/>
       <c r="J73" s="99"/>
       <c r="K73" s="1"/>
@@ -5221,29 +5276,27 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="82"/>
-      <c r="B74" s="101" t="s">
+      <c r="B74" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" s="102">
-        <v>6</v>
-      </c>
-      <c r="F74" s="103">
-        <v>2</v>
-      </c>
-      <c r="G74" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="H74" s="94">
-        <v>45610</v>
-      </c>
+      <c r="C74" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F74" s="30">
+        <v>1</v>
+      </c>
+      <c r="G74" s="90">
+        <v>45680</v>
+      </c>
+      <c r="H74" s="94"/>
       <c r="I74" s="93"/>
       <c r="J74" s="79"/>
       <c r="K74" s="1"/>
@@ -5252,27 +5305,29 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="82"/>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F75" s="30">
-        <v>4</v>
-      </c>
-      <c r="G75" s="90">
+      <c r="C75" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="E75" s="102">
+        <v>6</v>
+      </c>
+      <c r="F75" s="103">
+        <v>2</v>
+      </c>
+      <c r="G75" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="H75" s="94">
         <v>45610</v>
       </c>
-      <c r="H75" s="94"/>
       <c r="I75" s="93"/>
       <c r="J75" s="79"/>
       <c r="K75" s="1"/>
@@ -5281,29 +5336,27 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="82"/>
-      <c r="B76" s="101" t="s">
+      <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" s="102">
-        <v>1</v>
-      </c>
-      <c r="F76" s="103">
+      <c r="C76" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F76" s="30">
         <v>5</v>
       </c>
-      <c r="G76" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H76" s="94">
-        <v>45652</v>
-      </c>
+      <c r="G76" s="90">
+        <v>45610</v>
+      </c>
+      <c r="H76" s="94"/>
       <c r="I76" s="93"/>
       <c r="J76" s="79"/>
       <c r="K76" s="1"/>
@@ -5312,27 +5365,29 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="82"/>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F77" s="30">
+      <c r="C77" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="102">
         <v>1</v>
       </c>
-      <c r="G77" s="90">
+      <c r="F77" s="103">
+        <v>5</v>
+      </c>
+      <c r="G77" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H77" s="94">
         <v>45652</v>
       </c>
-      <c r="H77" s="94"/>
       <c r="I77" s="93"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5341,14 +5396,26 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="82"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="90"/>
+      <c r="B78" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" s="30">
+        <v>3</v>
+      </c>
+      <c r="G78" s="90">
+        <v>45652</v>
+      </c>
       <c r="H78" s="94"/>
       <c r="I78" s="93"/>
       <c r="J78" s="79"/>
@@ -5358,7 +5425,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="82"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5375,7 +5442,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5386,7 +5453,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5398,7 +5465,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5415,7 +5482,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5432,7 +5499,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5453,7 +5520,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5470,7 +5537,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="82"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5497,7 +5564,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="82"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5510,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
@@ -5522,7 +5589,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="82"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5539,7 +5606,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="82"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5548,7 +5615,7 @@
       <c r="F88" s="21"/>
       <c r="G88" s="94"/>
       <c r="H88" s="95"/>
-      <c r="I88" s="95"/>
+      <c r="I88" s="94"/>
       <c r="J88" s="79"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -5556,7 +5623,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="82"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5583,7 +5650,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="82"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5610,7 +5677,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="82"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5627,7 +5694,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="82"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5642,7 +5709,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G92" s="90"/>
       <c r="H92" s="94"/>
@@ -5654,7 +5721,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="82"/>
       <c r="B93" s="28" t="s">
         <v>16</v>
@@ -5669,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G93" s="94"/>
       <c r="H93" s="94"/>
@@ -5681,7 +5748,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="82"/>
       <c r="B94" s="101" t="s">
         <v>16</v>
@@ -5699,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H94" s="94">
         <v>45547</v>
@@ -5712,19 +5779,19 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="82"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F95" s="30">
         <v>4</v>
@@ -5741,7 +5808,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="82"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5758,25 +5825,29 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="82"/>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E97" s="102">
         <v>5</v>
       </c>
-      <c r="F97" s="30">
-        <v>4</v>
-      </c>
-      <c r="G97" s="90"/>
-      <c r="H97" s="94"/>
+      <c r="F97" s="103">
+        <v>5</v>
+      </c>
+      <c r="G97" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H97" s="94">
+        <v>45687</v>
+      </c>
       <c r="I97" s="93"/>
       <c r="J97" s="79"/>
       <c r="K97" s="1"/>
@@ -5785,24 +5856,26 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="82"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>124</v>
+        <v>351</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="29">
-        <v>31</v>
+        <v>273</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="F98" s="30">
-        <v>2</v>
-      </c>
-      <c r="G98" s="86"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="90">
+        <v>45687</v>
+      </c>
       <c r="H98" s="94"/>
       <c r="I98" s="93"/>
       <c r="J98" s="79"/>
@@ -5812,29 +5885,25 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="82"/>
-      <c r="B99" s="101" t="s">
+      <c r="B99" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="102">
-        <v>6</v>
-      </c>
-      <c r="F99" s="103">
-        <v>0</v>
-      </c>
-      <c r="G99" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H99" s="94">
-        <v>45526</v>
-      </c>
+      <c r="C99" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="29">
+        <v>31</v>
+      </c>
+      <c r="F99" s="30">
+        <v>3</v>
+      </c>
+      <c r="G99" s="86"/>
+      <c r="H99" s="94"/>
       <c r="I99" s="93"/>
       <c r="J99" s="79"/>
       <c r="K99" s="1"/>
@@ -5843,27 +5912,29 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="82"/>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F100" s="30">
-        <v>3</v>
-      </c>
-      <c r="G100" s="90">
+      <c r="C100" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100" s="102">
+        <v>6</v>
+      </c>
+      <c r="F100" s="103">
+        <v>0</v>
+      </c>
+      <c r="G100" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H100" s="94">
         <v>45526</v>
       </c>
-      <c r="H100" s="94"/>
       <c r="I100" s="93"/>
       <c r="J100" s="79"/>
       <c r="K100" s="1"/>
@@ -5872,25 +5943,29 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="82"/>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" s="29">
-        <v>10</v>
-      </c>
-      <c r="F101" s="30">
-        <v>13</v>
-      </c>
-      <c r="G101" s="90"/>
-      <c r="H101" s="94"/>
+      <c r="C101" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="D101" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F101" s="103">
+        <v>3</v>
+      </c>
+      <c r="G101" s="90">
+        <v>45526</v>
+      </c>
+      <c r="H101" s="94">
+        <v>45680</v>
+      </c>
       <c r="I101" s="93"/>
       <c r="J101" s="79"/>
       <c r="K101" s="1"/>
@@ -5899,29 +5974,27 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="82"/>
-      <c r="B102" s="101" t="s">
+      <c r="B102" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="D102" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="E102" s="102">
-        <v>15</v>
-      </c>
-      <c r="F102" s="103">
-        <v>2</v>
-      </c>
-      <c r="G102" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H102" s="94">
-        <v>45617</v>
-      </c>
+      <c r="C102" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" s="30">
+        <v>1</v>
+      </c>
+      <c r="G102" s="90">
+        <v>45680</v>
+      </c>
+      <c r="H102" s="94"/>
       <c r="I102" s="93"/>
       <c r="J102" s="79"/>
       <c r="K102" s="1"/>
@@ -5930,27 +6003,29 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="82"/>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F103" s="30">
-        <v>4</v>
-      </c>
-      <c r="G103" s="90">
-        <v>45617</v>
-      </c>
-      <c r="H103" s="94"/>
+      <c r="C103" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" s="102">
+        <v>10</v>
+      </c>
+      <c r="F103" s="103">
+        <v>13</v>
+      </c>
+      <c r="G103" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H103" s="94">
+        <v>45666</v>
+      </c>
       <c r="I103" s="93"/>
       <c r="J103" s="79"/>
       <c r="K103" s="1"/>
@@ -5959,14 +6034,26 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="82"/>
-      <c r="B104" s="101"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="102"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="90"/>
+      <c r="B104" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F104" s="30">
+        <v>0</v>
+      </c>
+      <c r="G104" s="90">
+        <v>45666</v>
+      </c>
       <c r="H104" s="94"/>
       <c r="I104" s="93"/>
       <c r="J104" s="79"/>
@@ -5976,15 +6063,29 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
-      <c r="B105" s="101"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="102"/>
-      <c r="F105" s="103"/>
-      <c r="G105" s="90"/>
-      <c r="H105" s="94"/>
+      <c r="B105" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" s="102">
+        <v>15</v>
+      </c>
+      <c r="F105" s="103">
+        <v>2</v>
+      </c>
+      <c r="G105" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H105" s="94">
+        <v>45617</v>
+      </c>
       <c r="I105" s="93"/>
       <c r="J105" s="79"/>
       <c r="K105" s="1"/>
@@ -5993,15 +6094,27 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="82"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="93"/>
+      <c r="B106" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F106" s="30">
+        <v>9</v>
+      </c>
+      <c r="G106" s="90">
+        <v>45617</v>
+      </c>
+      <c r="H106" s="94"/>
       <c r="I106" s="95"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -6010,7 +6123,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6021,7 +6134,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G107" s="83"/>
       <c r="H107" s="95"/>
@@ -6033,7 +6146,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6050,7 +6163,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6067,7 +6180,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6088,7 +6201,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6105,7 +6218,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="82"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6132,7 +6245,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="82"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6145,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="97"/>
@@ -6157,7 +6270,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="82"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6174,7 +6287,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="82"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6191,13 +6304,13 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="82"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>114</v>
@@ -6206,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" s="86"/>
       <c r="H116" s="94"/>
@@ -6218,7 +6331,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="82"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6245,7 +6358,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="82"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6262,7 +6375,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="82"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
@@ -6271,13 +6384,13 @@
         <v>211</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E119" s="29">
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G119" s="90"/>
       <c r="H119" s="94"/>
@@ -6289,7 +6402,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="82"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6304,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" s="90"/>
       <c r="H120" s="94"/>
@@ -6316,13 +6429,13 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="82"/>
       <c r="B121" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D121" s="101" t="s">
         <v>26</v>
@@ -6334,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H121" s="94">
         <v>45561</v>
@@ -6347,19 +6460,19 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="82"/>
       <c r="B122" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D122" s="101" t="s">
         <v>26</v>
       </c>
       <c r="E122" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F122" s="103">
         <v>5</v>
@@ -6378,19 +6491,19 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="82"/>
       <c r="B123" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D123" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F123" s="30">
         <v>1</v>
@@ -6407,25 +6520,29 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="82"/>
-      <c r="B124" s="28" t="s">
+      <c r="B124" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E124" s="29">
+      <c r="E124" s="102">
         <v>21</v>
       </c>
-      <c r="F124" s="30">
+      <c r="F124" s="103">
         <v>4</v>
       </c>
-      <c r="G124" s="90"/>
-      <c r="H124" s="94"/>
+      <c r="G124" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H124" s="94">
+        <v>45673</v>
+      </c>
       <c r="I124" s="93"/>
       <c r="J124" s="79"/>
       <c r="K124" s="1"/>
@@ -6434,24 +6551,26 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="82"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="29">
-        <v>6</v>
+        <v>182</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="F125" s="30">
-        <v>4</v>
-      </c>
-      <c r="G125" s="90"/>
+        <v>1</v>
+      </c>
+      <c r="G125" s="90">
+        <v>45673</v>
+      </c>
       <c r="H125" s="94"/>
       <c r="I125" s="93"/>
       <c r="J125" s="79"/>
@@ -6461,29 +6580,25 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="82"/>
-      <c r="B126" s="101" t="s">
+      <c r="B126" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="101" t="s">
-        <v>212</v>
-      </c>
-      <c r="D126" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="E126" s="102">
-        <v>29</v>
-      </c>
-      <c r="F126" s="103">
-        <v>0</v>
-      </c>
-      <c r="G126" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="H126" s="94">
-        <v>45554</v>
-      </c>
+      <c r="C126" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="29">
+        <v>6</v>
+      </c>
+      <c r="F126" s="30">
+        <v>8</v>
+      </c>
+      <c r="G126" s="90"/>
+      <c r="H126" s="94"/>
       <c r="I126" s="93"/>
       <c r="J126" s="79"/>
       <c r="K126" s="1"/>
@@ -6492,28 +6607,28 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="82"/>
       <c r="B127" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="101" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="D127" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="102" t="s">
-        <v>277</v>
+        <v>213</v>
+      </c>
+      <c r="E127" s="102">
+        <v>29</v>
       </c>
       <c r="F127" s="103">
         <v>0</v>
       </c>
-      <c r="G127" s="90">
+      <c r="G127" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="H127" s="94">
         <v>45554</v>
-      </c>
-      <c r="H127" s="94">
-        <v>45617</v>
       </c>
       <c r="I127" s="93"/>
       <c r="J127" s="79"/>
@@ -6523,27 +6638,29 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="82"/>
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" s="30">
-        <v>6</v>
+      <c r="C128" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="E128" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F128" s="103">
+        <v>0</v>
       </c>
       <c r="G128" s="90">
+        <v>45554</v>
+      </c>
+      <c r="H128" s="94">
         <v>45617</v>
       </c>
-      <c r="H128" s="94"/>
       <c r="I128" s="93"/>
       <c r="J128" s="79"/>
       <c r="K128" s="1"/>
@@ -6552,29 +6669,27 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="82"/>
-      <c r="B129" s="101" t="s">
+      <c r="B129" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="E129" s="102">
-        <v>1</v>
-      </c>
-      <c r="F129" s="103">
-        <v>2</v>
-      </c>
-      <c r="G129" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H129" s="94">
-        <v>45596</v>
-      </c>
+      <c r="C129" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F129" s="30">
+        <v>7</v>
+      </c>
+      <c r="G129" s="90">
+        <v>45617</v>
+      </c>
+      <c r="H129" s="94"/>
       <c r="I129" s="93"/>
       <c r="J129" s="79"/>
       <c r="K129" s="1"/>
@@ -6583,27 +6698,29 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="82"/>
-      <c r="B130" s="28" t="s">
+      <c r="B130" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="D130" s="28" t="s">
+      <c r="C130" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="E130" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F130" s="30">
+      <c r="E130" s="102">
         <v>1</v>
       </c>
-      <c r="G130" s="90">
+      <c r="F130" s="103">
+        <v>2</v>
+      </c>
+      <c r="G130" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H130" s="94">
         <v>45596</v>
       </c>
-      <c r="H130" s="94"/>
       <c r="I130" s="93"/>
       <c r="J130" s="79"/>
       <c r="K130" s="1"/>
@@ -6612,25 +6729,29 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="82"/>
-      <c r="B131" s="28" t="s">
+      <c r="B131" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D131" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E131" s="29">
-        <v>1</v>
-      </c>
-      <c r="F131" s="30">
-        <v>13</v>
-      </c>
-      <c r="G131" s="90"/>
-      <c r="H131" s="94"/>
+      <c r="C131" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F131" s="103">
+        <v>2</v>
+      </c>
+      <c r="G131" s="90">
+        <v>45596</v>
+      </c>
+      <c r="H131" s="94">
+        <v>45701</v>
+      </c>
       <c r="I131" s="93"/>
       <c r="J131" s="79"/>
       <c r="K131" s="1"/>
@@ -6639,14 +6760,26 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="82"/>
-      <c r="B132" s="101"/>
-      <c r="C132" s="101"/>
-      <c r="D132" s="101"/>
-      <c r="E132" s="102"/>
-      <c r="F132" s="103"/>
-      <c r="G132" s="90"/>
+      <c r="B132" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F132" s="30">
+        <v>0</v>
+      </c>
+      <c r="G132" s="90">
+        <v>45701</v>
+      </c>
       <c r="H132" s="94"/>
       <c r="I132" s="93"/>
       <c r="J132" s="79"/>
@@ -6656,13 +6789,23 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="82"/>
-      <c r="B133" s="101"/>
-      <c r="C133" s="101"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="103"/>
+      <c r="B133" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="29">
+        <v>1</v>
+      </c>
+      <c r="F133" s="30">
+        <v>15</v>
+      </c>
       <c r="G133" s="90"/>
       <c r="H133" s="94"/>
       <c r="I133" s="93"/>
@@ -6673,7 +6816,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="82"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6690,7 +6833,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -6701,7 +6844,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="95"/>
@@ -6713,7 +6856,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6730,7 +6873,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6747,7 +6890,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -6768,7 +6911,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6785,7 +6928,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="82"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -6812,7 +6955,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="82"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -6825,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G141" s="83"/>
       <c r="H141" s="97"/>
@@ -6837,7 +6980,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="82"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6854,7 +6997,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="82"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -6871,7 +7014,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="82"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
@@ -6886,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G144" s="86"/>
       <c r="H144" s="94"/>
@@ -6898,7 +7041,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="82"/>
       <c r="B145" s="28" t="s">
         <v>14</v>
@@ -6925,7 +7068,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="82"/>
       <c r="B146" s="28"/>
       <c r="C146" s="21"/>
@@ -6942,7 +7085,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="82"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -6957,7 +7100,7 @@
         <v>25</v>
       </c>
       <c r="F147" s="30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G147" s="90"/>
       <c r="H147" s="93"/>
@@ -6969,7 +7112,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="82"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -6984,7 +7127,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H148" s="111"/>
       <c r="I148" s="93"/>
@@ -6995,7 +7138,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="82"/>
       <c r="B149" s="28" t="s">
         <v>16</v>
@@ -7022,7 +7165,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="82"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -7039,7 +7182,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="82"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7056,7 +7199,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="82"/>
       <c r="B152" s="101" t="s">
         <v>17</v>
@@ -7074,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H152" s="94">
         <v>45575</v>
@@ -7087,19 +7230,19 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="82"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F153" s="30">
         <v>2</v>
@@ -7116,7 +7259,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="82"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
@@ -7125,7 +7268,7 @@
         <v>113</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="E154" s="29">
         <v>25</v>
@@ -7143,7 +7286,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="82"/>
       <c r="B155" s="101" t="s">
         <v>17</v>
@@ -7161,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H155" s="94">
         <v>45575</v>
@@ -7174,7 +7317,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="82"/>
       <c r="B156" s="101" t="s">
         <v>17</v>
@@ -7192,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H156" s="94">
         <v>45575</v>
@@ -7205,22 +7348,22 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="82"/>
       <c r="B157" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F157" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157" s="90">
         <v>45575</v>
@@ -7234,22 +7377,22 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="82"/>
       <c r="B158" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F158" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G158" s="90">
         <v>45575</v>
@@ -7263,7 +7406,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="82"/>
       <c r="B159" s="28" t="s">
         <v>17</v>
@@ -7278,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="F159" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G159" s="90"/>
       <c r="H159" s="94"/>
@@ -7290,7 +7433,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="82"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -7307,7 +7450,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="82"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -7324,7 +7467,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -7335,7 +7478,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G162" s="83"/>
       <c r="H162" s="95"/>
@@ -7347,7 +7490,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7364,7 +7507,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7381,7 +7524,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -7402,7 +7545,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7419,7 +7562,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="82"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -7446,7 +7589,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="82"/>
       <c r="B168" s="113" t="s">
         <v>13</v>
@@ -7462,7 +7605,7 @@
         <v>35</v>
       </c>
       <c r="G168" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H168" s="97">
         <v>45652</v>
@@ -7475,7 +7618,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="82"/>
       <c r="B169" s="21" t="s">
         <v>13</v>
@@ -7485,10 +7628,10 @@
         <v>129</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F169" s="21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G169" s="89">
         <v>45652</v>
@@ -7502,7 +7645,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="82"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -7519,7 +7662,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="82"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7534,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="F171" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G171" s="86"/>
       <c r="H171" s="94"/>
@@ -7546,25 +7689,29 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="82"/>
-      <c r="B172" s="28" t="s">
+      <c r="B172" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="D172" s="28" t="s">
+      <c r="D172" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="E172" s="29">
+      <c r="E172" s="102">
         <v>1</v>
       </c>
-      <c r="F172" s="30">
+      <c r="F172" s="103">
         <v>1</v>
       </c>
-      <c r="G172" s="90"/>
-      <c r="H172" s="93"/>
+      <c r="G172" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H172" s="94">
+        <v>45694</v>
+      </c>
       <c r="I172" s="93"/>
       <c r="J172" s="79"/>
       <c r="K172" s="1"/>
@@ -7573,14 +7720,26 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="82"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="30"/>
-      <c r="G173" s="86"/>
+      <c r="B173" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F173" s="30">
+        <v>0</v>
+      </c>
+      <c r="G173" s="90">
+        <v>45694</v>
+      </c>
       <c r="H173" s="94"/>
       <c r="I173" s="93"/>
       <c r="J173" s="79"/>
@@ -7590,7 +7749,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="82"/>
       <c r="B174" s="28" t="s">
         <v>16</v>
@@ -7605,7 +7764,7 @@
         <v>5</v>
       </c>
       <c r="F174" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G174" s="86"/>
       <c r="H174" s="94"/>
@@ -7617,7 +7776,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="82"/>
       <c r="B175" s="101" t="s">
         <v>16</v>
@@ -7626,7 +7785,7 @@
         <v>178</v>
       </c>
       <c r="D175" s="101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E175" s="102">
         <v>1</v>
@@ -7635,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H175" s="94">
         <v>45519</v>
@@ -7648,19 +7807,19 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="82"/>
       <c r="B176" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F176" s="30">
         <v>9</v>
@@ -7677,25 +7836,29 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="82"/>
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="D177" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E177" s="29">
+      <c r="C177" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="D177" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="E177" s="102">
         <v>1</v>
       </c>
-      <c r="F177" s="30">
-        <v>0</v>
-      </c>
-      <c r="G177" s="94"/>
-      <c r="H177" s="94"/>
+      <c r="F177" s="103">
+        <v>1</v>
+      </c>
+      <c r="G177" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="H177" s="94">
+        <v>45694</v>
+      </c>
       <c r="I177" s="93"/>
       <c r="J177" s="79"/>
       <c r="K177" s="1"/>
@@ -7704,14 +7867,26 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="82"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="94"/>
+      <c r="B178" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F178" s="30">
+        <v>1</v>
+      </c>
+      <c r="G178" s="94">
+        <v>45694</v>
+      </c>
       <c r="H178" s="93"/>
       <c r="I178" s="93"/>
       <c r="J178" s="79"/>
@@ -7721,7 +7896,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="82"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7748,7 +7923,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="82"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -7775,7 +7950,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="82"/>
       <c r="B181" s="101" t="s">
         <v>17</v>
@@ -7784,7 +7959,7 @@
         <v>139</v>
       </c>
       <c r="D181" s="101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E181" s="102">
         <v>15</v>
@@ -7793,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H181" s="94">
         <v>45519</v>
@@ -7806,27 +7981,29 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="82"/>
-      <c r="B182" s="28" t="s">
+      <c r="B182" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C182" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D182" s="28" t="s">
+      <c r="C182" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="D182" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E182" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F182" s="30">
+      <c r="E182" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F182" s="103">
         <v>6</v>
       </c>
       <c r="G182" s="94">
         <v>45519</v>
       </c>
-      <c r="H182" s="94"/>
+      <c r="H182" s="94">
+        <v>45694</v>
+      </c>
       <c r="I182" s="94"/>
       <c r="J182" s="79"/>
       <c r="K182" s="1"/>
@@ -7835,25 +8012,29 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="82"/>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="28" t="s">
+      <c r="C183" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="D183" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E183" s="29">
+      <c r="D183" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="E183" s="102">
         <v>35</v>
       </c>
-      <c r="F183" s="30">
-        <v>10</v>
-      </c>
-      <c r="G183" s="94"/>
-      <c r="H183" s="90"/>
+      <c r="F183" s="103">
+        <v>11</v>
+      </c>
+      <c r="G183" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="H183" s="90">
+        <v>45694</v>
+      </c>
       <c r="I183" s="92"/>
       <c r="J183" s="79"/>
       <c r="K183" s="1"/>
@@ -7862,25 +8043,27 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="82"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>219</v>
+        <v>357</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E184" s="29">
-        <v>2</v>
+        <v>206</v>
+      </c>
+      <c r="E184" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="F184" s="30">
-        <v>8</v>
-      </c>
-      <c r="G184" s="94"/>
-      <c r="H184" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="94">
+        <v>45694</v>
+      </c>
+      <c r="H184" s="94"/>
       <c r="I184" s="93"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -7889,14 +8072,26 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="82"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="30"/>
-      <c r="G185" s="90"/>
+      <c r="B185" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F185" s="30">
+        <v>0</v>
+      </c>
+      <c r="G185" s="94">
+        <v>45694</v>
+      </c>
       <c r="H185" s="90"/>
       <c r="I185" s="93"/>
       <c r="J185" s="79"/>
@@ -7906,14 +8101,24 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="82"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="90"/>
+      <c r="B186" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D186" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E186" s="29">
+        <v>2</v>
+      </c>
+      <c r="F186" s="30">
+        <v>8</v>
+      </c>
+      <c r="G186" s="94"/>
       <c r="H186" s="90"/>
       <c r="I186" s="93"/>
       <c r="J186" s="79"/>
@@ -7923,7 +8128,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="82"/>
       <c r="B187" s="101"/>
       <c r="C187" s="101"/>
@@ -7940,7 +8145,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="82"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -7957,7 +8162,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -7980,7 +8185,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7997,7 +8202,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8014,7 +8219,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8035,7 +8240,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8052,7 +8257,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="82"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -8079,7 +8284,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="82"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
@@ -8092,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G195" s="83"/>
       <c r="H195" s="97"/>
@@ -8104,7 +8309,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="82"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8121,7 +8326,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="82"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -8138,7 +8343,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="82"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
@@ -8165,7 +8370,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="82"/>
       <c r="B199" s="28" t="s">
         <v>14</v>
@@ -8180,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G199" s="90"/>
       <c r="H199" s="93"/>
@@ -8192,7 +8397,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="82"/>
       <c r="B200" s="101"/>
       <c r="C200" s="28"/>
@@ -8209,7 +8414,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="82"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
@@ -8224,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G201" s="86"/>
       <c r="H201" s="93"/>
@@ -8236,7 +8441,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="82"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
@@ -8251,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G202" s="86"/>
       <c r="H202" s="93"/>
@@ -8263,7 +8468,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="82"/>
       <c r="B203" s="101" t="s">
         <v>16</v>
@@ -8281,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H203" s="94">
         <v>45561</v>
@@ -8294,22 +8499,22 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="82"/>
       <c r="B204" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F204" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" s="90">
         <v>45561</v>
@@ -8323,7 +8528,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="82"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -8340,7 +8545,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="82"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
@@ -8349,13 +8554,13 @@
         <v>248</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G206" s="86"/>
       <c r="H206" s="94"/>
@@ -8367,22 +8572,22 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="82"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D207" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>251</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
       </c>
       <c r="F207" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G207" s="90"/>
       <c r="H207" s="93"/>
@@ -8394,16 +8599,16 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="82"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D208" s="28" t="s">
         <v>252</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>253</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -8421,13 +8626,13 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="82"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>23</v>
@@ -8436,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209" s="86"/>
       <c r="H209" s="94"/>
@@ -8448,13 +8653,13 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="82"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>18</v>
@@ -8475,7 +8680,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="82"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8492,7 +8697,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="82"/>
       <c r="B212" s="101"/>
       <c r="C212" s="28"/>
@@ -8509,7 +8714,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="82"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8526,7 +8731,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="82"/>
       <c r="B214" s="101"/>
       <c r="C214" s="21"/>
@@ -8543,7 +8748,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="82"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -8560,7 +8765,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -8571,7 +8776,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="G216" s="83"/>
       <c r="H216" s="95"/>
@@ -8583,7 +8788,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8600,7 +8805,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8617,7 +8822,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -8638,7 +8843,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8655,7 +8860,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="82"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -8682,7 +8887,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="61"/>
       <c r="B222" s="113" t="s">
         <v>13</v>
@@ -8698,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="G222" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H222" s="97">
         <v>45645</v>
@@ -8711,7 +8916,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="82"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -8721,10 +8926,10 @@
         <v>197</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F223" s="21">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G223" s="97">
         <v>45645</v>
@@ -8738,7 +8943,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="82"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -8755,7 +8960,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="82"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
@@ -8782,7 +8987,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="82"/>
       <c r="B226" s="28" t="s">
         <v>14</v>
@@ -8809,7 +9014,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="82"/>
       <c r="B227" s="28"/>
       <c r="C227" s="21"/>
@@ -8826,7 +9031,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="82"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
@@ -8853,7 +9058,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="82"/>
       <c r="B229" s="101" t="s">
         <v>16</v>
@@ -8871,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="G229" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H229" s="94">
         <v>45561</v>
@@ -8884,19 +9089,19 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="82"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E230" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F230" s="30">
         <v>0</v>
@@ -8913,7 +9118,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="82"/>
       <c r="B231" s="28" t="s">
         <v>16</v>
@@ -8928,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G231" s="90"/>
       <c r="H231" s="94"/>
@@ -8940,7 +9145,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="82"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -8957,7 +9162,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="82"/>
       <c r="B233" s="101" t="s">
         <v>17</v>
@@ -8975,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H233" s="94">
         <v>45519</v>
@@ -8988,27 +9193,29 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="82"/>
-      <c r="B234" s="28" t="s">
+      <c r="B234" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D234" s="28" t="s">
+      <c r="C234" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D234" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="E234" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F234" s="30">
-        <v>1</v>
+      <c r="E234" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F234" s="103">
+        <v>3</v>
       </c>
       <c r="G234" s="90">
         <v>45519</v>
       </c>
-      <c r="H234" s="93"/>
+      <c r="H234" s="94">
+        <v>45680</v>
+      </c>
       <c r="I234" s="92"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9017,24 +9224,26 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="82"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E235" s="29">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="E235" s="29" t="s">
+        <v>275</v>
       </c>
       <c r="F235" s="30">
-        <v>11</v>
-      </c>
-      <c r="G235" s="86"/>
+        <v>0</v>
+      </c>
+      <c r="G235" s="90">
+        <v>45680</v>
+      </c>
       <c r="H235" s="94"/>
       <c r="I235" s="92"/>
       <c r="J235" s="1"/>
@@ -9044,24 +9253,24 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="82"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C236" s="28" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="E236" s="29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F236" s="30">
-        <v>7</v>
-      </c>
-      <c r="G236" s="90"/>
+        <v>11</v>
+      </c>
+      <c r="G236" s="86"/>
       <c r="H236" s="94"/>
       <c r="I236" s="92"/>
       <c r="J236" s="79"/>
@@ -9071,22 +9280,22 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="82"/>
       <c r="B237" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E237" s="29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F237" s="30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G237" s="90"/>
       <c r="H237" s="94"/>
@@ -9098,29 +9307,25 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="82"/>
-      <c r="B238" s="101" t="s">
+      <c r="B238" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C238" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="D238" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="E238" s="102">
-        <v>1</v>
-      </c>
-      <c r="F238" s="103">
-        <v>0</v>
-      </c>
-      <c r="G238" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H238" s="94">
-        <v>45526</v>
-      </c>
+      <c r="C238" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E238" s="29">
+        <v>8</v>
+      </c>
+      <c r="F238" s="30">
+        <v>12</v>
+      </c>
+      <c r="G238" s="90"/>
+      <c r="H238" s="94"/>
       <c r="I238" s="92"/>
       <c r="J238" s="79"/>
       <c r="K238" s="1"/>
@@ -9129,28 +9334,28 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="82"/>
       <c r="B239" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C239" s="101" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="D239" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="E239" s="102" t="s">
-        <v>277</v>
+        <v>121</v>
+      </c>
+      <c r="E239" s="102">
+        <v>1</v>
       </c>
       <c r="F239" s="103">
-        <v>1</v>
-      </c>
-      <c r="G239" s="90">
+        <v>0</v>
+      </c>
+      <c r="G239" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H239" s="94">
         <v>45526</v>
-      </c>
-      <c r="H239" s="94">
-        <v>45589</v>
       </c>
       <c r="I239" s="92"/>
       <c r="J239" s="79"/>
@@ -9160,27 +9365,29 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="82"/>
-      <c r="B240" s="28" t="s">
+      <c r="B240" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C240" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="D240" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E240" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F240" s="30">
-        <v>8</v>
+      <c r="C240" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="D240" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E240" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F240" s="103">
+        <v>1</v>
       </c>
       <c r="G240" s="90">
+        <v>45526</v>
+      </c>
+      <c r="H240" s="94">
         <v>45589</v>
       </c>
-      <c r="H240" s="94"/>
       <c r="I240" s="92"/>
       <c r="J240" s="79"/>
       <c r="K240" s="1"/>
@@ -9189,14 +9396,26 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="82"/>
-      <c r="B241" s="101"/>
-      <c r="C241" s="101"/>
-      <c r="D241" s="101"/>
-      <c r="E241" s="102"/>
-      <c r="F241" s="103"/>
-      <c r="G241" s="90"/>
+      <c r="B241" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D241" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E241" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F241" s="30">
+        <v>11</v>
+      </c>
+      <c r="G241" s="90">
+        <v>45589</v>
+      </c>
       <c r="H241" s="94"/>
       <c r="I241" s="93"/>
       <c r="J241" s="79"/>
@@ -9206,7 +9425,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="82"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -9223,7 +9442,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -9234,7 +9453,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G243" s="83"/>
       <c r="H243" s="95"/>
@@ -9246,7 +9465,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9263,7 +9482,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9280,7 +9499,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -9301,7 +9520,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9318,7 +9537,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="82"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -9337,7 +9556,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="82"/>
       <c r="B249" s="113" t="s">
         <v>13</v>
@@ -9353,7 +9572,7 @@
         <v>13</v>
       </c>
       <c r="G249" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H249" s="97">
         <v>45561</v>
@@ -9366,7 +9585,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="82"/>
       <c r="B250" s="21" t="s">
         <v>13</v>
@@ -9376,10 +9595,10 @@
         <v>199</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F250" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G250" s="89">
         <v>45561</v>
@@ -9393,7 +9612,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="82"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9410,7 +9629,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="82"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
@@ -9425,7 +9644,7 @@
         <v>6</v>
       </c>
       <c r="F252" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G252" s="86"/>
       <c r="H252" s="94"/>
@@ -9437,7 +9656,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="82"/>
       <c r="B253" s="28" t="s">
         <v>14</v>
@@ -9464,7 +9683,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="82"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -9481,7 +9700,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="82"/>
       <c r="B255" s="101" t="s">
         <v>16</v>
@@ -9490,7 +9709,7 @@
         <v>122</v>
       </c>
       <c r="D255" s="101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E255" s="102">
         <v>3</v>
@@ -9499,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H255" s="94">
         <v>45589</v>
@@ -9512,19 +9731,19 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="82"/>
       <c r="B256" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="101" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D256" s="101" t="s">
         <v>199</v>
       </c>
       <c r="E256" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F256" s="103">
         <v>1</v>
@@ -9543,19 +9762,19 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="82"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E257" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F257" s="30">
         <v>2</v>
@@ -9572,7 +9791,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="82"/>
       <c r="B258" s="101" t="s">
         <v>16</v>
@@ -9590,7 +9809,7 @@
         <v>3</v>
       </c>
       <c r="G258" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H258" s="94">
         <v>45638</v>
@@ -9603,22 +9822,22 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="82"/>
       <c r="B259" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D259" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E259" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F259" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G259" s="90">
         <v>45638</v>
@@ -9632,7 +9851,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="82"/>
       <c r="B260" s="28" t="s">
         <v>16</v>
@@ -9659,7 +9878,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="82"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9674,7 +9893,7 @@
         <v>49</v>
       </c>
       <c r="F261" s="30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G261" s="90"/>
       <c r="H261" s="94"/>
@@ -9686,7 +9905,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="82"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -9701,7 +9920,7 @@
         <v>19</v>
       </c>
       <c r="F262" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G262" s="90"/>
       <c r="H262" s="94"/>
@@ -9713,25 +9932,29 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="82"/>
-      <c r="B263" s="28" t="s">
+      <c r="B263" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C263" s="28" t="s">
+      <c r="C263" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="D263" s="28" t="s">
+      <c r="D263" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="E263" s="29">
+      <c r="E263" s="102">
         <v>1</v>
       </c>
-      <c r="F263" s="30">
-        <v>11</v>
-      </c>
-      <c r="G263" s="90"/>
-      <c r="H263" s="94"/>
+      <c r="F263" s="103">
+        <v>12</v>
+      </c>
+      <c r="G263" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H263" s="94">
+        <v>45687</v>
+      </c>
       <c r="I263" s="93"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -9740,29 +9963,27 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="82"/>
-      <c r="B264" s="101" t="s">
+      <c r="B264" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C264" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="D264" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="E264" s="102">
-        <v>1</v>
-      </c>
-      <c r="F264" s="103">
+      <c r="C264" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D264" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F264" s="30">
         <v>0</v>
       </c>
-      <c r="G264" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="H264" s="94">
-        <v>45519</v>
-      </c>
+      <c r="G264" s="90">
+        <v>45687</v>
+      </c>
+      <c r="H264" s="94"/>
       <c r="I264" s="93"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -9771,27 +9992,29 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="82"/>
-      <c r="B265" s="28" t="s">
+      <c r="B265" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D265" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="E265" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F265" s="30">
-        <v>9</v>
-      </c>
-      <c r="G265" s="90">
+      <c r="C265" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D265" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="E265" s="102">
+        <v>1</v>
+      </c>
+      <c r="F265" s="103">
+        <v>0</v>
+      </c>
+      <c r="G265" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="H265" s="94">
         <v>45519</v>
       </c>
-      <c r="H265" s="94"/>
       <c r="I265" s="93"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -9800,29 +10023,27 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="82"/>
-      <c r="B266" s="101" t="s">
+      <c r="B266" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C266" s="101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D266" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="E266" s="102">
-        <v>1</v>
-      </c>
-      <c r="F266" s="103">
-        <v>0</v>
-      </c>
-      <c r="G266" s="86" t="s">
+      <c r="C266" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D266" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="H266" s="94">
-        <v>45561</v>
-      </c>
+      <c r="E266" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F266" s="30">
+        <v>9</v>
+      </c>
+      <c r="G266" s="90">
+        <v>45519</v>
+      </c>
+      <c r="H266" s="94"/>
       <c r="I266" s="93"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -9831,27 +10052,29 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="82"/>
-      <c r="B267" s="28" t="s">
+      <c r="B267" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C267" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D267" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E267" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F267" s="30">
-        <v>7</v>
-      </c>
-      <c r="G267" s="90">
+      <c r="C267" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D267" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="E267" s="102">
+        <v>1</v>
+      </c>
+      <c r="F267" s="103">
+        <v>0</v>
+      </c>
+      <c r="G267" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="H267" s="94">
         <v>45561</v>
       </c>
-      <c r="H267" s="94"/>
       <c r="I267" s="93"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -9860,15 +10083,29 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="82"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="28"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="30"/>
-      <c r="G268" s="90"/>
-      <c r="H268" s="93"/>
+      <c r="B268" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268" s="101" t="s">
+        <v>300</v>
+      </c>
+      <c r="D268" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F268" s="103">
+        <v>7</v>
+      </c>
+      <c r="G268" s="90">
+        <v>45561</v>
+      </c>
+      <c r="H268" s="94">
+        <v>45694</v>
+      </c>
       <c r="I268" s="93"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -9877,14 +10114,26 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="82"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="30"/>
-      <c r="G269" s="90"/>
+      <c r="B269" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D269" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E269" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F269" s="30">
+        <v>0</v>
+      </c>
+      <c r="G269" s="90">
+        <v>45694</v>
+      </c>
       <c r="H269" s="93"/>
       <c r="I269" s="93"/>
       <c r="J269" s="1"/>
@@ -9894,7 +10143,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -9905,7 +10154,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G270" s="83"/>
       <c r="H270" s="95"/>
@@ -9917,7 +10166,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9934,7 +10183,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9951,11 +10200,11 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>189</v>
@@ -9972,7 +10221,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9989,7 +10238,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="82"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -10016,7 +10265,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="82"/>
       <c r="B276" s="113" t="s">
         <v>13</v>
@@ -10032,7 +10281,7 @@
         <v>14</v>
       </c>
       <c r="G276" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H276" s="97">
         <v>45568</v>
@@ -10045,20 +10294,20 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="82"/>
       <c r="B277" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C277" s="21"/>
       <c r="D277" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F277" s="21">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G277" s="89">
         <v>45568</v>
@@ -10072,7 +10321,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="82"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10089,7 +10338,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="82"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
@@ -10116,7 +10365,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="82"/>
       <c r="B280" s="101" t="s">
         <v>14</v>
@@ -10134,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H280" s="94">
         <v>45526</v>
@@ -10147,19 +10396,19 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="82"/>
       <c r="B281" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F281" s="30">
         <v>1</v>
@@ -10176,7 +10425,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="82"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -10185,13 +10434,13 @@
         <v>159</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E282" s="22">
         <v>8</v>
       </c>
       <c r="F282" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G282" s="86"/>
       <c r="H282" s="94"/>
@@ -10203,7 +10452,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="82"/>
       <c r="B283" s="28" t="s">
         <v>16</v>
@@ -10218,7 +10467,7 @@
         <v>16</v>
       </c>
       <c r="F283" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G283" s="94"/>
       <c r="H283" s="94"/>
@@ -10230,7 +10479,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="82"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
@@ -10257,7 +10506,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="82"/>
       <c r="B285" s="28"/>
       <c r="C285" s="21"/>
@@ -10274,7 +10523,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="82"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -10291,7 +10540,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="82"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -10306,7 +10555,7 @@
         <v>36</v>
       </c>
       <c r="F287" s="30">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G287" s="86"/>
       <c r="H287" s="94"/>
@@ -10318,7 +10567,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="82"/>
       <c r="B288" s="101" t="s">
         <v>17</v>
@@ -10336,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="G288" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H288" s="94">
         <v>45645</v>
@@ -10349,22 +10598,22 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="82"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D289" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F289" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G289" s="90">
         <v>45645</v>
@@ -10378,7 +10627,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="82"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -10405,7 +10654,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="82"/>
       <c r="B291" s="101" t="s">
         <v>17</v>
@@ -10423,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="G291" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H291" s="94">
         <v>45596</v>
@@ -10436,13 +10685,13 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="82"/>
       <c r="B292" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C292" s="104" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D292" s="104" t="s">
         <v>129</v>
@@ -10454,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="G292" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H292" s="94">
         <v>45596</v>
@@ -10467,27 +10716,29 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="82"/>
-      <c r="B293" s="28" t="s">
+      <c r="B293" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C293" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D293" s="21" t="s">
+      <c r="C293" s="104" t="s">
+        <v>324</v>
+      </c>
+      <c r="D293" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E293" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F293" s="30">
+      <c r="E293" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="F293" s="103">
         <v>1</v>
       </c>
       <c r="G293" s="90">
         <v>45596</v>
       </c>
-      <c r="H293" s="94"/>
+      <c r="H293" s="94">
+        <v>45687</v>
+      </c>
       <c r="I293" s="93"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -10496,25 +10747,25 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="82"/>
       <c r="B294" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F294" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G294" s="90">
-        <v>45596</v>
+        <v>45687</v>
       </c>
       <c r="H294" s="94"/>
       <c r="I294" s="93"/>
@@ -10525,14 +10776,26 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="82"/>
-      <c r="B295" s="101"/>
-      <c r="C295" s="104"/>
-      <c r="D295" s="104"/>
-      <c r="E295" s="105"/>
-      <c r="F295" s="103"/>
-      <c r="G295" s="86"/>
+      <c r="B295" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D295" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E295" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F295" s="30">
+        <v>6</v>
+      </c>
+      <c r="G295" s="90">
+        <v>45596</v>
+      </c>
       <c r="H295" s="94"/>
       <c r="I295" s="93"/>
       <c r="J295" s="1"/>
@@ -10542,7 +10805,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="82"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10559,7 +10822,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -10570,7 +10833,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G297" s="83"/>
       <c r="H297" s="95"/>
@@ -10582,7 +10845,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10599,7 +10862,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -10616,7 +10879,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
@@ -10637,7 +10900,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10654,7 +10917,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="82"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -10681,7 +10944,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="82"/>
       <c r="B303" s="12" t="s">
         <v>13</v>
@@ -10694,7 +10957,7 @@
         <v>8</v>
       </c>
       <c r="F303" s="15">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G303" s="83"/>
       <c r="H303" s="94"/>
@@ -10706,7 +10969,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="82"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -10723,7 +10986,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="82"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -10740,7 +11003,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="82"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -10767,7 +11030,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="82"/>
       <c r="B307" s="28" t="s">
         <v>14</v>
@@ -10782,7 +11045,7 @@
         <v>6</v>
       </c>
       <c r="F307" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G307" s="90"/>
       <c r="H307" s="93"/>
@@ -10794,7 +11057,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="82"/>
       <c r="B308" s="101"/>
       <c r="C308" s="21"/>
@@ -10811,7 +11074,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="82"/>
       <c r="B309" s="101" t="s">
         <v>16</v>
@@ -10829,7 +11092,7 @@
         <v>3</v>
       </c>
       <c r="G309" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H309" s="94">
         <v>45624</v>
@@ -10842,19 +11105,19 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="82"/>
       <c r="B310" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D310" s="21" t="s">
         <v>182</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F310" s="30">
         <v>0</v>
@@ -10871,7 +11134,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="82"/>
       <c r="B311" s="101" t="s">
         <v>16</v>
@@ -10889,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="G311" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H311" s="94">
         <v>45568</v>
@@ -10902,22 +11165,22 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="82"/>
       <c r="B312" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D312" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F312" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G312" s="90">
         <v>45568</v>
@@ -10931,7 +11194,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="82"/>
       <c r="B313" s="101" t="s">
         <v>16</v>
@@ -10949,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="G313" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H313" s="94">
         <v>45526</v>
@@ -10962,19 +11225,19 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="82"/>
       <c r="B314" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="104" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D314" s="104" t="s">
         <v>25</v>
       </c>
       <c r="E314" s="105" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F314" s="103">
         <v>0</v>
@@ -10993,19 +11256,19 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="82"/>
       <c r="B315" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C315" s="104" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D315" s="104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E315" s="105" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F315" s="103">
         <v>2</v>
@@ -11024,19 +11287,19 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="82"/>
       <c r="B316" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D316" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F316" s="30">
         <v>1</v>
@@ -11053,7 +11316,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="82"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
@@ -11080,7 +11343,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="82"/>
       <c r="B318" s="28" t="s">
         <v>17</v>
@@ -11095,7 +11358,7 @@
         <v>7</v>
       </c>
       <c r="F318" s="30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G318" s="90"/>
       <c r="H318" s="94"/>
@@ -11107,7 +11370,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="82"/>
       <c r="B319" s="101" t="s">
         <v>17</v>
@@ -11125,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="G319" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H319" s="94">
         <v>45568</v>
@@ -11138,22 +11401,22 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="82"/>
       <c r="B320" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F320" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G320" s="90">
         <v>45568</v>
@@ -11167,7 +11430,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="82"/>
       <c r="B321" s="28" t="s">
         <v>17</v>
@@ -11194,7 +11457,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="82"/>
       <c r="B322" s="101" t="s">
         <v>17</v>
@@ -11212,7 +11475,7 @@
         <v>2</v>
       </c>
       <c r="G322" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H322" s="94">
         <v>45624</v>
@@ -11225,22 +11488,22 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="82"/>
       <c r="B323" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F323" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G323" s="90">
         <v>45624</v>
@@ -11254,7 +11517,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -11265,7 +11528,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G324" s="83"/>
       <c r="H324" s="95"/>
@@ -11277,7 +11540,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11294,7 +11557,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11311,7 +11574,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -11332,7 +11595,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11349,7 +11612,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="82"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -11376,7 +11639,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="82"/>
       <c r="B330" s="12" t="s">
         <v>13</v>
@@ -11389,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G330" s="86"/>
       <c r="H330" s="90"/>
@@ -11401,7 +11664,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="82"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11418,7 +11681,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="82"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -11435,16 +11698,16 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="82"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C333" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D333" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="D333" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="E333" s="22">
         <v>1</v>
@@ -11462,13 +11725,13 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="82"/>
       <c r="B334" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>108</v>
@@ -11489,7 +11752,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="82"/>
       <c r="B335" s="28"/>
       <c r="C335" s="21"/>
@@ -11506,16 +11769,16 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="82"/>
       <c r="B336" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C336" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="D336" s="104" t="s">
         <v>259</v>
-      </c>
-      <c r="D336" s="104" t="s">
-        <v>260</v>
       </c>
       <c r="E336" s="105">
         <v>1</v>
@@ -11524,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H336" s="94">
         <v>45519</v>
@@ -11537,22 +11800,22 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="82"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F337" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G337" s="90">
         <v>45519</v>
@@ -11566,13 +11829,13 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="82"/>
       <c r="B338" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>106</v>
@@ -11581,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="F338" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G338" s="90"/>
       <c r="H338" s="93"/>
@@ -11593,13 +11856,13 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="82"/>
       <c r="B339" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C339" s="104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D339" s="104" t="s">
         <v>163</v>
@@ -11611,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H339" s="94">
         <v>45568</v>
@@ -11624,22 +11887,22 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="82"/>
       <c r="B340" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D340" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F340" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G340" s="90">
         <v>45568</v>
@@ -11650,22 +11913,22 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="82"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E341" s="22">
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G341" s="90"/>
       <c r="H341" s="93"/>
@@ -11674,16 +11937,16 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="82"/>
       <c r="B342" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C342" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D342" s="104" t="s">
         <v>264</v>
-      </c>
-      <c r="D342" s="104" t="s">
-        <v>265</v>
       </c>
       <c r="E342" s="105">
         <v>1</v>
@@ -11692,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="G342" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H342" s="94">
         <v>45589</v>
@@ -11702,149 +11965,163 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="82"/>
-      <c r="B343" s="28" t="s">
+      <c r="B343" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C343" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D343" s="21" t="s">
+      <c r="C343" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D343" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="E343" s="105" t="s">
         <v>275</v>
       </c>
-      <c r="E343" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F343" s="30">
+      <c r="F343" s="103">
         <v>1</v>
       </c>
       <c r="G343" s="90">
         <v>45589</v>
       </c>
-      <c r="H343" s="94"/>
+      <c r="H343" s="94">
+        <v>45680</v>
+      </c>
       <c r="I343" s="93"/>
       <c r="J343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="82"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E344" s="22">
-        <v>1</v>
+        <v>346</v>
+      </c>
+      <c r="E344" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="F344" s="30">
-        <v>15</v>
-      </c>
-      <c r="G344" s="86"/>
+        <v>2</v>
+      </c>
+      <c r="G344" s="90">
+        <v>45680</v>
+      </c>
       <c r="H344" s="94"/>
       <c r="I344" s="93"/>
       <c r="J344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="82"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E345" s="22">
         <v>1</v>
       </c>
       <c r="F345" s="30">
-        <v>7</v>
-      </c>
-      <c r="G345" s="90"/>
+        <v>15</v>
+      </c>
+      <c r="G345" s="86"/>
       <c r="H345" s="94"/>
       <c r="I345" s="93"/>
       <c r="J345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="82"/>
-      <c r="B346" s="101" t="s">
+      <c r="B346" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C346" s="104" t="s">
-        <v>268</v>
-      </c>
-      <c r="D346" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="E346" s="105">
+      <c r="C346" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D346" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E346" s="22">
         <v>1</v>
       </c>
-      <c r="F346" s="103">
-        <v>0</v>
-      </c>
-      <c r="G346" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="H346" s="94">
-        <v>45568</v>
-      </c>
+      <c r="F346" s="30">
+        <v>7</v>
+      </c>
+      <c r="G346" s="90"/>
+      <c r="H346" s="94"/>
       <c r="I346" s="93"/>
       <c r="J346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="82"/>
-      <c r="B347" s="28" t="s">
+      <c r="B347" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C347" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D347" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E347" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F347" s="30">
-        <v>3</v>
-      </c>
-      <c r="G347" s="90">
+      <c r="C347" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="D347" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E347" s="105">
+        <v>1</v>
+      </c>
+      <c r="F347" s="103">
+        <v>0</v>
+      </c>
+      <c r="G347" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="H347" s="94">
         <v>45568</v>
       </c>
-      <c r="H347" s="94"/>
       <c r="I347" s="93"/>
       <c r="J347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="82"/>
-      <c r="B348" s="28"/>
-      <c r="C348" s="21"/>
-      <c r="D348" s="21"/>
-      <c r="E348" s="22"/>
-      <c r="F348" s="30"/>
-      <c r="G348" s="90"/>
-      <c r="H348" s="93"/>
+      <c r="B348" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C348" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D348" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E348" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F348" s="30">
+        <v>4</v>
+      </c>
+      <c r="G348" s="90">
+        <v>45568</v>
+      </c>
+      <c r="H348" s="94"/>
       <c r="I348" s="93"/>
       <c r="J348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="82"/>
       <c r="B349" s="28"/>
       <c r="C349" s="21"/>
@@ -11858,7 +12135,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="82"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -11872,7 +12149,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -11892,7 +12169,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11906,7 +12183,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>119</v>
@@ -11921,7 +12198,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -11932,7 +12209,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -11953,7 +12230,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="113" t="s">
         <v>13</v>
       </c>
@@ -11965,10 +12242,10 @@
         <v>1</v>
       </c>
       <c r="F357" s="116">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H357" s="112">
         <v>45603</v>
@@ -11976,19 +12253,19 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C358" s="21"/>
       <c r="D358" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F358" s="21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G358" s="112">
         <v>45603</v>
@@ -11997,7 +12274,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
@@ -12008,7 +12285,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
@@ -12029,7 +12306,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="28" t="s">
         <v>14</v>
       </c>
@@ -12050,7 +12327,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
@@ -12061,7 +12338,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
@@ -12075,14 +12352,14 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
@@ -12096,14 +12373,14 @@
         <v>7</v>
       </c>
       <c r="F364" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="112"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="101" t="s">
         <v>16</v>
       </c>
@@ -12120,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="G365" s="112" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H365" s="112">
         <v>45568</v>
@@ -12128,18 +12405,18 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C366" s="21" t="s">
-        <v>316</v>
+      <c r="C366" s="119" t="s">
+        <v>313</v>
       </c>
       <c r="D366" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F366" s="30">
         <v>0</v>
@@ -12151,7 +12428,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
@@ -12162,11 +12439,11 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C368" s="21" t="s">
+      <c r="C368" s="119" t="s">
         <v>151</v>
       </c>
       <c r="D368" s="21" t="s">
@@ -12183,7 +12460,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28" t="s">
         <v>17</v>
       </c>
@@ -12197,14 +12474,14 @@
         <v>30</v>
       </c>
       <c r="F369" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="101" t="s">
         <v>17</v>
       </c>
@@ -12221,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H370" s="112">
         <v>45568</v>
@@ -12229,18 +12506,18 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C371" s="21" t="s">
-        <v>317</v>
+      <c r="C371" s="119" t="s">
+        <v>314</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F371" s="30">
         <v>0</v>
@@ -12252,7 +12529,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="28" t="s">
         <v>17</v>
       </c>
@@ -12266,14 +12543,14 @@
         <v>1</v>
       </c>
       <c r="F372" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="101" t="s">
         <v>17</v>
       </c>
@@ -12290,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H373" s="112">
         <v>45568</v>
@@ -12298,21 +12575,21 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D374" s="21" t="s">
         <v>137</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F374" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G374" s="112">
         <v>45568</v>
@@ -12321,7 +12598,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
@@ -12332,7 +12609,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="101"/>
       <c r="C376" s="104"/>
       <c r="D376" s="104"/>
@@ -12343,7 +12620,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
@@ -12354,7 +12631,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -12364,14 +12641,14 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
         <v>179</v>
@@ -12382,14 +12659,14 @@
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="5"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B383" s="6" t="s">
         <v>3</v>
       </c>
@@ -12406,7 +12683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="12" t="s">
         <v>13</v>
       </c>
@@ -12417,21 +12694,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
       <c r="E386" s="22"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -12442,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="28" t="s">
         <v>14</v>
       </c>
@@ -12453,14 +12730,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="101"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -12471,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -12482,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="28" t="s">
         <v>16</v>
       </c>
@@ -12493,21 +12770,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="28"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
       <c r="E393" s="22"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="28"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
       <c r="E394" s="22"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -12518,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -12529,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -12540,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -12551,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -12562,42 +12839,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="101"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="101"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
       <c r="E403" s="22"/>
       <c r="F403" s="21"/>
     </row>
-    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B404" s="21"/>
       <c r="C404" s="33"/>
       <c r="D404" s="33"/>
       <c r="E404" s="34"/>
       <c r="F404" s="33"/>
     </row>
-    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
       <c r="D405" s="36"/>
@@ -12642,21 +12919,21 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F7:F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -12673,7 +12950,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -12688,7 +12965,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -12701,12 +12978,12 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -12716,7 +12993,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -12729,7 +13006,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -12754,7 +13031,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
@@ -12766,20 +13043,20 @@
         <v>118</v>
       </c>
       <c r="E7" s="25">
-        <v>46</v>
-      </c>
-      <c r="F7" s="26">
-        <v>64</v>
-      </c>
-      <c r="G7" s="27">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="F7" s="59">
+        <v>73</v>
+      </c>
+      <c r="G7" s="60">
+        <v>19</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -12787,74 +13064,74 @@
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="24" t="s">
         <v>210</v>
       </c>
       <c r="E8" s="25">
-        <v>42</v>
-      </c>
-      <c r="F8" s="59">
-        <v>62</v>
-      </c>
-      <c r="G8" s="60">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="26">
+        <v>76</v>
+      </c>
+      <c r="G8" s="27">
+        <v>26</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="25">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F9" s="26">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G9" s="27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E10" s="25">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F10" s="26">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G10" s="27">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
@@ -12863,48 +13140,48 @@
         <v>189</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="25">
-        <v>35</v>
-      </c>
-      <c r="F11" s="26">
-        <v>63</v>
-      </c>
-      <c r="G11" s="27">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="F11" s="59">
+        <v>76</v>
+      </c>
+      <c r="G11" s="60">
+        <v>36</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E12" s="25">
+        <v>38</v>
+      </c>
+      <c r="F12" s="26">
+        <v>70</v>
+      </c>
+      <c r="G12" s="27">
         <v>32</v>
-      </c>
-      <c r="F12" s="26">
-        <v>53</v>
-      </c>
-      <c r="G12" s="27">
-        <v>21</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
@@ -12916,70 +13193,70 @@
         <v>88</v>
       </c>
       <c r="E13" s="25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="26">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G13" s="27">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="25">
-        <v>25</v>
-      </c>
-      <c r="F14" s="59">
-        <v>61</v>
-      </c>
-      <c r="G14" s="60">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="F14" s="26">
+        <v>56</v>
+      </c>
+      <c r="G14" s="27">
+        <v>26</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E15" s="25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="26">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G15" s="27">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
@@ -12991,45 +13268,45 @@
         <v>15</v>
       </c>
       <c r="E16" s="25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="26">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G16" s="27">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E17" s="25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="26">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G17" s="27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
@@ -13037,24 +13314,24 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="58" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="25">
         <v>21</v>
       </c>
       <c r="F18" s="26">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G18" s="27">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -13062,24 +13339,24 @@
       <c r="C19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="58" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>8</v>
-      </c>
-      <c r="F19" s="26">
+        <v>11</v>
+      </c>
+      <c r="F19" s="59">
+        <v>55</v>
+      </c>
+      <c r="G19" s="60">
         <v>44</v>
-      </c>
-      <c r="G19" s="27">
-        <v>36</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
       <c r="B20" s="57">
         <v>14</v>
@@ -13087,24 +13364,24 @@
       <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-18</v>
-      </c>
-      <c r="F20" s="59">
-        <v>26</v>
-      </c>
-      <c r="G20" s="60">
-        <v>44</v>
+        <v>-17</v>
+      </c>
+      <c r="F20" s="26">
+        <v>33</v>
+      </c>
+      <c r="G20" s="27">
+        <v>50</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -13117,7 +13394,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -13148,20 +13425,20 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="65" t="s">
         <v>194</v>
       </c>
@@ -13171,7 +13448,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -13179,7 +13456,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="66" t="s">
         <v>44</v>
       </c>
@@ -13189,73 +13466,97 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="71" t="s">
+        <v>118</v>
+      </c>
       <c r="C4" s="71"/>
       <c r="D4" s="67"/>
-      <c r="E4" s="72"/>
+      <c r="E4" s="71" t="s">
+        <v>352</v>
+      </c>
       <c r="F4" s="72"/>
       <c r="G4" s="108"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="71" t="s">
+        <v>60</v>
+      </c>
       <c r="C5" s="71"/>
       <c r="D5" s="67"/>
-      <c r="E5" s="72"/>
+      <c r="E5" s="71" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="72"/>
       <c r="G5" s="108"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="71" t="s">
+        <v>75</v>
+      </c>
       <c r="F6" s="71"/>
       <c r="G6" s="67"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="71" t="s">
+        <v>97</v>
+      </c>
       <c r="C7" s="71"/>
       <c r="D7" s="67"/>
-      <c r="E7" s="71"/>
+      <c r="E7" s="71" t="s">
+        <v>88</v>
+      </c>
       <c r="F7" s="71"/>
       <c r="G7" s="67"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="71" t="s">
+        <v>210</v>
+      </c>
       <c r="C8" s="71"/>
       <c r="D8" s="67"/>
-      <c r="E8" s="72"/>
+      <c r="E8" s="71" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="72"/>
       <c r="G8" s="108"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="71" t="s">
+        <v>66</v>
+      </c>
       <c r="F9" s="71"/>
       <c r="G9" s="67"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -13264,7 +13565,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="64"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="66" t="s">
         <v>170</v>
       </c>
@@ -13274,7 +13575,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>55</v>
       </c>
@@ -13285,7 +13586,7 @@
       <c r="F12" s="72"/>
       <c r="G12" s="108"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71"/>
@@ -13294,7 +13595,7 @@
       <c r="F13" s="72"/>
       <c r="G13" s="108"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="70"/>
       <c r="B14" s="66" t="s">
         <v>71</v>
@@ -13305,7 +13606,7 @@
       <c r="F14" s="71"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
@@ -13316,7 +13617,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>57</v>
       </c>
@@ -13327,7 +13628,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="108"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
         <v>72</v>
       </c>
@@ -13338,7 +13639,7 @@
       <c r="F17" s="71"/>
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
         <v>93</v>
       </c>
@@ -13349,7 +13650,7 @@
       <c r="F18" s="72"/>
       <c r="G18" s="108"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="68"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -13357,7 +13658,7 @@
       <c r="F19" s="69"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="68"/>
       <c r="C20" s="67"/>
       <c r="D20" s="64"/>
@@ -13365,7 +13666,7 @@
       <c r="F20" s="69"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="66" t="s">
         <v>45</v>
       </c>
@@ -13375,7 +13676,7 @@
       <c r="F21" s="69"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
         <v>94</v>
       </c>
@@ -13386,7 +13687,7 @@
       <c r="F22" s="72"/>
       <c r="G22" s="108"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
         <v>96</v>
       </c>
@@ -13397,7 +13698,7 @@
       <c r="F23" s="72"/>
       <c r="G23" s="108"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="67"/>
@@ -13405,7 +13706,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="66" t="s">
         <v>46</v>
       </c>
@@ -13415,7 +13716,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
         <v>176</v>
       </c>
@@ -13426,7 +13727,7 @@
       <c r="F26" s="71"/>
       <c r="G26" s="67"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="67"/>
@@ -13434,7 +13735,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="66" t="s">
         <v>47</v>
       </c>
@@ -13445,7 +13746,7 @@
       <c r="G28" s="43"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="68"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1146" documentId="6_{3AB541F7-454C-43BD-BFF8-89022A1F109B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{464534A6-35D7-45D9-BB11-142DAFE5DD10}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{137F18B5-F53C-4947-B1E5-9555A7165B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28E1FC3-F5C1-4C78-A893-9E574C59FC86}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="34580" windowHeight="13980" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="374">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -648,9 +648,6 @@
     <t>RODRIGO MUNIZ</t>
   </si>
   <si>
-    <t>FULHAM</t>
-  </si>
-  <si>
     <t>MILLION MANHOEF</t>
   </si>
   <si>
@@ -1120,6 +1117,48 @@
   </si>
   <si>
     <t>HAKEEB ADELAKUN</t>
+  </si>
+  <si>
+    <t>MILLENIC ALLI</t>
+  </si>
+  <si>
+    <t>EXETER</t>
+  </si>
+  <si>
+    <t>DONYELL MALEN</t>
+  </si>
+  <si>
+    <t>READING</t>
+  </si>
+  <si>
+    <t>HARVEY KNIBBS</t>
+  </si>
+  <si>
+    <t>MANOR SOLOMON</t>
+  </si>
+  <si>
+    <t>(1 - 1)</t>
+  </si>
+  <si>
+    <t>(2 - 0)</t>
+  </si>
+  <si>
+    <t>(0 - 1)</t>
+  </si>
+  <si>
+    <t>(2 - 4)</t>
+  </si>
+  <si>
+    <t>(3 - 0)</t>
+  </si>
+  <si>
+    <t>(4 - 0)</t>
+  </si>
+  <si>
+    <t>(0 - 0)</t>
+  </si>
+  <si>
+    <t>(1 - 0)</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1859,6 +1898,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3039,7 +3084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3053,34 +3098,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="80" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="80" customWidth="1"/>
     <col min="2" max="2" width="16" style="80" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="80" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="80" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="80" customWidth="1"/>
     <col min="6" max="6" width="17" style="80" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="80" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.296875" style="80" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="80" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="80" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="80" customWidth="1"/>
     <col min="13" max="14" width="12" style="80" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" style="80" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="80" customWidth="1"/>
     <col min="16" max="17" width="9" style="80" customWidth="1"/>
-    <col min="18" max="18" width="32.296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.33203125" style="80" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="80" customWidth="1"/>
-    <col min="22" max="22" width="30.09765625" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.109375" style="80" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="80" customWidth="1"/>
     <col min="259" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3144,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3120,7 +3165,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3137,7 +3182,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3173,13 +3218,13 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-    </row>
-    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="113" t="s">
         <v>13</v>
@@ -3195,7 +3240,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H5" s="87">
         <v>45617</v>
@@ -3212,11 +3257,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3226,7 +3271,7 @@
       <c r="T5" s="109"/>
       <c r="U5" s="110"/>
     </row>
-    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="21" t="s">
         <v>13</v>
@@ -3236,7 +3281,7 @@
         <v>104</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="21">
         <v>14</v>
@@ -3257,21 +3302,21 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S6" s="110"/>
       <c r="T6" s="109"/>
       <c r="U6" s="110"/>
     </row>
-    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3292,11 +3337,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
@@ -3306,7 +3351,7 @@
       <c r="T7" s="109"/>
       <c r="U7" s="110"/>
     </row>
-    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3336,18 +3381,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3378,18 +3423,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F134)</f>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
       <c r="B10" s="101" t="s">
         <v>16</v>
@@ -3407,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H10" s="87">
         <v>45533</v>
@@ -3424,35 +3469,35 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
         <v>26</v>
       </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="101" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" s="103">
         <v>2</v>
@@ -3475,7 +3520,7 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
@@ -3483,25 +3528,25 @@
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S11" s="110"/>
       <c r="T11" s="109"/>
       <c r="U11" s="110"/>
     </row>
-    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="30">
         <v>1</v>
@@ -3522,18 +3567,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="N12" s="76">
         <f>SUM(F198:F215)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F195:F197)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="101" t="s">
         <v>16</v>
@@ -3551,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H13" s="87">
         <v>45603</v>
@@ -3568,23 +3613,23 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N13" s="76">
         <f>SUM(F225:F242)</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F222:F224)</f>
         <v>43</v>
       </c>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="101" t="s">
         <v>16</v>
@@ -3602,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H14" s="87">
         <v>45603</v>
@@ -3619,11 +3664,11 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F252:F269)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F249:F251)</f>
@@ -3633,19 +3678,19 @@
       <c r="T14" s="109"/>
       <c r="U14" s="110"/>
     </row>
-    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="101" t="s">
         <v>193</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F15" s="103">
         <v>1</v>
@@ -3668,30 +3713,30 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
       <c r="B16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F16" s="30">
         <v>0</v>
@@ -3712,18 +3757,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="28" t="s">
         <v>16</v>
@@ -3735,7 +3780,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F17" s="30">
         <v>10</v>
@@ -3756,23 +3801,23 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>32</v>
-      </c>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -3802,22 +3847,22 @@
         <v>CHARLIE'S ANGELS</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" ref="M18" si="1">N18-O18</f>
-        <v>11</v>
+        <f>N18-O18</f>
+        <v>13</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S18" s="110"/>
       <c r="T18" s="109"/>
       <c r="U18" s="110"/>
     </row>
-    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -3832,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="87"/>
@@ -3844,7 +3889,7 @@
       <c r="N19" s="91"/>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
       <c r="B20" s="101" t="s">
         <v>17</v>
@@ -3862,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H20" s="87">
         <v>45526</v>
@@ -3874,25 +3919,25 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-    </row>
-    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+    </row>
+    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>121</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="30">
         <v>14</v>
@@ -3912,16 +3957,16 @@
       <c r="T21" s="109"/>
       <c r="U21" s="110"/>
     </row>
-    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
       <c r="B22" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" s="102">
         <v>14</v>
@@ -3930,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H22" s="87">
         <v>45568</v>
@@ -3943,19 +3988,19 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
       <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F23" s="30">
         <v>9</v>
@@ -3972,7 +4017,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
       <c r="B24" s="101" t="s">
         <v>17</v>
@@ -3990,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H24" s="87">
         <v>45561</v>
@@ -4002,25 +4047,25 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-    </row>
-    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+    </row>
+    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
       <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>213</v>
-      </c>
       <c r="E25" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" s="30">
         <v>5</v>
@@ -4040,7 +4085,7 @@
       <c r="T25" s="109"/>
       <c r="U25" s="110"/>
     </row>
-    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4051,7 +4096,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4063,7 +4108,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4080,7 +4125,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4096,13 +4141,13 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+    </row>
+    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4123,7 +4168,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4140,7 +4185,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="82"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4167,7 +4212,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
       <c r="B32" s="113" t="s">
         <v>13</v>
@@ -4183,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H32" s="97">
         <v>45554</v>
@@ -4196,26 +4241,28 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="89">
         <v>45554</v>
       </c>
       <c r="H33" s="97"/>
-      <c r="I33" s="96"/>
+      <c r="I33" s="96">
+        <v>1</v>
+      </c>
       <c r="J33" s="79"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4223,7 +4270,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4240,7 +4287,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4267,7 +4314,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4294,7 +4341,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4311,7 +4358,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
       <c r="B38" s="101" t="s">
         <v>16</v>
@@ -4329,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H38" s="94">
         <v>45666</v>
@@ -4341,25 +4388,25 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-    </row>
-    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
+    </row>
+    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F39" s="30">
         <v>0</v>
@@ -4376,7 +4423,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
       <c r="B40" s="101" t="s">
         <v>16</v>
@@ -4394,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H40" s="94">
         <v>45547</v>
@@ -4407,19 +4454,19 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
       <c r="B41" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F41" s="30">
         <v>3</v>
@@ -4436,7 +4483,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
       <c r="B42" s="28" t="s">
         <v>16</v>
@@ -4463,7 +4510,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="28" t="s">
         <v>17</v>
@@ -4478,7 +4525,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="90"/>
@@ -4490,7 +4537,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
       <c r="B44" s="101" t="s">
         <v>17</v>
@@ -4508,7 +4555,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H44" s="94">
         <v>45666</v>
@@ -4521,19 +4568,19 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>125</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F45" s="30">
         <v>1</v>
@@ -4550,7 +4597,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
       <c r="B46" s="101" t="s">
         <v>17</v>
@@ -4568,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H46" s="94">
         <v>45568</v>
@@ -4581,19 +4628,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
       <c r="B47" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="D47" s="101" t="s">
-        <v>309</v>
-      </c>
       <c r="E47" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F47" s="103">
         <v>2</v>
@@ -4612,22 +4659,22 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F48" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="94">
         <v>45666</v>
@@ -4641,7 +4688,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="82"/>
       <c r="B49" s="101" t="s">
         <v>17</v>
@@ -4659,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H49" s="94">
         <v>45596</v>
@@ -4672,7 +4719,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
       <c r="B50" s="28" t="s">
         <v>17</v>
@@ -4684,7 +4731,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F50" s="30">
         <v>3</v>
@@ -4701,7 +4748,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="82"/>
       <c r="B51" s="101" t="s">
         <v>17</v>
@@ -4719,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H51" s="94">
         <v>45540</v>
@@ -4732,7 +4779,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="82"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
@@ -4744,7 +4791,7 @@
         <v>121</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F52" s="30">
         <v>11</v>
@@ -4761,7 +4808,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4772,7 +4819,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -4784,7 +4831,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4801,7 +4848,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4818,7 +4865,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4839,7 +4886,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4856,7 +4903,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="82"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4883,7 +4930,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4908,7 +4955,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4925,7 +4972,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4942,7 +4989,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
       <c r="B62" s="101" t="s">
         <v>14</v>
@@ -4960,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H62" s="94">
         <v>45533</v>
@@ -4973,19 +5020,19 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F63" s="30">
         <v>5</v>
@@ -5002,7 +5049,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
       <c r="B64" s="28" t="s">
         <v>14</v>
@@ -5029,7 +5076,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -5056,7 +5103,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
       <c r="B66" s="101" t="s">
         <v>16</v>
@@ -5074,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H66" s="94">
         <v>45610</v>
@@ -5087,19 +5134,19 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
       <c r="B67" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>337</v>
-      </c>
       <c r="E67" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F67" s="30">
         <v>6</v>
@@ -5116,25 +5163,29 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="102">
         <v>7</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="103">
         <v>15</v>
       </c>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
+      <c r="G68" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" s="94">
+        <v>45701</v>
+      </c>
       <c r="I68" s="93"/>
       <c r="J68" s="79"/>
       <c r="K68" s="1"/>
@@ -5143,14 +5194,26 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="90"/>
+      <c r="B69" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="30">
+        <v>0</v>
+      </c>
+      <c r="G69" s="90">
+        <v>45701</v>
+      </c>
       <c r="H69" s="94"/>
       <c r="I69" s="93"/>
       <c r="J69" s="79"/>
@@ -5160,7 +5223,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
       <c r="B70" s="28" t="s">
         <v>17</v>
@@ -5175,11 +5238,13 @@
         <v>37</v>
       </c>
       <c r="F70" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G70" s="90"/>
       <c r="H70" s="94"/>
-      <c r="I70" s="93"/>
+      <c r="I70" s="93">
+        <v>2</v>
+      </c>
       <c r="J70" s="79"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5187,7 +5252,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="82"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5214,7 +5279,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="82"/>
       <c r="B72" s="101" t="s">
         <v>17</v>
@@ -5223,7 +5288,7 @@
         <v>202</v>
       </c>
       <c r="D72" s="101" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="E72" s="102">
         <v>1</v>
@@ -5232,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H72" s="94">
         <v>45561</v>
@@ -5245,19 +5310,19 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="82"/>
       <c r="B73" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D73" s="101" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F73" s="103">
         <v>1</v>
@@ -5276,19 +5341,19 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="82"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F74" s="30">
         <v>1</v>
@@ -5305,7 +5370,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="82"/>
       <c r="B75" s="101" t="s">
         <v>17</v>
@@ -5314,7 +5379,7 @@
         <v>68</v>
       </c>
       <c r="D75" s="101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E75" s="102">
         <v>6</v>
@@ -5323,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H75" s="94">
         <v>45610</v>
@@ -5336,19 +5401,19 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="82"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F76" s="30">
         <v>5</v>
@@ -5365,13 +5430,13 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="82"/>
       <c r="B77" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77" s="101" t="s">
         <v>137</v>
@@ -5383,7 +5448,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H77" s="94">
         <v>45652</v>
@@ -5396,7 +5461,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="82"/>
       <c r="B78" s="28" t="s">
         <v>17</v>
@@ -5405,10 +5470,10 @@
         <v>68</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F78" s="30">
         <v>3</v>
@@ -5425,7 +5490,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="82"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5442,7 +5507,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5453,7 +5518,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5465,7 +5530,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5482,7 +5547,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5499,7 +5564,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5520,7 +5585,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5537,7 +5602,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="82"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5564,7 +5629,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="82"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5577,11 +5642,13 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
-      <c r="I86" s="96"/>
+      <c r="I86" s="96">
+        <v>4</v>
+      </c>
       <c r="J86" s="79"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5589,7 +5656,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="82"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5606,7 +5673,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="82"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5623,7 +5690,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="82"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5650,16 +5717,16 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="82"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>206</v>
       </c>
       <c r="E90" s="29">
         <v>2</v>
@@ -5677,7 +5744,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="82"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5694,7 +5761,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="82"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5709,11 +5776,13 @@
         <v>7</v>
       </c>
       <c r="F92" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G92" s="90"/>
       <c r="H92" s="94"/>
-      <c r="I92" s="93"/>
+      <c r="I92" s="93">
+        <v>1</v>
+      </c>
       <c r="J92" s="79"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5721,13 +5790,13 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="82"/>
       <c r="B93" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>104</v>
@@ -5748,13 +5817,13 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="82"/>
       <c r="B94" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D94" s="101" t="s">
         <v>26</v>
@@ -5766,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H94" s="94">
         <v>45547</v>
@@ -5779,19 +5848,19 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="82"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F95" s="30">
         <v>4</v>
@@ -5808,7 +5877,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="82"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5825,7 +5894,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="82"/>
       <c r="B97" s="101" t="s">
         <v>17</v>
@@ -5843,7 +5912,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H97" s="94">
         <v>45687</v>
@@ -5856,19 +5925,19 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="82"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F98" s="30">
         <v>0</v>
@@ -5885,7 +5954,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="82"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
@@ -5894,7 +5963,7 @@
         <v>124</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E99" s="29">
         <v>31</v>
@@ -5912,7 +5981,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="82"/>
       <c r="B100" s="101" t="s">
         <v>17</v>
@@ -5930,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H100" s="94">
         <v>45526</v>
@@ -5943,19 +6012,19 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="82"/>
       <c r="B101" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="101" t="s">
         <v>82</v>
       </c>
       <c r="E101" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F101" s="103">
         <v>3</v>
@@ -5974,22 +6043,22 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="82"/>
       <c r="B102" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F102" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="90">
         <v>45680</v>
@@ -6003,7 +6072,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="82"/>
       <c r="B103" s="101" t="s">
         <v>17</v>
@@ -6021,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="G103" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H103" s="94">
         <v>45666</v>
@@ -6034,7 +6103,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="82"/>
       <c r="B104" s="28" t="s">
         <v>17</v>
@@ -6043,10 +6112,10 @@
         <v>161</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F104" s="30">
         <v>0</v>
@@ -6063,7 +6132,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="82"/>
       <c r="B105" s="101" t="s">
         <v>17</v>
@@ -6072,7 +6141,7 @@
         <v>147</v>
       </c>
       <c r="D105" s="101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E105" s="102">
         <v>15</v>
@@ -6081,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H105" s="94">
         <v>45617</v>
@@ -6094,28 +6163,30 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="82"/>
       <c r="B106" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F106" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G106" s="90">
         <v>45617</v>
       </c>
       <c r="H106" s="94"/>
-      <c r="I106" s="95"/>
+      <c r="I106" s="95">
+        <v>1</v>
+      </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -6123,7 +6194,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6134,7 +6205,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G107" s="83"/>
       <c r="H107" s="95"/>
@@ -6146,7 +6217,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6163,7 +6234,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6180,11 +6251,11 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>58</v>
@@ -6201,7 +6272,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6218,7 +6289,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="82"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6245,7 +6316,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="82"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6270,7 +6341,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="82"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6287,7 +6358,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="82"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6304,13 +6375,13 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="82"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>114</v>
@@ -6331,7 +6402,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="82"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6346,7 +6417,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G117" s="89"/>
       <c r="H117" s="97"/>
@@ -6358,7 +6429,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="82"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6375,16 +6446,16 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="82"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E119" s="29">
         <v>15</v>
@@ -6402,7 +6473,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="82"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6429,13 +6500,13 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="82"/>
       <c r="B121" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D121" s="101" t="s">
         <v>26</v>
@@ -6447,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H121" s="94">
         <v>45561</v>
@@ -6460,19 +6531,19 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="82"/>
       <c r="B122" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D122" s="101" t="s">
         <v>26</v>
       </c>
       <c r="E122" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F122" s="103">
         <v>5</v>
@@ -6491,22 +6562,22 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="82"/>
       <c r="B123" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D123" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F123" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="90">
         <v>45645</v>
@@ -6520,7 +6591,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="82"/>
       <c r="B124" s="101" t="s">
         <v>17</v>
@@ -6538,7 +6609,7 @@
         <v>4</v>
       </c>
       <c r="G124" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H124" s="94">
         <v>45673</v>
@@ -6551,19 +6622,19 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="82"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D125" s="28" t="s">
         <v>182</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F125" s="30">
         <v>1</v>
@@ -6580,7 +6651,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="82"/>
       <c r="B126" s="28" t="s">
         <v>17</v>
@@ -6595,11 +6666,13 @@
         <v>6</v>
       </c>
       <c r="F126" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G126" s="90"/>
       <c r="H126" s="94"/>
-      <c r="I126" s="93"/>
+      <c r="I126" s="93">
+        <v>1</v>
+      </c>
       <c r="J126" s="79"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -6607,16 +6680,16 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="82"/>
       <c r="B127" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="D127" s="101" t="s">
         <v>212</v>
-      </c>
-      <c r="D127" s="101" t="s">
-        <v>213</v>
       </c>
       <c r="E127" s="102">
         <v>29</v>
@@ -6625,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H127" s="94">
         <v>45554</v>
@@ -6638,19 +6711,19 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="82"/>
       <c r="B128" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D128" s="101" t="s">
         <v>160</v>
       </c>
       <c r="E128" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F128" s="103">
         <v>0</v>
@@ -6669,28 +6742,30 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="82"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="D129" s="28" t="s">
-        <v>330</v>
-      </c>
       <c r="E129" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F129" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G129" s="90">
         <v>45617</v>
       </c>
       <c r="H129" s="94"/>
-      <c r="I129" s="93"/>
+      <c r="I129" s="93">
+        <v>1</v>
+      </c>
       <c r="J129" s="79"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -6698,7 +6773,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="82"/>
       <c r="B130" s="101" t="s">
         <v>17</v>
@@ -6716,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="G130" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H130" s="94">
         <v>45596</v>
@@ -6729,22 +6804,22 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="82"/>
       <c r="B131" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D131" s="101" t="s">
         <v>100</v>
       </c>
       <c r="E131" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F131" s="103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G131" s="90">
         <v>45596</v>
@@ -6760,19 +6835,19 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="82"/>
       <c r="B132" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F132" s="30">
         <v>0</v>
@@ -6789,13 +6864,13 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="82"/>
       <c r="B133" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D133" s="28" t="s">
         <v>193</v>
@@ -6804,11 +6879,13 @@
         <v>1</v>
       </c>
       <c r="F133" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G133" s="90"/>
       <c r="H133" s="94"/>
-      <c r="I133" s="93"/>
+      <c r="I133" s="93">
+        <v>1</v>
+      </c>
       <c r="J133" s="79"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -6816,7 +6893,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="82"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6833,7 +6910,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -6844,7 +6921,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="95"/>
@@ -6856,7 +6933,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6873,7 +6950,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6890,7 +6967,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -6911,7 +6988,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6928,7 +7005,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="82"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -6955,7 +7032,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="82"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -6980,7 +7057,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="82"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6997,7 +7074,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="82"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -7014,13 +7091,13 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="82"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D144" s="28" t="s">
         <v>182</v>
@@ -7041,13 +7118,13 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="82"/>
       <c r="B145" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D145" s="28" t="s">
         <v>116</v>
@@ -7068,7 +7145,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="82"/>
       <c r="B146" s="28"/>
       <c r="C146" s="21"/>
@@ -7085,7 +7162,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="82"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -7112,7 +7189,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="82"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -7138,13 +7215,13 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="82"/>
       <c r="B149" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>23</v>
@@ -7165,7 +7242,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="82"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -7182,7 +7259,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="82"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7199,7 +7276,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="82"/>
       <c r="B152" s="101" t="s">
         <v>17</v>
@@ -7217,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H152" s="94">
         <v>45575</v>
@@ -7230,19 +7307,19 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="82"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F153" s="30">
         <v>2</v>
@@ -7259,7 +7336,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="82"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
@@ -7286,7 +7363,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="82"/>
       <c r="B155" s="101" t="s">
         <v>17</v>
@@ -7304,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H155" s="94">
         <v>45575</v>
@@ -7317,13 +7394,13 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="82"/>
       <c r="B156" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D156" s="101" t="s">
         <v>108</v>
@@ -7335,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H156" s="94">
         <v>45575</v>
@@ -7348,19 +7425,19 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="82"/>
       <c r="B157" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F157" s="30">
         <v>3</v>
@@ -7377,19 +7454,19 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="82"/>
       <c r="B158" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>137</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F158" s="30">
         <v>12</v>
@@ -7406,7 +7483,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="82"/>
       <c r="B159" s="28" t="s">
         <v>17</v>
@@ -7421,11 +7498,13 @@
         <v>2</v>
       </c>
       <c r="F159" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G159" s="90"/>
       <c r="H159" s="94"/>
-      <c r="I159" s="93"/>
+      <c r="I159" s="93">
+        <v>1</v>
+      </c>
       <c r="J159" s="79"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -7433,7 +7512,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="82"/>
       <c r="B160" s="101"/>
       <c r="C160" s="101"/>
@@ -7450,7 +7529,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="82"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -7467,7 +7546,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -7478,7 +7557,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" s="83"/>
       <c r="H162" s="95"/>
@@ -7490,7 +7569,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7507,7 +7586,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7524,7 +7603,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -7545,7 +7624,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7562,7 +7641,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="82"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -7589,7 +7668,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="82"/>
       <c r="B168" s="113" t="s">
         <v>13</v>
@@ -7605,7 +7684,7 @@
         <v>35</v>
       </c>
       <c r="G168" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H168" s="97">
         <v>45652</v>
@@ -7618,7 +7697,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="82"/>
       <c r="B169" s="21" t="s">
         <v>13</v>
@@ -7628,16 +7707,18 @@
         <v>129</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F169" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G169" s="89">
         <v>45652</v>
       </c>
       <c r="H169" s="95"/>
-      <c r="I169" s="95"/>
+      <c r="I169" s="95">
+        <v>2</v>
+      </c>
       <c r="J169" s="79"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7645,7 +7726,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="82"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -7662,7 +7743,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="82"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7689,7 +7770,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="82"/>
       <c r="B172" s="101" t="s">
         <v>14</v>
@@ -7698,7 +7779,7 @@
         <v>131</v>
       </c>
       <c r="D172" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E172" s="102">
         <v>1</v>
@@ -7707,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H172" s="94">
         <v>45694</v>
@@ -7720,19 +7801,19 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="82"/>
       <c r="B173" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>163</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F173" s="30">
         <v>0</v>
@@ -7749,7 +7830,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="82"/>
       <c r="B174" s="28" t="s">
         <v>16</v>
@@ -7776,7 +7857,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="82"/>
       <c r="B175" s="101" t="s">
         <v>16</v>
@@ -7785,7 +7866,7 @@
         <v>178</v>
       </c>
       <c r="D175" s="101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E175" s="102">
         <v>1</v>
@@ -7794,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H175" s="94">
         <v>45519</v>
@@ -7807,19 +7888,19 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="82"/>
       <c r="B176" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F176" s="30">
         <v>9</v>
@@ -7836,13 +7917,13 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="82"/>
       <c r="B177" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C177" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D177" s="101" t="s">
         <v>100</v>
@@ -7854,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H177" s="94">
         <v>45694</v>
@@ -7867,19 +7948,19 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="82"/>
       <c r="B178" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F178" s="30">
         <v>1</v>
@@ -7896,7 +7977,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="82"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7923,7 +8004,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="82"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -7950,7 +8031,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="82"/>
       <c r="B181" s="101" t="s">
         <v>17</v>
@@ -7959,7 +8040,7 @@
         <v>139</v>
       </c>
       <c r="D181" s="101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E181" s="102">
         <v>15</v>
@@ -7968,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H181" s="94">
         <v>45519</v>
@@ -7981,19 +8062,19 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="82"/>
       <c r="B182" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="101" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D182" s="101" t="s">
         <v>182</v>
       </c>
       <c r="E182" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F182" s="103">
         <v>6</v>
@@ -8012,7 +8093,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="82"/>
       <c r="B183" s="101" t="s">
         <v>17</v>
@@ -8021,7 +8102,7 @@
         <v>188</v>
       </c>
       <c r="D183" s="101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E183" s="102">
         <v>35</v>
@@ -8030,7 +8111,7 @@
         <v>11</v>
       </c>
       <c r="G183" s="94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H183" s="90">
         <v>45694</v>
@@ -8043,19 +8124,19 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="82"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F184" s="30">
         <v>0</v>
@@ -8072,19 +8153,19 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="82"/>
       <c r="B185" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D185" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F185" s="30">
         <v>0</v>
@@ -8101,13 +8182,13 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="82"/>
       <c r="B186" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D186" s="28" t="s">
         <v>73</v>
@@ -8128,7 +8209,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="82"/>
       <c r="B187" s="101"/>
       <c r="C187" s="101"/>
@@ -8145,7 +8226,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="82"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -8162,7 +8243,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -8173,7 +8254,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G189" s="83"/>
       <c r="H189" s="95"/>
@@ -8185,7 +8266,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8202,7 +8283,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8219,7 +8300,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8240,7 +8321,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8257,7 +8338,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="82"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -8284,24 +8365,26 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="82"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E195" s="14">
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G195" s="83"/>
       <c r="H195" s="97"/>
-      <c r="I195" s="93"/>
+      <c r="I195" s="93">
+        <v>1</v>
+      </c>
       <c r="J195" s="79"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8309,7 +8392,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="82"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8326,7 +8409,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="82"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -8343,16 +8426,16 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="82"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D198" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="D198" s="28" t="s">
-        <v>243</v>
       </c>
       <c r="E198" s="29">
         <v>1</v>
@@ -8370,13 +8453,13 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="82"/>
       <c r="B199" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D199" s="28" t="s">
         <v>106</v>
@@ -8397,7 +8480,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="82"/>
       <c r="B200" s="101"/>
       <c r="C200" s="28"/>
@@ -8414,13 +8497,13 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="82"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>25</v>
@@ -8429,11 +8512,13 @@
         <v>1</v>
       </c>
       <c r="F201" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G201" s="86"/>
       <c r="H201" s="93"/>
-      <c r="I201" s="93"/>
+      <c r="I201" s="93">
+        <v>1</v>
+      </c>
       <c r="J201" s="79"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8441,13 +8526,13 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="82"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>18</v>
@@ -8468,13 +8553,13 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="82"/>
       <c r="B203" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D203" s="101" t="s">
         <v>23</v>
@@ -8486,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H203" s="94">
         <v>45561</v>
@@ -8499,19 +8584,19 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="82"/>
       <c r="B204" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D204" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F204" s="30">
         <v>1</v>
@@ -8528,7 +8613,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="82"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -8545,16 +8630,16 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="82"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -8572,16 +8657,16 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="82"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D207" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>250</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
@@ -8599,16 +8684,16 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="82"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D208" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>252</v>
       </c>
       <c r="E208" s="29">
         <v>1</v>
@@ -8626,13 +8711,13 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="82"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>23</v>
@@ -8653,13 +8738,13 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="82"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>18</v>
@@ -8680,7 +8765,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="82"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8697,7 +8782,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="82"/>
       <c r="B212" s="101"/>
       <c r="C212" s="28"/>
@@ -8714,7 +8799,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="82"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8731,7 +8816,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="82"/>
       <c r="B214" s="101"/>
       <c r="C214" s="21"/>
@@ -8748,7 +8833,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="82"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -8765,7 +8850,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -8776,7 +8861,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="G216" s="83"/>
       <c r="H216" s="95"/>
@@ -8788,7 +8873,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8805,7 +8890,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8822,7 +8907,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -8843,7 +8928,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8860,7 +8945,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="82"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -8887,7 +8972,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="61"/>
       <c r="B222" s="113" t="s">
         <v>13</v>
@@ -8903,7 +8988,7 @@
         <v>30</v>
       </c>
       <c r="G222" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H222" s="97">
         <v>45645</v>
@@ -8916,7 +9001,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="82"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -8926,7 +9011,7 @@
         <v>197</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F223" s="21">
         <v>13</v>
@@ -8943,7 +9028,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="82"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -8960,13 +9045,13 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="82"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D225" s="28" t="s">
         <v>114</v>
@@ -8987,13 +9072,13 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="82"/>
       <c r="B226" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D226" s="28" t="s">
         <v>105</v>
@@ -9014,7 +9099,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="82"/>
       <c r="B227" s="28"/>
       <c r="C227" s="21"/>
@@ -9031,13 +9116,13 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="82"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>18</v>
@@ -9058,7 +9143,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="82"/>
       <c r="B229" s="101" t="s">
         <v>16</v>
@@ -9076,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="G229" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H229" s="94">
         <v>45561</v>
@@ -9089,19 +9174,19 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="82"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D230" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="D230" s="28" t="s">
-        <v>302</v>
-      </c>
       <c r="E230" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F230" s="30">
         <v>0</v>
@@ -9118,7 +9203,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="82"/>
       <c r="B231" s="28" t="s">
         <v>16</v>
@@ -9133,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G231" s="90"/>
       <c r="H231" s="94"/>
@@ -9145,7 +9230,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="82"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -9162,7 +9247,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="82"/>
       <c r="B233" s="101" t="s">
         <v>17</v>
@@ -9171,7 +9256,7 @@
         <v>158</v>
       </c>
       <c r="D233" s="101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E233" s="102">
         <v>5</v>
@@ -9180,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H233" s="94">
         <v>45519</v>
@@ -9193,19 +9278,19 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="82"/>
       <c r="B234" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C234" s="101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D234" s="101" t="s">
         <v>160</v>
       </c>
       <c r="E234" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F234" s="103">
         <v>3</v>
@@ -9224,28 +9309,30 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="82"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E235" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F235" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G235" s="90">
         <v>45680</v>
       </c>
       <c r="H235" s="94"/>
-      <c r="I235" s="92"/>
+      <c r="I235" s="92">
+        <v>3</v>
+      </c>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -9253,7 +9340,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="82"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
@@ -9280,7 +9367,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="82"/>
       <c r="B237" s="28" t="s">
         <v>17</v>
@@ -9307,7 +9394,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="82"/>
       <c r="B238" s="28" t="s">
         <v>17</v>
@@ -9322,11 +9409,13 @@
         <v>8</v>
       </c>
       <c r="F238" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G238" s="90"/>
       <c r="H238" s="94"/>
-      <c r="I238" s="92"/>
+      <c r="I238" s="92">
+        <v>1</v>
+      </c>
       <c r="J238" s="79"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -9334,7 +9423,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="82"/>
       <c r="B239" s="101" t="s">
         <v>17</v>
@@ -9352,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="G239" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H239" s="94">
         <v>45526</v>
@@ -9365,19 +9454,19 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="82"/>
       <c r="B240" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C240" s="101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D240" s="101" t="s">
         <v>114</v>
       </c>
       <c r="E240" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F240" s="103">
         <v>1</v>
@@ -9396,19 +9485,19 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="82"/>
       <c r="B241" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C241" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D241" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E241" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F241" s="30">
         <v>11</v>
@@ -9425,7 +9514,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="82"/>
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
@@ -9442,7 +9531,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -9453,7 +9542,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G243" s="83"/>
       <c r="H243" s="95"/>
@@ -9465,7 +9554,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9482,7 +9571,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9499,7 +9588,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -9520,7 +9609,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9537,7 +9626,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="82"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -9556,7 +9645,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="82"/>
       <c r="B249" s="113" t="s">
         <v>13</v>
@@ -9572,7 +9661,7 @@
         <v>13</v>
       </c>
       <c r="G249" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H249" s="97">
         <v>45561</v>
@@ -9585,7 +9674,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="82"/>
       <c r="B250" s="21" t="s">
         <v>13</v>
@@ -9595,7 +9684,7 @@
         <v>199</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F250" s="21">
         <v>6</v>
@@ -9612,7 +9701,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="82"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9629,16 +9718,16 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="82"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E252" s="29">
         <v>6</v>
@@ -9656,7 +9745,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="82"/>
       <c r="B253" s="28" t="s">
         <v>14</v>
@@ -9683,7 +9772,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="82"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -9700,7 +9789,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="82"/>
       <c r="B255" s="101" t="s">
         <v>16</v>
@@ -9709,7 +9798,7 @@
         <v>122</v>
       </c>
       <c r="D255" s="101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E255" s="102">
         <v>3</v>
@@ -9718,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H255" s="94">
         <v>45589</v>
@@ -9731,19 +9820,19 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="82"/>
       <c r="B256" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C256" s="101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D256" s="101" t="s">
         <v>199</v>
       </c>
       <c r="E256" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F256" s="103">
         <v>1</v>
@@ -9762,19 +9851,19 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="82"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E257" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F257" s="30">
         <v>2</v>
@@ -9791,13 +9880,13 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="82"/>
       <c r="B258" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C258" s="101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D258" s="101" t="s">
         <v>42</v>
@@ -9809,7 +9898,7 @@
         <v>3</v>
       </c>
       <c r="G258" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H258" s="94">
         <v>45638</v>
@@ -9822,19 +9911,19 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="82"/>
       <c r="B259" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D259" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E259" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F259" s="30">
         <v>5</v>
@@ -9851,13 +9940,13 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="82"/>
       <c r="B260" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>82</v>
@@ -9878,7 +9967,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="82"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9893,11 +9982,13 @@
         <v>49</v>
       </c>
       <c r="F261" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G261" s="90"/>
       <c r="H261" s="94"/>
-      <c r="I261" s="93"/>
+      <c r="I261" s="93">
+        <v>1</v>
+      </c>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -9905,7 +9996,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="82"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -9932,13 +10023,13 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="82"/>
       <c r="B263" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D263" s="101" t="s">
         <v>25</v>
@@ -9950,7 +10041,7 @@
         <v>12</v>
       </c>
       <c r="G263" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H263" s="94">
         <v>45687</v>
@@ -9963,7 +10054,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="82"/>
       <c r="B264" s="28" t="s">
         <v>17</v>
@@ -9975,7 +10066,7 @@
         <v>110</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F264" s="30">
         <v>0</v>
@@ -9992,7 +10083,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="82"/>
       <c r="B265" s="101" t="s">
         <v>17</v>
@@ -10010,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H265" s="94">
         <v>45519</v>
@@ -10023,19 +10114,19 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="82"/>
       <c r="B266" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C266" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D266" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="D266" s="28" t="s">
-        <v>278</v>
-      </c>
       <c r="E266" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F266" s="30">
         <v>9</v>
@@ -10052,7 +10143,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="82"/>
       <c r="B267" s="101" t="s">
         <v>17</v>
@@ -10070,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="G267" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H267" s="94">
         <v>45561</v>
@@ -10083,19 +10174,19 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="82"/>
       <c r="B268" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C268" s="101" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D268" s="101" t="s">
         <v>28</v>
       </c>
       <c r="E268" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F268" s="103">
         <v>7</v>
@@ -10114,28 +10205,30 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="82"/>
       <c r="B269" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C269" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D269" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="D269" s="28" t="s">
-        <v>354</v>
-      </c>
       <c r="E269" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F269" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="90">
         <v>45694</v>
       </c>
       <c r="H269" s="93"/>
-      <c r="I269" s="93"/>
+      <c r="I269" s="93">
+        <v>1</v>
+      </c>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
@@ -10143,7 +10236,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -10154,7 +10247,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G270" s="83"/>
       <c r="H270" s="95"/>
@@ -10166,7 +10259,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10183,7 +10276,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10200,11 +10293,11 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>189</v>
@@ -10221,7 +10314,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10238,7 +10331,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="82"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -10265,14 +10358,14 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="82"/>
       <c r="B276" s="113" t="s">
         <v>13</v>
       </c>
       <c r="C276" s="114"/>
       <c r="D276" s="114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E276" s="117">
         <v>1</v>
@@ -10281,7 +10374,7 @@
         <v>14</v>
       </c>
       <c r="G276" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H276" s="97">
         <v>45568</v>
@@ -10294,26 +10387,28 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="82"/>
       <c r="B277" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C277" s="21"/>
       <c r="D277" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F277" s="21">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G277" s="89">
         <v>45568</v>
       </c>
       <c r="H277" s="95"/>
-      <c r="I277" s="95"/>
+      <c r="I277" s="95">
+        <v>2</v>
+      </c>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -10321,7 +10416,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="82"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10338,13 +10433,13 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="82"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D279" s="21" t="s">
         <v>25</v>
@@ -10365,13 +10460,13 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="82"/>
       <c r="B280" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C280" s="104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D280" s="104" t="s">
         <v>23</v>
@@ -10383,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H280" s="94">
         <v>45526</v>
@@ -10396,19 +10491,19 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="82"/>
       <c r="B281" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F281" s="30">
         <v>1</v>
@@ -10425,7 +10520,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="82"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -10434,7 +10529,7 @@
         <v>159</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E282" s="22">
         <v>8</v>
@@ -10452,7 +10547,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="82"/>
       <c r="B283" s="28" t="s">
         <v>16</v>
@@ -10479,7 +10574,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="82"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
@@ -10494,11 +10589,13 @@
         <v>6</v>
       </c>
       <c r="F284" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G284" s="90"/>
       <c r="H284" s="94"/>
-      <c r="I284" s="93"/>
+      <c r="I284" s="93">
+        <v>1</v>
+      </c>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -10506,7 +10603,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="82"/>
       <c r="B285" s="28"/>
       <c r="C285" s="21"/>
@@ -10523,7 +10620,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="82"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -10540,7 +10637,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="82"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -10567,13 +10664,13 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="82"/>
       <c r="B288" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C288" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D288" s="104" t="s">
         <v>105</v>
@@ -10585,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="G288" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H288" s="94">
         <v>45645</v>
@@ -10598,19 +10695,19 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="82"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D289" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F289" s="30">
         <v>4</v>
@@ -10627,7 +10724,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="82"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -10654,7 +10751,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="82"/>
       <c r="B291" s="101" t="s">
         <v>17</v>
@@ -10663,7 +10760,7 @@
         <v>107</v>
       </c>
       <c r="D291" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E291" s="105">
         <v>9</v>
@@ -10672,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="G291" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H291" s="94">
         <v>45596</v>
@@ -10685,13 +10782,13 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="82"/>
       <c r="B292" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C292" s="104" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D292" s="104" t="s">
         <v>129</v>
@@ -10703,7 +10800,7 @@
         <v>2</v>
       </c>
       <c r="G292" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H292" s="94">
         <v>45596</v>
@@ -10716,19 +10813,19 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="82"/>
       <c r="B293" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C293" s="104" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D293" s="104" t="s">
         <v>35</v>
       </c>
       <c r="E293" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F293" s="103">
         <v>1</v>
@@ -10747,19 +10844,19 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="82"/>
       <c r="B294" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D294" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F294" s="30">
         <v>0</v>
@@ -10776,28 +10873,30 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="82"/>
       <c r="B295" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F295" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G295" s="90">
         <v>45596</v>
       </c>
       <c r="H295" s="94"/>
-      <c r="I295" s="93"/>
+      <c r="I295" s="93">
+        <v>1</v>
+      </c>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
@@ -10805,7 +10904,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="82"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10822,7 +10921,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -10833,7 +10932,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G297" s="83"/>
       <c r="H297" s="95"/>
@@ -10845,7 +10944,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10862,7 +10961,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -10879,7 +10978,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
@@ -10900,7 +10999,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10917,7 +11016,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="82"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -10944,23 +11043,27 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="82"/>
-      <c r="B303" s="12" t="s">
+      <c r="B303" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="13"/>
-      <c r="D303" s="13" t="s">
+      <c r="C303" s="114"/>
+      <c r="D303" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E303" s="40">
+      <c r="E303" s="117">
         <v>8</v>
       </c>
-      <c r="F303" s="15">
-        <v>32</v>
-      </c>
-      <c r="G303" s="83"/>
-      <c r="H303" s="94"/>
+      <c r="F303" s="116">
+        <v>28</v>
+      </c>
+      <c r="G303" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="H303" s="94">
+        <v>45680</v>
+      </c>
       <c r="I303" s="95"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -10969,14 +11072,24 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="82"/>
-      <c r="B304" s="21"/>
+      <c r="B304" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C304" s="21"/>
-      <c r="D304" s="21"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="21"/>
-      <c r="G304" s="90"/>
+      <c r="D304" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F304" s="21">
+        <v>1</v>
+      </c>
+      <c r="G304" s="90">
+        <v>45680</v>
+      </c>
       <c r="H304" s="94"/>
       <c r="I304" s="95"/>
       <c r="J304" s="1"/>
@@ -10986,7 +11099,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="82"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -11003,7 +11116,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="82"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -11030,13 +11143,13 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="82"/>
       <c r="B307" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D307" s="21" t="s">
         <v>18</v>
@@ -11057,15 +11170,29 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="82"/>
-      <c r="B308" s="101"/>
-      <c r="C308" s="21"/>
-      <c r="D308" s="21"/>
-      <c r="E308" s="22"/>
-      <c r="F308" s="30"/>
-      <c r="G308" s="86"/>
-      <c r="H308" s="94"/>
+      <c r="B308" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="D308" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E308" s="105">
+        <v>5</v>
+      </c>
+      <c r="F308" s="103">
+        <v>3</v>
+      </c>
+      <c r="G308" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="H308" s="94">
+        <v>45624</v>
+      </c>
       <c r="I308" s="93"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -11074,30 +11201,30 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="82"/>
-      <c r="B309" s="101" t="s">
+      <c r="B309" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C309" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="D309" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="E309" s="105">
-        <v>5</v>
-      </c>
-      <c r="F309" s="103">
-        <v>3</v>
-      </c>
-      <c r="G309" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="H309" s="94">
+      <c r="C309" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D309" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E309" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F309" s="30">
+        <v>2</v>
+      </c>
+      <c r="G309" s="90">
         <v>45624</v>
       </c>
-      <c r="I309" s="93"/>
+      <c r="H309" s="94"/>
+      <c r="I309" s="93">
+        <v>1</v>
+      </c>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
@@ -11105,27 +11232,29 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="82"/>
-      <c r="B310" s="28" t="s">
+      <c r="B310" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C310" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="D310" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E310" s="22" t="s">
+      <c r="C310" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D310" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E310" s="105">
+        <v>1</v>
+      </c>
+      <c r="F310" s="103">
+        <v>0</v>
+      </c>
+      <c r="G310" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="F310" s="30">
-        <v>0</v>
-      </c>
-      <c r="G310" s="90">
-        <v>45624</v>
-      </c>
-      <c r="H310" s="94"/>
+      <c r="H310" s="94">
+        <v>45568</v>
+      </c>
       <c r="I310" s="93"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -11134,29 +11263,27 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="82"/>
-      <c r="B311" s="101" t="s">
+      <c r="B311" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C311" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="D311" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="E311" s="105">
-        <v>1</v>
-      </c>
-      <c r="F311" s="103">
-        <v>0</v>
-      </c>
-      <c r="G311" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="H311" s="94">
+      <c r="C311" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E311" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F311" s="30">
+        <v>9</v>
+      </c>
+      <c r="G311" s="90">
         <v>45568</v>
       </c>
+      <c r="H311" s="94"/>
       <c r="I311" s="93"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11165,27 +11292,29 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="82"/>
-      <c r="B312" s="28" t="s">
+      <c r="B312" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C312" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D312" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E312" s="22" t="s">
+      <c r="C312" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="D312" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="E312" s="105">
+        <v>1</v>
+      </c>
+      <c r="F312" s="103">
+        <v>0</v>
+      </c>
+      <c r="G312" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="F312" s="30">
-        <v>9</v>
-      </c>
-      <c r="G312" s="90">
-        <v>45568</v>
-      </c>
-      <c r="H312" s="94"/>
+      <c r="H312" s="94">
+        <v>45526</v>
+      </c>
       <c r="I312" s="93"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -11194,28 +11323,28 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="82"/>
       <c r="B313" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C313" s="104" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="D313" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="E313" s="105">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E313" s="105" t="s">
+        <v>274</v>
       </c>
       <c r="F313" s="103">
         <v>0</v>
       </c>
-      <c r="G313" s="86" t="s">
-        <v>276</v>
+      <c r="G313" s="90">
+        <v>45526</v>
       </c>
       <c r="H313" s="94">
-        <v>45526</v>
+        <v>45547</v>
       </c>
       <c r="I313" s="93"/>
       <c r="J313" s="1"/>
@@ -11225,28 +11354,28 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="82"/>
       <c r="B314" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="104" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D314" s="104" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="E314" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F314" s="103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G314" s="90">
-        <v>45526</v>
+        <v>45547</v>
       </c>
       <c r="H314" s="94">
-        <v>45547</v>
+        <v>45624</v>
       </c>
       <c r="I314" s="93"/>
       <c r="J314" s="1"/>
@@ -11256,29 +11385,27 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="82"/>
-      <c r="B315" s="101" t="s">
+      <c r="B315" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="D315" s="104" t="s">
-        <v>296</v>
-      </c>
-      <c r="E315" s="105" t="s">
-        <v>275</v>
-      </c>
-      <c r="F315" s="103">
-        <v>2</v>
+      <c r="C315" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D315" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E315" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F315" s="30">
+        <v>1</v>
       </c>
       <c r="G315" s="90">
-        <v>45547</v>
-      </c>
-      <c r="H315" s="94">
         <v>45624</v>
       </c>
+      <c r="H315" s="94"/>
       <c r="I315" s="93"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
@@ -11287,26 +11414,24 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="82"/>
       <c r="B316" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E316" s="22" t="s">
-        <v>275</v>
+        <v>208</v>
+      </c>
+      <c r="E316" s="22">
+        <v>20</v>
       </c>
       <c r="F316" s="30">
-        <v>1</v>
-      </c>
-      <c r="G316" s="90">
-        <v>45624</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G316" s="90"/>
       <c r="H316" s="94"/>
       <c r="I316" s="93"/>
       <c r="J316" s="1"/>
@@ -11316,26 +11441,28 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="82"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="E317" s="22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F317" s="30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G317" s="90"/>
       <c r="H317" s="94"/>
-      <c r="I317" s="93"/>
+      <c r="I317" s="93">
+        <v>1</v>
+      </c>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -11343,25 +11470,29 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="82"/>
-      <c r="B318" s="28" t="s">
+      <c r="B318" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D318" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E318" s="22">
-        <v>7</v>
-      </c>
-      <c r="F318" s="30">
-        <v>13</v>
-      </c>
-      <c r="G318" s="90"/>
-      <c r="H318" s="94"/>
+      <c r="C318" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D318" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="E318" s="105">
+        <v>1</v>
+      </c>
+      <c r="F318" s="103">
+        <v>1</v>
+      </c>
+      <c r="G318" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="H318" s="94">
+        <v>45568</v>
+      </c>
       <c r="I318" s="93"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11370,30 +11501,30 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="82"/>
-      <c r="B319" s="101" t="s">
+      <c r="B319" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C319" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="D319" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="E319" s="105">
+      <c r="C319" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E319" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F319" s="30">
+        <v>9</v>
+      </c>
+      <c r="G319" s="90">
+        <v>45568</v>
+      </c>
+      <c r="H319" s="93"/>
+      <c r="I319" s="93">
         <v>1</v>
       </c>
-      <c r="F319" s="103">
-        <v>1</v>
-      </c>
-      <c r="G319" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="H319" s="94">
-        <v>45568</v>
-      </c>
-      <c r="I319" s="93"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -11401,27 +11532,29 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="82"/>
-      <c r="B320" s="28" t="s">
+      <c r="B320" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C320" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E320" s="22" t="s">
+      <c r="C320" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D320" s="104" t="s">
+        <v>235</v>
+      </c>
+      <c r="E320" s="105">
+        <v>45</v>
+      </c>
+      <c r="F320" s="103">
+        <v>6</v>
+      </c>
+      <c r="G320" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="F320" s="30">
-        <v>8</v>
-      </c>
-      <c r="G320" s="90">
-        <v>45568</v>
-      </c>
-      <c r="H320" s="93"/>
+      <c r="H320" s="94">
+        <v>45701</v>
+      </c>
       <c r="I320" s="93"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -11430,24 +11563,26 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="82"/>
       <c r="B321" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E321" s="22">
-        <v>45</v>
+        <v>125</v>
+      </c>
+      <c r="E321" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="F321" s="30">
-        <v>6</v>
-      </c>
-      <c r="G321" s="86"/>
+        <v>0</v>
+      </c>
+      <c r="G321" s="90">
+        <v>45701</v>
+      </c>
       <c r="H321" s="93"/>
       <c r="I321" s="93"/>
       <c r="J321" s="1"/>
@@ -11457,16 +11592,16 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="82"/>
       <c r="B322" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C322" s="104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D322" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E322" s="105">
         <v>4</v>
@@ -11475,7 +11610,7 @@
         <v>2</v>
       </c>
       <c r="G322" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H322" s="94">
         <v>45624</v>
@@ -11488,19 +11623,19 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="82"/>
       <c r="B323" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C323" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D323" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D323" s="21" t="s">
-        <v>334</v>
-      </c>
       <c r="E323" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F323" s="30">
         <v>3</v>
@@ -11517,7 +11652,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -11528,7 +11663,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G324" s="83"/>
       <c r="H324" s="95"/>
@@ -11540,7 +11675,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11557,7 +11692,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11574,7 +11709,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -11595,7 +11730,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11612,7 +11747,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="82"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -11639,7 +11774,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="82"/>
       <c r="B330" s="12" t="s">
         <v>13</v>
@@ -11652,11 +11787,13 @@
         <v>1</v>
       </c>
       <c r="F330" s="15">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G330" s="86"/>
       <c r="H330" s="90"/>
-      <c r="I330" s="93"/>
+      <c r="I330" s="93">
+        <v>1</v>
+      </c>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -11664,7 +11801,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="82"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11681,7 +11818,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="82"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -11698,16 +11835,16 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="82"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C333" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D333" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="D333" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="E333" s="22">
         <v>1</v>
@@ -11725,13 +11862,13 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="82"/>
       <c r="B334" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>108</v>
@@ -11752,7 +11889,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="82"/>
       <c r="B335" s="28"/>
       <c r="C335" s="21"/>
@@ -11769,16 +11906,16 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="82"/>
       <c r="B336" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C336" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="D336" s="104" t="s">
         <v>258</v>
-      </c>
-      <c r="D336" s="104" t="s">
-        <v>259</v>
       </c>
       <c r="E336" s="105">
         <v>1</v>
@@ -11787,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H336" s="94">
         <v>45519</v>
@@ -11800,19 +11937,19 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="82"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F337" s="30">
         <v>6</v>
@@ -11829,13 +11966,13 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="82"/>
       <c r="B338" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D338" s="21" t="s">
         <v>106</v>
@@ -11856,13 +11993,13 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="82"/>
       <c r="B339" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C339" s="104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D339" s="104" t="s">
         <v>163</v>
@@ -11874,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H339" s="94">
         <v>45568</v>
@@ -11887,19 +12024,19 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="82"/>
       <c r="B340" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D340" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F340" s="30">
         <v>10</v>
@@ -11913,40 +12050,42 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="82"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E341" s="22">
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G341" s="90"/>
       <c r="H341" s="93"/>
-      <c r="I341" s="93"/>
+      <c r="I341" s="93">
+        <v>1</v>
+      </c>
       <c r="J341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="82"/>
       <c r="B342" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C342" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D342" s="104" t="s">
         <v>263</v>
-      </c>
-      <c r="D342" s="104" t="s">
-        <v>264</v>
       </c>
       <c r="E342" s="105">
         <v>1</v>
@@ -11955,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="G342" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H342" s="94">
         <v>45589</v>
@@ -11965,19 +12104,19 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="82"/>
       <c r="B343" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C343" s="104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D343" s="104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E343" s="105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F343" s="103">
         <v>1</v>
@@ -11993,19 +12132,19 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="82"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C344" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D344" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="D344" s="21" t="s">
-        <v>346</v>
-      </c>
       <c r="E344" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F344" s="30">
         <v>2</v>
@@ -12019,13 +12158,13 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="82"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D345" s="21" t="s">
         <v>79</v>
@@ -12043,13 +12182,13 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="82"/>
       <c r="B346" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C346" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D346" s="21" t="s">
         <v>163</v>
@@ -12067,13 +12206,13 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="82"/>
       <c r="B347" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C347" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D347" s="104" t="s">
         <v>65</v>
@@ -12085,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="G347" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H347" s="94">
         <v>45568</v>
@@ -12095,19 +12234,19 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="82"/>
       <c r="B348" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C348" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D348" s="21" t="s">
         <v>149</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F348" s="30">
         <v>4</v>
@@ -12121,7 +12260,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="82"/>
       <c r="B349" s="28"/>
       <c r="C349" s="21"/>
@@ -12135,7 +12274,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="82"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -12149,7 +12288,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -12160,7 +12299,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G351" s="86"/>
       <c r="H351" s="93"/>
@@ -12169,7 +12308,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12183,7 +12322,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>119</v>
@@ -12198,7 +12337,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -12209,7 +12348,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -12230,7 +12369,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="113" t="s">
         <v>13</v>
       </c>
@@ -12245,7 +12384,7 @@
         <v>25</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H357" s="112">
         <v>45603</v>
@@ -12253,44 +12392,56 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="21" t="s">
+    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C358" s="21"/>
-      <c r="D358" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E358" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F358" s="21">
-        <v>19</v>
+      <c r="C358" s="104"/>
+      <c r="D358" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="E358" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="F358" s="104">
+        <v>21</v>
       </c>
       <c r="G358" s="112">
         <v>45603</v>
       </c>
-      <c r="H358" s="1"/>
+      <c r="H358" s="112">
+        <v>45701</v>
+      </c>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="21"/>
+    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C359" s="21"/>
-      <c r="D359" s="21"/>
-      <c r="E359" s="22"/>
-      <c r="F359" s="21"/>
-      <c r="G359" s="1"/>
+      <c r="D359" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E359" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F359" s="21">
+        <v>0</v>
+      </c>
+      <c r="G359" s="112">
+        <v>45701</v>
+      </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D360" s="21" t="s">
         <v>18</v>
@@ -12306,7 +12457,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="28" t="s">
         <v>14</v>
       </c>
@@ -12327,7 +12478,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="28"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
@@ -12338,12 +12489,12 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>38</v>
@@ -12352,19 +12503,21 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
-      <c r="I363" s="1"/>
+      <c r="I363" s="1">
+        <v>1</v>
+      </c>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>100</v>
@@ -12380,7 +12533,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="101" t="s">
         <v>16</v>
       </c>
@@ -12397,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="G365" s="112" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H365" s="112">
         <v>45568</v>
@@ -12405,233 +12558,295 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="28" t="s">
+    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C366" s="119" t="s">
-        <v>313</v>
-      </c>
-      <c r="D366" s="21" t="s">
+      <c r="C366" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="D366" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="E366" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F366" s="30">
+      <c r="E366" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="F366" s="103">
         <v>0</v>
       </c>
       <c r="G366" s="112">
         <v>45568</v>
       </c>
-      <c r="H366" s="1"/>
+      <c r="H366" s="112">
+        <v>45701</v>
+      </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="28"/>
-      <c r="C367" s="21"/>
-      <c r="D367" s="21"/>
-      <c r="E367" s="22"/>
-      <c r="F367" s="30"/>
-      <c r="G367" s="1"/>
+    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D367" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E367" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F367" s="30">
+        <v>0</v>
+      </c>
+      <c r="G367" s="112">
+        <v>45701</v>
+      </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="28" t="s">
+    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C368" s="119" t="s">
+      <c r="C368" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="D368" s="21" t="s">
+      <c r="D368" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="E368" s="22">
+      <c r="E368" s="105">
         <v>5</v>
       </c>
-      <c r="F368" s="30">
+      <c r="F368" s="103">
         <v>1</v>
       </c>
-      <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
+      <c r="G368" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H368" s="112">
+        <v>45701</v>
+      </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="28" t="s">
+    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C369" s="21" t="s">
+      <c r="C369" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="D369" s="21" t="s">
+      <c r="D369" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="E369" s="22">
+      <c r="E369" s="105">
         <v>30</v>
       </c>
-      <c r="F369" s="30">
+      <c r="F369" s="103">
         <v>3</v>
       </c>
-      <c r="G369" s="1"/>
-      <c r="H369" s="1"/>
+      <c r="G369" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H369" s="112">
+        <v>45701</v>
+      </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="101" t="s">
+    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C370" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D370" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="E370" s="105">
-        <v>22</v>
-      </c>
-      <c r="F370" s="103">
+      <c r="C370" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D370" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="E370" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F370" s="30">
         <v>0</v>
       </c>
-      <c r="G370" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H370" s="112">
-        <v>45568</v>
-      </c>
+      <c r="G370" s="112">
+        <v>45701</v>
+      </c>
+      <c r="H370" s="112"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C371" s="119" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>315</v>
+        <v>28</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F371" s="30">
         <v>0</v>
       </c>
       <c r="G371" s="112">
-        <v>45568</v>
+        <v>45701</v>
       </c>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="28" t="s">
+    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C372" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D372" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E372" s="22">
-        <v>1</v>
-      </c>
-      <c r="F372" s="30">
-        <v>8</v>
-      </c>
-      <c r="G372" s="1"/>
-      <c r="H372" s="1"/>
+      <c r="C372" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D372" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E372" s="105">
+        <v>22</v>
+      </c>
+      <c r="F372" s="103">
+        <v>0</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H372" s="112">
+        <v>45568</v>
+      </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C373" s="104" t="s">
-        <v>177</v>
+      <c r="C373" s="120" t="s">
+        <v>313</v>
       </c>
       <c r="D373" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="E373" s="105">
-        <v>5</v>
+        <v>314</v>
+      </c>
+      <c r="E373" s="105" t="s">
+        <v>274</v>
       </c>
       <c r="F373" s="103">
         <v>0</v>
       </c>
-      <c r="G373" s="1" t="s">
-        <v>276</v>
+      <c r="G373" s="112">
+        <v>45568</v>
       </c>
       <c r="H373" s="112">
-        <v>45568</v>
+        <v>45701</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F374" s="30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G374" s="112">
-        <v>45568</v>
+        <v>45701</v>
       </c>
       <c r="H374" s="1"/>
-      <c r="I374" s="1"/>
+      <c r="I374" s="1">
+        <v>2</v>
+      </c>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="28"/>
-      <c r="C375" s="21"/>
-      <c r="D375" s="21"/>
-      <c r="E375" s="22"/>
-      <c r="F375" s="30"/>
+    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C375" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D375" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E375" s="22">
+        <v>1</v>
+      </c>
+      <c r="F375" s="30">
+        <v>8</v>
+      </c>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="101"/>
-      <c r="C376" s="104"/>
-      <c r="D376" s="104"/>
-      <c r="E376" s="105"/>
-      <c r="F376" s="103"/>
-      <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
+    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C376" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D376" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="E376" s="105">
+        <v>5</v>
+      </c>
+      <c r="F376" s="103">
+        <v>0</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H376" s="112">
+        <v>45568</v>
+      </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="21"/>
-      <c r="C377" s="21"/>
-      <c r="D377" s="21"/>
-      <c r="E377" s="22"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="1"/>
+    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C377" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D377" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E377" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F377" s="30">
+        <v>7</v>
+      </c>
+      <c r="G377" s="112">
+        <v>45568</v>
+      </c>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -12641,14 +12856,14 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
         <v>179</v>
@@ -12659,14 +12874,14 @@
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="5"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B383" s="6" t="s">
         <v>3</v>
       </c>
@@ -12683,7 +12898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="12" t="s">
         <v>13</v>
       </c>
@@ -12694,21 +12909,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
       <c r="E386" s="22"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -12719,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="28" t="s">
         <v>14</v>
       </c>
@@ -12730,14 +12945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="101"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -12748,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -12759,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="28" t="s">
         <v>16</v>
       </c>
@@ -12770,21 +12985,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="28"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
       <c r="E393" s="22"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="28"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
       <c r="E394" s="22"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -12795,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -12806,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -12817,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -12828,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -12839,42 +13054,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="101"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="101"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
       <c r="E403" s="22"/>
       <c r="F403" s="21"/>
     </row>
-    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B404" s="21"/>
       <c r="C404" s="33"/>
       <c r="D404" s="33"/>
       <c r="E404" s="34"/>
       <c r="F404" s="33"/>
     </row>
-    <row r="405" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
       <c r="D405" s="36"/>
@@ -12918,22 +13133,22 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -12950,7 +13165,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -12965,7 +13180,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -12978,12 +13193,12 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -12993,7 +13208,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -13006,7 +13221,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -13031,57 +13246,57 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>209</v>
       </c>
       <c r="E7" s="25">
-        <v>54</v>
-      </c>
-      <c r="F7" s="59">
-        <v>73</v>
-      </c>
-      <c r="G7" s="60">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="F7" s="26">
+        <v>85</v>
+      </c>
+      <c r="G7" s="27">
+        <v>26</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="E8" s="25">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F8" s="26">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="27">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
@@ -13093,10 +13308,10 @@
         <v>97</v>
       </c>
       <c r="E9" s="25">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="26">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="27">
         <v>24</v>
@@ -13106,7 +13321,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
@@ -13114,16 +13329,16 @@
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="25">
-        <v>42</v>
-      </c>
-      <c r="F10" s="26">
-        <v>73</v>
-      </c>
-      <c r="G10" s="27">
+        <v>43</v>
+      </c>
+      <c r="F10" s="59">
+        <v>74</v>
+      </c>
+      <c r="G10" s="60">
         <v>31</v>
       </c>
       <c r="H10" s="55"/>
@@ -13131,7 +13346,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
@@ -13139,16 +13354,16 @@
       <c r="C11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>268</v>
+      <c r="D11" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="E11" s="25">
-        <v>40</v>
-      </c>
-      <c r="F11" s="59">
-        <v>76</v>
-      </c>
-      <c r="G11" s="60">
+        <v>42</v>
+      </c>
+      <c r="F11" s="26">
+        <v>78</v>
+      </c>
+      <c r="G11" s="27">
         <v>36</v>
       </c>
       <c r="H11" s="55"/>
@@ -13156,157 +13371,157 @@
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>75</v>
+        <v>148</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="26">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="27">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="E13" s="25">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" s="26">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G13" s="27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E14" s="25">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="26">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G14" s="27">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="25">
-        <v>27</v>
-      </c>
-      <c r="F15" s="26">
-        <v>70</v>
-      </c>
-      <c r="G15" s="27">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="59">
+        <v>57</v>
+      </c>
+      <c r="G15" s="60">
+        <v>26</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E16" s="25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" s="26">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G16" s="27">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="25">
-        <v>24</v>
-      </c>
-      <c r="F17" s="26">
+        <v>25</v>
+      </c>
+      <c r="F17" s="59">
         <v>64</v>
       </c>
-      <c r="G17" s="27">
-        <v>40</v>
+      <c r="G17" s="60">
+        <v>39</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
@@ -13318,20 +13533,20 @@
         <v>39</v>
       </c>
       <c r="E18" s="25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="26">
         <v>66</v>
       </c>
       <c r="G18" s="27">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -13339,24 +13554,24 @@
       <c r="C19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="24" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>11</v>
-      </c>
-      <c r="F19" s="59">
-        <v>55</v>
-      </c>
-      <c r="G19" s="60">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="F19" s="26">
+        <v>59</v>
+      </c>
+      <c r="G19" s="27">
+        <v>46</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="57">
         <v>14</v>
@@ -13368,20 +13583,20 @@
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="F20" s="26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="27">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -13394,7 +13609,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -13425,20 +13640,20 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F17" sqref="F17:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="65" t="s">
         <v>194</v>
       </c>
@@ -13448,7 +13663,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -13456,7 +13671,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
         <v>44</v>
       </c>
@@ -13466,97 +13681,145 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="67"/>
+      <c r="C4" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="67">
+        <v>2</v>
+      </c>
       <c r="E4" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="108"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="71" t="s">
+      <c r="C5" s="121" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="108"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="108">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="67"/>
+        <v>267</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="67">
+        <v>1</v>
+      </c>
       <c r="E6" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="67"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="G6" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="67">
+        <v>2</v>
+      </c>
       <c r="E7" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="67">
+        <v>3</v>
+      </c>
+      <c r="E8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="108"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="108">
+        <v>3</v>
+      </c>
       <c r="E9" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="67"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -13565,7 +13828,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="64"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>170</v>
       </c>
@@ -13575,7 +13838,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>55</v>
       </c>
@@ -13586,7 +13849,7 @@
       <c r="F12" s="72"/>
       <c r="G12" s="108"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71"/>
@@ -13595,7 +13858,7 @@
       <c r="F13" s="72"/>
       <c r="G13" s="108"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70"/>
       <c r="B14" s="66" t="s">
         <v>71</v>
@@ -13606,7 +13869,7 @@
       <c r="F14" s="71"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
@@ -13617,7 +13880,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>57</v>
       </c>
@@ -13628,7 +13891,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="108"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>72</v>
       </c>
@@ -13639,7 +13902,7 @@
       <c r="F17" s="71"/>
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>93</v>
       </c>
@@ -13650,7 +13913,7 @@
       <c r="F18" s="72"/>
       <c r="G18" s="108"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="68"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -13658,7 +13921,7 @@
       <c r="F19" s="69"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
       <c r="C20" s="67"/>
       <c r="D20" s="64"/>
@@ -13666,7 +13929,7 @@
       <c r="F20" s="69"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="66" t="s">
         <v>45</v>
       </c>
@@ -13676,7 +13939,7 @@
       <c r="F21" s="69"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>94</v>
       </c>
@@ -13687,7 +13950,7 @@
       <c r="F22" s="72"/>
       <c r="G22" s="108"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>96</v>
       </c>
@@ -13698,7 +13961,7 @@
       <c r="F23" s="72"/>
       <c r="G23" s="108"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="67"/>
@@ -13706,7 +13969,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="66" t="s">
         <v>46</v>
       </c>
@@ -13716,7 +13979,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>176</v>
       </c>
@@ -13727,7 +13990,7 @@
       <c r="F26" s="71"/>
       <c r="G26" s="67"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="67"/>
@@ -13735,7 +13998,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="66" t="s">
         <v>47</v>
       </c>
@@ -13746,7 +14009,7 @@
       <c r="G28" s="43"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="68"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{137F18B5-F53C-4947-B1E5-9555A7165B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28E1FC3-F5C1-4C78-A893-9E574C59FC86}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{137F18B5-F53C-4947-B1E5-9555A7165B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9268425A-7187-4F15-8AE2-587AD56482C8}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="34580" windowHeight="13980" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="381">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1158,7 +1158,28 @@
     <t>(0 - 0)</t>
   </si>
   <si>
-    <t>(1 - 0)</t>
+    <t>(2 - 1)</t>
+  </si>
+  <si>
+    <t>(2 - 2)</t>
+  </si>
+  <si>
+    <t>MILTON KEYNES</t>
+  </si>
+  <si>
+    <t>BETO</t>
+  </si>
+  <si>
+    <t>JAMILLE MATT</t>
+  </si>
+  <si>
+    <t>WALSALL</t>
+  </si>
+  <si>
+    <t>JUSTIN OBIKWU</t>
+  </si>
+  <si>
+    <t>GRIMSBY</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +3105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3098,34 +3119,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="80" customWidth="1"/>
     <col min="2" max="2" width="16" style="80" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="80" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="80" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="80" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="80" customWidth="1"/>
     <col min="6" max="6" width="17" style="80" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="80" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="80" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="80" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="80" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="80" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="80" customWidth="1"/>
     <col min="13" max="14" width="12" style="80" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="80" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="80" customWidth="1"/>
     <col min="16" max="17" width="9" style="80" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.296875" style="80" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="80" customWidth="1"/>
-    <col min="22" max="22" width="30.109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.09765625" style="80" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="80" customWidth="1"/>
     <col min="259" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3165,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3165,7 +3186,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3182,7 +3203,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3224,7 +3245,7 @@
       <c r="U4" s="122"/>
       <c r="V4" s="122"/>
     </row>
-    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82"/>
       <c r="B5" s="113" t="s">
         <v>13</v>
@@ -3257,21 +3278,21 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S5" s="110"/>
       <c r="T5" s="109"/>
       <c r="U5" s="110"/>
     </row>
-    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="82"/>
       <c r="B6" s="21" t="s">
         <v>13</v>
@@ -3284,7 +3305,7 @@
         <v>274</v>
       </c>
       <c r="F6" s="21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" s="89">
         <v>45617</v>
@@ -3302,11 +3323,11 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
@@ -3316,7 +3337,7 @@
       <c r="T6" s="109"/>
       <c r="U6" s="110"/>
     </row>
-    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3337,21 +3358,21 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" s="110"/>
       <c r="T7" s="109"/>
       <c r="U7" s="110"/>
     </row>
-    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="82"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3381,18 +3402,18 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3423,18 +3444,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F134)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
       <c r="B10" s="101" t="s">
         <v>16</v>
@@ -3485,7 +3506,7 @@
       <c r="U10" s="122"/>
       <c r="V10" s="122"/>
     </row>
-    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
       <c r="B11" s="101" t="s">
         <v>16</v>
@@ -3520,21 +3541,21 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S11" s="110"/>
       <c r="T11" s="109"/>
       <c r="U11" s="110"/>
     </row>
-    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
@@ -3549,7 +3570,7 @@
         <v>274</v>
       </c>
       <c r="F12" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="90">
         <v>45666</v>
@@ -3567,18 +3588,18 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="N12" s="76">
         <f>SUM(F198:F215)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F195:F197)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
       <c r="B13" s="101" t="s">
         <v>16</v>
@@ -3617,11 +3638,11 @@
       </c>
       <c r="N13" s="76">
         <f>SUM(F225:F242)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F222:F224)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R13" s="122"/>
       <c r="S13" s="122"/>
@@ -3629,7 +3650,7 @@
       <c r="U13" s="122"/>
       <c r="V13" s="122"/>
     </row>
-    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
       <c r="B14" s="101" t="s">
         <v>16</v>
@@ -3664,11 +3685,11 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F252:F269)</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F249:F251)</f>
@@ -3678,7 +3699,7 @@
       <c r="T14" s="109"/>
       <c r="U14" s="110"/>
     </row>
-    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
       <c r="B15" s="101" t="s">
         <v>16</v>
@@ -3713,18 +3734,18 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
       <c r="B16" s="28" t="s">
         <v>16</v>
@@ -3757,18 +3778,18 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
       <c r="B17" s="28" t="s">
         <v>16</v>
@@ -3801,15 +3822,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R17" s="122"/>
       <c r="S17" s="122"/>
@@ -3817,7 +3838,7 @@
       <c r="U17" s="122"/>
       <c r="V17" s="122"/>
     </row>
-    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -3848,11 +3869,11 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
@@ -3862,7 +3883,7 @@
       <c r="T18" s="109"/>
       <c r="U18" s="110"/>
     </row>
-    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -3889,7 +3910,7 @@
       <c r="N19" s="91"/>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
       <c r="B20" s="101" t="s">
         <v>17</v>
@@ -3925,7 +3946,7 @@
       <c r="U20" s="122"/>
       <c r="V20" s="122"/>
     </row>
-    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
@@ -3940,7 +3961,7 @@
         <v>274</v>
       </c>
       <c r="F21" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="90">
         <v>45526</v>
@@ -3957,7 +3978,7 @@
       <c r="T21" s="109"/>
       <c r="U21" s="110"/>
     </row>
-    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="82"/>
       <c r="B22" s="101" t="s">
         <v>17</v>
@@ -3988,7 +4009,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82"/>
       <c r="B23" s="28" t="s">
         <v>17</v>
@@ -4017,7 +4038,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82"/>
       <c r="B24" s="101" t="s">
         <v>17</v>
@@ -4053,7 +4074,7 @@
       <c r="U24" s="122"/>
       <c r="V24" s="122"/>
     </row>
-    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82"/>
       <c r="B25" s="28" t="s">
         <v>17</v>
@@ -4085,7 +4106,7 @@
       <c r="T25" s="109"/>
       <c r="U25" s="110"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4096,7 +4117,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4108,7 +4129,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4125,7 +4146,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4147,7 +4168,7 @@
       <c r="U28" s="122"/>
       <c r="V28" s="122"/>
     </row>
-    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4168,7 +4189,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4185,7 +4206,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="82"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4212,7 +4233,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="82"/>
       <c r="B32" s="113" t="s">
         <v>13</v>
@@ -4241,7 +4262,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="82"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
@@ -4270,7 +4291,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="82"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4287,7 +4308,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="82"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4314,7 +4335,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="82"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4341,7 +4362,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4358,7 +4379,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="82"/>
       <c r="B38" s="101" t="s">
         <v>16</v>
@@ -4394,7 +4415,7 @@
       <c r="U38" s="122"/>
       <c r="V38" s="122"/>
     </row>
-    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="82"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -4409,7 +4430,7 @@
         <v>274</v>
       </c>
       <c r="F39" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="90">
         <v>45666</v>
@@ -4423,7 +4444,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="82"/>
       <c r="B40" s="101" t="s">
         <v>16</v>
@@ -4454,7 +4475,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="82"/>
       <c r="B41" s="28" t="s">
         <v>16</v>
@@ -4483,7 +4504,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="82"/>
       <c r="B42" s="28" t="s">
         <v>16</v>
@@ -4510,7 +4531,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="82"/>
       <c r="B43" s="28" t="s">
         <v>17</v>
@@ -4537,7 +4558,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="82"/>
       <c r="B44" s="101" t="s">
         <v>17</v>
@@ -4568,7 +4589,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="82"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
@@ -4583,7 +4604,7 @@
         <v>274</v>
       </c>
       <c r="F45" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="90">
         <v>45666</v>
@@ -4597,7 +4618,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="82"/>
       <c r="B46" s="101" t="s">
         <v>17</v>
@@ -4628,7 +4649,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="82"/>
       <c r="B47" s="101" t="s">
         <v>17</v>
@@ -4659,7 +4680,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="82"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
@@ -4688,7 +4709,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="82"/>
       <c r="B49" s="101" t="s">
         <v>17</v>
@@ -4719,7 +4740,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="82"/>
       <c r="B50" s="28" t="s">
         <v>17</v>
@@ -4748,7 +4769,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="82"/>
       <c r="B51" s="101" t="s">
         <v>17</v>
@@ -4779,7 +4800,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="82"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
@@ -4808,7 +4829,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4819,7 +4840,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -4831,7 +4852,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4848,7 +4869,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4865,7 +4886,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4886,7 +4907,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4903,7 +4924,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="82"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4930,7 +4951,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="82"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4943,11 +4964,13 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G59" s="83"/>
       <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
+      <c r="I59" s="95">
+        <v>1</v>
+      </c>
       <c r="J59" s="79"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4955,7 +4978,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="82"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4972,7 +4995,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="82"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4989,7 +5012,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="82"/>
       <c r="B62" s="101" t="s">
         <v>14</v>
@@ -5020,7 +5043,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="82"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
@@ -5049,7 +5072,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="82"/>
       <c r="B64" s="28" t="s">
         <v>14</v>
@@ -5064,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="90"/>
       <c r="H64" s="93"/>
@@ -5076,7 +5099,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="82"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -5103,7 +5126,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="82"/>
       <c r="B66" s="101" t="s">
         <v>16</v>
@@ -5134,7 +5157,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="82"/>
       <c r="B67" s="28" t="s">
         <v>16</v>
@@ -5163,7 +5186,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="82"/>
       <c r="B68" s="101" t="s">
         <v>16</v>
@@ -5194,7 +5217,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
       <c r="B69" s="28" t="s">
         <v>16</v>
@@ -5223,7 +5246,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="82"/>
       <c r="B70" s="28" t="s">
         <v>17</v>
@@ -5252,7 +5275,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5279,7 +5302,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
       <c r="B72" s="101" t="s">
         <v>17</v>
@@ -5310,7 +5333,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="82"/>
       <c r="B73" s="101" t="s">
         <v>17</v>
@@ -5341,7 +5364,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="82"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
@@ -5370,7 +5393,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="82"/>
       <c r="B75" s="101" t="s">
         <v>17</v>
@@ -5401,7 +5424,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="82"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
@@ -5416,7 +5439,7 @@
         <v>274</v>
       </c>
       <c r="F76" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="90">
         <v>45610</v>
@@ -5430,7 +5453,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="82"/>
       <c r="B77" s="101" t="s">
         <v>17</v>
@@ -5461,7 +5484,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="82"/>
       <c r="B78" s="28" t="s">
         <v>17</v>
@@ -5490,7 +5513,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="82"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5507,7 +5530,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5518,7 +5541,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5530,7 +5553,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5547,7 +5570,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5564,7 +5587,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5585,7 +5608,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5602,7 +5625,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="82"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5629,7 +5652,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="82"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5642,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
@@ -5656,7 +5679,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="82"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5673,7 +5696,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="82"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5690,7 +5713,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="82"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5717,7 +5740,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="82"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5744,7 +5767,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="82"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5761,7 +5784,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="82"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5790,7 +5813,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="82"/>
       <c r="B93" s="28" t="s">
         <v>16</v>
@@ -5817,7 +5840,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="82"/>
       <c r="B94" s="101" t="s">
         <v>16</v>
@@ -5848,7 +5871,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="82"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
@@ -5863,7 +5886,7 @@
         <v>274</v>
       </c>
       <c r="F95" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G95" s="94">
         <v>45547</v>
@@ -5877,7 +5900,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="82"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5894,7 +5917,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="82"/>
       <c r="B97" s="101" t="s">
         <v>17</v>
@@ -5925,7 +5948,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="82"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
@@ -5954,7 +5977,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="82"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
@@ -5981,7 +6004,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="82"/>
       <c r="B100" s="101" t="s">
         <v>17</v>
@@ -6012,7 +6035,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="82"/>
       <c r="B101" s="101" t="s">
         <v>17</v>
@@ -6043,7 +6066,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="82"/>
       <c r="B102" s="28" t="s">
         <v>17</v>
@@ -6072,7 +6095,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="82"/>
       <c r="B103" s="101" t="s">
         <v>17</v>
@@ -6103,7 +6126,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="82"/>
       <c r="B104" s="28" t="s">
         <v>17</v>
@@ -6132,7 +6155,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
       <c r="B105" s="101" t="s">
         <v>17</v>
@@ -6163,7 +6186,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="82"/>
       <c r="B106" s="28" t="s">
         <v>17</v>
@@ -6194,7 +6217,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6205,7 +6228,7 @@
       </c>
       <c r="F107" s="38">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G107" s="83"/>
       <c r="H107" s="95"/>
@@ -6217,7 +6240,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6234,7 +6257,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6251,7 +6274,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6272,7 +6295,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6289,7 +6312,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="82"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6316,7 +6339,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="82"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6341,7 +6364,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="82"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6358,7 +6381,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="82"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6375,7 +6398,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="82"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
@@ -6402,7 +6425,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="82"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6429,7 +6452,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="82"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6446,7 +6469,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="82"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
@@ -6473,7 +6496,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="82"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6500,7 +6523,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="82"/>
       <c r="B121" s="101" t="s">
         <v>16</v>
@@ -6531,7 +6554,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="82"/>
       <c r="B122" s="101" t="s">
         <v>16</v>
@@ -6562,7 +6585,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="82"/>
       <c r="B123" s="28" t="s">
         <v>16</v>
@@ -6591,7 +6614,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="82"/>
       <c r="B124" s="101" t="s">
         <v>17</v>
@@ -6622,7 +6645,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="82"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
@@ -6651,7 +6674,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="82"/>
       <c r="B126" s="28" t="s">
         <v>17</v>
@@ -6666,7 +6689,7 @@
         <v>6</v>
       </c>
       <c r="F126" s="30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G126" s="90"/>
       <c r="H126" s="94"/>
@@ -6680,7 +6703,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="82"/>
       <c r="B127" s="101" t="s">
         <v>17</v>
@@ -6711,7 +6734,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="82"/>
       <c r="B128" s="101" t="s">
         <v>17</v>
@@ -6742,7 +6765,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="82"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
@@ -6773,7 +6796,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="82"/>
       <c r="B130" s="101" t="s">
         <v>17</v>
@@ -6804,7 +6827,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="82"/>
       <c r="B131" s="101" t="s">
         <v>17</v>
@@ -6835,7 +6858,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="82"/>
       <c r="B132" s="28" t="s">
         <v>17</v>
@@ -6850,7 +6873,7 @@
         <v>274</v>
       </c>
       <c r="F132" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="90">
         <v>45701</v>
@@ -6864,7 +6887,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="82"/>
       <c r="B133" s="28" t="s">
         <v>17</v>
@@ -6893,7 +6916,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="82"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6910,7 +6933,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -6921,7 +6944,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="95"/>
@@ -6933,7 +6956,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6950,7 +6973,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6967,7 +6990,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -6988,7 +7011,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7005,7 +7028,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="82"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -7032,7 +7055,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="82"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -7057,7 +7080,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="82"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -7074,7 +7097,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="82"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -7091,7 +7114,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="82"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
@@ -7118,7 +7141,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="82"/>
       <c r="B145" s="28" t="s">
         <v>14</v>
@@ -7145,7 +7168,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="82"/>
       <c r="B146" s="28"/>
       <c r="C146" s="21"/>
@@ -7162,7 +7185,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="82"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -7189,7 +7212,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="82"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -7215,7 +7238,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="82"/>
       <c r="B149" s="28" t="s">
         <v>16</v>
@@ -7242,7 +7265,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="82"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -7259,7 +7282,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="82"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7276,7 +7299,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="82"/>
       <c r="B152" s="101" t="s">
         <v>17</v>
@@ -7307,7 +7330,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="82"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
@@ -7336,7 +7359,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="82"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
@@ -7363,7 +7386,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="82"/>
       <c r="B155" s="101" t="s">
         <v>17</v>
@@ -7394,7 +7417,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="82"/>
       <c r="B156" s="101" t="s">
         <v>17</v>
@@ -7425,27 +7448,29 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="82"/>
-      <c r="B157" s="28" t="s">
+      <c r="B157" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="D157" s="28" t="s">
+      <c r="D157" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="E157" s="29" t="s">
+      <c r="E157" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="F157" s="30">
+      <c r="F157" s="103">
         <v>3</v>
       </c>
       <c r="G157" s="90">
         <v>45575</v>
       </c>
-      <c r="H157" s="93"/>
+      <c r="H157" s="94">
+        <v>45708</v>
+      </c>
       <c r="I157" s="93"/>
       <c r="J157" s="79"/>
       <c r="K157" s="1"/>
@@ -7454,25 +7479,25 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="82"/>
       <c r="B158" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>137</v>
+        <v>380</v>
       </c>
       <c r="E158" s="29" t="s">
         <v>274</v>
       </c>
       <c r="F158" s="30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G158" s="90">
-        <v>45575</v>
+        <v>45708</v>
       </c>
       <c r="H158" s="94"/>
       <c r="I158" s="93"/>
@@ -7483,25 +7508,29 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="82"/>
-      <c r="B159" s="28" t="s">
+      <c r="B159" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D159" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E159" s="29">
-        <v>2</v>
-      </c>
-      <c r="F159" s="30">
+      <c r="C159" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D159" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E159" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="F159" s="103">
         <v>12</v>
       </c>
-      <c r="G159" s="90"/>
-      <c r="H159" s="94"/>
+      <c r="G159" s="90">
+        <v>45575</v>
+      </c>
+      <c r="H159" s="94">
+        <v>45708</v>
+      </c>
       <c r="I159" s="93">
         <v>1</v>
       </c>
@@ -7512,14 +7541,26 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="82"/>
-      <c r="B160" s="101"/>
-      <c r="C160" s="101"/>
-      <c r="D160" s="101"/>
-      <c r="E160" s="102"/>
-      <c r="F160" s="103"/>
-      <c r="G160" s="90"/>
+      <c r="B160" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F160" s="30">
+        <v>0</v>
+      </c>
+      <c r="G160" s="90">
+        <v>45708</v>
+      </c>
       <c r="H160" s="94"/>
       <c r="I160" s="93"/>
       <c r="J160" s="79"/>
@@ -7529,13 +7570,23 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="82"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="30"/>
+      <c r="B161" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" s="29">
+        <v>2</v>
+      </c>
+      <c r="F161" s="30">
+        <v>12</v>
+      </c>
       <c r="G161" s="90"/>
       <c r="H161" s="94"/>
       <c r="I161" s="95"/>
@@ -7546,7 +7597,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -7569,7 +7620,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7586,7 +7637,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7603,7 +7654,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -7624,7 +7675,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7641,7 +7692,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="82"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -7668,7 +7719,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="82"/>
       <c r="B168" s="113" t="s">
         <v>13</v>
@@ -7697,7 +7748,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="82"/>
       <c r="B169" s="21" t="s">
         <v>13</v>
@@ -7710,7 +7761,7 @@
         <v>274</v>
       </c>
       <c r="F169" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" s="89">
         <v>45652</v>
@@ -7726,7 +7777,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="82"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -7743,7 +7794,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="82"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7770,7 +7821,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="82"/>
       <c r="B172" s="101" t="s">
         <v>14</v>
@@ -7801,7 +7852,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="82"/>
       <c r="B173" s="28" t="s">
         <v>14</v>
@@ -7830,7 +7881,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="82"/>
       <c r="B174" s="28" t="s">
         <v>16</v>
@@ -7857,7 +7908,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="82"/>
       <c r="B175" s="101" t="s">
         <v>16</v>
@@ -7888,7 +7939,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="82"/>
       <c r="B176" s="28" t="s">
         <v>16</v>
@@ -7917,7 +7968,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="82"/>
       <c r="B177" s="101" t="s">
         <v>16</v>
@@ -7948,7 +7999,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="82"/>
       <c r="B178" s="28" t="s">
         <v>16</v>
@@ -7977,7 +8028,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="82"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -7992,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G179" s="86"/>
       <c r="H179" s="94"/>
@@ -8004,7 +8055,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="82"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -8031,7 +8082,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="82"/>
       <c r="B181" s="101" t="s">
         <v>17</v>
@@ -8062,7 +8113,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="82"/>
       <c r="B182" s="101" t="s">
         <v>17</v>
@@ -8093,7 +8144,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="82"/>
       <c r="B183" s="101" t="s">
         <v>17</v>
@@ -8124,7 +8175,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="82"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
@@ -8153,7 +8204,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="82"/>
       <c r="B185" s="28" t="s">
         <v>17</v>
@@ -8182,7 +8233,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="82"/>
       <c r="B186" s="28" t="s">
         <v>17</v>
@@ -8197,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="F186" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G186" s="94"/>
       <c r="H186" s="90"/>
@@ -8209,7 +8260,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="82"/>
       <c r="B187" s="101"/>
       <c r="C187" s="101"/>
@@ -8226,7 +8277,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="82"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -8243,7 +8294,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -8254,7 +8305,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G189" s="83"/>
       <c r="H189" s="95"/>
@@ -8266,7 +8317,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8283,7 +8334,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8300,7 +8351,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8321,7 +8372,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8338,7 +8389,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="82"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -8365,7 +8416,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="82"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
@@ -8378,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G195" s="83"/>
       <c r="H195" s="97"/>
@@ -8392,7 +8443,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="82"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8409,7 +8460,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="82"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -8426,7 +8477,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="82"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
@@ -8453,7 +8504,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="82"/>
       <c r="B199" s="28" t="s">
         <v>14</v>
@@ -8480,7 +8531,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="82"/>
       <c r="B200" s="101"/>
       <c r="C200" s="28"/>
@@ -8497,7 +8548,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="82"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
@@ -8526,7 +8577,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="82"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
@@ -8553,7 +8604,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="82"/>
       <c r="B203" s="101" t="s">
         <v>16</v>
@@ -8584,7 +8635,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="82"/>
       <c r="B204" s="28" t="s">
         <v>16</v>
@@ -8613,7 +8664,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="82"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -8630,7 +8681,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="82"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
@@ -8657,7 +8708,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="82"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
@@ -8684,7 +8735,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="82"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
@@ -8699,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G208" s="86"/>
       <c r="H208" s="93"/>
@@ -8711,7 +8762,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="82"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
@@ -8738,7 +8789,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="82"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
@@ -8765,7 +8816,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="82"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8782,7 +8833,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="82"/>
       <c r="B212" s="101"/>
       <c r="C212" s="28"/>
@@ -8799,7 +8850,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="82"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8816,7 +8867,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="82"/>
       <c r="B214" s="101"/>
       <c r="C214" s="21"/>
@@ -8833,7 +8884,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="82"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -8850,7 +8901,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -8861,7 +8912,7 @@
       </c>
       <c r="F216" s="38">
         <f>SUM(F198:F215)-SUM(F195:F197)</f>
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="G216" s="83"/>
       <c r="H216" s="95"/>
@@ -8873,7 +8924,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8890,7 +8941,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8907,7 +8958,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -8928,7 +8979,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8945,7 +8996,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="82"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -8972,7 +9023,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="61"/>
       <c r="B222" s="113" t="s">
         <v>13</v>
@@ -9001,7 +9052,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="82"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -9014,7 +9065,7 @@
         <v>274</v>
       </c>
       <c r="F223" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G223" s="97">
         <v>45645</v>
@@ -9028,7 +9079,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="82"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -9045,7 +9096,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="82"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
@@ -9072,7 +9123,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="82"/>
       <c r="B226" s="28" t="s">
         <v>14</v>
@@ -9099,7 +9150,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="82"/>
       <c r="B227" s="28"/>
       <c r="C227" s="21"/>
@@ -9116,7 +9167,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="82"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
@@ -9143,7 +9194,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="82"/>
       <c r="B229" s="101" t="s">
         <v>16</v>
@@ -9174,7 +9225,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="82"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
@@ -9203,7 +9254,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="82"/>
       <c r="B231" s="28" t="s">
         <v>16</v>
@@ -9230,7 +9281,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="82"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -9247,7 +9298,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="82"/>
       <c r="B233" s="101" t="s">
         <v>17</v>
@@ -9278,7 +9329,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="82"/>
       <c r="B234" s="101" t="s">
         <v>17</v>
@@ -9309,7 +9360,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="82"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
@@ -9340,7 +9391,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="82"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
@@ -9367,25 +9418,29 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="82"/>
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D237" s="28" t="s">
+      <c r="D237" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="E237" s="29">
+      <c r="E237" s="102">
         <v>15</v>
       </c>
-      <c r="F237" s="30">
+      <c r="F237" s="103">
         <v>7</v>
       </c>
-      <c r="G237" s="90"/>
-      <c r="H237" s="94"/>
+      <c r="G237" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="H237" s="94">
+        <v>45708</v>
+      </c>
       <c r="I237" s="92"/>
       <c r="J237" s="79"/>
       <c r="K237" s="1"/>
@@ -9394,24 +9449,26 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="82"/>
       <c r="B238" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E238" s="29">
-        <v>8</v>
+        <v>314</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="F238" s="30">
-        <v>13</v>
-      </c>
-      <c r="G238" s="90"/>
+        <v>1</v>
+      </c>
+      <c r="G238" s="90">
+        <v>45708</v>
+      </c>
       <c r="H238" s="94"/>
       <c r="I238" s="92">
         <v>1</v>
@@ -9423,30 +9480,28 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="82"/>
-      <c r="B239" s="101" t="s">
+      <c r="B239" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C239" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="D239" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="E239" s="102">
+      <c r="C239" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D239" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E239" s="29">
+        <v>8</v>
+      </c>
+      <c r="F239" s="30">
+        <v>14</v>
+      </c>
+      <c r="G239" s="90"/>
+      <c r="H239" s="94"/>
+      <c r="I239" s="92">
         <v>1</v>
       </c>
-      <c r="F239" s="103">
-        <v>0</v>
-      </c>
-      <c r="G239" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="H239" s="94">
-        <v>45526</v>
-      </c>
-      <c r="I239" s="92"/>
       <c r="J239" s="79"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -9454,28 +9509,28 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="82"/>
       <c r="B240" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C240" s="101" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="D240" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="E240" s="102" t="s">
-        <v>274</v>
+        <v>121</v>
+      </c>
+      <c r="E240" s="102">
+        <v>1</v>
       </c>
       <c r="F240" s="103">
-        <v>1</v>
-      </c>
-      <c r="G240" s="90">
+        <v>0</v>
+      </c>
+      <c r="G240" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="H240" s="94">
         <v>45526</v>
-      </c>
-      <c r="H240" s="94">
-        <v>45589</v>
       </c>
       <c r="I240" s="92"/>
       <c r="J240" s="79"/>
@@ -9485,28 +9540,30 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="82"/>
-      <c r="B241" s="28" t="s">
+      <c r="B241" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C241" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D241" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E241" s="29" t="s">
+      <c r="C241" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="D241" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E241" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="F241" s="30">
-        <v>11</v>
+      <c r="F241" s="103">
+        <v>1</v>
       </c>
       <c r="G241" s="90">
+        <v>45526</v>
+      </c>
+      <c r="H241" s="94">
         <v>45589</v>
       </c>
-      <c r="H241" s="94"/>
-      <c r="I241" s="93"/>
+      <c r="I241" s="92"/>
       <c r="J241" s="79"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -9514,14 +9571,26 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="82"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="29"/>
-      <c r="F242" s="30"/>
-      <c r="G242" s="90"/>
+      <c r="B242" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E242" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F242" s="30">
+        <v>11</v>
+      </c>
+      <c r="G242" s="90">
+        <v>45589</v>
+      </c>
       <c r="H242" s="94"/>
       <c r="I242" s="93"/>
       <c r="J242" s="79"/>
@@ -9531,7 +9600,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -9554,7 +9623,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9571,7 +9640,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9588,7 +9657,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -9609,7 +9678,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9626,7 +9695,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="82"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -9645,7 +9714,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="82"/>
       <c r="B249" s="113" t="s">
         <v>13</v>
@@ -9674,7 +9743,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="82"/>
       <c r="B250" s="21" t="s">
         <v>13</v>
@@ -9701,7 +9770,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="82"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9718,7 +9787,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="82"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
@@ -9745,7 +9814,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="82"/>
       <c r="B253" s="28" t="s">
         <v>14</v>
@@ -9772,7 +9841,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="82"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -9789,7 +9858,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="82"/>
       <c r="B255" s="101" t="s">
         <v>16</v>
@@ -9820,7 +9889,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="82"/>
       <c r="B256" s="101" t="s">
         <v>16</v>
@@ -9851,7 +9920,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="82"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
@@ -9880,7 +9949,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="82"/>
       <c r="B258" s="101" t="s">
         <v>16</v>
@@ -9911,7 +9980,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="82"/>
       <c r="B259" s="28" t="s">
         <v>16</v>
@@ -9926,7 +9995,7 @@
         <v>274</v>
       </c>
       <c r="F259" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G259" s="90">
         <v>45638</v>
@@ -9940,7 +10009,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="82"/>
       <c r="B260" s="28" t="s">
         <v>16</v>
@@ -9967,7 +10036,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="82"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -9982,7 +10051,7 @@
         <v>49</v>
       </c>
       <c r="F261" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G261" s="90"/>
       <c r="H261" s="94"/>
@@ -9996,7 +10065,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="82"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -10023,7 +10092,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="82"/>
       <c r="B263" s="101" t="s">
         <v>17</v>
@@ -10054,7 +10123,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="82"/>
       <c r="B264" s="28" t="s">
         <v>17</v>
@@ -10083,7 +10152,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="82"/>
       <c r="B265" s="101" t="s">
         <v>17</v>
@@ -10114,7 +10183,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="82"/>
       <c r="B266" s="28" t="s">
         <v>17</v>
@@ -10143,7 +10212,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="82"/>
       <c r="B267" s="101" t="s">
         <v>17</v>
@@ -10174,7 +10243,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="82"/>
       <c r="B268" s="101" t="s">
         <v>17</v>
@@ -10205,7 +10274,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="82"/>
       <c r="B269" s="28" t="s">
         <v>17</v>
@@ -10220,7 +10289,7 @@
         <v>274</v>
       </c>
       <c r="F269" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G269" s="90">
         <v>45694</v>
@@ -10236,7 +10305,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -10247,7 +10316,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G270" s="83"/>
       <c r="H270" s="95"/>
@@ -10259,7 +10328,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10276,7 +10345,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10293,7 +10362,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
@@ -10314,7 +10383,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10331,7 +10400,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="82"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -10358,7 +10427,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="82"/>
       <c r="B276" s="113" t="s">
         <v>13</v>
@@ -10387,7 +10456,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="82"/>
       <c r="B277" s="21" t="s">
         <v>13</v>
@@ -10400,7 +10469,7 @@
         <v>274</v>
       </c>
       <c r="F277" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G277" s="89">
         <v>45568</v>
@@ -10416,7 +10485,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="82"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10433,7 +10502,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="82"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
@@ -10460,7 +10529,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="82"/>
       <c r="B280" s="101" t="s">
         <v>14</v>
@@ -10491,7 +10560,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="82"/>
       <c r="B281" s="28" t="s">
         <v>14</v>
@@ -10520,7 +10589,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="82"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -10547,7 +10616,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="82"/>
       <c r="B283" s="28" t="s">
         <v>16</v>
@@ -10562,7 +10631,7 @@
         <v>16</v>
       </c>
       <c r="F283" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G283" s="94"/>
       <c r="H283" s="94"/>
@@ -10574,7 +10643,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="82"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
@@ -10603,7 +10672,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="82"/>
       <c r="B285" s="28"/>
       <c r="C285" s="21"/>
@@ -10620,7 +10689,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="82"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -10637,7 +10706,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="82"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -10652,7 +10721,7 @@
         <v>36</v>
       </c>
       <c r="F287" s="30">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G287" s="86"/>
       <c r="H287" s="94"/>
@@ -10664,7 +10733,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="82"/>
       <c r="B288" s="101" t="s">
         <v>17</v>
@@ -10695,7 +10764,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="82"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
@@ -10724,7 +10793,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="82"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -10751,7 +10820,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="82"/>
       <c r="B291" s="101" t="s">
         <v>17</v>
@@ -10782,7 +10851,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="82"/>
       <c r="B292" s="101" t="s">
         <v>17</v>
@@ -10813,7 +10882,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="82"/>
       <c r="B293" s="101" t="s">
         <v>17</v>
@@ -10844,7 +10913,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="82"/>
       <c r="B294" s="28" t="s">
         <v>17</v>
@@ -10859,7 +10928,7 @@
         <v>274</v>
       </c>
       <c r="F294" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G294" s="90">
         <v>45687</v>
@@ -10873,7 +10942,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="82"/>
       <c r="B295" s="28" t="s">
         <v>17</v>
@@ -10904,7 +10973,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="82"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10921,7 +10990,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -10932,7 +11001,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G297" s="83"/>
       <c r="H297" s="95"/>
@@ -10944,7 +11013,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10961,7 +11030,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -10978,7 +11047,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
@@ -10999,7 +11068,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11016,7 +11085,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="82"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -11043,7 +11112,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="82"/>
       <c r="B303" s="113" t="s">
         <v>13</v>
@@ -11072,7 +11141,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="82"/>
       <c r="B304" s="21" t="s">
         <v>13</v>
@@ -11099,7 +11168,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="82"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -11116,7 +11185,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="82"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -11143,7 +11212,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="82"/>
       <c r="B307" s="28" t="s">
         <v>14</v>
@@ -11170,7 +11239,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="82"/>
       <c r="B308" s="101" t="s">
         <v>16</v>
@@ -11201,7 +11270,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="82"/>
       <c r="B309" s="28" t="s">
         <v>16</v>
@@ -11232,7 +11301,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="82"/>
       <c r="B310" s="101" t="s">
         <v>16</v>
@@ -11263,7 +11332,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="82"/>
       <c r="B311" s="28" t="s">
         <v>16</v>
@@ -11278,7 +11347,7 @@
         <v>274</v>
       </c>
       <c r="F311" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G311" s="90">
         <v>45568</v>
@@ -11292,7 +11361,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="82"/>
       <c r="B312" s="101" t="s">
         <v>16</v>
@@ -11323,7 +11392,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="82"/>
       <c r="B313" s="101" t="s">
         <v>16</v>
@@ -11354,7 +11423,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="82"/>
       <c r="B314" s="101" t="s">
         <v>16</v>
@@ -11385,7 +11454,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="82"/>
       <c r="B315" s="28" t="s">
         <v>16</v>
@@ -11414,7 +11483,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="82"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
@@ -11441,7 +11510,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="82"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
@@ -11470,7 +11539,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="82"/>
       <c r="B318" s="101" t="s">
         <v>17</v>
@@ -11501,7 +11570,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="82"/>
       <c r="B319" s="28" t="s">
         <v>17</v>
@@ -11532,7 +11601,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="82"/>
       <c r="B320" s="101" t="s">
         <v>17</v>
@@ -11563,7 +11632,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="82"/>
       <c r="B321" s="28" t="s">
         <v>17</v>
@@ -11592,7 +11661,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="82"/>
       <c r="B322" s="101" t="s">
         <v>17</v>
@@ -11623,7 +11692,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="82"/>
       <c r="B323" s="28" t="s">
         <v>17</v>
@@ -11652,7 +11721,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -11663,7 +11732,7 @@
       </c>
       <c r="F324" s="38">
         <f>SUM(F306:F323)-SUM(F303:F305)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G324" s="83"/>
       <c r="H324" s="95"/>
@@ -11675,7 +11744,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11692,7 +11761,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11709,7 +11778,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -11730,7 +11799,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11747,7 +11816,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="82"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -11774,7 +11843,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="82"/>
       <c r="B330" s="12" t="s">
         <v>13</v>
@@ -11787,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G330" s="86"/>
       <c r="H330" s="90"/>
@@ -11801,7 +11870,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="82"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11818,7 +11887,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="82"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -11835,7 +11904,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="82"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
@@ -11862,7 +11931,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="82"/>
       <c r="B334" s="28" t="s">
         <v>14</v>
@@ -11889,7 +11958,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="82"/>
       <c r="B335" s="28"/>
       <c r="C335" s="21"/>
@@ -11906,7 +11975,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="82"/>
       <c r="B336" s="101" t="s">
         <v>16</v>
@@ -11937,7 +12006,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="82"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
@@ -11966,7 +12035,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="82"/>
       <c r="B338" s="28" t="s">
         <v>16</v>
@@ -11993,7 +12062,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="82"/>
       <c r="B339" s="101" t="s">
         <v>16</v>
@@ -12024,7 +12093,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="82"/>
       <c r="B340" s="28" t="s">
         <v>16</v>
@@ -12050,7 +12119,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="82"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
@@ -12065,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="F341" s="30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G341" s="90"/>
       <c r="H341" s="93"/>
@@ -12076,7 +12145,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="82"/>
       <c r="B342" s="101" t="s">
         <v>17</v>
@@ -12104,7 +12173,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="82"/>
       <c r="B343" s="101" t="s">
         <v>17</v>
@@ -12132,7 +12201,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="82"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
@@ -12158,7 +12227,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="82"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
@@ -12182,7 +12251,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="82"/>
       <c r="B346" s="28" t="s">
         <v>17</v>
@@ -12206,7 +12275,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="82"/>
       <c r="B347" s="101" t="s">
         <v>17</v>
@@ -12234,47 +12303,61 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="82"/>
-      <c r="B348" s="28" t="s">
+      <c r="B348" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C348" s="21" t="s">
+      <c r="C348" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="D348" s="21" t="s">
+      <c r="D348" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="E348" s="22" t="s">
+      <c r="E348" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="F348" s="30">
+      <c r="F348" s="103">
         <v>4</v>
       </c>
       <c r="G348" s="90">
         <v>45568</v>
       </c>
-      <c r="H348" s="94"/>
+      <c r="H348" s="94">
+        <v>45708</v>
+      </c>
       <c r="I348" s="93"/>
       <c r="J348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="82"/>
-      <c r="B349" s="28"/>
-      <c r="C349" s="21"/>
-      <c r="D349" s="21"/>
-      <c r="E349" s="22"/>
-      <c r="F349" s="30"/>
-      <c r="G349" s="86"/>
+      <c r="B349" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D349" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E349" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F349" s="30">
+        <v>0</v>
+      </c>
+      <c r="G349" s="90">
+        <v>45708</v>
+      </c>
       <c r="H349" s="94"/>
       <c r="I349" s="93"/>
       <c r="J349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="82"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -12288,7 +12371,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -12299,7 +12382,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G351" s="86"/>
       <c r="H351" s="93"/>
@@ -12308,7 +12391,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12322,7 +12405,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>119</v>
@@ -12337,7 +12420,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -12348,7 +12431,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -12369,7 +12452,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="113" t="s">
         <v>13</v>
       </c>
@@ -12392,7 +12475,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="104" t="s">
         <v>13</v>
       </c>
@@ -12415,7 +12498,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="21" t="s">
         <v>13</v>
       </c>
@@ -12436,7 +12519,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
@@ -12457,7 +12540,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="28" t="s">
         <v>14</v>
       </c>
@@ -12478,7 +12561,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
@@ -12489,7 +12572,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
@@ -12503,7 +12586,7 @@
         <v>26</v>
       </c>
       <c r="F363" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -12512,7 +12595,7 @@
       </c>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
@@ -12533,7 +12616,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="101" t="s">
         <v>16</v>
       </c>
@@ -12558,7 +12641,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="101" t="s">
         <v>16</v>
       </c>
@@ -12583,7 +12666,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28" t="s">
         <v>16</v>
       </c>
@@ -12606,7 +12689,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="101" t="s">
         <v>17</v>
       </c>
@@ -12631,7 +12714,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="101" t="s">
         <v>17</v>
       </c>
@@ -12656,7 +12739,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
@@ -12679,7 +12762,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
@@ -12702,7 +12785,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="101" t="s">
         <v>17</v>
       </c>
@@ -12727,7 +12810,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="101" t="s">
         <v>17</v>
       </c>
@@ -12752,7 +12835,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28" t="s">
         <v>17</v>
       </c>
@@ -12777,7 +12860,7 @@
       </c>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28" t="s">
         <v>17</v>
       </c>
@@ -12798,7 +12881,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="101" t="s">
         <v>17</v>
       </c>
@@ -12823,7 +12906,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B377" s="28" t="s">
         <v>17</v>
       </c>
@@ -12846,7 +12929,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -12856,14 +12939,14 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
         <v>179</v>
@@ -12874,14 +12957,14 @@
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="5"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B383" s="6" t="s">
         <v>3</v>
       </c>
@@ -12898,7 +12981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="12" t="s">
         <v>13</v>
       </c>
@@ -12909,21 +12992,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
       <c r="E386" s="22"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -12934,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="28" t="s">
         <v>14</v>
       </c>
@@ -12945,14 +13028,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="101"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -12963,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -12974,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="28" t="s">
         <v>16</v>
       </c>
@@ -12985,21 +13068,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="28"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
       <c r="E393" s="22"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="28"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
       <c r="E394" s="22"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -13010,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -13021,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -13032,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -13043,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -13054,42 +13137,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="101"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="101"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
       <c r="E403" s="22"/>
       <c r="F403" s="21"/>
     </row>
-    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B404" s="21"/>
       <c r="C404" s="33"/>
       <c r="D404" s="33"/>
       <c r="E404" s="34"/>
       <c r="F404" s="33"/>
     </row>
-    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
       <c r="D405" s="36"/>
@@ -13133,22 +13216,22 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -13165,7 +13248,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -13180,7 +13263,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -13193,7 +13276,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -13208,7 +13291,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -13221,7 +13304,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -13246,7 +13329,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
@@ -13258,10 +13341,10 @@
         <v>209</v>
       </c>
       <c r="E7" s="25">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" s="26">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G7" s="27">
         <v>26</v>
@@ -13271,7 +13354,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -13283,10 +13366,10 @@
         <v>118</v>
       </c>
       <c r="E8" s="25">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F8" s="26">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" s="27">
         <v>19</v>
@@ -13296,7 +13379,7 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
@@ -13308,70 +13391,70 @@
         <v>97</v>
       </c>
       <c r="E9" s="25">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="26">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="E10" s="25">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="59">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G10" s="60">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="E11" s="25">
         <v>42</v>
       </c>
       <c r="F11" s="26">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="27">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
@@ -13383,10 +13466,10 @@
         <v>88</v>
       </c>
       <c r="E12" s="25">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="26">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="27">
         <v>29</v>
@@ -13396,7 +13479,7 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
@@ -13408,20 +13491,20 @@
         <v>75</v>
       </c>
       <c r="E13" s="25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="26">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
@@ -13429,24 +13512,24 @@
       <c r="C14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="58" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="25">
         <v>33</v>
       </c>
-      <c r="F14" s="26">
-        <v>76</v>
-      </c>
-      <c r="G14" s="27">
-        <v>43</v>
+      <c r="F14" s="59">
+        <v>78</v>
+      </c>
+      <c r="G14" s="60">
+        <v>45</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
@@ -13460,10 +13543,10 @@
       <c r="E15" s="25">
         <v>31</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="26">
         <v>57</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="27">
         <v>26</v>
       </c>
       <c r="H15" s="55"/>
@@ -13471,7 +13554,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
@@ -13483,10 +13566,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" s="26">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="27">
         <v>41</v>
@@ -13496,7 +13579,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
@@ -13508,20 +13591,20 @@
         <v>15</v>
       </c>
       <c r="E17" s="25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="59">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="60">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
@@ -13529,24 +13612,24 @@
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="26">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G18" s="27">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -13558,10 +13641,10 @@
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="26">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" s="27">
         <v>46</v>
@@ -13571,7 +13654,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
       <c r="B20" s="57">
         <v>14</v>
@@ -13583,20 +13666,20 @@
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="F20" s="26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" s="27">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -13609,7 +13692,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -13640,20 +13723,20 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F20"/>
+      <selection activeCell="B3" sqref="B3:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="65" t="s">
         <v>194</v>
       </c>
@@ -13663,7 +13746,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -13671,7 +13754,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="66" t="s">
         <v>44</v>
       </c>
@@ -13681,7 +13764,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
@@ -13694,17 +13777,17 @@
       <c r="D4" s="67">
         <v>2</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="108">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>50</v>
       </c>
@@ -13727,7 +13810,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>51</v>
       </c>
@@ -13735,33 +13818,33 @@
         <v>267</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D6" s="67">
-        <v>1</v>
-      </c>
-      <c r="E6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="108">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="67">
-        <v>2</v>
+      <c r="C7" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="108">
+        <v>1</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>88</v>
@@ -13773,7 +13856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>53</v>
       </c>
@@ -13796,7 +13879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>54</v>
       </c>
@@ -13819,7 +13902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -13828,7 +13911,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="64"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="66" t="s">
         <v>170</v>
       </c>
@@ -13838,7 +13921,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>55</v>
       </c>
@@ -13849,7 +13932,7 @@
       <c r="F12" s="72"/>
       <c r="G12" s="108"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71"/>
@@ -13858,7 +13941,7 @@
       <c r="F13" s="72"/>
       <c r="G13" s="108"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="70"/>
       <c r="B14" s="66" t="s">
         <v>71</v>
@@ -13869,7 +13952,7 @@
       <c r="F14" s="71"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
@@ -13880,7 +13963,7 @@
       <c r="F15" s="71"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>57</v>
       </c>
@@ -13891,7 +13974,7 @@
       <c r="F16" s="72"/>
       <c r="G16" s="108"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
         <v>72</v>
       </c>
@@ -13902,7 +13985,7 @@
       <c r="F17" s="71"/>
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
         <v>93</v>
       </c>
@@ -13913,7 +13996,7 @@
       <c r="F18" s="72"/>
       <c r="G18" s="108"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="68"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -13921,7 +14004,7 @@
       <c r="F19" s="69"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="68"/>
       <c r="C20" s="67"/>
       <c r="D20" s="64"/>
@@ -13929,7 +14012,7 @@
       <c r="F20" s="69"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="66" t="s">
         <v>45</v>
       </c>
@@ -13939,7 +14022,7 @@
       <c r="F21" s="69"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
         <v>94</v>
       </c>
@@ -13950,7 +14033,7 @@
       <c r="F22" s="72"/>
       <c r="G22" s="108"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
         <v>96</v>
       </c>
@@ -13961,7 +14044,7 @@
       <c r="F23" s="72"/>
       <c r="G23" s="108"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="67"/>
@@ -13969,7 +14052,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="66" t="s">
         <v>46</v>
       </c>
@@ -13979,7 +14062,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
         <v>176</v>
       </c>
@@ -13990,7 +14073,7 @@
       <c r="F26" s="71"/>
       <c r="G26" s="67"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="67"/>
@@ -13998,7 +14081,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="66" t="s">
         <v>47</v>
       </c>
@@ -14009,7 +14092,7 @@
       <c r="G28" s="43"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="68"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{137F18B5-F53C-4947-B1E5-9555A7165B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9268425A-7187-4F15-8AE2-587AD56482C8}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{137F18B5-F53C-4947-B1E5-9555A7165B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9AAEF94-EC70-45E7-855D-3FF91E889C13}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table!$A$6:$IV$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="382">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t>GRIMSBY</t>
+  </si>
+  <si>
+    <t>MARCO ASENSIO</t>
   </si>
 </sst>
 </file>
@@ -3105,7 +3108,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -3119,34 +3122,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX405"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O18"/>
+    <sheetView showGridLines="0" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="80" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="80" customWidth="1"/>
     <col min="2" max="2" width="16" style="80" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="80" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="80" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="80" customWidth="1"/>
     <col min="6" max="6" width="17" style="80" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="80" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.296875" style="80" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="80" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="80" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="80" customWidth="1"/>
     <col min="13" max="14" width="12" style="80" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" style="80" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="80" customWidth="1"/>
     <col min="16" max="17" width="9" style="80" customWidth="1"/>
-    <col min="18" max="18" width="32.296875" style="80" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.33203125" style="80" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" style="80" customWidth="1"/>
-    <col min="22" max="22" width="30.09765625" style="80" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.109375" style="80" bestFit="1" customWidth="1"/>
     <col min="23" max="258" width="9" style="80" customWidth="1"/>
     <col min="259" max="16384" width="9" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +3168,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3186,7 +3189,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3203,7 +3206,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3245,7 +3248,7 @@
       <c r="U4" s="122"/>
       <c r="V4" s="122"/>
     </row>
-    <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="113" t="s">
         <v>13</v>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
@@ -3292,7 +3295,7 @@
       <c r="T5" s="109"/>
       <c r="U5" s="110"/>
     </row>
-    <row r="6" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="21" t="s">
         <v>13</v>
@@ -3323,21 +3326,21 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S6" s="110"/>
       <c r="T6" s="109"/>
       <c r="U6" s="110"/>
     </row>
-    <row r="7" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3358,21 +3361,21 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S7" s="110"/>
       <c r="T7" s="109"/>
       <c r="U7" s="110"/>
     </row>
-    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="28" t="s">
         <v>14</v>
@@ -3406,14 +3409,14 @@
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="28" t="s">
         <v>14</v>
@@ -3444,18 +3447,18 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F134)</f>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82"/>
       <c r="B10" s="101" t="s">
         <v>16</v>
@@ -3490,15 +3493,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F144:F161)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F141:F143)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R10" s="122"/>
       <c r="S10" s="122"/>
@@ -3506,7 +3509,7 @@
       <c r="U10" s="122"/>
       <c r="V10" s="122"/>
     </row>
-    <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82"/>
       <c r="B11" s="101" t="s">
         <v>16</v>
@@ -3541,21 +3544,21 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F171:F188)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F168:F170)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" s="110"/>
       <c r="T11" s="109"/>
       <c r="U11" s="110"/>
     </row>
-    <row r="12" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82"/>
       <c r="B12" s="28" t="s">
         <v>16</v>
@@ -3592,14 +3595,14 @@
       </c>
       <c r="N12" s="76">
         <f>SUM(F198:F215)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F195:F197)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="82"/>
       <c r="B13" s="101" t="s">
         <v>16</v>
@@ -3634,11 +3637,11 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="76">
         <f>SUM(F225:F242)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F222:F224)</f>
@@ -3650,7 +3653,7 @@
       <c r="U13" s="122"/>
       <c r="V13" s="122"/>
     </row>
-    <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="82"/>
       <c r="B14" s="101" t="s">
         <v>16</v>
@@ -3685,21 +3688,21 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F252:F269)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F249:F251)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S14" s="110"/>
       <c r="T14" s="109"/>
       <c r="U14" s="110"/>
     </row>
-    <row r="15" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="101" t="s">
         <v>16</v>
@@ -3734,18 +3737,18 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F278:F296)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F276:F277)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82"/>
       <c r="B16" s="28" t="s">
         <v>16</v>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="N16" s="26">
         <f>SUM(F306:F323)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F303:F305)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="28" t="s">
         <v>16</v>
@@ -3822,11 +3825,11 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F333:F350)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F330:F332)</f>
@@ -3838,7 +3841,7 @@
       <c r="U17" s="122"/>
       <c r="V17" s="122"/>
     </row>
-    <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="82"/>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -3869,7 +3872,7 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F360:F377)</f>
@@ -3877,13 +3880,13 @@
       </c>
       <c r="O18" s="27">
         <f>SUM(F357:F359)</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S18" s="110"/>
       <c r="T18" s="109"/>
       <c r="U18" s="110"/>
     </row>
-    <row r="19" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="82"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -3898,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="87"/>
@@ -3910,7 +3913,7 @@
       <c r="N19" s="91"/>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
       <c r="B20" s="101" t="s">
         <v>17</v>
@@ -3946,7 +3949,7 @@
       <c r="U20" s="122"/>
       <c r="V20" s="122"/>
     </row>
-    <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
       <c r="B21" s="28" t="s">
         <v>17</v>
@@ -3961,7 +3964,7 @@
         <v>274</v>
       </c>
       <c r="F21" s="30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="90">
         <v>45526</v>
@@ -3978,7 +3981,7 @@
       <c r="T21" s="109"/>
       <c r="U21" s="110"/>
     </row>
-    <row r="22" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
       <c r="B22" s="101" t="s">
         <v>17</v>
@@ -4009,7 +4012,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
       <c r="B23" s="28" t="s">
         <v>17</v>
@@ -4038,7 +4041,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
       <c r="B24" s="101" t="s">
         <v>17</v>
@@ -4074,7 +4077,7 @@
       <c r="U24" s="122"/>
       <c r="V24" s="122"/>
     </row>
-    <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="82"/>
       <c r="B25" s="28" t="s">
         <v>17</v>
@@ -4106,7 +4109,7 @@
       <c r="T25" s="109"/>
       <c r="U25" s="110"/>
     </row>
-    <row r="26" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -4117,7 +4120,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4129,7 +4132,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4146,7 +4149,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4168,7 +4171,7 @@
       <c r="U28" s="122"/>
       <c r="V28" s="122"/>
     </row>
-    <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4189,7 +4192,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4206,7 +4209,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="82"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4233,7 +4236,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="82"/>
       <c r="B32" s="113" t="s">
         <v>13</v>
@@ -4262,7 +4265,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
       <c r="B33" s="21" t="s">
         <v>13</v>
@@ -4275,7 +4278,7 @@
         <v>274</v>
       </c>
       <c r="F33" s="21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" s="89">
         <v>45554</v>
@@ -4291,7 +4294,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4308,7 +4311,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
       <c r="B35" s="28" t="s">
         <v>14</v>
@@ -4335,7 +4338,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82"/>
       <c r="B36" s="28" t="s">
         <v>14</v>
@@ -4362,7 +4365,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4379,7 +4382,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
       <c r="B38" s="101" t="s">
         <v>16</v>
@@ -4415,7 +4418,7 @@
       <c r="U38" s="122"/>
       <c r="V38" s="122"/>
     </row>
-    <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
       <c r="B39" s="28" t="s">
         <v>16</v>
@@ -4430,7 +4433,7 @@
         <v>274</v>
       </c>
       <c r="F39" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="90">
         <v>45666</v>
@@ -4444,7 +4447,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
       <c r="B40" s="101" t="s">
         <v>16</v>
@@ -4475,7 +4478,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
       <c r="B41" s="28" t="s">
         <v>16</v>
@@ -4504,7 +4507,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
       <c r="B42" s="28" t="s">
         <v>16</v>
@@ -4519,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="90"/>
       <c r="H42" s="94"/>
@@ -4531,7 +4534,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="28" t="s">
         <v>17</v>
@@ -4546,7 +4549,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="90"/>
@@ -4558,7 +4561,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
       <c r="B44" s="101" t="s">
         <v>17</v>
@@ -4589,7 +4592,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
       <c r="B45" s="28" t="s">
         <v>17</v>
@@ -4618,7 +4621,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
       <c r="B46" s="101" t="s">
         <v>17</v>
@@ -4649,7 +4652,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
       <c r="B47" s="101" t="s">
         <v>17</v>
@@ -4680,7 +4683,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
       <c r="B48" s="28" t="s">
         <v>17</v>
@@ -4709,7 +4712,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="82"/>
       <c r="B49" s="101" t="s">
         <v>17</v>
@@ -4740,7 +4743,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
       <c r="B50" s="28" t="s">
         <v>17</v>
@@ -4769,7 +4772,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="82"/>
       <c r="B51" s="101" t="s">
         <v>17</v>
@@ -4800,7 +4803,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="82"/>
       <c r="B52" s="28" t="s">
         <v>17</v>
@@ -4829,7 +4832,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -4840,7 +4843,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -4852,7 +4855,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4869,7 +4872,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4886,7 +4889,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4907,7 +4910,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4924,7 +4927,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="82"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4951,7 +4954,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4964,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G59" s="83"/>
       <c r="H59" s="95"/>
@@ -4978,7 +4981,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4995,7 +4998,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5012,7 +5015,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
       <c r="B62" s="101" t="s">
         <v>14</v>
@@ -5043,7 +5046,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
       <c r="B63" s="28" t="s">
         <v>14</v>
@@ -5072,7 +5075,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
       <c r="B64" s="28" t="s">
         <v>14</v>
@@ -5099,7 +5102,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
       <c r="B65" s="28" t="s">
         <v>16</v>
@@ -5126,7 +5129,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
       <c r="B66" s="101" t="s">
         <v>16</v>
@@ -5157,7 +5160,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
       <c r="B67" s="28" t="s">
         <v>16</v>
@@ -5186,7 +5189,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
       <c r="B68" s="101" t="s">
         <v>16</v>
@@ -5217,7 +5220,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
       <c r="B69" s="28" t="s">
         <v>16</v>
@@ -5246,7 +5249,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
       <c r="B70" s="28" t="s">
         <v>17</v>
@@ -5275,7 +5278,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="82"/>
       <c r="B71" s="28" t="s">
         <v>17</v>
@@ -5302,7 +5305,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="82"/>
       <c r="B72" s="101" t="s">
         <v>17</v>
@@ -5333,7 +5336,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="82"/>
       <c r="B73" s="101" t="s">
         <v>17</v>
@@ -5364,7 +5367,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="82"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
@@ -5393,7 +5396,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="82"/>
       <c r="B75" s="101" t="s">
         <v>17</v>
@@ -5424,7 +5427,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="82"/>
       <c r="B76" s="28" t="s">
         <v>17</v>
@@ -5439,7 +5442,7 @@
         <v>274</v>
       </c>
       <c r="F76" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="90">
         <v>45610</v>
@@ -5453,7 +5456,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="82"/>
       <c r="B77" s="101" t="s">
         <v>17</v>
@@ -5484,7 +5487,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="82"/>
       <c r="B78" s="28" t="s">
         <v>17</v>
@@ -5513,7 +5516,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="82"/>
       <c r="B79" s="21"/>
       <c r="C79" s="28"/>
@@ -5530,7 +5533,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -5541,7 +5544,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5553,7 +5556,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5570,7 +5573,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5587,7 +5590,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5608,7 +5611,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5625,7 +5628,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="82"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5652,7 +5655,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="82"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5665,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
@@ -5679,7 +5682,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="82"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5696,7 +5699,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="82"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5713,7 +5716,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="82"/>
       <c r="B89" s="28" t="s">
         <v>14</v>
@@ -5740,7 +5743,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="82"/>
       <c r="B90" s="28" t="s">
         <v>14</v>
@@ -5767,7 +5770,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="82"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -5784,7 +5787,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="82"/>
       <c r="B92" s="28" t="s">
         <v>16</v>
@@ -5813,7 +5816,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="82"/>
       <c r="B93" s="28" t="s">
         <v>16</v>
@@ -5840,7 +5843,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="82"/>
       <c r="B94" s="101" t="s">
         <v>16</v>
@@ -5871,7 +5874,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="82"/>
       <c r="B95" s="28" t="s">
         <v>16</v>
@@ -5886,7 +5889,7 @@
         <v>274</v>
       </c>
       <c r="F95" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G95" s="94">
         <v>45547</v>
@@ -5900,7 +5903,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="82"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -5917,7 +5920,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="82"/>
       <c r="B97" s="101" t="s">
         <v>17</v>
@@ -5948,7 +5951,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="82"/>
       <c r="B98" s="28" t="s">
         <v>17</v>
@@ -5977,7 +5980,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="82"/>
       <c r="B99" s="28" t="s">
         <v>17</v>
@@ -6004,7 +6007,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="82"/>
       <c r="B100" s="101" t="s">
         <v>17</v>
@@ -6035,7 +6038,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="82"/>
       <c r="B101" s="101" t="s">
         <v>17</v>
@@ -6066,7 +6069,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="82"/>
       <c r="B102" s="28" t="s">
         <v>17</v>
@@ -6081,7 +6084,7 @@
         <v>274</v>
       </c>
       <c r="F102" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102" s="90">
         <v>45680</v>
@@ -6095,7 +6098,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="82"/>
       <c r="B103" s="101" t="s">
         <v>17</v>
@@ -6126,7 +6129,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="82"/>
       <c r="B104" s="28" t="s">
         <v>17</v>
@@ -6135,13 +6138,13 @@
         <v>161</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="E104" s="29" t="s">
         <v>274</v>
       </c>
       <c r="F104" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G104" s="90">
         <v>45666</v>
@@ -6155,7 +6158,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="82"/>
       <c r="B105" s="101" t="s">
         <v>17</v>
@@ -6186,7 +6189,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="82"/>
       <c r="B106" s="28" t="s">
         <v>17</v>
@@ -6217,7 +6220,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -6240,7 +6243,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6257,7 +6260,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6274,7 +6277,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6295,7 +6298,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6312,7 +6315,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="82"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6339,7 +6342,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="82"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
@@ -6352,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="97"/>
@@ -6364,7 +6367,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="82"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -6381,7 +6384,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="82"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -6398,7 +6401,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="82"/>
       <c r="B116" s="28" t="s">
         <v>14</v>
@@ -6425,7 +6428,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="82"/>
       <c r="B117" s="28" t="s">
         <v>14</v>
@@ -6440,7 +6443,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G117" s="89"/>
       <c r="H117" s="97"/>
@@ -6452,7 +6455,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="82"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -6469,7 +6472,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="82"/>
       <c r="B119" s="28" t="s">
         <v>16</v>
@@ -6484,7 +6487,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G119" s="90"/>
       <c r="H119" s="94"/>
@@ -6496,7 +6499,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="82"/>
       <c r="B120" s="28" t="s">
         <v>16</v>
@@ -6511,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" s="90"/>
       <c r="H120" s="94"/>
@@ -6523,7 +6526,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="82"/>
       <c r="B121" s="101" t="s">
         <v>16</v>
@@ -6554,7 +6557,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="82"/>
       <c r="B122" s="101" t="s">
         <v>16</v>
@@ -6585,7 +6588,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="82"/>
       <c r="B123" s="28" t="s">
         <v>16</v>
@@ -6600,7 +6603,7 @@
         <v>274</v>
       </c>
       <c r="F123" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" s="90">
         <v>45645</v>
@@ -6614,7 +6617,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="82"/>
       <c r="B124" s="101" t="s">
         <v>17</v>
@@ -6645,7 +6648,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="82"/>
       <c r="B125" s="28" t="s">
         <v>17</v>
@@ -6674,7 +6677,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="82"/>
       <c r="B126" s="28" t="s">
         <v>17</v>
@@ -6703,7 +6706,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="82"/>
       <c r="B127" s="101" t="s">
         <v>17</v>
@@ -6734,7 +6737,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="82"/>
       <c r="B128" s="101" t="s">
         <v>17</v>
@@ -6765,7 +6768,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="82"/>
       <c r="B129" s="28" t="s">
         <v>17</v>
@@ -6796,7 +6799,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="82"/>
       <c r="B130" s="101" t="s">
         <v>17</v>
@@ -6827,7 +6830,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="82"/>
       <c r="B131" s="101" t="s">
         <v>17</v>
@@ -6858,7 +6861,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="82"/>
       <c r="B132" s="28" t="s">
         <v>17</v>
@@ -6873,7 +6876,7 @@
         <v>274</v>
       </c>
       <c r="F132" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="90">
         <v>45701</v>
@@ -6887,7 +6890,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="82"/>
       <c r="B133" s="28" t="s">
         <v>17</v>
@@ -6916,7 +6919,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="82"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -6933,7 +6936,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -6944,7 +6947,7 @@
       </c>
       <c r="F135" s="38">
         <f>SUM(F116:F134)-SUM(F113:F115)</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="95"/>
@@ -6956,7 +6959,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6973,7 +6976,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6990,7 +6993,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3" t="s">
@@ -7011,7 +7014,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7028,7 +7031,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="82"/>
       <c r="B140" s="6" t="s">
         <v>3</v>
@@ -7055,7 +7058,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="82"/>
       <c r="B141" s="12" t="s">
         <v>13</v>
@@ -7068,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G141" s="83"/>
       <c r="H141" s="97"/>
@@ -7080,7 +7083,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="82"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -7097,7 +7100,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="82"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -7114,7 +7117,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="82"/>
       <c r="B144" s="28" t="s">
         <v>14</v>
@@ -7141,7 +7144,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="82"/>
       <c r="B145" s="28" t="s">
         <v>14</v>
@@ -7168,7 +7171,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="82"/>
       <c r="B146" s="28"/>
       <c r="C146" s="21"/>
@@ -7185,7 +7188,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="82"/>
       <c r="B147" s="28" t="s">
         <v>16</v>
@@ -7212,7 +7215,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="82"/>
       <c r="B148" s="28" t="s">
         <v>16</v>
@@ -7238,25 +7241,29 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="82"/>
-      <c r="B149" s="28" t="s">
+      <c r="B149" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="D149" s="28" t="s">
+      <c r="D149" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="E149" s="29">
+      <c r="E149" s="102">
         <v>1</v>
       </c>
-      <c r="F149" s="30">
+      <c r="F149" s="103">
         <v>3</v>
       </c>
-      <c r="G149" s="90"/>
-      <c r="H149" s="90"/>
+      <c r="G149" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="H149" s="90">
+        <v>45722</v>
+      </c>
       <c r="I149" s="93"/>
       <c r="J149" s="79"/>
       <c r="K149" s="1"/>
@@ -7265,14 +7272,26 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="82"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="86"/>
+      <c r="B150" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F150" s="30">
+        <v>0</v>
+      </c>
+      <c r="G150" s="90">
+        <v>45722</v>
+      </c>
       <c r="H150" s="90"/>
       <c r="I150" s="93"/>
       <c r="J150" s="79"/>
@@ -7282,7 +7301,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="82"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -7299,7 +7318,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="82"/>
       <c r="B152" s="101" t="s">
         <v>17</v>
@@ -7330,7 +7349,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="82"/>
       <c r="B153" s="28" t="s">
         <v>17</v>
@@ -7345,7 +7364,7 @@
         <v>274</v>
       </c>
       <c r="F153" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G153" s="90">
         <v>45575</v>
@@ -7359,7 +7378,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="82"/>
       <c r="B154" s="28" t="s">
         <v>17</v>
@@ -7386,7 +7405,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="82"/>
       <c r="B155" s="101" t="s">
         <v>17</v>
@@ -7417,7 +7436,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="82"/>
       <c r="B156" s="101" t="s">
         <v>17</v>
@@ -7448,7 +7467,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="82"/>
       <c r="B157" s="101" t="s">
         <v>17</v>
@@ -7479,7 +7498,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="82"/>
       <c r="B158" s="28" t="s">
         <v>17</v>
@@ -7508,7 +7527,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="82"/>
       <c r="B159" s="101" t="s">
         <v>17</v>
@@ -7541,7 +7560,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="82"/>
       <c r="B160" s="28" t="s">
         <v>17</v>
@@ -7570,7 +7589,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="82"/>
       <c r="B161" s="28" t="s">
         <v>17</v>
@@ -7597,7 +7616,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
@@ -7608,7 +7627,7 @@
       </c>
       <c r="F162" s="38">
         <f>SUM(F144:F161)-SUM(F141:F143)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G162" s="83"/>
       <c r="H162" s="95"/>
@@ -7620,7 +7639,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7637,7 +7656,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7654,7 +7673,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3" t="s">
@@ -7675,7 +7694,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7692,7 +7711,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="82"/>
       <c r="B167" s="6" t="s">
         <v>3</v>
@@ -7719,7 +7738,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="82"/>
       <c r="B168" s="113" t="s">
         <v>13</v>
@@ -7748,7 +7767,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="82"/>
       <c r="B169" s="21" t="s">
         <v>13</v>
@@ -7761,7 +7780,7 @@
         <v>274</v>
       </c>
       <c r="F169" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G169" s="89">
         <v>45652</v>
@@ -7777,7 +7796,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="82"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -7794,7 +7813,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="82"/>
       <c r="B171" s="28" t="s">
         <v>14</v>
@@ -7809,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="F171" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" s="86"/>
       <c r="H171" s="94"/>
@@ -7821,7 +7840,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="82"/>
       <c r="B172" s="101" t="s">
         <v>14</v>
@@ -7852,7 +7871,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="82"/>
       <c r="B173" s="28" t="s">
         <v>14</v>
@@ -7881,7 +7900,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="82"/>
       <c r="B174" s="28" t="s">
         <v>16</v>
@@ -7896,7 +7915,7 @@
         <v>5</v>
       </c>
       <c r="F174" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G174" s="86"/>
       <c r="H174" s="94"/>
@@ -7908,7 +7927,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="82"/>
       <c r="B175" s="101" t="s">
         <v>16</v>
@@ -7939,7 +7958,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="82"/>
       <c r="B176" s="28" t="s">
         <v>16</v>
@@ -7968,7 +7987,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="82"/>
       <c r="B177" s="101" t="s">
         <v>16</v>
@@ -7999,7 +8018,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="82"/>
       <c r="B178" s="28" t="s">
         <v>16</v>
@@ -8014,7 +8033,7 @@
         <v>274</v>
       </c>
       <c r="F178" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G178" s="94">
         <v>45694</v>
@@ -8028,7 +8047,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="82"/>
       <c r="B179" s="28" t="s">
         <v>17</v>
@@ -8043,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G179" s="86"/>
       <c r="H179" s="94"/>
@@ -8055,7 +8074,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="82"/>
       <c r="B180" s="28" t="s">
         <v>17</v>
@@ -8082,7 +8101,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="82"/>
       <c r="B181" s="101" t="s">
         <v>17</v>
@@ -8113,7 +8132,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="82"/>
       <c r="B182" s="101" t="s">
         <v>17</v>
@@ -8144,7 +8163,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="82"/>
       <c r="B183" s="101" t="s">
         <v>17</v>
@@ -8175,7 +8194,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="82"/>
       <c r="B184" s="28" t="s">
         <v>17</v>
@@ -8190,7 +8209,7 @@
         <v>274</v>
       </c>
       <c r="F184" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="94">
         <v>45694</v>
@@ -8204,7 +8223,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="82"/>
       <c r="B185" s="28" t="s">
         <v>17</v>
@@ -8233,7 +8252,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="82"/>
       <c r="B186" s="28" t="s">
         <v>17</v>
@@ -8248,7 +8267,7 @@
         <v>2</v>
       </c>
       <c r="F186" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G186" s="94"/>
       <c r="H186" s="90"/>
@@ -8260,7 +8279,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="82"/>
       <c r="B187" s="101"/>
       <c r="C187" s="101"/>
@@ -8277,7 +8296,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="82"/>
       <c r="B188" s="21"/>
       <c r="C188" s="28"/>
@@ -8294,7 +8313,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
@@ -8305,7 +8324,7 @@
       </c>
       <c r="F189" s="38">
         <f>SUM(F171:F188)-SUM(F168:F170)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G189" s="83"/>
       <c r="H189" s="95"/>
@@ -8317,7 +8336,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8334,7 +8353,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8351,7 +8370,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3" t="s">
@@ -8372,7 +8391,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8389,7 +8408,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="82"/>
       <c r="B194" s="6" t="s">
         <v>3</v>
@@ -8416,7 +8435,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="82"/>
       <c r="B195" s="12" t="s">
         <v>13</v>
@@ -8429,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G195" s="83"/>
       <c r="H195" s="97"/>
@@ -8443,7 +8462,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="82"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8460,7 +8479,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="82"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -8477,7 +8496,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="82"/>
       <c r="B198" s="28" t="s">
         <v>14</v>
@@ -8504,7 +8523,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="82"/>
       <c r="B199" s="28" t="s">
         <v>14</v>
@@ -8531,7 +8550,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="82"/>
       <c r="B200" s="101"/>
       <c r="C200" s="28"/>
@@ -8548,7 +8567,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="82"/>
       <c r="B201" s="28" t="s">
         <v>16</v>
@@ -8577,7 +8596,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="82"/>
       <c r="B202" s="28" t="s">
         <v>16</v>
@@ -8604,7 +8623,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="82"/>
       <c r="B203" s="101" t="s">
         <v>16</v>
@@ -8635,7 +8654,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="82"/>
       <c r="B204" s="28" t="s">
         <v>16</v>
@@ -8664,7 +8683,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="82"/>
       <c r="B205" s="28"/>
       <c r="C205" s="21"/>
@@ -8681,7 +8700,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="82"/>
       <c r="B206" s="28" t="s">
         <v>17</v>
@@ -8708,7 +8727,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="82"/>
       <c r="B207" s="28" t="s">
         <v>17</v>
@@ -8735,7 +8754,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="82"/>
       <c r="B208" s="28" t="s">
         <v>17</v>
@@ -8750,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G208" s="86"/>
       <c r="H208" s="93"/>
@@ -8762,7 +8781,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="82"/>
       <c r="B209" s="28" t="s">
         <v>17</v>
@@ -8789,7 +8808,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="82"/>
       <c r="B210" s="28" t="s">
         <v>17</v>
@@ -8816,7 +8835,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="82"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8833,7 +8852,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="82"/>
       <c r="B212" s="101"/>
       <c r="C212" s="28"/>
@@ -8850,7 +8869,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="82"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -8867,7 +8886,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="82"/>
       <c r="B214" s="101"/>
       <c r="C214" s="21"/>
@@ -8884,7 +8903,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="82"/>
       <c r="B215" s="21"/>
       <c r="C215" s="33"/>
@@ -8901,7 +8920,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
@@ -8924,7 +8943,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8941,7 +8960,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8958,7 +8977,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3" t="s">
@@ -8979,7 +8998,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8996,7 +9015,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="82"/>
       <c r="B221" s="6" t="s">
         <v>3</v>
@@ -9023,7 +9042,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="61"/>
       <c r="B222" s="113" t="s">
         <v>13</v>
@@ -9052,7 +9071,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="82"/>
       <c r="B223" s="21" t="s">
         <v>13</v>
@@ -9079,7 +9098,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="82"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -9096,7 +9115,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="82"/>
       <c r="B225" s="28" t="s">
         <v>14</v>
@@ -9123,7 +9142,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="82"/>
       <c r="B226" s="28" t="s">
         <v>14</v>
@@ -9150,7 +9169,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="82"/>
       <c r="B227" s="28"/>
       <c r="C227" s="21"/>
@@ -9167,7 +9186,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="82"/>
       <c r="B228" s="28" t="s">
         <v>16</v>
@@ -9194,7 +9213,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="82"/>
       <c r="B229" s="101" t="s">
         <v>16</v>
@@ -9225,7 +9244,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="82"/>
       <c r="B230" s="28" t="s">
         <v>16</v>
@@ -9254,7 +9273,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="82"/>
       <c r="B231" s="28" t="s">
         <v>16</v>
@@ -9281,7 +9300,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="82"/>
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
@@ -9298,7 +9317,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="82"/>
       <c r="B233" s="101" t="s">
         <v>17</v>
@@ -9329,7 +9348,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="82"/>
       <c r="B234" s="101" t="s">
         <v>17</v>
@@ -9360,7 +9379,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="82"/>
       <c r="B235" s="28" t="s">
         <v>17</v>
@@ -9391,7 +9410,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="82"/>
       <c r="B236" s="28" t="s">
         <v>17</v>
@@ -9418,7 +9437,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="82"/>
       <c r="B237" s="101" t="s">
         <v>17</v>
@@ -9449,7 +9468,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="82"/>
       <c r="B238" s="28" t="s">
         <v>17</v>
@@ -9480,7 +9499,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="82"/>
       <c r="B239" s="28" t="s">
         <v>17</v>
@@ -9495,7 +9514,7 @@
         <v>8</v>
       </c>
       <c r="F239" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G239" s="90"/>
       <c r="H239" s="94"/>
@@ -9509,7 +9528,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="82"/>
       <c r="B240" s="101" t="s">
         <v>17</v>
@@ -9540,7 +9559,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="82"/>
       <c r="B241" s="101" t="s">
         <v>17</v>
@@ -9571,7 +9590,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="82"/>
       <c r="B242" s="28" t="s">
         <v>17</v>
@@ -9600,7 +9619,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="35"/>
       <c r="C243" s="35"/>
@@ -9611,7 +9630,7 @@
       </c>
       <c r="F243" s="38">
         <f>SUM(F225:F242)-SUM(F222:F224)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G243" s="83"/>
       <c r="H243" s="95"/>
@@ -9623,7 +9642,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9640,7 +9659,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9657,7 +9676,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="3" t="s">
@@ -9678,7 +9697,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -9695,7 +9714,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="82"/>
       <c r="B248" s="6" t="s">
         <v>3</v>
@@ -9714,7 +9733,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="82"/>
       <c r="B249" s="113" t="s">
         <v>13</v>
@@ -9743,7 +9762,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="82"/>
       <c r="B250" s="21" t="s">
         <v>13</v>
@@ -9756,7 +9775,7 @@
         <v>274</v>
       </c>
       <c r="F250" s="21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G250" s="89">
         <v>45561</v>
@@ -9770,7 +9789,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="82"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -9787,7 +9806,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="82"/>
       <c r="B252" s="28" t="s">
         <v>14</v>
@@ -9814,7 +9833,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="82"/>
       <c r="B253" s="28" t="s">
         <v>14</v>
@@ -9841,7 +9860,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="82"/>
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
@@ -9858,7 +9877,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="82"/>
       <c r="B255" s="101" t="s">
         <v>16</v>
@@ -9889,7 +9908,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="82"/>
       <c r="B256" s="101" t="s">
         <v>16</v>
@@ -9920,7 +9939,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="82"/>
       <c r="B257" s="28" t="s">
         <v>16</v>
@@ -9935,7 +9954,7 @@
         <v>274</v>
       </c>
       <c r="F257" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G257" s="90">
         <v>45631</v>
@@ -9949,7 +9968,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="82"/>
       <c r="B258" s="101" t="s">
         <v>16</v>
@@ -9980,7 +9999,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="82"/>
       <c r="B259" s="28" t="s">
         <v>16</v>
@@ -10009,7 +10028,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="82"/>
       <c r="B260" s="28" t="s">
         <v>16</v>
@@ -10036,7 +10055,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="82"/>
       <c r="B261" s="28" t="s">
         <v>17</v>
@@ -10065,7 +10084,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="82"/>
       <c r="B262" s="28" t="s">
         <v>17</v>
@@ -10092,7 +10111,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="82"/>
       <c r="B263" s="101" t="s">
         <v>17</v>
@@ -10123,7 +10142,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="82"/>
       <c r="B264" s="28" t="s">
         <v>17</v>
@@ -10138,7 +10157,7 @@
         <v>274</v>
       </c>
       <c r="F264" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" s="90">
         <v>45687</v>
@@ -10152,7 +10171,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="82"/>
       <c r="B265" s="101" t="s">
         <v>17</v>
@@ -10183,7 +10202,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="82"/>
       <c r="B266" s="28" t="s">
         <v>17</v>
@@ -10212,7 +10231,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="82"/>
       <c r="B267" s="101" t="s">
         <v>17</v>
@@ -10243,7 +10262,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="82"/>
       <c r="B268" s="101" t="s">
         <v>17</v>
@@ -10274,7 +10293,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="82"/>
       <c r="B269" s="28" t="s">
         <v>17</v>
@@ -10305,7 +10324,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
@@ -10316,7 +10335,7 @@
       </c>
       <c r="F270" s="38">
         <f>SUM(F252:F269)-SUM(F249:F251)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G270" s="83"/>
       <c r="H270" s="95"/>
@@ -10328,7 +10347,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10345,7 +10364,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10362,7 +10381,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1" t="s">
@@ -10383,7 +10402,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -10400,7 +10419,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="82"/>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -10427,7 +10446,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="82"/>
       <c r="B276" s="113" t="s">
         <v>13</v>
@@ -10456,7 +10475,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="82"/>
       <c r="B277" s="21" t="s">
         <v>13</v>
@@ -10469,7 +10488,7 @@
         <v>274</v>
       </c>
       <c r="F277" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G277" s="89">
         <v>45568</v>
@@ -10485,7 +10504,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="82"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -10502,7 +10521,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="82"/>
       <c r="B279" s="28" t="s">
         <v>14</v>
@@ -10529,7 +10548,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="82"/>
       <c r="B280" s="101" t="s">
         <v>14</v>
@@ -10560,7 +10579,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="82"/>
       <c r="B281" s="28" t="s">
         <v>14</v>
@@ -10589,7 +10608,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="82"/>
       <c r="B282" s="28" t="s">
         <v>16</v>
@@ -10616,7 +10635,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="82"/>
       <c r="B283" s="28" t="s">
         <v>16</v>
@@ -10631,7 +10650,7 @@
         <v>16</v>
       </c>
       <c r="F283" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G283" s="94"/>
       <c r="H283" s="94"/>
@@ -10643,7 +10662,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="82"/>
       <c r="B284" s="28" t="s">
         <v>16</v>
@@ -10672,7 +10691,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="82"/>
       <c r="B285" s="28"/>
       <c r="C285" s="21"/>
@@ -10689,7 +10708,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="82"/>
       <c r="B286" s="28"/>
       <c r="C286" s="21"/>
@@ -10706,7 +10725,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="82"/>
       <c r="B287" s="28" t="s">
         <v>17</v>
@@ -10721,7 +10740,7 @@
         <v>36</v>
       </c>
       <c r="F287" s="30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G287" s="86"/>
       <c r="H287" s="94"/>
@@ -10733,7 +10752,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="82"/>
       <c r="B288" s="101" t="s">
         <v>17</v>
@@ -10764,7 +10783,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="82"/>
       <c r="B289" s="28" t="s">
         <v>17</v>
@@ -10793,7 +10812,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="82"/>
       <c r="B290" s="28" t="s">
         <v>17</v>
@@ -10820,7 +10839,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="82"/>
       <c r="B291" s="101" t="s">
         <v>17</v>
@@ -10851,7 +10870,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="82"/>
       <c r="B292" s="101" t="s">
         <v>17</v>
@@ -10882,7 +10901,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="82"/>
       <c r="B293" s="101" t="s">
         <v>17</v>
@@ -10913,7 +10932,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="82"/>
       <c r="B294" s="28" t="s">
         <v>17</v>
@@ -10942,7 +10961,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="82"/>
       <c r="B295" s="28" t="s">
         <v>17</v>
@@ -10973,7 +10992,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="82"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -10990,7 +11009,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
@@ -11001,7 +11020,7 @@
       </c>
       <c r="F297" s="38">
         <f>SUM(F278:F296)-SUM(F276:F277)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G297" s="83"/>
       <c r="H297" s="95"/>
@@ -11013,7 +11032,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11030,7 +11049,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11047,7 +11066,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1" t="s">
@@ -11068,7 +11087,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11085,7 +11104,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="82"/>
       <c r="B302" s="6" t="s">
         <v>3</v>
@@ -11112,7 +11131,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="82"/>
       <c r="B303" s="113" t="s">
         <v>13</v>
@@ -11141,7 +11160,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="82"/>
       <c r="B304" s="21" t="s">
         <v>13</v>
@@ -11154,7 +11173,7 @@
         <v>274</v>
       </c>
       <c r="F304" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G304" s="90">
         <v>45680</v>
@@ -11168,7 +11187,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="82"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -11185,7 +11204,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="82"/>
       <c r="B306" s="28" t="s">
         <v>14</v>
@@ -11212,7 +11231,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="82"/>
       <c r="B307" s="28" t="s">
         <v>14</v>
@@ -11239,7 +11258,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="82"/>
       <c r="B308" s="101" t="s">
         <v>16</v>
@@ -11270,7 +11289,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="82"/>
       <c r="B309" s="28" t="s">
         <v>16</v>
@@ -11301,7 +11320,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="82"/>
       <c r="B310" s="101" t="s">
         <v>16</v>
@@ -11332,7 +11351,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="82"/>
       <c r="B311" s="28" t="s">
         <v>16</v>
@@ -11361,7 +11380,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="82"/>
       <c r="B312" s="101" t="s">
         <v>16</v>
@@ -11392,7 +11411,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="82"/>
       <c r="B313" s="101" t="s">
         <v>16</v>
@@ -11423,7 +11442,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="82"/>
       <c r="B314" s="101" t="s">
         <v>16</v>
@@ -11454,7 +11473,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="82"/>
       <c r="B315" s="28" t="s">
         <v>16</v>
@@ -11483,7 +11502,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="82"/>
       <c r="B316" s="28" t="s">
         <v>17</v>
@@ -11510,7 +11529,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="82"/>
       <c r="B317" s="28" t="s">
         <v>17</v>
@@ -11525,7 +11544,7 @@
         <v>7</v>
       </c>
       <c r="F317" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G317" s="90"/>
       <c r="H317" s="94"/>
@@ -11539,7 +11558,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="82"/>
       <c r="B318" s="101" t="s">
         <v>17</v>
@@ -11570,7 +11589,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="82"/>
       <c r="B319" s="28" t="s">
         <v>17</v>
@@ -11601,7 +11620,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="82"/>
       <c r="B320" s="101" t="s">
         <v>17</v>
@@ -11632,7 +11651,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="82"/>
       <c r="B321" s="28" t="s">
         <v>17</v>
@@ -11661,7 +11680,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="82"/>
       <c r="B322" s="101" t="s">
         <v>17</v>
@@ -11692,7 +11711,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="82"/>
       <c r="B323" s="28" t="s">
         <v>17</v>
@@ -11721,7 +11740,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
@@ -11744,7 +11763,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11761,7 +11780,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11778,7 +11797,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
@@ -11799,7 +11818,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11816,7 +11835,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="82"/>
       <c r="B329" s="6" t="s">
         <v>3</v>
@@ -11843,7 +11862,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="82"/>
       <c r="B330" s="12" t="s">
         <v>13</v>
@@ -11870,7 +11889,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="82"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11887,7 +11906,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="82"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -11904,7 +11923,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="82"/>
       <c r="B333" s="28" t="s">
         <v>14</v>
@@ -11931,7 +11950,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="82"/>
       <c r="B334" s="28" t="s">
         <v>14</v>
@@ -11958,7 +11977,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="82"/>
       <c r="B335" s="28"/>
       <c r="C335" s="21"/>
@@ -11975,7 +11994,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="82"/>
       <c r="B336" s="101" t="s">
         <v>16</v>
@@ -12006,7 +12025,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="82"/>
       <c r="B337" s="28" t="s">
         <v>16</v>
@@ -12035,7 +12054,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="82"/>
       <c r="B338" s="28" t="s">
         <v>16</v>
@@ -12062,7 +12081,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="82"/>
       <c r="B339" s="101" t="s">
         <v>16</v>
@@ -12093,7 +12112,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="82"/>
       <c r="B340" s="28" t="s">
         <v>16</v>
@@ -12119,7 +12138,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="82"/>
       <c r="B341" s="28" t="s">
         <v>17</v>
@@ -12145,7 +12164,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="82"/>
       <c r="B342" s="101" t="s">
         <v>17</v>
@@ -12173,7 +12192,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="82"/>
       <c r="B343" s="101" t="s">
         <v>17</v>
@@ -12201,7 +12220,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="82"/>
       <c r="B344" s="28" t="s">
         <v>17</v>
@@ -12216,7 +12235,7 @@
         <v>274</v>
       </c>
       <c r="F344" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G344" s="90">
         <v>45680</v>
@@ -12227,7 +12246,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="82"/>
       <c r="B345" s="28" t="s">
         <v>17</v>
@@ -12251,7 +12270,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="82"/>
       <c r="B346" s="28" t="s">
         <v>17</v>
@@ -12275,7 +12294,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="82"/>
       <c r="B347" s="101" t="s">
         <v>17</v>
@@ -12303,7 +12322,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="82"/>
       <c r="B348" s="101" t="s">
         <v>17</v>
@@ -12331,7 +12350,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="82"/>
       <c r="B349" s="28" t="s">
         <v>17</v>
@@ -12357,7 +12376,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="82"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -12371,7 +12390,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
@@ -12382,7 +12401,7 @@
       </c>
       <c r="F351" s="38">
         <f>SUM(F333:F350)-SUM(F330:F332)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G351" s="86"/>
       <c r="H351" s="93"/>
@@ -12391,7 +12410,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12405,7 +12424,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="354" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1" t="s">
         <v>119</v>
@@ -12420,7 +12439,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -12431,7 +12450,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B356" s="6" t="s">
         <v>3</v>
       </c>
@@ -12452,7 +12471,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="113" t="s">
         <v>13</v>
       </c>
@@ -12475,7 +12494,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="104" t="s">
         <v>13</v>
       </c>
@@ -12498,7 +12517,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="21" t="s">
         <v>13</v>
       </c>
@@ -12510,7 +12529,7 @@
         <v>274</v>
       </c>
       <c r="F359" s="21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G359" s="112">
         <v>45701</v>
@@ -12519,7 +12538,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="28" t="s">
         <v>14</v>
       </c>
@@ -12540,7 +12559,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="28" t="s">
         <v>14</v>
       </c>
@@ -12561,7 +12580,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="28"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
@@ -12572,7 +12591,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="28" t="s">
         <v>16</v>
       </c>
@@ -12595,7 +12614,7 @@
       </c>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="28" t="s">
         <v>16</v>
       </c>
@@ -12616,7 +12635,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="101" t="s">
         <v>16</v>
       </c>
@@ -12641,7 +12660,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="101" t="s">
         <v>16</v>
       </c>
@@ -12666,7 +12685,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="28" t="s">
         <v>16</v>
       </c>
@@ -12689,7 +12708,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="101" t="s">
         <v>17</v>
       </c>
@@ -12714,7 +12733,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="101" t="s">
         <v>17</v>
       </c>
@@ -12739,7 +12758,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="28" t="s">
         <v>17</v>
       </c>
@@ -12762,7 +12781,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="28" t="s">
         <v>17</v>
       </c>
@@ -12785,7 +12804,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="101" t="s">
         <v>17</v>
       </c>
@@ -12810,7 +12829,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="101" t="s">
         <v>17</v>
       </c>
@@ -12835,7 +12854,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="28" t="s">
         <v>17</v>
       </c>
@@ -12860,7 +12879,7 @@
       </c>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="28" t="s">
         <v>17</v>
       </c>
@@ -12881,7 +12900,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="101" t="s">
         <v>17</v>
       </c>
@@ -12906,7 +12925,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B377" s="28" t="s">
         <v>17</v>
       </c>
@@ -12929,7 +12948,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B378" s="35"/>
       <c r="C378" s="35"/>
       <c r="D378" s="36"/>
@@ -12939,14 +12958,14 @@
       </c>
       <c r="F378" s="38">
         <f>SUM(F360:F377)-SUM(F357:F359)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="381" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="3" t="s">
         <v>179</v>
@@ -12957,14 +12976,14 @@
       <c r="E381" s="2"/>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="5"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:10" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B383" s="6" t="s">
         <v>3</v>
       </c>
@@ -12981,7 +13000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="12" t="s">
         <v>13</v>
       </c>
@@ -12992,21 +13011,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="22"/>
       <c r="F385" s="21"/>
     </row>
-    <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
       <c r="E386" s="22"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="28" t="s">
         <v>14</v>
       </c>
@@ -13017,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="28" t="s">
         <v>14</v>
       </c>
@@ -13028,14 +13047,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="101"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
       <c r="F389" s="30"/>
     </row>
-    <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="28" t="s">
         <v>16</v>
       </c>
@@ -13046,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="28" t="s">
         <v>16</v>
       </c>
@@ -13057,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="28" t="s">
         <v>16</v>
       </c>
@@ -13068,21 +13087,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="28"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
       <c r="E393" s="22"/>
       <c r="F393" s="30"/>
     </row>
-    <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="28"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
       <c r="E394" s="22"/>
       <c r="F394" s="30"/>
     </row>
-    <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="28" t="s">
         <v>17</v>
       </c>
@@ -13093,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="28" t="s">
         <v>17</v>
       </c>
@@ -13104,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="28" t="s">
         <v>17</v>
       </c>
@@ -13115,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="28" t="s">
         <v>17</v>
       </c>
@@ -13126,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="28" t="s">
         <v>17</v>
       </c>
@@ -13137,42 +13156,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="D400" s="28"/>
       <c r="E400" s="29"/>
       <c r="F400" s="30"/>
     </row>
-    <row r="401" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="101"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
       <c r="E401" s="29"/>
       <c r="F401" s="30"/>
     </row>
-    <row r="402" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="E402" s="29"/>
       <c r="F402" s="30"/>
     </row>
-    <row r="403" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="101"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
       <c r="E403" s="22"/>
       <c r="F403" s="21"/>
     </row>
-    <row r="404" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B404" s="21"/>
       <c r="C404" s="33"/>
       <c r="D404" s="33"/>
       <c r="E404" s="34"/>
       <c r="F404" s="33"/>
     </row>
-    <row r="405" spans="2:6" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:6" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B405" s="35"/>
       <c r="C405" s="35"/>
       <c r="D405" s="36"/>
@@ -13217,21 +13236,21 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="41" customWidth="1"/>
     <col min="3" max="3" width="31" style="41" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="41" customWidth="1"/>
     <col min="5" max="6" width="9" style="41" customWidth="1"/>
     <col min="7" max="7" width="11" style="41" customWidth="1"/>
     <col min="8" max="256" width="9" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -13248,7 +13267,7 @@
       </c>
       <c r="K1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -13263,7 +13282,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -13276,7 +13295,7 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -13291,7 +13310,7 @@
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -13304,7 +13323,7 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
       <c r="B6" s="51" t="s">
         <v>3</v>
@@ -13329,7 +13348,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
       <c r="B7" s="57">
         <v>1</v>
@@ -13341,20 +13360,20 @@
         <v>209</v>
       </c>
       <c r="E7" s="25">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F7" s="26">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G7" s="27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
       <c r="B8" s="57">
         <v>2</v>
@@ -13366,20 +13385,20 @@
         <v>118</v>
       </c>
       <c r="E8" s="25">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="26">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
       <c r="B9" s="57">
         <v>3</v>
@@ -13391,20 +13410,20 @@
         <v>97</v>
       </c>
       <c r="E9" s="25">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="26">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" s="27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
       <c r="K9" s="56"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="57">
         <v>4</v>
@@ -13416,20 +13435,20 @@
         <v>267</v>
       </c>
       <c r="E10" s="25">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="59">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" s="60">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
       <c r="B11" s="57">
         <v>5</v>
@@ -13441,10 +13460,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="25">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="26">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" s="27">
         <v>34</v>
@@ -13454,7 +13473,7 @@
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
       <c r="B12" s="57">
         <v>6</v>
@@ -13462,24 +13481,24 @@
       <c r="C12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="24" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="25">
         <v>40</v>
       </c>
       <c r="F12" s="26">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
       <c r="B13" s="57">
         <v>7</v>
@@ -13491,10 +13510,10 @@
         <v>75</v>
       </c>
       <c r="E13" s="25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="26">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="27">
         <v>37</v>
@@ -13504,7 +13523,7 @@
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
       <c r="B14" s="57">
         <v>8</v>
@@ -13516,12 +13535,12 @@
         <v>66</v>
       </c>
       <c r="E14" s="25">
-        <v>33</v>
-      </c>
-      <c r="F14" s="59">
-        <v>78</v>
-      </c>
-      <c r="G14" s="60">
+        <v>34</v>
+      </c>
+      <c r="F14" s="26">
+        <v>79</v>
+      </c>
+      <c r="G14" s="27">
         <v>45</v>
       </c>
       <c r="H14" s="55"/>
@@ -13529,107 +13548,107 @@
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
       <c r="B15" s="57">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E15" s="25">
         <v>31</v>
       </c>
       <c r="F15" s="26">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G15" s="27">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
       <c r="B16" s="57">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="25">
         <v>29</v>
       </c>
       <c r="F16" s="26">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G16" s="27">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
       <c r="B17" s="57">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="E17" s="25">
-        <v>23</v>
-      </c>
-      <c r="F17" s="59">
-        <v>65</v>
-      </c>
-      <c r="G17" s="60">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="F17" s="26">
+        <v>74</v>
+      </c>
+      <c r="G17" s="27">
+        <v>49</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
       <c r="B18" s="57">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>15</v>
       </c>
       <c r="E18" s="25">
-        <v>20</v>
-      </c>
-      <c r="F18" s="26">
-        <v>68</v>
-      </c>
-      <c r="G18" s="27">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="59">
+        <v>69</v>
+      </c>
+      <c r="G18" s="60">
+        <v>46</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="57">
         <v>13</v>
@@ -13641,20 +13660,20 @@
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" s="26">
         <v>61</v>
       </c>
       <c r="G19" s="27">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="57">
         <v>14</v>
@@ -13662,24 +13681,24 @@
       <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="25">
         <v>-19</v>
       </c>
-      <c r="F20" s="26">
-        <v>35</v>
-      </c>
-      <c r="G20" s="27">
-        <v>54</v>
+      <c r="F20" s="59">
+        <v>36</v>
+      </c>
+      <c r="G20" s="60">
+        <v>55</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
@@ -13692,7 +13711,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -13723,20 +13742,20 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" style="41" customWidth="1"/>
-    <col min="6" max="7" width="9.296875" style="41" customWidth="1"/>
-    <col min="8" max="257" width="8.796875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="41" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="41" customWidth="1"/>
+    <col min="8" max="257" width="8.77734375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="65" t="s">
         <v>194</v>
       </c>
@@ -13746,7 +13765,7 @@
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -13754,7 +13773,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
         <v>44</v>
       </c>
@@ -13764,7 +13783,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
@@ -13787,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>50</v>
       </c>
@@ -13810,7 +13829,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>51</v>
       </c>
@@ -13833,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>52</v>
       </c>
@@ -13856,7 +13875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>53</v>
       </c>
@@ -13879,7 +13898,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>54</v>
       </c>
@@ -13902,7 +13921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -13911,7 +13930,7 @@
       <c r="F10" s="43"/>
       <c r="G10" s="64"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>170</v>
       </c>
@@ -13921,7 +13940,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="64"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>55</v>
       </c>
@@ -13932,7 +13951,7 @@
       <c r="F12" s="72"/>
       <c r="G12" s="108"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71"/>
@@ -13941,7 +13960,7 @@
       <c r="F13" s="72"/>
       <c r="G13" s="108"/>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70"/>
       <c r="B14" s="66" t="s">
         <v>71</v>
@@ -13952,51 +13971,67 @@
       <c r="F14" s="71"/>
       <c r="G14" s="67"/>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="68"/>
+      <c r="B15" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="71"/>
       <c r="G15" s="67"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="68" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" s="71"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="73"/>
+      <c r="E16" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="F16" s="72"/>
       <c r="G16" s="108"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68" t="s">
+        <v>60</v>
+      </c>
       <c r="F17" s="71"/>
       <c r="G17" s="67"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="68" t="s">
+        <v>267</v>
+      </c>
       <c r="C18" s="71"/>
       <c r="D18" s="67"/>
-      <c r="E18" s="73"/>
+      <c r="E18" s="68" t="s">
+        <v>118</v>
+      </c>
       <c r="F18" s="72"/>
       <c r="G18" s="108"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="68"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -14004,7 +14039,7 @@
       <c r="F19" s="69"/>
       <c r="G19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="68"/>
       <c r="C20" s="67"/>
       <c r="D20" s="64"/>
@@ -14012,7 +14047,7 @@
       <c r="F20" s="69"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="66" t="s">
         <v>45</v>
       </c>
@@ -14022,7 +14057,7 @@
       <c r="F21" s="69"/>
       <c r="G21" s="43"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>94</v>
       </c>
@@ -14033,7 +14068,7 @@
       <c r="F22" s="72"/>
       <c r="G22" s="108"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>96</v>
       </c>
@@ -14044,7 +14079,7 @@
       <c r="F23" s="72"/>
       <c r="G23" s="108"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="D24" s="67"/>
@@ -14052,7 +14087,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="66" t="s">
         <v>46</v>
       </c>
@@ -14062,7 +14097,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>176</v>
       </c>
@@ -14073,7 +14108,7 @@
       <c r="F26" s="71"/>
       <c r="G26" s="67"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="67"/>
@@ -14081,7 +14116,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="66" t="s">
         <v>47</v>
       </c>
@@ -14092,7 +14127,7 @@
       <c r="G28" s="43"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="68"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{137F18B5-F53C-4947-B1E5-9555A7165B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AB1E453-9153-4EA2-A2B0-3FE3C354D46A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{15BFD271-21FA-406A-A2D8-5C7B7CE6A4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8F07A2-07A0-4DD5-BBF8-07BBE9473144}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -2018,9 +2018,6 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2044,6 +2041,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3235,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O18"/>
+    <sheetView showGridLines="0" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3355,11 +3355,11 @@
       <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
     </row>
     <row r="5" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82"/>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F133)</f>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
@@ -3616,11 +3616,11 @@
         <f>SUM(F140:F142)</f>
         <v>32</v>
       </c>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
     </row>
     <row r="11" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
@@ -3750,21 +3750,21 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="76">
         <f>SUM(F224:F241)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F221:F223)</f>
         <v>48</v>
       </c>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
     </row>
     <row r="14" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3948,11 +3948,11 @@
         <f>SUM(F329:F331)</f>
         <v>41</v>
       </c>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
     </row>
     <row r="18" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
@@ -4056,11 +4056,11 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
     </row>
     <row r="21" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
@@ -4184,11 +4184,11 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
     </row>
     <row r="25" spans="1:22" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="82"/>
@@ -4278,11 +4278,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="130"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
+      <c r="V28" s="130"/>
     </row>
     <row r="29" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -4523,11 +4523,11 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="130"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
     </row>
     <row r="39" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="82"/>
@@ -6544,7 +6544,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G117" s="89"/>
       <c r="H117" s="97"/>
@@ -6687,7 +6687,7 @@
         <v>274</v>
       </c>
       <c r="F122" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G122" s="90">
         <v>45645</v>
@@ -6865,7 +6865,7 @@
         <v>274</v>
       </c>
       <c r="F128" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G128" s="90">
         <v>45617</v>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="F134" s="38">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G134" s="83"/>
       <c r="H134" s="95"/>
@@ -9687,7 +9687,7 @@
         <v>274</v>
       </c>
       <c r="F241" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G241" s="90">
         <v>45589</v>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="F242" s="38">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G242" s="83"/>
       <c r="H242" s="95"/>
@@ -11068,19 +11068,19 @@
     </row>
     <row r="295" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="82"/>
-      <c r="B295" s="129" t="s">
+      <c r="B295" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C295" s="130" t="s">
+      <c r="C295" s="129" t="s">
         <v>323</v>
       </c>
-      <c r="D295" s="130" t="s">
+      <c r="D295" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="E295" s="124" t="s">
+      <c r="E295" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="F295" s="125">
+      <c r="F295" s="124">
         <v>8</v>
       </c>
       <c r="G295" s="90">
@@ -11097,14 +11097,14 @@
     </row>
     <row r="296" spans="1:15" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
-      <c r="B296" s="123"/>
-      <c r="C296" s="123"/>
-      <c r="D296" s="123"/>
-      <c r="E296" s="127">
+      <c r="B296" s="122"/>
+      <c r="C296" s="122"/>
+      <c r="D296" s="122"/>
+      <c r="E296" s="126">
         <f>SUM(E275:E295)</f>
         <v>97</v>
       </c>
-      <c r="F296" s="128">
+      <c r="F296" s="127">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
         <v>46</v>
       </c>
@@ -11123,8 +11123,8 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="126"/>
-      <c r="F297" s="123"/>
+      <c r="E297" s="125"/>
+      <c r="F297" s="122"/>
       <c r="G297" s="78"/>
       <c r="H297" s="78"/>
       <c r="I297" s="78"/>
@@ -11259,7 +11259,7 @@
         <v>274</v>
       </c>
       <c r="F303" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G303" s="90">
         <v>45680</v>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="F323" s="38">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G323" s="83"/>
       <c r="H323" s="95"/>
@@ -13314,7 +13314,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13438,10 +13438,10 @@
         <v>209</v>
       </c>
       <c r="E7" s="25">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" s="26">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G7" s="27">
         <v>31</v>
@@ -13588,13 +13588,13 @@
         <v>88</v>
       </c>
       <c r="E13" s="25">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="26">
         <v>74</v>
       </c>
       <c r="G13" s="27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -13613,10 +13613,10 @@
         <v>66</v>
       </c>
       <c r="E14" s="25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="59">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="60">
         <v>48</v>

--- a/data/DreamLeague24-25.xlsx
+++ b/data/DreamLeague24-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/462a734c48854128/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{15BFD271-21FA-406A-A2D8-5C7B7CE6A4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8F07A2-07A0-4DD5-BBF8-07BBE9473144}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5476C6-9A46-4CE0-B073-A501A8D0F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Table!$A$6:$IV$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="390">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -576,12 +576,6 @@
     <t>GABRIEL SARA</t>
   </si>
   <si>
-    <t>I ROBOT</t>
-  </si>
-  <si>
-    <t>WILL SMITH</t>
-  </si>
-  <si>
     <t>LUKE MOLYNEUX</t>
   </si>
   <si>
@@ -1201,6 +1195,18 @@
   </si>
   <si>
     <t>(3 - 1)</t>
+  </si>
+  <si>
+    <t>JOVON MAKAMA</t>
+  </si>
+  <si>
+    <t>(1 - 2)</t>
+  </si>
+  <si>
+    <t>(3-2)</t>
+  </si>
+  <si>
+    <t>(1-0)</t>
   </si>
 </sst>
 </file>
@@ -3235,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX404"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A366" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G378" sqref="G378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H5" s="87">
         <v>45617</v>
@@ -3394,15 +3400,15 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="S5" s="110"/>
       <c r="T5" s="109"/>
@@ -3418,10 +3424,10 @@
         <v>104</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F6" s="21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="89">
         <v>45617</v>
@@ -3439,15 +3445,15 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S6" s="110"/>
       <c r="T6" s="109"/>
@@ -3474,15 +3480,15 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S7" s="110"/>
       <c r="T7" s="109"/>
@@ -3494,7 +3500,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>115</v>
@@ -3503,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="86"/>
       <c r="H8" s="78"/>
@@ -3522,11 +3528,11 @@
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3535,7 +3541,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>100</v>
@@ -3544,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="86"/>
       <c r="H9" s="78"/>
@@ -3560,15 +3566,15 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N9" s="76">
         <f>SUM(F116:F133)</f>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="O9" s="77">
         <f>SUM(F113:F115)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3577,7 +3583,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="101" t="s">
         <v>95</v>
@@ -3589,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H10" s="87">
         <v>45533</v>
@@ -3606,15 +3612,15 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R10" s="130"/>
       <c r="S10" s="130"/>
@@ -3628,13 +3634,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="101" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F11" s="103">
         <v>2</v>
@@ -3657,15 +3663,15 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="S11" s="110"/>
       <c r="T11" s="109"/>
@@ -3677,16 +3683,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F12" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="90">
         <v>45666</v>
@@ -3704,15 +3710,15 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="N12" s="76">
         <f>SUM(F197:F214)</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O12" s="77">
         <f>SUM(F194:F196)</f>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3721,7 +3727,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" s="101" t="s">
         <v>105</v>
@@ -3733,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H13" s="87">
         <v>45603</v>
@@ -3750,15 +3756,15 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N13" s="76">
         <f>SUM(F224:F241)</f>
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="O13" s="77">
         <f>SUM(F221:F223)</f>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="R13" s="130"/>
       <c r="S13" s="130"/>
@@ -3784,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H14" s="87">
         <v>45603</v>
@@ -3801,15 +3807,15 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="N14" s="76">
         <f>SUM(F251:F268)</f>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O14" s="77">
         <f>SUM(F248:F250)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S14" s="110"/>
       <c r="T14" s="109"/>
@@ -3821,13 +3827,13 @@
         <v>16</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F15" s="103">
         <v>1</v>
@@ -3850,15 +3856,15 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3867,16 +3873,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="90">
         <v>45701</v>
@@ -3894,15 +3900,15 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3911,16 +3917,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F17" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="90">
         <v>45603</v>
@@ -3938,15 +3944,15 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="R17" s="130"/>
       <c r="S17" s="130"/>
@@ -3963,13 +3969,13 @@
         <v>127</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E18" s="29">
         <v>53</v>
       </c>
       <c r="F18" s="30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18" s="87"/>
       <c r="H18" s="87"/>
@@ -3985,15 +3991,15 @@
       </c>
       <c r="M18" s="25">
         <f>N18-O18</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N18" s="26">
         <f>SUM(F359:F376)</f>
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O18" s="27">
         <f>SUM(F356:F358)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S18" s="110"/>
       <c r="T18" s="109"/>
@@ -4014,7 +4020,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="87"/>
@@ -4044,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H20" s="87">
         <v>45526</v>
@@ -4068,16 +4074,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>121</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F21" s="30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="90">
         <v>45526</v>
@@ -4100,10 +4106,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E22" s="102">
         <v>14</v>
@@ -4112,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H22" s="87">
         <v>45568</v>
@@ -4131,16 +4137,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F23" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="90">
         <v>45568</v>
@@ -4172,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H24" s="87">
         <v>45561</v>
@@ -4196,16 +4202,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F25" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="90">
         <v>45561</v>
@@ -4233,7 +4239,7 @@
       </c>
       <c r="F26" s="38">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="95"/>
@@ -4365,7 +4371,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H32" s="97">
         <v>45554</v>
@@ -4385,13 +4391,13 @@
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F33" s="21">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G33" s="89">
         <v>45554</v>
@@ -4428,7 +4434,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>105</v>
@@ -4464,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" s="94"/>
       <c r="H36" s="94"/>
@@ -4511,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H38" s="94">
         <v>45666</v>
@@ -4535,16 +4541,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F39" s="30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G39" s="90">
         <v>45666</v>
@@ -4576,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H40" s="94">
         <v>45547</v>
@@ -4595,13 +4601,13 @@
         <v>16</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F41" s="30">
         <v>3</v>
@@ -4633,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" s="90"/>
       <c r="H42" s="94"/>
@@ -4660,7 +4666,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="90"/>
@@ -4678,10 +4684,10 @@
         <v>17</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D44" s="101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E44" s="102">
         <v>1</v>
@@ -4690,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H44" s="94">
         <v>45666</v>
@@ -4709,13 +4715,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>125</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F45" s="30">
         <v>2</v>
@@ -4750,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H46" s="94">
         <v>45568</v>
@@ -4769,13 +4775,13 @@
         <v>17</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E47" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F47" s="103">
         <v>2</v>
@@ -4800,13 +4806,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F48" s="30">
         <v>3</v>
@@ -4829,10 +4835,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" s="101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E49" s="102">
         <v>1</v>
@@ -4841,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H49" s="94">
         <v>45596</v>
@@ -4866,10 +4872,10 @@
         <v>28</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F50" s="30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G50" s="90">
         <v>45596</v>
@@ -4889,10 +4895,10 @@
         <v>17</v>
       </c>
       <c r="C51" s="101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51" s="101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E51" s="102">
         <v>1</v>
@@ -4901,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H51" s="94">
         <v>45540</v>
@@ -4926,10 +4932,10 @@
         <v>121</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F52" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G52" s="94">
         <v>45540</v>
@@ -4954,7 +4960,7 @@
       </c>
       <c r="F53" s="38">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G53" s="83"/>
       <c r="H53" s="95"/>
@@ -5078,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G59" s="83"/>
       <c r="H59" s="95"/>
@@ -5142,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H62" s="94">
         <v>45533</v>
@@ -5161,16 +5167,16 @@
         <v>14</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F63" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="90">
         <v>45533</v>
@@ -5199,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" s="90"/>
       <c r="H64" s="93"/>
@@ -5226,7 +5232,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="86"/>
       <c r="H65" s="93"/>
@@ -5256,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H66" s="94">
         <v>45610</v>
@@ -5275,16 +5281,16 @@
         <v>16</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F67" s="30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G67" s="90">
         <v>45610</v>
@@ -5316,7 +5322,7 @@
         <v>15</v>
       </c>
       <c r="G68" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H68" s="94">
         <v>45701</v>
@@ -5335,16 +5341,16 @@
         <v>16</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>89</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F69" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69" s="90">
         <v>45701</v>
@@ -5400,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="F71" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="90"/>
       <c r="H71" s="94"/>
@@ -5418,7 +5424,7 @@
         <v>17</v>
       </c>
       <c r="C72" s="101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72" s="101" t="s">
         <v>38</v>
@@ -5430,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H72" s="94">
         <v>45561</v>
@@ -5449,13 +5455,13 @@
         <v>17</v>
       </c>
       <c r="C73" s="101" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D73" s="101" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F73" s="103">
         <v>1</v>
@@ -5480,13 +5486,13 @@
         <v>17</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F74" s="30">
         <v>1</v>
@@ -5512,7 +5518,7 @@
         <v>68</v>
       </c>
       <c r="D75" s="101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E75" s="102">
         <v>6</v>
@@ -5521,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H75" s="94">
         <v>45610</v>
@@ -5540,16 +5546,16 @@
         <v>17</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F76" s="30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G76" s="90">
         <v>45610</v>
@@ -5569,7 +5575,7 @@
         <v>17</v>
       </c>
       <c r="C77" s="101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D77" s="101" t="s">
         <v>137</v>
@@ -5581,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H77" s="94">
         <v>45652</v>
@@ -5603,13 +5609,13 @@
         <v>68</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F78" s="30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G78" s="90">
         <v>45652</v>
@@ -5651,7 +5657,7 @@
       </c>
       <c r="F80" s="38">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G80" s="83"/>
       <c r="H80" s="95"/>
@@ -5775,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="15">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G86" s="83"/>
       <c r="H86" s="97"/>
@@ -5836,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G89" s="86"/>
       <c r="H89" s="93"/>
@@ -5854,10 +5860,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E90" s="29">
         <v>2</v>
@@ -5907,7 +5913,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92" s="90"/>
       <c r="H92" s="94"/>
@@ -5925,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>104</v>
@@ -5934,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G93" s="94"/>
       <c r="H93" s="94"/>
@@ -5952,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="C94" s="101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D94" s="101" t="s">
         <v>26</v>
@@ -5964,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H94" s="94">
         <v>45547</v>
@@ -5983,13 +5989,13 @@
         <v>16</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F95" s="30">
         <v>6</v>
@@ -6041,7 +6047,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H97" s="94">
         <v>45687</v>
@@ -6060,16 +6066,16 @@
         <v>17</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D98" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E98" s="29" t="s">
-        <v>274</v>
-      </c>
       <c r="F98" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="90">
         <v>45687</v>
@@ -6092,13 +6098,13 @@
         <v>124</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E99" s="29">
         <v>31</v>
       </c>
       <c r="F99" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G99" s="86"/>
       <c r="H99" s="94"/>
@@ -6128,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H100" s="94">
         <v>45526</v>
@@ -6147,13 +6153,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="101" t="s">
         <v>82</v>
       </c>
       <c r="E101" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F101" s="103">
         <v>3</v>
@@ -6178,16 +6184,16 @@
         <v>17</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F102" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G102" s="90">
         <v>45680</v>
@@ -6219,7 +6225,7 @@
         <v>13</v>
       </c>
       <c r="G103" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H103" s="94">
         <v>45666</v>
@@ -6244,7 +6250,7 @@
         <v>90</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F104" s="30">
         <v>2</v>
@@ -6270,7 +6276,7 @@
         <v>147</v>
       </c>
       <c r="D105" s="101" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E105" s="102">
         <v>15</v>
@@ -6279,7 +6285,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H105" s="94">
         <v>45617</v>
@@ -6298,16 +6304,16 @@
         <v>17</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F106" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G106" s="90">
         <v>45617</v>
@@ -6382,7 +6388,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>58</v>
@@ -6450,17 +6456,17 @@
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E113" s="14">
         <v>1</v>
       </c>
       <c r="F113" s="15">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="97"/>
-      <c r="I113" s="97"/>
+      <c r="I113" s="93"/>
       <c r="J113" s="79"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6508,7 +6514,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D116" s="28" t="s">
         <v>114</v>
@@ -6517,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" s="86"/>
       <c r="H116" s="94"/>
@@ -6538,7 +6544,7 @@
         <v>32</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E117" s="29">
         <v>6</v>
@@ -6562,16 +6568,16 @@
         <v>16</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E118" s="29">
         <v>15</v>
       </c>
       <c r="F118" s="30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G118" s="90"/>
       <c r="H118" s="94"/>
@@ -6616,7 +6622,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="101" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D120" s="101" t="s">
         <v>26</v>
@@ -6628,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H120" s="94">
         <v>45561</v>
@@ -6647,13 +6653,13 @@
         <v>16</v>
       </c>
       <c r="C121" s="101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D121" s="101" t="s">
         <v>26</v>
       </c>
       <c r="E121" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F121" s="103">
         <v>5</v>
@@ -6678,22 +6684,24 @@
         <v>16</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D122" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F122" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G122" s="90">
         <v>45645</v>
       </c>
       <c r="H122" s="94"/>
-      <c r="I122" s="93"/>
+      <c r="I122" s="93">
+        <v>1</v>
+      </c>
       <c r="J122" s="79"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -6719,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H123" s="94">
         <v>45673</v>
@@ -6738,13 +6746,13 @@
         <v>17</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F124" s="30">
         <v>2</v>
@@ -6776,7 +6784,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G125" s="90"/>
       <c r="H125" s="94"/>
@@ -6794,10 +6802,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="101" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D126" s="101" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E126" s="102">
         <v>29</v>
@@ -6806,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H126" s="94">
         <v>45554</v>
@@ -6825,13 +6833,13 @@
         <v>17</v>
       </c>
       <c r="C127" s="101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D127" s="101" t="s">
         <v>160</v>
       </c>
       <c r="E127" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F127" s="103">
         <v>0</v>
@@ -6856,13 +6864,13 @@
         <v>17</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F128" s="30">
         <v>11</v>
@@ -6897,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="G129" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H129" s="94">
         <v>45596</v>
@@ -6916,13 +6924,13 @@
         <v>17</v>
       </c>
       <c r="C130" s="101" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D130" s="101" t="s">
         <v>100</v>
       </c>
       <c r="E130" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F130" s="103">
         <v>4</v>
@@ -6947,13 +6955,13 @@
         <v>17</v>
       </c>
       <c r="C131" s="101" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D131" s="101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E131" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F131" s="103">
         <v>2</v>
@@ -6978,16 +6986,16 @@
         <v>17</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F132" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132" s="90">
         <v>45729</v>
@@ -7007,16 +7015,16 @@
         <v>17</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E133" s="29">
         <v>1</v>
       </c>
       <c r="F133" s="30">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G133" s="90"/>
       <c r="H133" s="94"/>
@@ -7039,7 +7047,7 @@
       </c>
       <c r="F134" s="38">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G134" s="83"/>
       <c r="H134" s="95"/>
@@ -7163,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="15">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G140" s="83"/>
       <c r="H140" s="97"/>
@@ -7215,16 +7223,16 @@
         <v>14</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E143" s="29">
         <v>3</v>
       </c>
       <c r="F143" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G143" s="86"/>
       <c r="H143" s="94"/>
@@ -7242,7 +7250,7 @@
         <v>14</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D144" s="28" t="s">
         <v>116</v>
@@ -7339,7 +7347,7 @@
         <v>16</v>
       </c>
       <c r="C148" s="101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D148" s="101" t="s">
         <v>23</v>
@@ -7351,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="G148" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H148" s="90">
         <v>45722</v>
@@ -7370,16 +7378,16 @@
         <v>16</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F149" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G149" s="90">
         <v>45722</v>
@@ -7428,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H151" s="94">
         <v>45575</v>
@@ -7447,16 +7455,16 @@
         <v>17</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F152" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G152" s="90">
         <v>45575</v>
@@ -7479,7 +7487,7 @@
         <v>113</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E153" s="29">
         <v>25</v>
@@ -7515,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H154" s="94">
         <v>45575</v>
@@ -7534,7 +7542,7 @@
         <v>17</v>
       </c>
       <c r="C155" s="101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D155" s="101" t="s">
         <v>108</v>
@@ -7546,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H155" s="94">
         <v>45575</v>
@@ -7565,13 +7573,13 @@
         <v>17</v>
       </c>
       <c r="C156" s="101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D156" s="101" t="s">
         <v>130</v>
       </c>
       <c r="E156" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F156" s="103">
         <v>3</v>
@@ -7596,13 +7604,13 @@
         <v>17</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F157" s="30">
         <v>0</v>
@@ -7625,13 +7633,13 @@
         <v>17</v>
       </c>
       <c r="C158" s="101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D158" s="101" t="s">
         <v>137</v>
       </c>
       <c r="E158" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F158" s="103">
         <v>12</v>
@@ -7656,13 +7664,13 @@
         <v>17</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F159" s="30">
         <v>1</v>
@@ -7694,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="F160" s="30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G160" s="90"/>
       <c r="H160" s="94"/>
@@ -7717,7 +7725,7 @@
       </c>
       <c r="F161" s="38">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161" s="83"/>
       <c r="H161" s="95"/>
@@ -7844,7 +7852,7 @@
         <v>39</v>
       </c>
       <c r="G167" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H167" s="97">
         <v>45652</v>
@@ -7867,18 +7875,16 @@
         <v>129</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F168" s="21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G168" s="89">
         <v>45652</v>
       </c>
       <c r="H168" s="95"/>
-      <c r="I168" s="95">
-        <v>2</v>
-      </c>
+      <c r="I168" s="95"/>
       <c r="J168" s="79"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7909,7 +7915,7 @@
         <v>14</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>166</v>
@@ -7918,7 +7924,7 @@
         <v>5</v>
       </c>
       <c r="F170" s="30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G170" s="86"/>
       <c r="H170" s="94"/>
@@ -7939,7 +7945,7 @@
         <v>131</v>
       </c>
       <c r="D171" s="101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E171" s="102">
         <v>1</v>
@@ -7948,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H171" s="94">
         <v>45694</v>
@@ -7967,16 +7973,16 @@
         <v>14</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>163</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F172" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="90">
         <v>45694</v>
@@ -7996,7 +8002,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>18</v>
@@ -8005,7 +8011,7 @@
         <v>5</v>
       </c>
       <c r="F173" s="30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G173" s="86"/>
       <c r="H173" s="94"/>
@@ -8026,7 +8032,7 @@
         <v>178</v>
       </c>
       <c r="D174" s="101" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E174" s="102">
         <v>1</v>
@@ -8035,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H174" s="94">
         <v>45519</v>
@@ -8054,16 +8060,16 @@
         <v>16</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F175" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G175" s="90">
         <v>45519</v>
@@ -8083,7 +8089,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="101" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D176" s="101" t="s">
         <v>100</v>
@@ -8095,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H176" s="94">
         <v>45694</v>
@@ -8114,16 +8120,16 @@
         <v>16</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D177" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F177" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G177" s="94">
         <v>45694</v>
@@ -8143,7 +8149,7 @@
         <v>17</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>63</v>
@@ -8152,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G178" s="86"/>
       <c r="H178" s="94"/>
@@ -8179,13 +8185,11 @@
         <v>22</v>
       </c>
       <c r="F179" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G179" s="90"/>
       <c r="H179" s="94"/>
-      <c r="I179" s="93">
-        <v>3</v>
-      </c>
+      <c r="I179" s="93"/>
       <c r="J179" s="79"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -8202,7 +8206,7 @@
         <v>139</v>
       </c>
       <c r="D180" s="101" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E180" s="102">
         <v>15</v>
@@ -8211,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H180" s="94">
         <v>45519</v>
@@ -8230,13 +8234,13 @@
         <v>17</v>
       </c>
       <c r="C181" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D181" s="101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E181" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F181" s="103">
         <v>6</v>
@@ -8261,10 +8265,10 @@
         <v>17</v>
       </c>
       <c r="C182" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D182" s="101" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E182" s="102">
         <v>35</v>
@@ -8273,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="G182" s="94" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H182" s="90">
         <v>45694</v>
@@ -8292,13 +8296,13 @@
         <v>17</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F183" s="30">
         <v>1</v>
@@ -8321,16 +8325,16 @@
         <v>17</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D184" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F184" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="94">
         <v>45694</v>
@@ -8350,7 +8354,7 @@
         <v>17</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D185" s="28" t="s">
         <v>73</v>
@@ -8359,7 +8363,7 @@
         <v>2</v>
       </c>
       <c r="F185" s="30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G185" s="94"/>
       <c r="H185" s="90"/>
@@ -8416,7 +8420,7 @@
       </c>
       <c r="F188" s="38">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G188" s="83"/>
       <c r="H188" s="95"/>
@@ -8534,13 +8538,13 @@
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E194" s="14">
         <v>1</v>
       </c>
       <c r="F194" s="15">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G194" s="83"/>
       <c r="H194" s="97"/>
@@ -8592,10 +8596,10 @@
         <v>14</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E197" s="29">
         <v>1</v>
@@ -8619,7 +8623,7 @@
         <v>14</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>106</v>
@@ -8663,7 +8667,7 @@
         <v>16</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D200" s="28" t="s">
         <v>25</v>
@@ -8672,7 +8676,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G200" s="86"/>
       <c r="H200" s="93"/>
@@ -8690,7 +8694,7 @@
         <v>16</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>18</v>
@@ -8699,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G201" s="86"/>
       <c r="H201" s="93"/>
@@ -8717,7 +8721,7 @@
         <v>16</v>
       </c>
       <c r="C202" s="101" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D202" s="101" t="s">
         <v>23</v>
@@ -8729,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H202" s="94">
         <v>45561</v>
@@ -8748,16 +8752,16 @@
         <v>16</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D203" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F203" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203" s="90">
         <v>45561</v>
@@ -8794,16 +8798,16 @@
         <v>17</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E205" s="29">
         <v>1</v>
       </c>
       <c r="F205" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G205" s="86"/>
       <c r="H205" s="94"/>
@@ -8821,10 +8825,10 @@
         <v>17</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E206" s="29">
         <v>1</v>
@@ -8848,10 +8852,10 @@
         <v>17</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E207" s="29">
         <v>1</v>
@@ -8875,7 +8879,7 @@
         <v>17</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D208" s="28" t="s">
         <v>23</v>
@@ -8902,7 +8906,7 @@
         <v>17</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>18</v>
@@ -9019,7 +9023,7 @@
       </c>
       <c r="F215" s="38">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="G215" s="83"/>
       <c r="H215" s="95"/>
@@ -9146,7 +9150,7 @@
         <v>30</v>
       </c>
       <c r="G221" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H221" s="97">
         <v>45645</v>
@@ -9166,13 +9170,13 @@
       </c>
       <c r="C222" s="21"/>
       <c r="D222" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F222" s="21">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G222" s="97">
         <v>45645</v>
@@ -9209,7 +9213,7 @@
         <v>14</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D224" s="28" t="s">
         <v>114</v>
@@ -9236,10 +9240,10 @@
         <v>14</v>
       </c>
       <c r="C225" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E225" s="29">
         <v>1</v>
@@ -9280,7 +9284,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D227" s="28" t="s">
         <v>18</v>
@@ -9289,7 +9293,7 @@
         <v>21</v>
       </c>
       <c r="F227" s="30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G227" s="86"/>
       <c r="H227" s="94"/>
@@ -9307,7 +9311,7 @@
         <v>16</v>
       </c>
       <c r="C228" s="101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D228" s="101" t="s">
         <v>38</v>
@@ -9319,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="G228" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H228" s="94">
         <v>45561</v>
@@ -9334,25 +9338,27 @@
     </row>
     <row r="229" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="82"/>
-      <c r="B229" s="28" t="s">
+      <c r="B229" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D229" s="28" t="s">
+      <c r="C229" s="101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D229" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="E229" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="F229" s="30">
+      <c r="E229" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="F229" s="103">
         <v>0</v>
       </c>
       <c r="G229" s="90">
         <v>45561</v>
       </c>
-      <c r="H229" s="94"/>
+      <c r="H229" s="94">
+        <v>45743</v>
+      </c>
       <c r="I229" s="92"/>
       <c r="J229" s="79"/>
       <c r="K229" s="1"/>
@@ -9367,18 +9373,20 @@
         <v>16</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>171</v>
+        <v>386</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E230" s="29">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="E230" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="F230" s="30">
-        <v>10</v>
-      </c>
-      <c r="G230" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="G230" s="90">
+        <v>45743</v>
+      </c>
       <c r="H230" s="94"/>
       <c r="I230" s="92"/>
       <c r="J230" s="79"/>
@@ -9390,11 +9398,21 @@
     </row>
     <row r="231" spans="1:15" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="82"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="30"/>
+      <c r="B231" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E231" s="29">
+        <v>1</v>
+      </c>
+      <c r="F231" s="30">
+        <v>12</v>
+      </c>
       <c r="G231" s="90"/>
       <c r="H231" s="94"/>
       <c r="I231" s="92"/>
@@ -9414,7 +9432,7 @@
         <v>158</v>
       </c>
       <c r="D232" s="101" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E232" s="102">
         <v>5</v>
@@ -9423,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H232" s="94">
         <v>45519</v>
@@ -9442,13 +9460,13 @@
         <v>17</v>
       </c>
       <c r="C233" s="101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D233" s="101" t="s">
         <v>160</v>
       </c>
       <c r="E233" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F233" s="103">
         <v>3</v>
@@ -9473,16 +9491,16 @@
         <v>17</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D234" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E234" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F234" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G234" s="90">
         <v>45680</v>
@@ -9511,7 +9529,7 @@
         <v>16</v>
       </c>
       <c r="F235" s="30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G235" s="86"/>
       <c r="H235" s="94"/>
@@ -9541,7 +9559,7 @@
         <v>7</v>
       </c>
       <c r="G236" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H236" s="94">
         <v>45708</v>
@@ -9560,16 +9578,16 @@
         <v>17</v>
       </c>
       <c r="C237" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E237" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F237" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G237" s="90">
         <v>45708</v>
@@ -9598,7 +9616,7 @@
         <v>8</v>
       </c>
       <c r="F238" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G238" s="90"/>
       <c r="H238" s="94"/>
@@ -9628,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="G239" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H239" s="94">
         <v>45526</v>
@@ -9647,13 +9665,13 @@
         <v>17</v>
       </c>
       <c r="C240" s="101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D240" s="101" t="s">
         <v>114</v>
       </c>
       <c r="E240" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F240" s="103">
         <v>1</v>
@@ -9678,13 +9696,13 @@
         <v>17</v>
       </c>
       <c r="C241" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D241" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E241" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F241" s="30">
         <v>13</v>
@@ -9712,7 +9730,7 @@
       </c>
       <c r="F242" s="38">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G242" s="83"/>
       <c r="H242" s="95"/>
@@ -9831,7 +9849,7 @@
         <v>13</v>
       </c>
       <c r="G248" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H248" s="97">
         <v>45561</v>
@@ -9851,13 +9869,13 @@
       </c>
       <c r="C249" s="21"/>
       <c r="D249" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F249" s="21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G249" s="89">
         <v>45561</v>
@@ -9894,16 +9912,16 @@
         <v>14</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E251" s="29">
         <v>6</v>
       </c>
       <c r="F251" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G251" s="86"/>
       <c r="H251" s="94"/>
@@ -9930,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="F252" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G252" s="90"/>
       <c r="H252" s="93"/>
@@ -9968,7 +9986,7 @@
         <v>122</v>
       </c>
       <c r="D254" s="101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E254" s="102">
         <v>3</v>
@@ -9977,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H254" s="94">
         <v>45589</v>
@@ -9996,13 +10014,13 @@
         <v>16</v>
       </c>
       <c r="C255" s="101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D255" s="101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E255" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F255" s="103">
         <v>1</v>
@@ -10027,16 +10045,16 @@
         <v>16</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F256" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G256" s="90">
         <v>45631</v>
@@ -10056,7 +10074,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="101" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D257" s="101" t="s">
         <v>42</v>
@@ -10068,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="G257" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H257" s="94">
         <v>45638</v>
@@ -10087,13 +10105,13 @@
         <v>16</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D258" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E258" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F258" s="30">
         <v>6</v>
@@ -10116,7 +10134,7 @@
         <v>16</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D259" s="28" t="s">
         <v>82</v>
@@ -10125,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="F259" s="30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G259" s="86"/>
       <c r="H259" s="94"/>
@@ -10152,7 +10170,7 @@
         <v>49</v>
       </c>
       <c r="F260" s="30">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G260" s="90"/>
       <c r="H260" s="94"/>
@@ -10197,7 +10215,7 @@
         <v>17</v>
       </c>
       <c r="C262" s="101" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D262" s="101" t="s">
         <v>25</v>
@@ -10209,7 +10227,7 @@
         <v>12</v>
       </c>
       <c r="G262" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H262" s="94">
         <v>45687</v>
@@ -10234,10 +10252,10 @@
         <v>110</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F263" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G263" s="90">
         <v>45687</v>
@@ -10269,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H264" s="94">
         <v>45519</v>
@@ -10288,13 +10306,13 @@
         <v>17</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F265" s="30">
         <v>9</v>
@@ -10329,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H266" s="94">
         <v>45561</v>
@@ -10348,13 +10366,13 @@
         <v>17</v>
       </c>
       <c r="C267" s="101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D267" s="101" t="s">
         <v>28</v>
       </c>
       <c r="E267" s="102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F267" s="103">
         <v>7</v>
@@ -10379,16 +10397,16 @@
         <v>17</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E268" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F268" s="30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G268" s="90">
         <v>45694</v>
@@ -10413,7 +10431,7 @@
       </c>
       <c r="F269" s="38">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G269" s="83"/>
       <c r="H269" s="95"/>
@@ -10463,10 +10481,10 @@
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="1"/>
@@ -10531,7 +10549,7 @@
       </c>
       <c r="C275" s="114"/>
       <c r="D275" s="114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E275" s="117">
         <v>1</v>
@@ -10540,7 +10558,7 @@
         <v>14</v>
       </c>
       <c r="G275" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H275" s="97">
         <v>45568</v>
@@ -10560,13 +10578,13 @@
       </c>
       <c r="C276" s="21"/>
       <c r="D276" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F276" s="21">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G276" s="89">
         <v>45568</v>
@@ -10603,7 +10621,7 @@
         <v>14</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D278" s="21" t="s">
         <v>25</v>
@@ -10630,7 +10648,7 @@
         <v>14</v>
       </c>
       <c r="C279" s="104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D279" s="104" t="s">
         <v>23</v>
@@ -10642,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H279" s="94">
         <v>45526</v>
@@ -10661,13 +10679,13 @@
         <v>14</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F280" s="30">
         <v>2</v>
@@ -10693,7 +10711,7 @@
         <v>159</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E281" s="22">
         <v>8</v>
@@ -10726,7 +10744,7 @@
         <v>16</v>
       </c>
       <c r="F282" s="30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G282" s="94"/>
       <c r="H282" s="94"/>
@@ -10753,7 +10771,7 @@
         <v>6</v>
       </c>
       <c r="F283" s="30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G283" s="90"/>
       <c r="H283" s="94"/>
@@ -10814,7 +10832,7 @@
         <v>36</v>
       </c>
       <c r="F286" s="30">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G286" s="86"/>
       <c r="H286" s="94"/>
@@ -10832,7 +10850,7 @@
         <v>17</v>
       </c>
       <c r="C287" s="104" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D287" s="104" t="s">
         <v>105</v>
@@ -10844,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="G287" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H287" s="94">
         <v>45645</v>
@@ -10863,13 +10881,13 @@
         <v>17</v>
       </c>
       <c r="C288" s="104" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D288" s="104" t="s">
         <v>82</v>
       </c>
       <c r="E288" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F288" s="103">
         <v>4</v>
@@ -10894,13 +10912,13 @@
         <v>17</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F289" s="30">
         <v>0</v>
@@ -10932,7 +10950,7 @@
         <v>6</v>
       </c>
       <c r="F290" s="30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G290" s="90"/>
       <c r="H290" s="94"/>
@@ -10953,7 +10971,7 @@
         <v>107</v>
       </c>
       <c r="D291" s="104" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E291" s="105">
         <v>9</v>
@@ -10962,7 +10980,7 @@
         <v>4</v>
       </c>
       <c r="G291" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H291" s="94">
         <v>45596</v>
@@ -10981,7 +10999,7 @@
         <v>17</v>
       </c>
       <c r="C292" s="104" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D292" s="104" t="s">
         <v>129</v>
@@ -10993,7 +11011,7 @@
         <v>2</v>
       </c>
       <c r="G292" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H292" s="94">
         <v>45596</v>
@@ -11012,13 +11030,13 @@
         <v>17</v>
       </c>
       <c r="C293" s="104" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D293" s="104" t="s">
         <v>35</v>
       </c>
       <c r="E293" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F293" s="103">
         <v>1</v>
@@ -11043,16 +11061,16 @@
         <v>17</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D294" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F294" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G294" s="90">
         <v>45687</v>
@@ -11072,16 +11090,16 @@
         <v>17</v>
       </c>
       <c r="C295" s="129" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D295" s="129" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E295" s="123" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F295" s="124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G295" s="90">
         <v>45596</v>
@@ -11106,7 +11124,7 @@
       </c>
       <c r="F296" s="127">
         <f>SUM(F278:F295)-SUM(F275:F276)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G296" s="94"/>
       <c r="H296" s="94"/>
@@ -11233,7 +11251,7 @@
         <v>29</v>
       </c>
       <c r="G302" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H302" s="94">
         <v>45680</v>
@@ -11253,20 +11271,20 @@
       </c>
       <c r="C303" s="21"/>
       <c r="D303" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F303" s="21">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G303" s="90">
         <v>45680</v>
       </c>
       <c r="H303" s="94"/>
       <c r="I303" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -11307,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="F305" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G305" s="86"/>
       <c r="H305" s="94"/>
@@ -11325,7 +11343,7 @@
         <v>14</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D306" s="21" t="s">
         <v>18</v>
@@ -11352,7 +11370,7 @@
         <v>16</v>
       </c>
       <c r="C307" s="104" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D307" s="104" t="s">
         <v>121</v>
@@ -11364,7 +11382,7 @@
         <v>3</v>
       </c>
       <c r="G307" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H307" s="94">
         <v>45624</v>
@@ -11383,16 +11401,16 @@
         <v>16</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F308" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G308" s="90">
         <v>45624</v>
@@ -11424,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="G309" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H309" s="94">
         <v>45568</v>
@@ -11443,16 +11461,16 @@
         <v>16</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D310" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F310" s="30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G310" s="90">
         <v>45568</v>
@@ -11472,10 +11490,10 @@
         <v>16</v>
       </c>
       <c r="C311" s="104" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D311" s="104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E311" s="105">
         <v>1</v>
@@ -11484,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="G311" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H311" s="94">
         <v>45526</v>
@@ -11503,13 +11521,13 @@
         <v>16</v>
       </c>
       <c r="C312" s="104" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D312" s="104" t="s">
         <v>25</v>
       </c>
       <c r="E312" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F312" s="103">
         <v>0</v>
@@ -11534,13 +11552,13 @@
         <v>16</v>
       </c>
       <c r="C313" s="104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D313" s="104" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E313" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F313" s="103">
         <v>2</v>
@@ -11565,13 +11583,13 @@
         <v>16</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D314" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F314" s="30">
         <v>1</v>
@@ -11594,20 +11612,22 @@
         <v>17</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E315" s="22">
         <v>20</v>
       </c>
       <c r="F315" s="30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G315" s="90"/>
       <c r="H315" s="94"/>
-      <c r="I315" s="93"/>
+      <c r="I315" s="93">
+        <v>1</v>
+      </c>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -11621,7 +11641,7 @@
         <v>17</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D316" s="21" t="s">
         <v>106</v>
@@ -11630,7 +11650,7 @@
         <v>7</v>
       </c>
       <c r="F316" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G316" s="90"/>
       <c r="H316" s="94"/>
@@ -11660,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="G317" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H317" s="94">
         <v>45568</v>
@@ -11679,23 +11699,23 @@
         <v>17</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D318" s="21" t="s">
         <v>104</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F318" s="30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G318" s="90">
         <v>45568</v>
       </c>
       <c r="H318" s="93"/>
       <c r="I318" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11713,7 +11733,7 @@
         <v>103</v>
       </c>
       <c r="D319" s="104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E319" s="105">
         <v>45</v>
@@ -11722,7 +11742,7 @@
         <v>6</v>
       </c>
       <c r="G319" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H319" s="94">
         <v>45701</v>
@@ -11747,18 +11767,16 @@
         <v>125</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F320" s="30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G320" s="90">
         <v>45701</v>
       </c>
       <c r="H320" s="93"/>
-      <c r="I320" s="93">
-        <v>2</v>
-      </c>
+      <c r="I320" s="93"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -11772,10 +11790,10 @@
         <v>17</v>
       </c>
       <c r="C321" s="104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D321" s="104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E321" s="105">
         <v>4</v>
@@ -11784,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="G321" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H321" s="94">
         <v>45624</v>
@@ -11803,13 +11821,13 @@
         <v>17</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F322" s="30">
         <v>3</v>
@@ -11837,7 +11855,7 @@
       </c>
       <c r="F323" s="38">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G323" s="83"/>
       <c r="H323" s="95"/>
@@ -11961,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="15">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G329" s="86"/>
       <c r="H329" s="90"/>
@@ -12013,16 +12031,16 @@
         <v>14</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E332" s="22">
         <v>1</v>
       </c>
       <c r="F332" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G332" s="86"/>
       <c r="H332" s="93"/>
@@ -12040,7 +12058,7 @@
         <v>14</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D333" s="21" t="s">
         <v>108</v>
@@ -12049,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="F333" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G333" s="86"/>
       <c r="H333" s="93"/>
@@ -12084,10 +12102,10 @@
         <v>16</v>
       </c>
       <c r="C335" s="104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D335" s="104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E335" s="105">
         <v>1</v>
@@ -12096,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="G335" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H335" s="94">
         <v>45519</v>
@@ -12115,16 +12133,16 @@
         <v>16</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D336" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F336" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G336" s="90">
         <v>45519</v>
@@ -12144,7 +12162,7 @@
         <v>16</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>106</v>
@@ -12153,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="F337" s="30">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G337" s="90"/>
       <c r="H337" s="93"/>
@@ -12171,7 +12189,7 @@
         <v>16</v>
       </c>
       <c r="C338" s="104" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D338" s="104" t="s">
         <v>163</v>
@@ -12183,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="G338" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H338" s="94">
         <v>45568</v>
@@ -12202,16 +12220,16 @@
         <v>16</v>
       </c>
       <c r="C339" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D339" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F339" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G339" s="90">
         <v>45568</v>
@@ -12228,16 +12246,16 @@
         <v>17</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E340" s="22">
         <v>1</v>
       </c>
       <c r="F340" s="30">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G340" s="90"/>
       <c r="H340" s="93"/>
@@ -12252,10 +12270,10 @@
         <v>17</v>
       </c>
       <c r="C341" s="104" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D341" s="104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E341" s="105">
         <v>1</v>
@@ -12264,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="G341" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H341" s="94">
         <v>45589</v>
@@ -12280,13 +12298,13 @@
         <v>17</v>
       </c>
       <c r="C342" s="104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D342" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="E342" s="105" t="s">
         <v>272</v>
-      </c>
-      <c r="E342" s="105" t="s">
-        <v>274</v>
       </c>
       <c r="F342" s="103">
         <v>1</v>
@@ -12308,16 +12326,16 @@
         <v>17</v>
       </c>
       <c r="C343" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F343" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G343" s="90">
         <v>45680</v>
@@ -12334,7 +12352,7 @@
         <v>17</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D344" s="21" t="s">
         <v>79</v>
@@ -12358,7 +12376,7 @@
         <v>17</v>
       </c>
       <c r="C345" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D345" s="21" t="s">
         <v>163</v>
@@ -12367,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="F345" s="30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G345" s="90"/>
       <c r="H345" s="94"/>
@@ -12382,7 +12400,7 @@
         <v>17</v>
       </c>
       <c r="C346" s="104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D346" s="104" t="s">
         <v>65</v>
@@ -12394,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="G346" s="90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H346" s="94">
         <v>45568</v>
@@ -12410,13 +12428,13 @@
         <v>17</v>
       </c>
       <c r="C347" s="104" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D347" s="104" t="s">
         <v>149</v>
       </c>
       <c r="E347" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F347" s="103">
         <v>4</v>
@@ -12438,16 +12456,16 @@
         <v>17</v>
       </c>
       <c r="C348" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F348" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G348" s="90">
         <v>45708</v>
@@ -12483,7 +12501,7 @@
       </c>
       <c r="F350" s="38">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G350" s="86"/>
       <c r="H350" s="93"/>
@@ -12568,7 +12586,7 @@
         <v>24</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H356" s="112">
         <v>45603</v>
@@ -12582,10 +12600,10 @@
       </c>
       <c r="C357" s="104"/>
       <c r="D357" s="104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E357" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F357" s="104">
         <v>22</v>
@@ -12608,10 +12626,10 @@
         <v>152</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F358" s="21">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G358" s="112">
         <v>45701</v>
@@ -12625,7 +12643,7 @@
         <v>14</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D359" s="21" t="s">
         <v>18</v>
@@ -12678,7 +12696,7 @@
         <v>16</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D362" s="21" t="s">
         <v>38</v>
@@ -12687,7 +12705,7 @@
         <v>26</v>
       </c>
       <c r="F362" s="30">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -12699,7 +12717,7 @@
         <v>16</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D363" s="21" t="s">
         <v>100</v>
@@ -12708,7 +12726,7 @@
         <v>7</v>
       </c>
       <c r="F363" s="30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G363" s="1"/>
       <c r="H363" s="112"/>
@@ -12732,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="G364" s="112" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H364" s="112">
         <v>45568</v>
@@ -12745,13 +12763,13 @@
         <v>16</v>
       </c>
       <c r="C365" s="120" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D365" s="104" t="s">
         <v>114</v>
       </c>
       <c r="E365" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F365" s="103">
         <v>0</v>
@@ -12770,16 +12788,16 @@
         <v>16</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D366" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F366" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G366" s="112">
         <v>45701</v>
@@ -12805,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H367" s="112">
         <v>45701</v>
@@ -12830,7 +12848,7 @@
         <v>3</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H368" s="112">
         <v>45701</v>
@@ -12843,16 +12861,16 @@
         <v>17</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F369" s="30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G369" s="112">
         <v>45701</v>
@@ -12866,16 +12884,16 @@
         <v>17</v>
       </c>
       <c r="C370" s="119" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D370" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F370" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G370" s="112">
         <v>45701</v>
@@ -12901,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H371" s="112">
         <v>45568</v>
@@ -12914,13 +12932,13 @@
         <v>17</v>
       </c>
       <c r="C372" s="120" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D372" s="104" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E372" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F372" s="103">
         <v>0</v>
@@ -12939,16 +12957,16 @@
         <v>17</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F373" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G373" s="112">
         <v>45701</v>
@@ -12971,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="F374" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
@@ -12995,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H375" s="112">
         <v>45568</v>
@@ -13008,16 +13026,16 @@
         <v>17</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E376" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F376" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G376" s="112">
         <v>45568</v>
@@ -13036,7 +13054,7 @@
       </c>
       <c r="F377" s="38">
         <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
@@ -13045,12 +13063,8 @@
     </row>
     <row r="380" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
-      <c r="C380" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="C380" s="3"/>
+      <c r="D380" s="3"/>
       <c r="E380" s="2"/>
       <c r="F380" s="1"/>
     </row>
@@ -13062,32 +13076,18 @@
       <c r="F381" s="4"/>
     </row>
     <row r="382" spans="2:10" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D382" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E382" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F382" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="6"/>
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
     </row>
     <row r="383" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B383" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="B383" s="12"/>
       <c r="C383" s="13"/>
       <c r="D383" s="12"/>
       <c r="E383" s="14"/>
-      <c r="F383" s="15">
-        <v>0</v>
-      </c>
+      <c r="F383" s="15"/>
     </row>
     <row r="384" spans="2:10" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="21"/>
@@ -13104,26 +13104,18 @@
       <c r="F385" s="21"/>
     </row>
     <row r="386" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="28" t="s">
-        <v>14</v>
-      </c>
+      <c r="B386" s="28"/>
       <c r="C386" s="28"/>
       <c r="D386" s="28"/>
       <c r="E386" s="29"/>
-      <c r="F386" s="30">
-        <v>0</v>
-      </c>
+      <c r="F386" s="30"/>
     </row>
     <row r="387" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="28" t="s">
-        <v>14</v>
-      </c>
+      <c r="B387" s="28"/>
       <c r="C387" s="28"/>
       <c r="D387" s="28"/>
       <c r="E387" s="29"/>
-      <c r="F387" s="30">
-        <v>0</v>
-      </c>
+      <c r="F387" s="30"/>
     </row>
     <row r="388" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="101"/>
@@ -13133,37 +13125,25 @@
       <c r="F388" s="30"/>
     </row>
     <row r="389" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="B389" s="28"/>
       <c r="C389" s="28"/>
       <c r="D389" s="28"/>
       <c r="E389" s="29"/>
-      <c r="F389" s="30">
-        <v>0</v>
-      </c>
+      <c r="F389" s="30"/>
     </row>
     <row r="390" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="B390" s="28"/>
       <c r="C390" s="28"/>
       <c r="D390" s="28"/>
       <c r="E390" s="29"/>
-      <c r="F390" s="30">
-        <v>0</v>
-      </c>
+      <c r="F390" s="30"/>
     </row>
     <row r="391" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="B391" s="28"/>
       <c r="C391" s="28"/>
       <c r="D391" s="28"/>
       <c r="E391" s="29"/>
-      <c r="F391" s="30">
-        <v>0</v>
-      </c>
+      <c r="F391" s="30"/>
     </row>
     <row r="392" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="28"/>
@@ -13180,59 +13160,39 @@
       <c r="F393" s="30"/>
     </row>
     <row r="394" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B394" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="D394" s="28"/>
       <c r="E394" s="29"/>
-      <c r="F394" s="30">
-        <v>0</v>
-      </c>
+      <c r="F394" s="30"/>
     </row>
     <row r="395" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="B395" s="28"/>
       <c r="C395" s="28"/>
       <c r="D395" s="28"/>
       <c r="E395" s="29"/>
-      <c r="F395" s="30">
-        <v>0</v>
-      </c>
+      <c r="F395" s="30"/>
     </row>
     <row r="396" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="B396" s="28"/>
       <c r="C396" s="28"/>
       <c r="D396" s="28"/>
       <c r="E396" s="29"/>
-      <c r="F396" s="30">
-        <v>0</v>
-      </c>
+      <c r="F396" s="30"/>
     </row>
     <row r="397" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="B397" s="28"/>
       <c r="C397" s="28"/>
       <c r="D397" s="28"/>
       <c r="E397" s="29"/>
-      <c r="F397" s="30">
-        <v>0</v>
-      </c>
+      <c r="F397" s="30"/>
     </row>
     <row r="398" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B398" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="B398" s="28"/>
       <c r="C398" s="28"/>
       <c r="D398" s="28"/>
       <c r="E398" s="29"/>
-      <c r="F398" s="30">
-        <v>0</v>
-      </c>
+      <c r="F398" s="30"/>
     </row>
     <row r="399" spans="2:6" ht="13.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28"/>
@@ -13273,14 +13233,8 @@
       <c r="B404" s="35"/>
       <c r="C404" s="35"/>
       <c r="D404" s="36"/>
-      <c r="E404" s="37">
-        <f>SUM(E383:E403)</f>
-        <v>0</v>
-      </c>
-      <c r="F404" s="38">
-        <f>SUM(F386:F403)-SUM(F383:F385)</f>
-        <v>0</v>
-      </c>
+      <c r="E404" s="37"/>
+      <c r="F404" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13313,8 +13267,8 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13378,7 +13332,7 @@
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -13432,19 +13386,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="E7" s="25">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F7" s="26">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G7" s="27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="44"/>
@@ -13457,19 +13411,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="E8" s="25">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F8" s="26">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G8" s="27">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="44"/>
@@ -13488,18 +13442,18 @@
         <v>97</v>
       </c>
       <c r="E9" s="25">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F9" s="26">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G9" s="27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9" s="55"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
@@ -13507,19 +13461,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="E10" s="25">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F10" s="26">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G10" s="27">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="44"/>
@@ -13532,19 +13486,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E11" s="25">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" s="26">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G11" s="27">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="44"/>
@@ -13557,19 +13511,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>75</v>
+        <v>187</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="E12" s="25">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F12" s="26">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G12" s="27">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="44"/>
@@ -13588,13 +13542,13 @@
         <v>88</v>
       </c>
       <c r="E13" s="25">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F13" s="26">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G13" s="27">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="44"/>
@@ -13613,13 +13567,13 @@
         <v>66</v>
       </c>
       <c r="E14" s="25">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F14" s="59">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G14" s="60">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="44"/>
@@ -13632,19 +13586,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="25">
         <v>37</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="25">
-        <v>33</v>
-      </c>
-      <c r="F15" s="59">
-        <v>65</v>
-      </c>
-      <c r="G15" s="60">
-        <v>32</v>
+      <c r="F15" s="26">
+        <v>97</v>
+      </c>
+      <c r="G15" s="27">
+        <v>60</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="44"/>
@@ -13657,24 +13611,24 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="E16" s="25">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16" s="26">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G16" s="27">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H16" s="55"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
@@ -13682,19 +13636,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E17" s="25">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F17" s="26">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G17" s="27">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="44"/>
@@ -13707,19 +13661,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E18" s="25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="59">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="44"/>
@@ -13734,17 +13688,17 @@
       <c r="C19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="58" t="s">
         <v>119</v>
       </c>
       <c r="E19" s="25">
-        <v>11</v>
-      </c>
-      <c r="F19" s="26">
-        <v>64</v>
-      </c>
-      <c r="G19" s="27">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="F19" s="59">
+        <v>82</v>
+      </c>
+      <c r="G19" s="60">
+        <v>63</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="44"/>
@@ -13763,13 +13717,13 @@
         <v>60</v>
       </c>
       <c r="E20" s="25">
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="F20" s="26">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G20" s="27">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="44"/>
@@ -13819,8 +13773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13835,7 +13789,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -13869,16 +13823,16 @@
         <v>118</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D4" s="67">
         <v>2</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G4" s="108">
         <v>0</v>
@@ -13892,7 +13846,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D5" s="67">
         <v>0</v>
@@ -13901,7 +13855,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G5" s="108">
         <v>-2</v>
@@ -13912,10 +13866,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D6" s="67">
         <v>0</v>
@@ -13924,7 +13878,7 @@
         <v>75</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G6" s="108">
         <v>0</v>
@@ -13938,7 +13892,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7" s="108">
         <v>1</v>
@@ -13947,7 +13901,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G7" s="67">
         <v>3</v>
@@ -13958,10 +13912,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D8" s="67">
         <v>3</v>
@@ -13970,7 +13924,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G8" s="108">
         <v>-1</v>
@@ -13984,7 +13938,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D9" s="108">
         <v>3</v>
@@ -13993,7 +13947,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" s="67">
         <v>4</v>
@@ -14027,7 +13981,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D12" s="67">
         <v>0</v>
@@ -14036,7 +13990,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G12" s="108">
         <v>0</v>
@@ -14050,7 +14004,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D13" s="67">
         <v>1</v>
@@ -14059,7 +14013,7 @@
         <v>88</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G13" s="67">
         <v>1</v>
@@ -14070,10 +14024,10 @@
         <v>57</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D14" s="67">
         <v>2</v>
@@ -14082,7 +14036,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G14" s="108">
         <v>1</v>
@@ -14093,10 +14047,10 @@
         <v>72</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D15" s="108">
         <v>0</v>
@@ -14105,7 +14059,7 @@
         <v>118</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G15" s="67">
         <v>3</v>
@@ -14139,7 +14093,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D18" s="108">
         <v>1</v>
@@ -14148,7 +14102,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G18" s="67">
         <v>2</v>
@@ -14184,23 +14138,47 @@
       <c r="A22" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="108"/>
+      <c r="B22" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="108">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="G22" s="67">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="108"/>
+      <c r="B23" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" s="67">
+        <v>1</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" s="108">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="68"/>
@@ -14224,12 +14202,24 @@
       <c r="A26" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="67"/>
+      <c r="B26" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="67">
+        <v>1</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="G26" s="108">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43"/>
@@ -14251,7 +14241,9 @@
       <c r="K28" s="106"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
+      <c r="B29" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
